--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -1783,6 +1783,18 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1810,44 +1822,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1888,90 +1867,48 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="101">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2256,6 +2193,62 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2282,13 +2275,6 @@
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2990,19 +2976,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="96" t="s">
+      <c r="B1" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="94" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="53">
@@ -3072,11 +3058,11 @@
       <c r="BN1" s="3"/>
     </row>
     <row r="2" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="97"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="91"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="54">
         <v>1</v>
       </c>
@@ -8690,12 +8676,12 @@
       <c r="BN78" s="46"/>
     </row>
     <row r="79" spans="1:66" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="92" t="s">
+      <c r="A79" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="93"/>
-      <c r="C79" s="93"/>
-      <c r="D79" s="93"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
       <c r="E79" s="10"/>
       <c r="F79" s="51">
         <f t="shared" ref="F79:AJ80" si="0">SUM(F4,F7,F10,F14,F18,F21,F24,F27,F30,F33,F36,F39,F42,F45,F48,F51,F54,F57,F60,F63,F66,F69,F72,F76)</f>
@@ -8943,12 +8929,12 @@
       </c>
     </row>
     <row r="80" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="94" t="s">
+      <c r="A80" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
       <c r="E80" s="11"/>
       <c r="F80" s="52">
         <f t="shared" si="0"/>
@@ -9350,8 +9336,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
+      <c r="A1" s="122"/>
+      <c r="B1" s="122"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
         <v>42397</v>
@@ -9368,74 +9354,74 @@
         <v>( 28日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="106" t="s">
+      <c r="O1" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="106" t="s">
+      <c r="V1" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="106" t="s">
+      <c r="AC1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="106" t="s">
+      <c r="AJ1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="106" t="s">
+      <c r="AQ1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="106"/>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
+      <c r="AT1" s="104"/>
+      <c r="AU1" s="104"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="106" t="s">
+      <c r="AX1" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="106"/>
-      <c r="AZ1" s="106"/>
-      <c r="BA1" s="106"/>
-      <c r="BB1" s="106"/>
+      <c r="AY1" s="104"/>
+      <c r="AZ1" s="104"/>
+      <c r="BA1" s="104"/>
+      <c r="BB1" s="104"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="106" t="s">
+      <c r="BE1" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="106"/>
-      <c r="BG1" s="106"/>
+      <c r="BF1" s="104"/>
+      <c r="BG1" s="104"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -9462,83 +9448,83 @@
       </c>
     </row>
     <row r="2" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="125"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="107">
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="103">
         <v>42005</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107">
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103">
         <v>42036</v>
       </c>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="107"/>
-      <c r="AH2" s="107"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="107"/>
-      <c r="AK2" s="107"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="107">
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="103"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103">
         <v>42064</v>
       </c>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="107"/>
-      <c r="AY2" s="107"/>
-      <c r="AZ2" s="107"/>
-      <c r="BA2" s="107"/>
-      <c r="BB2" s="107"/>
-      <c r="BC2" s="107"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="107"/>
-      <c r="BF2" s="107"/>
-      <c r="BG2" s="107"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
       <c r="BH2" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="59">
         <v>42394</v>
       </c>
@@ -9700,23 +9686,23 @@
       </c>
     </row>
     <row r="4" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="125"/>
-      <c r="B4" s="125" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="127" t="s">
+      <c r="C4" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="92" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="60" t="str">
@@ -9932,7 +9918,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="118" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10008,7 +9994,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10086,7 +10072,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10166,7 +10152,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="108"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
         <v>102</v>
@@ -10234,7 +10220,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="86"/>
       <c r="C9" s="87"/>
       <c r="D9" s="87"/>
@@ -10298,14 +10284,14 @@
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
       <c r="G10" s="68"/>
       <c r="H10" s="84"/>
       <c r="I10" s="84"/>
@@ -10366,13 +10352,13 @@
     <row r="11" spans="1:70" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -11533,13 +11519,13 @@
     <row r="28" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="117"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -15803,13 +15789,13 @@
     <row r="89" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="122" t="s">
+      <c r="C89" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="123"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="124"/>
+      <c r="D89" s="116"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="117"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -16488,14 +16474,14 @@
       </c>
     </row>
     <row r="99" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="118" t="s">
+      <c r="A99" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="118"/>
-      <c r="C99" s="118"/>
-      <c r="D99" s="118"/>
-      <c r="E99" s="118"/>
-      <c r="F99" s="119"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="112"/>
       <c r="G99" s="81"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
@@ -16556,13 +16542,13 @@
     <row r="100" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="99" t="s">
+      <c r="C100" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="100"/>
-      <c r="G100" s="101"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="124"/>
+      <c r="F100" s="124"/>
+      <c r="G100" s="125"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -17524,13 +17510,13 @@
     <row r="114" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A114" s="57"/>
       <c r="B114" s="67"/>
-      <c r="C114" s="99" t="s">
+      <c r="C114" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="101"/>
+      <c r="D114" s="124"/>
+      <c r="E114" s="124"/>
+      <c r="F114" s="124"/>
+      <c r="G114" s="125"/>
       <c r="H114" s="66"/>
       <c r="I114" s="66"/>
       <c r="J114" s="66"/>
@@ -21730,13 +21716,13 @@
     <row r="175" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A175" s="57"/>
       <c r="B175" s="67"/>
-      <c r="C175" s="99" t="s">
+      <c r="C175" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D175" s="100"/>
-      <c r="E175" s="100"/>
-      <c r="F175" s="100"/>
-      <c r="G175" s="101"/>
+      <c r="D175" s="124"/>
+      <c r="E175" s="124"/>
+      <c r="F175" s="124"/>
+      <c r="G175" s="125"/>
       <c r="H175" s="66"/>
       <c r="I175" s="66"/>
       <c r="J175" s="66"/>
@@ -22415,14 +22401,14 @@
       </c>
     </row>
     <row r="185" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="120" t="s">
+      <c r="A185" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="B185" s="120"/>
-      <c r="C185" s="120"/>
-      <c r="D185" s="120"/>
-      <c r="E185" s="120"/>
-      <c r="F185" s="121"/>
+      <c r="B185" s="113"/>
+      <c r="C185" s="113"/>
+      <c r="D185" s="113"/>
+      <c r="E185" s="113"/>
+      <c r="F185" s="114"/>
       <c r="G185" s="82"/>
       <c r="H185" s="66"/>
       <c r="I185" s="66"/>
@@ -22483,13 +22469,13 @@
     <row r="186" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A186" s="57"/>
       <c r="B186" s="67"/>
-      <c r="C186" s="102" t="s">
+      <c r="C186" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="D186" s="103"/>
-      <c r="E186" s="103"/>
-      <c r="F186" s="103"/>
-      <c r="G186" s="104"/>
+      <c r="D186" s="127"/>
+      <c r="E186" s="127"/>
+      <c r="F186" s="127"/>
+      <c r="G186" s="128"/>
       <c r="H186" s="66"/>
       <c r="I186" s="66"/>
       <c r="J186" s="66"/>
@@ -23730,13 +23716,13 @@
     <row r="203" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A203" s="57"/>
       <c r="B203" s="67"/>
-      <c r="C203" s="102" t="s">
+      <c r="C203" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D203" s="103"/>
-      <c r="E203" s="103"/>
-      <c r="F203" s="103"/>
-      <c r="G203" s="104"/>
+      <c r="D203" s="127"/>
+      <c r="E203" s="127"/>
+      <c r="F203" s="127"/>
+      <c r="G203" s="128"/>
       <c r="H203" s="66"/>
       <c r="I203" s="66"/>
       <c r="J203" s="66"/>
@@ -28622,14 +28608,14 @@
     </row>
     <row r="274" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A274" s="57"/>
-      <c r="B274" s="112" t="s">
+      <c r="B274" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="C274" s="113"/>
-      <c r="D274" s="113"/>
-      <c r="E274" s="113"/>
-      <c r="F274" s="113"/>
-      <c r="G274" s="114"/>
+      <c r="C274" s="106"/>
+      <c r="D274" s="106"/>
+      <c r="E274" s="106"/>
+      <c r="F274" s="106"/>
+      <c r="G274" s="107"/>
       <c r="H274" s="66">
         <f>SUM(H275:H279)</f>
         <v>5</v>
@@ -29854,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="66">
-        <f t="shared" ref="AN279:BS279" si="12">SUMIFS(AN12:AN273,$G12:$G273,"予定時間",$F12:$F273,"田中")+AN280</f>
+        <f t="shared" ref="AN279:BF279" si="12">SUMIFS(AN12:AN273,$G12:$G273,"予定時間",$F12:$F273,"田中")+AN280</f>
         <v>0</v>
       </c>
       <c r="AO279" s="66">
@@ -30155,14 +30141,14 @@
     </row>
     <row r="281" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="57"/>
-      <c r="B281" s="115" t="s">
+      <c r="B281" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C281" s="116"/>
-      <c r="D281" s="116"/>
-      <c r="E281" s="116"/>
-      <c r="F281" s="116"/>
-      <c r="G281" s="117"/>
+      <c r="C281" s="109"/>
+      <c r="D281" s="109"/>
+      <c r="E281" s="109"/>
+      <c r="F281" s="109"/>
+      <c r="G281" s="110"/>
       <c r="H281" s="66">
         <f>SUM(H282:H286)</f>
         <v>0</v>
@@ -31387,7 +31373,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="76">
-        <f t="shared" ref="AN286:BS286" si="25">SUMIFS(AN12:AN273,$G12:$G273,"実績時間",$F12:$F273,"田中")+AN287</f>
+        <f t="shared" ref="AN286:BF286" si="25">SUMIFS(AN12:AN273,$G12:$G273,"実績時間",$F12:$F273,"田中")+AN287</f>
         <v>0</v>
       </c>
       <c r="AO286" s="76">
@@ -31869,12 +31855,16 @@
   </sheetData>
   <autoFilter ref="A4:BG4"/>
   <mergeCells count="26">
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="B274:G274"/>
     <mergeCell ref="B281:G281"/>
     <mergeCell ref="A99:F99"/>
@@ -31882,295 +31872,291 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="C89:G89"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C114:G114"/>
     <mergeCell ref="C175:G175"/>
     <mergeCell ref="C186:G186"/>
     <mergeCell ref="C203:G203"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">
-    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="106" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="107" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG6:BG7">
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="104" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="105" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:BG3">
-    <cfRule type="cellIs" dxfId="98" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="103" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="97" priority="99">
+    <cfRule type="expression" dxfId="95" priority="99">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J24 J86:J92 J274:J287 J28:J82">
-    <cfRule type="expression" dxfId="96" priority="96">
+    <cfRule type="expression" dxfId="94" priority="96">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BF24 H86:BF92 H274:BF287 H28:BF82">
-    <cfRule type="expression" dxfId="95" priority="94">
+    <cfRule type="expression" dxfId="93" priority="94">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:BF24 K86:BF92 K274:BF287 K28:BF82">
-    <cfRule type="expression" dxfId="94" priority="92">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J85">
-    <cfRule type="expression" dxfId="93" priority="90">
+    <cfRule type="expression" dxfId="91" priority="90">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:BF85">
-    <cfRule type="expression" dxfId="92" priority="88">
+    <cfRule type="expression" dxfId="90" priority="88">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:BF85">
-    <cfRule type="expression" dxfId="91" priority="86">
+    <cfRule type="expression" dxfId="89" priority="86">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J95">
-    <cfRule type="expression" dxfId="90" priority="84">
+    <cfRule type="expression" dxfId="88" priority="84">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:BF95">
-    <cfRule type="expression" dxfId="89" priority="82">
+    <cfRule type="expression" dxfId="87" priority="82">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:BF95">
-    <cfRule type="expression" dxfId="88" priority="80">
+    <cfRule type="expression" dxfId="86" priority="80">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:J98">
-    <cfRule type="expression" dxfId="87" priority="78">
+    <cfRule type="expression" dxfId="85" priority="78">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:BF98">
-    <cfRule type="expression" dxfId="86" priority="76">
+    <cfRule type="expression" dxfId="84" priority="76">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96:BF98">
-    <cfRule type="expression" dxfId="85" priority="74">
+    <cfRule type="expression" dxfId="83" priority="74">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG99">
-    <cfRule type="cellIs" dxfId="84" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="72" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99:J168 J172:J178">
-    <cfRule type="expression" dxfId="82" priority="70">
+    <cfRule type="expression" dxfId="80" priority="70">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:BF168 H172:BF178">
-    <cfRule type="expression" dxfId="81" priority="68">
+    <cfRule type="expression" dxfId="79" priority="68">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:BF168 K172:BF178">
-    <cfRule type="expression" dxfId="80" priority="66">
+    <cfRule type="expression" dxfId="78" priority="66">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J169:J171">
-    <cfRule type="expression" dxfId="79" priority="64">
+    <cfRule type="expression" dxfId="77" priority="64">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H169:BF171">
-    <cfRule type="expression" dxfId="78" priority="62">
+    <cfRule type="expression" dxfId="76" priority="62">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K169:BF171">
-    <cfRule type="expression" dxfId="77" priority="60">
+    <cfRule type="expression" dxfId="75" priority="60">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J179:J181">
-    <cfRule type="expression" dxfId="76" priority="58">
+    <cfRule type="expression" dxfId="74" priority="58">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H179:BF181">
-    <cfRule type="expression" dxfId="75" priority="56">
+    <cfRule type="expression" dxfId="73" priority="56">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K179:BF181">
-    <cfRule type="expression" dxfId="74" priority="54">
+    <cfRule type="expression" dxfId="72" priority="54">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182:J184">
-    <cfRule type="expression" dxfId="73" priority="52">
+    <cfRule type="expression" dxfId="71" priority="52">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182:BF184">
-    <cfRule type="expression" dxfId="72" priority="50">
+    <cfRule type="expression" dxfId="70" priority="50">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K182:BF184">
-    <cfRule type="expression" dxfId="71" priority="48">
+    <cfRule type="expression" dxfId="69" priority="48">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG185">
-    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="45" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="46" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185:J199">
-    <cfRule type="expression" dxfId="68" priority="44">
+    <cfRule type="expression" dxfId="66" priority="44">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185:BF199 H261:I267 H203:I257 K203:BF257 K261:BF267">
-    <cfRule type="expression" dxfId="67" priority="42">
+    <cfRule type="expression" dxfId="65" priority="42">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K185:BF199 K261:BF267 K203:BF257">
-    <cfRule type="expression" dxfId="66" priority="40">
+    <cfRule type="expression" dxfId="64" priority="40">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H258:I260 K258:BF260">
-    <cfRule type="expression" dxfId="64" priority="36">
+    <cfRule type="expression" dxfId="63" priority="36">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K258:BF260">
-    <cfRule type="expression" dxfId="63" priority="34">
+    <cfRule type="expression" dxfId="62" priority="34">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J268:J270">
-    <cfRule type="expression" dxfId="62" priority="32">
+    <cfRule type="expression" dxfId="61" priority="32">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H268:BF270">
-    <cfRule type="expression" dxfId="61" priority="30">
+    <cfRule type="expression" dxfId="60" priority="30">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K268:BF270">
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="59" priority="28">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J271:J273">
-    <cfRule type="expression" dxfId="59" priority="26">
+    <cfRule type="expression" dxfId="58" priority="26">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H271:BF273">
-    <cfRule type="expression" dxfId="58" priority="24">
+    <cfRule type="expression" dxfId="57" priority="24">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K271:BF273">
-    <cfRule type="expression" dxfId="57" priority="22">
+    <cfRule type="expression" dxfId="56" priority="22">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J27">
-    <cfRule type="expression" dxfId="56" priority="20">
+    <cfRule type="expression" dxfId="55" priority="20">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:BF27">
-    <cfRule type="expression" dxfId="55" priority="18">
+    <cfRule type="expression" dxfId="54" priority="18">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BF27">
-    <cfRule type="expression" dxfId="54" priority="16">
+    <cfRule type="expression" dxfId="53" priority="16">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274:BF274">
-    <cfRule type="cellIs" dxfId="53" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275:BF279">
-    <cfRule type="cellIs" dxfId="52" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="13" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281:BF281">
-    <cfRule type="cellIs" dxfId="51" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H282:BF286">
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J200:J202">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="48" priority="10">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200:BF202">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="47" priority="8">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K200:BF202">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203:J267">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="45" priority="4">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203:J267">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="139">
   <si>
     <t>画面名称</t>
     <rPh sb="0" eb="2">
@@ -705,16 +705,6 @@
     <t>PT</t>
   </si>
   <si>
-    <t>技術調査</t>
-    <rPh sb="0" eb="2">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -948,6 +938,19 @@
     <t>2/1～２締め</t>
     <rPh sb="5" eb="6">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並行して実装開始</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1869,9 +1872,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1953,10 +1953,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1998,15 +2022,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2016,30 +2031,39 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="129">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2049,6 +2073,20 @@
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2075,6 +2113,20 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2425,6 +2477,48 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3214,19 +3308,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="100" t="s">
+      <c r="B1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="93" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="53">
@@ -3296,11 +3390,11 @@
       <c r="BN1" s="3"/>
     </row>
     <row r="2" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="95"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="54">
         <v>1</v>
       </c>
@@ -8914,12 +9008,12 @@
       <c r="BN78" s="46"/>
     </row>
     <row r="79" spans="1:66" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="96" t="s">
+      <c r="A79" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
       <c r="E79" s="10"/>
       <c r="F79" s="51">
         <f t="shared" ref="F79:AJ80" si="0">SUM(F4,F7,F10,F14,F18,F21,F24,F27,F30,F33,F36,F39,F42,F45,F48,F51,F54,F57,F60,F63,F66,F69,F72,F76)</f>
@@ -9167,12 +9261,12 @@
       </c>
     </row>
     <row r="80" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="98" t="s">
+      <c r="A80" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="99"/>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
+      <c r="B80" s="98"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="98"/>
       <c r="E80" s="11"/>
       <c r="F80" s="52">
         <f t="shared" si="0"/>
@@ -9497,7 +9591,7 @@
         <v>42405</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -9552,10 +9646,10 @@
   <dimension ref="A1:BR294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -9574,92 +9668,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="128"/>
-      <c r="B1" s="128"/>
+      <c r="A1" s="111"/>
+      <c r="B1" s="111"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
-        <v>42398</v>
+        <v>42401</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="82" t="str">
+      <c r="E1" s="81" t="str">
         <f ca="1">($BF$3-C1) &amp; "日"</f>
-        <v>46日</v>
-      </c>
-      <c r="F1" s="82" t="str">
+        <v>43日</v>
+      </c>
+      <c r="F1" s="81" t="str">
         <f ca="1">"( "&amp;NETWORKDAYS(C1,BF3,休日!A1:A9)&amp;"日 )"</f>
-        <v>( 27日 )</v>
+        <v>( 26日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="104" t="s">
+      <c r="O1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="104" t="s">
+      <c r="V1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="104" t="s">
+      <c r="AC1" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="104" t="s">
+      <c r="AJ1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="104"/>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="104" t="s">
+      <c r="AQ1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="104" t="s">
+      <c r="AX1" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="104"/>
-      <c r="AZ1" s="104"/>
-      <c r="BA1" s="104"/>
-      <c r="BB1" s="104"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="104" t="s">
+      <c r="BE1" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="104"/>
-      <c r="BG1" s="104"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -9686,13 +9780,13 @@
       </c>
     </row>
     <row r="2" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="103">
         <v>42005</v>
       </c>
@@ -9702,37 +9796,37 @@
       <c r="L2" s="103"/>
       <c r="M2" s="103"/>
       <c r="N2" s="103"/>
-      <c r="O2" s="103">
+      <c r="O2" s="128">
         <v>42036</v>
       </c>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="103"/>
-      <c r="AJ2" s="103"/>
-      <c r="AK2" s="103"/>
-      <c r="AL2" s="103"/>
-      <c r="AM2" s="103"/>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
       <c r="AR2" s="103">
         <v>42064</v>
       </c>
@@ -9756,13 +9850,13 @@
       </c>
     </row>
     <row r="3" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="59">
         <v>42394</v>
       </c>
@@ -9924,23 +10018,23 @@
       </c>
     </row>
     <row r="4" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="91" t="s">
+      <c r="G4" s="90" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="60" t="str">
@@ -10156,7 +10250,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="107" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10184,7 +10278,7 @@
         <v>97</v>
       </c>
       <c r="R5" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
@@ -10232,7 +10326,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="124"/>
+      <c r="A6" s="107"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10253,10 +10347,12 @@
       <c r="M6" s="66"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
+      <c r="Q6" s="66" t="s">
+        <v>138</v>
+      </c>
       <c r="R6" s="66"/>
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
@@ -10285,10 +10381,10 @@
       <c r="AO6" s="66"/>
       <c r="AP6" s="66"/>
       <c r="AQ6" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR6" s="66" t="s">
         <v>99</v>
-      </c>
-      <c r="AR6" s="66" t="s">
-        <v>100</v>
       </c>
       <c r="AS6" s="66"/>
       <c r="AT6" s="66"/>
@@ -10310,7 +10406,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="124"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10340,7 +10436,7 @@
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
@@ -10350,14 +10446,14 @@
       <c r="AD7" s="66"/>
       <c r="AE7" s="66"/>
       <c r="AF7" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG7" s="66"/>
       <c r="AH7" s="66"/>
       <c r="AI7" s="66"/>
       <c r="AJ7" s="66"/>
       <c r="AK7" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AL7" s="66"/>
       <c r="AM7" s="66"/>
@@ -10372,10 +10468,10 @@
       <c r="AV7" s="66"/>
       <c r="AW7" s="66"/>
       <c r="AX7" s="66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY7" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AZ7" s="66"/>
       <c r="BA7" s="66"/>
@@ -10390,10 +10486,10 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="124"/>
+      <c r="A8" s="107"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
@@ -10445,7 +10541,7 @@
       <c r="AY8" s="66"/>
       <c r="AZ8" s="66"/>
       <c r="BA8" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BB8" s="66"/>
       <c r="BC8" s="66"/>
@@ -10458,131 +10554,131 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="125"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="86"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="86"/>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="86"/>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="86"/>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="86"/>
-      <c r="BD9" s="86"/>
-      <c r="BE9" s="86"/>
-      <c r="BF9" s="86"/>
-      <c r="BG9" s="88"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="85"/>
+      <c r="W9" s="85"/>
+      <c r="X9" s="85"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="85"/>
+      <c r="AC9" s="85"/>
+      <c r="AD9" s="85"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="85"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="85"/>
+      <c r="AI9" s="85"/>
+      <c r="AJ9" s="85"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="85"/>
+      <c r="AM9" s="85"/>
+      <c r="AN9" s="85"/>
+      <c r="AO9" s="85"/>
+      <c r="AP9" s="85"/>
+      <c r="AQ9" s="85"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="85"/>
+      <c r="AY9" s="85"/>
+      <c r="AZ9" s="85"/>
+      <c r="BA9" s="85"/>
+      <c r="BB9" s="85"/>
+      <c r="BC9" s="85"/>
+      <c r="BD9" s="85"/>
+      <c r="BE9" s="85"/>
+      <c r="BF9" s="85"/>
+      <c r="BG9" s="87"/>
       <c r="BH9" s="64" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="83"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="83"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="83"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="83"/>
-      <c r="AO10" s="83"/>
-      <c r="AP10" s="83"/>
-      <c r="AQ10" s="83"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="83"/>
-      <c r="AT10" s="83"/>
-      <c r="AU10" s="83"/>
-      <c r="AV10" s="83"/>
-      <c r="AW10" s="83"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="83"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="83"/>
-      <c r="BB10" s="83"/>
-      <c r="BC10" s="83"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="83"/>
-      <c r="BG10" s="84"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="82"/>
+      <c r="BF10" s="82"/>
+      <c r="BG10" s="83"/>
       <c r="BH10" s="64" t="s">
         <v>44</v>
       </c>
@@ -10590,13 +10686,13 @@
     <row r="11" spans="1:70" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -11757,13 +11853,13 @@
     <row r="28" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="117"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -12214,7 +12310,7 @@
       </c>
       <c r="E34" s="66" t="str">
         <f>IF(MAX($H34:$BF34)=0,"",MAX($H34:$BF34)&amp;" %")</f>
-        <v>30 %</v>
+        <v>45 %</v>
       </c>
       <c r="F34" s="62"/>
       <c r="G34" s="73" t="s">
@@ -12230,7 +12326,9 @@
         <v>30</v>
       </c>
       <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
+      <c r="N34" s="66">
+        <v>45</v>
+      </c>
       <c r="O34" s="66"/>
       <c r="P34" s="66"/>
       <c r="Q34" s="66"/>
@@ -12444,7 +12542,7 @@
       </c>
       <c r="E37" s="66" t="str">
         <f>IF(MAX($H37:$BF37)=0,"",MAX($H37:$BF37)&amp;" %")</f>
-        <v>95 %</v>
+        <v>98 %</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="73" t="s">
@@ -12460,7 +12558,9 @@
         <v>95</v>
       </c>
       <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
+      <c r="N37" s="66">
+        <v>98</v>
+      </c>
       <c r="O37" s="66"/>
       <c r="P37" s="66"/>
       <c r="Q37" s="66"/>
@@ -12765,7 +12865,7 @@
         <v>3</v>
       </c>
       <c r="L41" s="66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -12904,7 +13004,7 @@
       </c>
       <c r="E43" s="66" t="str">
         <f>IF(MAX($H43:$BF43)=0,"",MAX($H43:$BF43)&amp;" %")</f>
-        <v>60 %</v>
+        <v>90 %</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="73" t="s">
@@ -12920,7 +13020,9 @@
         <v>60</v>
       </c>
       <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
+      <c r="N43" s="66">
+        <v>90</v>
+      </c>
       <c r="O43" s="66"/>
       <c r="P43" s="66"/>
       <c r="Q43" s="66"/>
@@ -12976,7 +13078,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" s="66"/>
       <c r="E44" s="66">
@@ -13206,7 +13308,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="66"/>
@@ -13422,7 +13524,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -13638,7 +13740,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="66"/>
       <c r="E53" s="66"/>
@@ -16155,13 +16257,13 @@
     <row r="89" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="115" t="s">
+      <c r="C89" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="116"/>
-      <c r="E89" s="116"/>
-      <c r="F89" s="116"/>
-      <c r="G89" s="117"/>
+      <c r="D89" s="123"/>
+      <c r="E89" s="123"/>
+      <c r="F89" s="123"/>
+      <c r="G89" s="124"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -16849,15 +16951,15 @@
       </c>
     </row>
     <row r="99" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="111" t="s">
+      <c r="A99" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="111"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="112"/>
-      <c r="G99" s="80"/>
+      <c r="B99" s="118"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="118"/>
+      <c r="F99" s="119"/>
+      <c r="G99" s="79"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
       <c r="J99" s="66"/>
@@ -16914,16 +17016,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="118" t="s">
+      <c r="C100" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="119"/>
-      <c r="E100" s="119"/>
-      <c r="F100" s="119"/>
-      <c r="G100" s="120"/>
+      <c r="D100" s="105"/>
+      <c r="E100" s="105"/>
+      <c r="F100" s="105"/>
+      <c r="G100" s="106"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -16980,7 +17082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="67">
         <v>1</v>
@@ -17007,7 +17109,9 @@
       </c>
       <c r="M101" s="66"/>
       <c r="N101" s="66"/>
-      <c r="O101" s="66"/>
+      <c r="O101" s="66">
+        <v>1</v>
+      </c>
       <c r="P101" s="66"/>
       <c r="Q101" s="66"/>
       <c r="R101" s="66"/>
@@ -17056,7 +17160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="67"/>
       <c r="C102" s="69"/>
@@ -17128,7 +17232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="67"/>
       <c r="C103" s="69"/>
@@ -17203,7 +17307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="67">
         <v>2</v>
@@ -17273,7 +17377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="67"/>
       <c r="C105" s="69"/>
@@ -17339,7 +17443,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="67"/>
       <c r="C106" s="69"/>
@@ -17410,7 +17514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="67">
         <v>3</v>
@@ -17480,7 +17584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="67"/>
       <c r="C108" s="69"/>
@@ -17546,7 +17650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="67"/>
       <c r="C109" s="69"/>
@@ -17617,7 +17721,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="67"/>
       <c r="C110" s="66" t="s">
@@ -17683,13 +17787,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A111" s="57"/>
       <c r="B111" s="67">
         <v>1</v>
       </c>
       <c r="C111" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D111" s="66"/>
       <c r="E111" s="66"/>
@@ -17706,7 +17810,9 @@
       <c r="L111" s="66"/>
       <c r="M111" s="66"/>
       <c r="N111" s="66"/>
-      <c r="O111" s="66"/>
+      <c r="O111" s="66">
+        <v>2</v>
+      </c>
       <c r="P111" s="66"/>
       <c r="Q111" s="66"/>
       <c r="R111" s="66"/>
@@ -17755,7 +17861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A112" s="57"/>
       <c r="B112" s="67"/>
       <c r="C112" s="69"/>
@@ -17823,7 +17929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A113" s="57"/>
       <c r="B113" s="67"/>
       <c r="C113" s="69"/>
@@ -17894,7 +18000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A114" s="57"/>
       <c r="B114" s="67">
         <v>2</v>
@@ -17962,7 +18068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A115" s="57"/>
       <c r="B115" s="67"/>
       <c r="C115" s="69"/>
@@ -18028,7 +18134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A116" s="57"/>
       <c r="B116" s="67"/>
       <c r="C116" s="69"/>
@@ -18099,16 +18205,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="118" t="s">
+      <c r="C117" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="119"/>
-      <c r="E117" s="119"/>
-      <c r="F117" s="119"/>
-      <c r="G117" s="120"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="106"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
@@ -18165,13 +18271,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A118" s="57"/>
       <c r="B118" s="67">
         <v>1</v>
       </c>
       <c r="C118" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D118" s="66"/>
       <c r="E118" s="66"/>
@@ -18235,11 +18341,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A119" s="57"/>
       <c r="B119" s="67"/>
       <c r="C119" s="69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
@@ -18303,7 +18409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A120" s="57"/>
       <c r="B120" s="67"/>
       <c r="C120" s="69"/>
@@ -18374,13 +18480,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A121" s="57"/>
       <c r="B121" s="67">
         <v>2</v>
       </c>
       <c r="C121" s="66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D121" s="66"/>
       <c r="E121" s="66"/>
@@ -18444,11 +18550,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A122" s="57"/>
       <c r="B122" s="67"/>
       <c r="C122" s="69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D122" s="66"/>
       <c r="E122" s="66"/>
@@ -18512,7 +18618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A123" s="57"/>
       <c r="B123" s="67"/>
       <c r="C123" s="69"/>
@@ -18583,13 +18689,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A124" s="57"/>
       <c r="B124" s="67">
         <v>3</v>
       </c>
       <c r="C124" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" s="66"/>
       <c r="E124" s="66"/>
@@ -18653,11 +18759,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A125" s="57"/>
       <c r="B125" s="67"/>
       <c r="C125" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125" s="66"/>
       <c r="E125" s="66"/>
@@ -18721,7 +18827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A126" s="57"/>
       <c r="B126" s="67"/>
       <c r="C126" s="69"/>
@@ -18792,13 +18898,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A127" s="57"/>
       <c r="B127" s="67">
         <v>4</v>
       </c>
       <c r="C127" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D127" s="66"/>
       <c r="E127" s="66"/>
@@ -18862,11 +18968,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A128" s="57"/>
       <c r="B128" s="67"/>
       <c r="C128" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" s="66"/>
       <c r="E128" s="66"/>
@@ -18930,7 +19036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A129" s="57"/>
       <c r="B129" s="67"/>
       <c r="C129" s="69"/>
@@ -19001,13 +19107,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A130" s="57"/>
       <c r="B130" s="67">
         <v>5</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D130" s="66"/>
       <c r="E130" s="66"/>
@@ -19071,11 +19177,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A131" s="57"/>
       <c r="B131" s="67"/>
       <c r="C131" s="69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D131" s="66"/>
       <c r="E131" s="66"/>
@@ -19139,7 +19245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A132" s="57"/>
       <c r="B132" s="67"/>
       <c r="C132" s="69"/>
@@ -19210,13 +19316,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A133" s="57"/>
       <c r="B133" s="67">
         <v>6</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D133" s="66"/>
       <c r="E133" s="66"/>
@@ -19280,7 +19386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A134" s="57"/>
       <c r="B134" s="67"/>
       <c r="C134" s="69"/>
@@ -19346,7 +19452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A135" s="57"/>
       <c r="B135" s="67"/>
       <c r="C135" s="69"/>
@@ -19417,13 +19523,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A136" s="57"/>
       <c r="B136" s="67">
         <v>7</v>
       </c>
       <c r="C136" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D136" s="66"/>
       <c r="E136" s="66"/>
@@ -19487,7 +19593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A137" s="57"/>
       <c r="B137" s="67"/>
       <c r="C137" s="69"/>
@@ -19553,7 +19659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A138" s="57"/>
       <c r="B138" s="67"/>
       <c r="C138" s="69"/>
@@ -19624,13 +19730,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A139" s="57"/>
       <c r="B139" s="67">
         <v>8</v>
       </c>
       <c r="C139" s="66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D139" s="66"/>
       <c r="E139" s="66"/>
@@ -19694,7 +19800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A140" s="57"/>
       <c r="B140" s="67"/>
       <c r="C140" s="69"/>
@@ -19760,7 +19866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A141" s="57"/>
       <c r="B141" s="67"/>
       <c r="C141" s="69"/>
@@ -19831,13 +19937,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A142" s="57"/>
       <c r="B142" s="67">
         <v>9</v>
       </c>
       <c r="C142" s="66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D142" s="66"/>
       <c r="E142" s="66"/>
@@ -19901,7 +20007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A143" s="57"/>
       <c r="B143" s="67"/>
       <c r="C143" s="69"/>
@@ -19967,7 +20073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A144" s="57"/>
       <c r="B144" s="67"/>
       <c r="C144" s="69"/>
@@ -20038,13 +20144,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A145" s="57"/>
       <c r="B145" s="67">
         <v>10</v>
       </c>
       <c r="C145" s="66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="66"/>
@@ -20108,7 +20214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A146" s="57"/>
       <c r="B146" s="67"/>
       <c r="C146" s="69"/>
@@ -20174,7 +20280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A147" s="57"/>
       <c r="B147" s="67"/>
       <c r="C147" s="69"/>
@@ -20245,13 +20351,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A148" s="57"/>
       <c r="B148" s="67">
         <v>11</v>
       </c>
       <c r="C148" s="66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D148" s="66"/>
       <c r="E148" s="66"/>
@@ -20315,7 +20421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A149" s="57"/>
       <c r="B149" s="67"/>
       <c r="C149" s="69"/>
@@ -20381,7 +20487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A150" s="57"/>
       <c r="B150" s="67"/>
       <c r="C150" s="69"/>
@@ -20452,13 +20558,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A151" s="57"/>
       <c r="B151" s="67">
         <v>12</v>
       </c>
       <c r="C151" s="66" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D151" s="66"/>
       <c r="E151" s="66"/>
@@ -20522,7 +20628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A152" s="57"/>
       <c r="B152" s="67"/>
       <c r="C152" s="69"/>
@@ -20588,7 +20694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A153" s="57"/>
       <c r="B153" s="67"/>
       <c r="C153" s="69"/>
@@ -20659,13 +20765,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A154" s="57"/>
       <c r="B154" s="67">
         <v>13</v>
       </c>
       <c r="C154" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D154" s="66"/>
       <c r="E154" s="66"/>
@@ -20729,7 +20835,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A155" s="57"/>
       <c r="B155" s="67"/>
       <c r="C155" s="69"/>
@@ -20795,7 +20901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A156" s="57"/>
       <c r="B156" s="67"/>
       <c r="C156" s="69"/>
@@ -20866,13 +20972,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A157" s="57"/>
       <c r="B157" s="67">
         <v>14</v>
       </c>
       <c r="C157" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D157" s="66"/>
       <c r="E157" s="66"/>
@@ -20936,7 +21042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A158" s="57"/>
       <c r="B158" s="67"/>
       <c r="C158" s="69"/>
@@ -21002,7 +21108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A159" s="57"/>
       <c r="B159" s="67"/>
       <c r="C159" s="69"/>
@@ -21073,13 +21179,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A160" s="57"/>
       <c r="B160" s="67">
         <v>15</v>
       </c>
       <c r="C160" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D160" s="66"/>
       <c r="E160" s="66"/>
@@ -21143,7 +21249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A161" s="57"/>
       <c r="B161" s="67"/>
       <c r="C161" s="69"/>
@@ -21209,7 +21315,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A162" s="57"/>
       <c r="B162" s="67"/>
       <c r="C162" s="69"/>
@@ -21280,13 +21386,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A163" s="57"/>
       <c r="B163" s="67">
         <v>16</v>
       </c>
       <c r="C163" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D163" s="66"/>
       <c r="E163" s="66"/>
@@ -21350,7 +21456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A164" s="57"/>
       <c r="B164" s="67"/>
       <c r="C164" s="69"/>
@@ -21416,7 +21522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A165" s="57"/>
       <c r="B165" s="67"/>
       <c r="C165" s="69"/>
@@ -21487,7 +21593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A166" s="57"/>
       <c r="B166" s="67">
         <v>17</v>
@@ -21557,7 +21663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A167" s="57"/>
       <c r="B167" s="67"/>
       <c r="C167" s="69"/>
@@ -21623,7 +21729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A168" s="57"/>
       <c r="B168" s="67"/>
       <c r="C168" s="69"/>
@@ -21694,7 +21800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A169" s="57"/>
       <c r="B169" s="67">
         <v>18</v>
@@ -21764,7 +21870,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A170" s="57"/>
       <c r="B170" s="67"/>
       <c r="C170" s="69"/>
@@ -21830,7 +21936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A171" s="57"/>
       <c r="B171" s="67"/>
       <c r="C171" s="69"/>
@@ -21901,7 +22007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A172" s="57"/>
       <c r="B172" s="67">
         <v>19</v>
@@ -21971,7 +22077,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A173" s="57"/>
       <c r="B173" s="67"/>
       <c r="C173" s="69"/>
@@ -22037,7 +22143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A174" s="57"/>
       <c r="B174" s="67"/>
       <c r="C174" s="69"/>
@@ -22108,7 +22214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A175" s="57"/>
       <c r="B175" s="67">
         <v>20</v>
@@ -22178,7 +22284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A176" s="57"/>
       <c r="B176" s="67"/>
       <c r="C176" s="69"/>
@@ -22244,7 +22350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A177" s="57"/>
       <c r="B177" s="67"/>
       <c r="C177" s="69"/>
@@ -22315,16 +22421,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
-      <c r="C178" s="118" t="s">
+      <c r="C178" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="119"/>
-      <c r="E178" s="119"/>
-      <c r="F178" s="119"/>
-      <c r="G178" s="120"/>
+      <c r="D178" s="105"/>
+      <c r="E178" s="105"/>
+      <c r="F178" s="105"/>
+      <c r="G178" s="106"/>
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
       <c r="J178" s="66"/>
@@ -22381,7 +22487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A179" s="57"/>
       <c r="B179" s="67">
         <v>1</v>
@@ -22451,7 +22557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A180" s="57"/>
       <c r="B180" s="67"/>
       <c r="C180" s="69"/>
@@ -22517,7 +22623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A181" s="57"/>
       <c r="B181" s="67"/>
       <c r="C181" s="69"/>
@@ -22588,7 +22694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A182" s="57"/>
       <c r="B182" s="67">
         <v>2</v>
@@ -22658,7 +22764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A183" s="57"/>
       <c r="B183" s="67"/>
       <c r="C183" s="69"/>
@@ -22724,7 +22830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A184" s="57"/>
       <c r="B184" s="67"/>
       <c r="C184" s="69"/>
@@ -22795,7 +22901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A185" s="57"/>
       <c r="B185" s="67">
         <v>3</v>
@@ -22865,7 +22971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A186" s="57"/>
       <c r="B186" s="67"/>
       <c r="C186" s="69"/>
@@ -22931,7 +23037,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A187" s="57"/>
       <c r="B187" s="67"/>
       <c r="C187" s="69"/>
@@ -23002,16 +23108,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="113" t="s">
+    <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="120" t="s">
         <v>83</v>
       </c>
-      <c r="B188" s="113"/>
-      <c r="C188" s="113"/>
-      <c r="D188" s="113"/>
-      <c r="E188" s="113"/>
-      <c r="F188" s="114"/>
-      <c r="G188" s="81"/>
+      <c r="B188" s="120"/>
+      <c r="C188" s="120"/>
+      <c r="D188" s="120"/>
+      <c r="E188" s="120"/>
+      <c r="F188" s="121"/>
+      <c r="G188" s="80"/>
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
       <c r="J188" s="66"/>
@@ -23068,16 +23174,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="57"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="121" t="s">
+      <c r="C189" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="122"/>
-      <c r="E189" s="122"/>
-      <c r="F189" s="122"/>
-      <c r="G189" s="123"/>
+      <c r="D189" s="126"/>
+      <c r="E189" s="126"/>
+      <c r="F189" s="126"/>
+      <c r="G189" s="127"/>
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
       <c r="J189" s="66"/>
@@ -23134,7 +23240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A190" s="57"/>
       <c r="B190" s="67">
         <v>1</v>
@@ -23228,7 +23334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A191" s="57"/>
       <c r="B191" s="67"/>
       <c r="C191" s="69"/>
@@ -23304,7 +23410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A192" s="57"/>
       <c r="B192" s="67"/>
       <c r="C192" s="69"/>
@@ -23375,7 +23481,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A193" s="57"/>
       <c r="B193" s="67">
         <v>2</v>
@@ -23385,7 +23491,7 @@
       </c>
       <c r="D193" s="66"/>
       <c r="E193" s="66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F193" s="62" t="s">
         <v>56</v>
@@ -23449,7 +23555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A194" s="57"/>
       <c r="B194" s="67"/>
       <c r="C194" s="69"/>
@@ -23517,7 +23623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A195" s="57"/>
       <c r="B195" s="67"/>
       <c r="C195" s="69"/>
@@ -23588,7 +23694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A196" s="57"/>
       <c r="B196" s="67">
         <v>3</v>
@@ -23658,7 +23764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A197" s="57"/>
       <c r="B197" s="67"/>
       <c r="C197" s="69"/>
@@ -23724,7 +23830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A198" s="57"/>
       <c r="B198" s="67"/>
       <c r="C198" s="69"/>
@@ -23795,7 +23901,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="199" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A199" s="57"/>
       <c r="B199" s="67"/>
       <c r="C199" s="66" t="s">
@@ -23861,7 +23967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A200" s="57"/>
       <c r="B200" s="67">
         <v>1</v>
@@ -23870,7 +23976,7 @@
         <v>86</v>
       </c>
       <c r="D200" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E200" s="66"/>
       <c r="F200" s="62" t="s">
@@ -23945,7 +24051,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A201" s="57"/>
       <c r="B201" s="67"/>
       <c r="C201" s="69"/>
@@ -23961,7 +24067,9 @@
       <c r="I201" s="66"/>
       <c r="J201" s="66"/>
       <c r="K201" s="66"/>
-      <c r="L201" s="66"/>
+      <c r="L201" s="66">
+        <v>0</v>
+      </c>
       <c r="M201" s="66"/>
       <c r="N201" s="66"/>
       <c r="O201" s="66"/>
@@ -24013,7 +24121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A202" s="57"/>
       <c r="B202" s="67"/>
       <c r="C202" s="69"/>
@@ -24084,7 +24192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A203" s="57"/>
       <c r="B203" s="67">
         <v>2</v>
@@ -24093,7 +24201,7 @@
         <v>86</v>
       </c>
       <c r="D203" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E203" s="66"/>
       <c r="F203" s="62" t="s">
@@ -24158,12 +24266,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A204" s="57"/>
       <c r="B204" s="67"/>
       <c r="C204" s="69"/>
       <c r="D204" s="66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E204" s="66"/>
       <c r="F204" s="62" t="s">
@@ -24228,7 +24336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A205" s="57"/>
       <c r="B205" s="67"/>
       <c r="C205" s="69"/>
@@ -24299,7 +24407,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A206" s="57"/>
       <c r="B206" s="67">
         <v>3</v>
@@ -24308,7 +24416,7 @@
         <v>86</v>
       </c>
       <c r="D206" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E206" s="66"/>
       <c r="F206" s="62" t="s">
@@ -24379,7 +24487,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A207" s="57"/>
       <c r="B207" s="67"/>
       <c r="C207" s="69"/>
@@ -24447,7 +24555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="208" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A208" s="57"/>
       <c r="B208" s="67"/>
       <c r="C208" s="69"/>
@@ -24518,16 +24626,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A209" s="57"/>
       <c r="B209" s="67"/>
-      <c r="C209" s="121" t="s">
+      <c r="C209" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D209" s="122"/>
-      <c r="E209" s="122"/>
-      <c r="F209" s="122"/>
-      <c r="G209" s="123"/>
+      <c r="D209" s="126"/>
+      <c r="E209" s="126"/>
+      <c r="F209" s="126"/>
+      <c r="G209" s="127"/>
       <c r="H209" s="66"/>
       <c r="I209" s="66"/>
       <c r="J209" s="66"/>
@@ -24584,7 +24692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A210" s="57"/>
       <c r="B210" s="67">
         <v>1</v>
@@ -24654,7 +24762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="211" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A211" s="57"/>
       <c r="B211" s="67"/>
       <c r="C211" s="69"/>
@@ -24720,7 +24828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A212" s="57"/>
       <c r="B212" s="67"/>
       <c r="C212" s="69"/>
@@ -24791,7 +24899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A213" s="57"/>
       <c r="B213" s="67">
         <v>2</v>
@@ -24861,7 +24969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A214" s="57"/>
       <c r="B214" s="67"/>
       <c r="C214" s="69"/>
@@ -24927,7 +25035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A215" s="57"/>
       <c r="B215" s="67"/>
       <c r="C215" s="69"/>
@@ -24998,7 +25106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="216" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A216" s="57"/>
       <c r="B216" s="67">
         <v>3</v>
@@ -25068,7 +25176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A217" s="57"/>
       <c r="B217" s="67"/>
       <c r="C217" s="69"/>
@@ -25134,7 +25242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="218" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A218" s="57"/>
       <c r="B218" s="67"/>
       <c r="C218" s="69"/>
@@ -25205,7 +25313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A219" s="57"/>
       <c r="B219" s="67">
         <v>4</v>
@@ -25275,7 +25383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A220" s="57"/>
       <c r="B220" s="67"/>
       <c r="C220" s="69"/>
@@ -25341,7 +25449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="221" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A221" s="57"/>
       <c r="B221" s="67"/>
       <c r="C221" s="69"/>
@@ -25412,7 +25520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A222" s="57"/>
       <c r="B222" s="67">
         <v>5</v>
@@ -25482,7 +25590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A223" s="57"/>
       <c r="B223" s="67"/>
       <c r="C223" s="69"/>
@@ -25548,7 +25656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A224" s="57"/>
       <c r="B224" s="67"/>
       <c r="C224" s="69"/>
@@ -25619,7 +25727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A225" s="57"/>
       <c r="B225" s="67">
         <v>6</v>
@@ -25689,7 +25797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A226" s="57"/>
       <c r="B226" s="67"/>
       <c r="C226" s="69"/>
@@ -25755,7 +25863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A227" s="57"/>
       <c r="B227" s="67"/>
       <c r="C227" s="69"/>
@@ -25826,7 +25934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A228" s="57"/>
       <c r="B228" s="67">
         <v>7</v>
@@ -25896,7 +26004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A229" s="57"/>
       <c r="B229" s="67"/>
       <c r="C229" s="69"/>
@@ -25962,7 +26070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A230" s="57"/>
       <c r="B230" s="67"/>
       <c r="C230" s="69"/>
@@ -26033,7 +26141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A231" s="57"/>
       <c r="B231" s="67">
         <v>8</v>
@@ -26103,7 +26211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A232" s="57"/>
       <c r="B232" s="67"/>
       <c r="C232" s="69"/>
@@ -26169,7 +26277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A233" s="57"/>
       <c r="B233" s="67"/>
       <c r="C233" s="69"/>
@@ -26240,7 +26348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="234" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A234" s="57"/>
       <c r="B234" s="67">
         <v>9</v>
@@ -26310,7 +26418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A235" s="57"/>
       <c r="B235" s="67"/>
       <c r="C235" s="69"/>
@@ -26376,7 +26484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A236" s="57"/>
       <c r="B236" s="67"/>
       <c r="C236" s="69"/>
@@ -26447,7 +26555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="237" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A237" s="57"/>
       <c r="B237" s="67">
         <v>10</v>
@@ -26517,7 +26625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A238" s="57"/>
       <c r="B238" s="67"/>
       <c r="C238" s="69"/>
@@ -26583,7 +26691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A239" s="57"/>
       <c r="B239" s="67"/>
       <c r="C239" s="69"/>
@@ -26654,7 +26762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A240" s="57"/>
       <c r="B240" s="67">
         <v>11</v>
@@ -26724,7 +26832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A241" s="57"/>
       <c r="B241" s="67"/>
       <c r="C241" s="69"/>
@@ -26790,7 +26898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A242" s="57"/>
       <c r="B242" s="67"/>
       <c r="C242" s="69"/>
@@ -26861,7 +26969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A243" s="57"/>
       <c r="B243" s="67">
         <v>12</v>
@@ -26931,7 +27039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A244" s="57"/>
       <c r="B244" s="67"/>
       <c r="C244" s="69"/>
@@ -26997,7 +27105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A245" s="57"/>
       <c r="B245" s="67"/>
       <c r="C245" s="69"/>
@@ -27068,7 +27176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="246" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A246" s="57"/>
       <c r="B246" s="67">
         <v>13</v>
@@ -27138,7 +27246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A247" s="57"/>
       <c r="B247" s="67"/>
       <c r="C247" s="69"/>
@@ -27204,7 +27312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="248" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A248" s="57"/>
       <c r="B248" s="67"/>
       <c r="C248" s="69"/>
@@ -27275,7 +27383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A249" s="57"/>
       <c r="B249" s="67">
         <v>14</v>
@@ -27345,7 +27453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="250" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A250" s="57"/>
       <c r="B250" s="67"/>
       <c r="C250" s="69"/>
@@ -27411,7 +27519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A251" s="57"/>
       <c r="B251" s="67"/>
       <c r="C251" s="69"/>
@@ -27482,7 +27590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A252" s="57"/>
       <c r="B252" s="67">
         <v>15</v>
@@ -27552,7 +27660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A253" s="57"/>
       <c r="B253" s="67"/>
       <c r="C253" s="69"/>
@@ -27618,7 +27726,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A254" s="57"/>
       <c r="B254" s="67"/>
       <c r="C254" s="69"/>
@@ -27689,7 +27797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A255" s="57"/>
       <c r="B255" s="67">
         <v>16</v>
@@ -27759,7 +27867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A256" s="57"/>
       <c r="B256" s="67"/>
       <c r="C256" s="69"/>
@@ -27825,7 +27933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="257" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A257" s="57"/>
       <c r="B257" s="67"/>
       <c r="C257" s="69"/>
@@ -27896,7 +28004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A258" s="57"/>
       <c r="B258" s="67">
         <v>17</v>
@@ -27966,7 +28074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="259" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A259" s="57"/>
       <c r="B259" s="67"/>
       <c r="C259" s="69"/>
@@ -28032,7 +28140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="260" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A260" s="57"/>
       <c r="B260" s="67"/>
       <c r="C260" s="69"/>
@@ -28103,7 +28211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="261" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A261" s="57"/>
       <c r="B261" s="67">
         <v>18</v>
@@ -28173,7 +28281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="262" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A262" s="57"/>
       <c r="B262" s="67"/>
       <c r="C262" s="69"/>
@@ -28239,7 +28347,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="263" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A263" s="57"/>
       <c r="B263" s="67"/>
       <c r="C263" s="69"/>
@@ -28310,7 +28418,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A264" s="57"/>
       <c r="B264" s="67">
         <v>19</v>
@@ -28380,7 +28488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A265" s="57"/>
       <c r="B265" s="67"/>
       <c r="C265" s="69"/>
@@ -28446,7 +28554,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="266" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A266" s="57"/>
       <c r="B266" s="67"/>
       <c r="C266" s="69"/>
@@ -28517,7 +28625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A267" s="57"/>
       <c r="B267" s="67">
         <v>20</v>
@@ -28587,7 +28695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="268" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A268" s="57"/>
       <c r="B268" s="67"/>
       <c r="C268" s="69"/>
@@ -28653,7 +28761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A269" s="57"/>
       <c r="B269" s="67"/>
       <c r="C269" s="69"/>
@@ -28724,7 +28832,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A270" s="57"/>
       <c r="B270" s="67"/>
       <c r="C270" s="66" t="s">
@@ -28790,7 +28898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A271" s="57"/>
       <c r="B271" s="67">
         <v>1</v>
@@ -28860,7 +28968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="272" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A272" s="57"/>
       <c r="B272" s="67"/>
       <c r="C272" s="69"/>
@@ -28926,7 +29034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="273" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A273" s="57"/>
       <c r="B273" s="67"/>
       <c r="C273" s="69"/>
@@ -28997,7 +29105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="274" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A274" s="57"/>
       <c r="B274" s="67">
         <v>2</v>
@@ -29067,7 +29175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="275" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A275" s="57"/>
       <c r="B275" s="67"/>
       <c r="C275" s="69"/>
@@ -29133,7 +29241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A276" s="57"/>
       <c r="B276" s="67"/>
       <c r="C276" s="69"/>
@@ -29204,7 +29312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="277" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A277" s="57"/>
       <c r="B277" s="67">
         <v>3</v>
@@ -29274,7 +29382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="278" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A278" s="57"/>
       <c r="B278" s="67"/>
       <c r="C278" s="69"/>
@@ -29340,7 +29448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="279" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A279" s="57"/>
       <c r="B279" s="67"/>
       <c r="C279" s="69"/>
@@ -29411,16 +29519,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="57"/>
-      <c r="B280" s="105" t="s">
+      <c r="B280" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="C280" s="106"/>
-      <c r="D280" s="106"/>
-      <c r="E280" s="106"/>
-      <c r="F280" s="106"/>
-      <c r="G280" s="107"/>
+      <c r="C280" s="113"/>
+      <c r="D280" s="113"/>
+      <c r="E280" s="113"/>
+      <c r="F280" s="113"/>
+      <c r="G280" s="114"/>
       <c r="H280" s="66">
         <f>SUM(H281:H285)</f>
         <v>5</v>
@@ -29439,7 +29547,7 @@
       </c>
       <c r="L280" s="66">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M280" s="66">
         <f t="shared" si="2"/>
@@ -29451,7 +29559,7 @@
       </c>
       <c r="O280" s="66">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P280" s="66">
         <f t="shared" si="2"/>
@@ -29632,11 +29740,11 @@
     </row>
     <row r="281" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="57"/>
-      <c r="B281" s="77"/>
-      <c r="C281" s="77"/>
-      <c r="D281" s="77"/>
-      <c r="E281" s="77"/>
-      <c r="F281" s="78"/>
+      <c r="B281" s="76"/>
+      <c r="C281" s="76"/>
+      <c r="D281" s="76"/>
+      <c r="E281" s="76"/>
+      <c r="F281" s="77"/>
       <c r="G281" s="62" t="s">
         <v>74</v>
       </c>
@@ -29658,7 +29766,7 @@
       </c>
       <c r="L281" s="66">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M281" s="66">
         <f t="shared" si="3"/>
@@ -29670,7 +29778,7 @@
       </c>
       <c r="O281" s="66">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P281" s="66">
         <f t="shared" si="3"/>
@@ -29851,11 +29959,11 @@
     </row>
     <row r="282" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="57"/>
-      <c r="B282" s="77"/>
-      <c r="C282" s="77"/>
-      <c r="D282" s="77"/>
-      <c r="E282" s="77"/>
-      <c r="F282" s="78"/>
+      <c r="B282" s="76"/>
+      <c r="C282" s="76"/>
+      <c r="D282" s="76"/>
+      <c r="E282" s="76"/>
+      <c r="F282" s="77"/>
       <c r="G282" s="62" t="s">
         <v>75</v>
       </c>
@@ -30070,11 +30178,11 @@
     </row>
     <row r="283" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="57"/>
-      <c r="B283" s="77"/>
-      <c r="C283" s="77"/>
-      <c r="D283" s="77"/>
-      <c r="E283" s="77"/>
-      <c r="F283" s="78"/>
+      <c r="B283" s="76"/>
+      <c r="C283" s="76"/>
+      <c r="D283" s="76"/>
+      <c r="E283" s="76"/>
+      <c r="F283" s="77"/>
       <c r="G283" s="62" t="s">
         <v>76</v>
       </c>
@@ -30289,11 +30397,11 @@
     </row>
     <row r="284" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="57"/>
-      <c r="B284" s="77"/>
-      <c r="C284" s="77"/>
-      <c r="D284" s="77"/>
-      <c r="E284" s="77"/>
-      <c r="F284" s="78"/>
+      <c r="B284" s="76"/>
+      <c r="C284" s="76"/>
+      <c r="D284" s="76"/>
+      <c r="E284" s="76"/>
+      <c r="F284" s="77"/>
       <c r="G284" s="62" t="s">
         <v>77</v>
       </c>
@@ -30508,11 +30616,11 @@
     </row>
     <row r="285" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="57"/>
-      <c r="B285" s="77"/>
-      <c r="C285" s="77"/>
-      <c r="D285" s="77"/>
-      <c r="E285" s="77"/>
-      <c r="F285" s="78"/>
+      <c r="B285" s="76"/>
+      <c r="C285" s="76"/>
+      <c r="D285" s="76"/>
+      <c r="E285" s="76"/>
+      <c r="F285" s="77"/>
       <c r="G285" s="62" t="s">
         <v>78</v>
       </c>
@@ -30727,11 +30835,11 @@
     </row>
     <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="57"/>
-      <c r="B286" s="77"/>
-      <c r="C286" s="77"/>
-      <c r="D286" s="77"/>
-      <c r="E286" s="77"/>
-      <c r="F286" s="78"/>
+      <c r="B286" s="76"/>
+      <c r="C286" s="76"/>
+      <c r="D286" s="76"/>
+      <c r="E286" s="76"/>
+      <c r="F286" s="77"/>
       <c r="G286" s="62" t="s">
         <v>95</v>
       </c>
@@ -30946,14 +31054,14 @@
     </row>
     <row r="287" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="57"/>
-      <c r="B287" s="108" t="s">
+      <c r="B287" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C287" s="109"/>
-      <c r="D287" s="109"/>
-      <c r="E287" s="109"/>
-      <c r="F287" s="109"/>
-      <c r="G287" s="110"/>
+      <c r="C287" s="116"/>
+      <c r="D287" s="116"/>
+      <c r="E287" s="116"/>
+      <c r="F287" s="116"/>
+      <c r="G287" s="117"/>
       <c r="H287" s="66">
         <f>SUM(H288:H292)</f>
         <v>5</v>
@@ -31165,1314 +31273,1314 @@
     </row>
     <row r="288" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="57"/>
-      <c r="B288" s="79"/>
-      <c r="C288" s="79"/>
-      <c r="D288" s="79"/>
-      <c r="E288" s="79"/>
-      <c r="F288" s="79"/>
+      <c r="B288" s="78"/>
+      <c r="C288" s="78"/>
+      <c r="D288" s="78"/>
+      <c r="E288" s="78"/>
+      <c r="F288" s="78"/>
       <c r="G288" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="H288" s="75">
+      <c r="H288" s="66">
         <f t="shared" ref="H288:AM288" si="16">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"今井")+H293</f>
         <v>1</v>
       </c>
-      <c r="I288" s="75">
+      <c r="I288" s="66">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="J288" s="75">
+      <c r="J288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K288" s="75">
+      <c r="K288" s="66">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="L288" s="75">
+      <c r="L288" s="66">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="M288" s="75">
+      <c r="M288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N288" s="75">
+      <c r="N288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O288" s="75">
+      <c r="O288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P288" s="75">
+      <c r="P288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q288" s="75">
+      <c r="Q288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R288" s="75">
+      <c r="R288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S288" s="75">
+      <c r="S288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T288" s="75">
+      <c r="T288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U288" s="75">
+      <c r="U288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="V288" s="75">
+      <c r="V288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="W288" s="75">
+      <c r="W288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="X288" s="75">
+      <c r="X288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Y288" s="75">
+      <c r="Y288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Z288" s="75">
+      <c r="Z288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AA288" s="75">
+      <c r="AA288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AB288" s="75">
+      <c r="AB288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AC288" s="75">
+      <c r="AC288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD288" s="75">
+      <c r="AD288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AE288" s="75">
+      <c r="AE288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AF288" s="75">
+      <c r="AF288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AG288" s="75">
+      <c r="AG288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AH288" s="75">
+      <c r="AH288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AI288" s="75">
+      <c r="AI288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AJ288" s="75">
+      <c r="AJ288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AK288" s="75">
+      <c r="AK288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AL288" s="75">
+      <c r="AL288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AM288" s="75">
+      <c r="AM288" s="66">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AN288" s="75">
+      <c r="AN288" s="66">
         <f t="shared" ref="AN288:BF288" si="17">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"今井")+AN293</f>
         <v>0</v>
       </c>
-      <c r="AO288" s="75">
+      <c r="AO288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AP288" s="75">
+      <c r="AP288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AQ288" s="75">
+      <c r="AQ288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AR288" s="75">
+      <c r="AR288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AS288" s="75">
+      <c r="AS288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AT288" s="75">
+      <c r="AT288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AU288" s="75">
+      <c r="AU288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AV288" s="75">
+      <c r="AV288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AW288" s="75">
+      <c r="AW288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AX288" s="75">
+      <c r="AX288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AY288" s="75">
+      <c r="AY288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AZ288" s="75">
+      <c r="AZ288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BA288" s="75">
+      <c r="BA288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BB288" s="75">
+      <c r="BB288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BC288" s="75">
+      <c r="BC288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BD288" s="75">
+      <c r="BD288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BE288" s="75">
+      <c r="BE288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BF288" s="75">
+      <c r="BF288" s="66">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="BG288" s="76"/>
+      <c r="BG288" s="75"/>
       <c r="BH288" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="289" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="57"/>
-      <c r="B289" s="79"/>
-      <c r="C289" s="79"/>
-      <c r="D289" s="79"/>
-      <c r="E289" s="79"/>
-      <c r="F289" s="79"/>
+      <c r="B289" s="78"/>
+      <c r="C289" s="78"/>
+      <c r="D289" s="78"/>
+      <c r="E289" s="78"/>
+      <c r="F289" s="78"/>
       <c r="G289" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="H289" s="75">
+      <c r="H289" s="66">
         <f t="shared" ref="H289:AM289" si="18">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"浦島")+H293</f>
         <v>1</v>
       </c>
-      <c r="I289" s="75">
+      <c r="I289" s="66">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="J289" s="75">
+      <c r="J289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K289" s="75">
+      <c r="K289" s="66">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="L289" s="75">
+      <c r="L289" s="66">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="M289" s="75">
+      <c r="M289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="N289" s="75">
+      <c r="N289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="O289" s="75">
+      <c r="O289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="P289" s="75">
+      <c r="P289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Q289" s="75">
+      <c r="Q289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="R289" s="75">
+      <c r="R289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S289" s="75">
+      <c r="S289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T289" s="75">
+      <c r="T289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U289" s="75">
+      <c r="U289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V289" s="75">
+      <c r="V289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="W289" s="75">
+      <c r="W289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X289" s="75">
+      <c r="X289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Y289" s="75">
+      <c r="Y289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="Z289" s="75">
+      <c r="Z289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AA289" s="75">
+      <c r="AA289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AB289" s="75">
+      <c r="AB289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AC289" s="75">
+      <c r="AC289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD289" s="75">
+      <c r="AD289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE289" s="75">
+      <c r="AE289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AF289" s="75">
+      <c r="AF289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AG289" s="75">
+      <c r="AG289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AH289" s="75">
+      <c r="AH289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AI289" s="75">
+      <c r="AI289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AJ289" s="75">
+      <c r="AJ289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AK289" s="75">
+      <c r="AK289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AL289" s="75">
+      <c r="AL289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AM289" s="75">
+      <c r="AM289" s="66">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AN289" s="75">
+      <c r="AN289" s="66">
         <f t="shared" ref="AN289:BF289" si="19">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"浦島")+AN293</f>
         <v>0</v>
       </c>
-      <c r="AO289" s="75">
+      <c r="AO289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AP289" s="75">
+      <c r="AP289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AQ289" s="75">
+      <c r="AQ289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AR289" s="75">
+      <c r="AR289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AS289" s="75">
+      <c r="AS289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AT289" s="75">
+      <c r="AT289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AU289" s="75">
+      <c r="AU289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AV289" s="75">
+      <c r="AV289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AW289" s="75">
+      <c r="AW289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AX289" s="75">
+      <c r="AX289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AY289" s="75">
+      <c r="AY289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="AZ289" s="75">
+      <c r="AZ289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BA289" s="75">
+      <c r="BA289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BB289" s="75">
+      <c r="BB289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BC289" s="75">
+      <c r="BC289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BD289" s="75">
+      <c r="BD289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BE289" s="75">
+      <c r="BE289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BF289" s="75">
+      <c r="BF289" s="66">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="BG289" s="76"/>
+      <c r="BG289" s="75"/>
       <c r="BH289" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="290" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="57"/>
-      <c r="B290" s="79"/>
-      <c r="C290" s="79"/>
-      <c r="D290" s="79"/>
-      <c r="E290" s="79"/>
-      <c r="F290" s="79"/>
+      <c r="B290" s="78"/>
+      <c r="C290" s="78"/>
+      <c r="D290" s="78"/>
+      <c r="E290" s="78"/>
+      <c r="F290" s="78"/>
       <c r="G290" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="H290" s="75">
+      <c r="H290" s="66">
         <f t="shared" ref="H290:AM290" si="20">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"河野")+H293</f>
         <v>1</v>
       </c>
-      <c r="I290" s="75">
+      <c r="I290" s="66">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="J290" s="75">
+      <c r="J290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K290" s="75">
+      <c r="K290" s="66">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
-      <c r="L290" s="75">
+      <c r="L290" s="66">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="M290" s="75">
+      <c r="M290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N290" s="75">
+      <c r="N290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O290" s="75">
+      <c r="O290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P290" s="75">
+      <c r="P290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q290" s="75">
+      <c r="Q290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R290" s="75">
+      <c r="R290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S290" s="75">
+      <c r="S290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T290" s="75">
+      <c r="T290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U290" s="75">
+      <c r="U290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V290" s="75">
+      <c r="V290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W290" s="75">
+      <c r="W290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="X290" s="75">
+      <c r="X290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y290" s="75">
+      <c r="Y290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z290" s="75">
+      <c r="Z290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA290" s="75">
+      <c r="AA290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB290" s="75">
+      <c r="AB290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC290" s="75">
+      <c r="AC290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD290" s="75">
+      <c r="AD290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE290" s="75">
+      <c r="AE290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF290" s="75">
+      <c r="AF290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AG290" s="75">
+      <c r="AG290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AH290" s="75">
+      <c r="AH290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AI290" s="75">
+      <c r="AI290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AJ290" s="75">
+      <c r="AJ290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AK290" s="75">
+      <c r="AK290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AL290" s="75">
+      <c r="AL290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AM290" s="75">
+      <c r="AM290" s="66">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AN290" s="75">
+      <c r="AN290" s="66">
         <f t="shared" ref="AN290:BF290" si="21">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"河野")+AN293</f>
         <v>0</v>
       </c>
-      <c r="AO290" s="75">
+      <c r="AO290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AP290" s="75">
+      <c r="AP290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AQ290" s="75">
+      <c r="AQ290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AR290" s="75">
+      <c r="AR290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AS290" s="75">
+      <c r="AS290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AT290" s="75">
+      <c r="AT290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AU290" s="75">
+      <c r="AU290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AV290" s="75">
+      <c r="AV290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AW290" s="75">
+      <c r="AW290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AX290" s="75">
+      <c r="AX290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AY290" s="75">
+      <c r="AY290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AZ290" s="75">
+      <c r="AZ290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BA290" s="75">
+      <c r="BA290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BB290" s="75">
+      <c r="BB290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BC290" s="75">
+      <c r="BC290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BD290" s="75">
+      <c r="BD290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BE290" s="75">
+      <c r="BE290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BF290" s="75">
+      <c r="BF290" s="66">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BG290" s="76"/>
+      <c r="BG290" s="75"/>
       <c r="BH290" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="291" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="57"/>
-      <c r="B291" s="79"/>
-      <c r="C291" s="79"/>
-      <c r="D291" s="79"/>
-      <c r="E291" s="79"/>
-      <c r="F291" s="79"/>
+      <c r="B291" s="78"/>
+      <c r="C291" s="78"/>
+      <c r="D291" s="78"/>
+      <c r="E291" s="78"/>
+      <c r="F291" s="78"/>
       <c r="G291" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="H291" s="75">
+      <c r="H291" s="66">
         <f t="shared" ref="H291:AM291" si="22">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"堀川")+H293</f>
         <v>1</v>
       </c>
-      <c r="I291" s="75">
+      <c r="I291" s="66">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="J291" s="75">
+      <c r="J291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K291" s="75">
+      <c r="K291" s="66">
         <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="L291" s="75">
+      <c r="L291" s="66">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="M291" s="75">
+      <c r="M291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N291" s="75">
+      <c r="N291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O291" s="75">
+      <c r="O291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P291" s="75">
+      <c r="P291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q291" s="75">
+      <c r="Q291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R291" s="75">
+      <c r="R291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S291" s="75">
+      <c r="S291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T291" s="75">
+      <c r="T291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="U291" s="75">
+      <c r="U291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="V291" s="75">
+      <c r="V291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="W291" s="75">
+      <c r="W291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X291" s="75">
+      <c r="X291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y291" s="75">
+      <c r="Y291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Z291" s="75">
+      <c r="Z291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AA291" s="75">
+      <c r="AA291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AB291" s="75">
+      <c r="AB291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AC291" s="75">
+      <c r="AC291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AD291" s="75">
+      <c r="AD291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE291" s="75">
+      <c r="AE291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AF291" s="75">
+      <c r="AF291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AG291" s="75">
+      <c r="AG291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AH291" s="75">
+      <c r="AH291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AI291" s="75">
+      <c r="AI291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AJ291" s="75">
+      <c r="AJ291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AK291" s="75">
+      <c r="AK291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL291" s="75">
+      <c r="AL291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AM291" s="75">
+      <c r="AM291" s="66">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AN291" s="75">
+      <c r="AN291" s="66">
         <f t="shared" ref="AN291:BF291" si="23">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"堀川")+AN293</f>
         <v>0</v>
       </c>
-      <c r="AO291" s="75">
+      <c r="AO291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AP291" s="75">
+      <c r="AP291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AQ291" s="75">
+      <c r="AQ291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AR291" s="75">
+      <c r="AR291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AS291" s="75">
+      <c r="AS291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AT291" s="75">
+      <c r="AT291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AU291" s="75">
+      <c r="AU291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AV291" s="75">
+      <c r="AV291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AW291" s="75">
+      <c r="AW291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AX291" s="75">
+      <c r="AX291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AY291" s="75">
+      <c r="AY291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="AZ291" s="75">
+      <c r="AZ291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BA291" s="75">
+      <c r="BA291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BB291" s="75">
+      <c r="BB291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BC291" s="75">
+      <c r="BC291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BD291" s="75">
+      <c r="BD291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BE291" s="75">
+      <c r="BE291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BF291" s="75">
+      <c r="BF291" s="66">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="BG291" s="76"/>
+      <c r="BG291" s="75"/>
       <c r="BH291" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="292" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="57"/>
-      <c r="B292" s="79"/>
-      <c r="C292" s="79"/>
-      <c r="D292" s="79"/>
-      <c r="E292" s="79"/>
-      <c r="F292" s="79"/>
+      <c r="B292" s="78"/>
+      <c r="C292" s="78"/>
+      <c r="D292" s="78"/>
+      <c r="E292" s="78"/>
+      <c r="F292" s="78"/>
       <c r="G292" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="H292" s="75">
+      <c r="H292" s="66">
         <f t="shared" ref="H292:AM292" si="24">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"田中")+H293</f>
         <v>1</v>
       </c>
-      <c r="I292" s="75">
+      <c r="I292" s="66">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="J292" s="75">
+      <c r="J292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="K292" s="75">
+      <c r="K292" s="66">
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="L292" s="75">
+      <c r="L292" s="66">
         <f t="shared" si="24"/>
         <v>6</v>
       </c>
-      <c r="M292" s="75">
+      <c r="M292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N292" s="75">
+      <c r="N292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O292" s="75">
+      <c r="O292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="P292" s="75">
+      <c r="P292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Q292" s="75">
+      <c r="Q292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="R292" s="75">
+      <c r="R292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="S292" s="75">
+      <c r="S292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T292" s="75">
+      <c r="T292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="U292" s="75">
+      <c r="U292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="V292" s="75">
+      <c r="V292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W292" s="75">
+      <c r="W292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="X292" s="75">
+      <c r="X292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Y292" s="75">
+      <c r="Y292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z292" s="75">
+      <c r="Z292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA292" s="75">
+      <c r="AA292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AB292" s="75">
+      <c r="AB292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC292" s="75">
+      <c r="AC292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AD292" s="75">
+      <c r="AD292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AE292" s="75">
+      <c r="AE292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AF292" s="75">
+      <c r="AF292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AG292" s="75">
+      <c r="AG292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AH292" s="75">
+      <c r="AH292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AI292" s="75">
+      <c r="AI292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AJ292" s="75">
+      <c r="AJ292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AK292" s="75">
+      <c r="AK292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AL292" s="75">
+      <c r="AL292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AM292" s="75">
+      <c r="AM292" s="66">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AN292" s="75">
+      <c r="AN292" s="66">
         <f t="shared" ref="AN292:BF292" si="25">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"田中")+AN293</f>
         <v>0</v>
       </c>
-      <c r="AO292" s="75">
+      <c r="AO292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AP292" s="75">
+      <c r="AP292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AQ292" s="75">
+      <c r="AQ292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AR292" s="75">
+      <c r="AR292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AS292" s="75">
+      <c r="AS292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AT292" s="75">
+      <c r="AT292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AU292" s="75">
+      <c r="AU292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AV292" s="75">
+      <c r="AV292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AW292" s="75">
+      <c r="AW292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AX292" s="75">
+      <c r="AX292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AY292" s="75">
+      <c r="AY292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AZ292" s="75">
+      <c r="AZ292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BA292" s="75">
+      <c r="BA292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BB292" s="75">
+      <c r="BB292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BC292" s="75">
+      <c r="BC292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BD292" s="75">
+      <c r="BD292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BE292" s="75">
+      <c r="BE292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BF292" s="75">
+      <c r="BF292" s="66">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="BG292" s="76"/>
+      <c r="BG292" s="75"/>
       <c r="BH292" s="57" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="57"/>
-      <c r="B293" s="79"/>
-      <c r="C293" s="79"/>
-      <c r="D293" s="79"/>
-      <c r="E293" s="79"/>
-      <c r="F293" s="79"/>
+      <c r="B293" s="78"/>
+      <c r="C293" s="78"/>
+      <c r="D293" s="78"/>
+      <c r="E293" s="78"/>
+      <c r="F293" s="78"/>
       <c r="G293" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="H293" s="75">
+      <c r="H293" s="66">
         <f t="shared" ref="H293:AM293" si="26">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"男班")</f>
         <v>1</v>
       </c>
-      <c r="I293" s="75">
+      <c r="I293" s="66">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="J293" s="75">
+      <c r="J293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K293" s="75">
+      <c r="K293" s="66">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="L293" s="75">
+      <c r="L293" s="66">
         <f>SUMIFS(L12:L279,$G12:$G279,"実績時間",$F12:$F279,"男班")</f>
         <v>1</v>
       </c>
-      <c r="M293" s="75">
+      <c r="M293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N293" s="75">
+      <c r="N293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O293" s="75">
+      <c r="O293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="P293" s="75">
+      <c r="P293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q293" s="75">
+      <c r="Q293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R293" s="75">
+      <c r="R293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S293" s="75">
+      <c r="S293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T293" s="75">
+      <c r="T293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U293" s="75">
+      <c r="U293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V293" s="75">
+      <c r="V293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W293" s="75">
+      <c r="W293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="X293" s="75">
+      <c r="X293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Y293" s="75">
+      <c r="Y293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Z293" s="75">
+      <c r="Z293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA293" s="75">
+      <c r="AA293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB293" s="75">
+      <c r="AB293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC293" s="75">
+      <c r="AC293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD293" s="75">
+      <c r="AD293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AE293" s="75">
+      <c r="AE293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AF293" s="75">
+      <c r="AF293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AG293" s="75">
+      <c r="AG293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AH293" s="75">
+      <c r="AH293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AI293" s="75">
+      <c r="AI293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AJ293" s="75">
+      <c r="AJ293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AK293" s="75">
+      <c r="AK293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AL293" s="75">
+      <c r="AL293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AM293" s="75">
+      <c r="AM293" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN293" s="75">
+      <c r="AN293" s="66">
         <f t="shared" ref="AN293:BF293" si="27">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"男班")</f>
         <v>0</v>
       </c>
-      <c r="AO293" s="75">
+      <c r="AO293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP293" s="75">
+      <c r="AP293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AQ293" s="75">
+      <c r="AQ293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AR293" s="75">
+      <c r="AR293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS293" s="75">
+      <c r="AS293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AT293" s="75">
+      <c r="AT293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AU293" s="75">
+      <c r="AU293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AV293" s="75">
+      <c r="AV293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AW293" s="75">
+      <c r="AW293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX293" s="75">
+      <c r="AX293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AY293" s="75">
+      <c r="AY293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AZ293" s="75">
+      <c r="AZ293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BA293" s="75">
+      <c r="BA293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BB293" s="75">
+      <c r="BB293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BC293" s="75">
+      <c r="BC293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BD293" s="75">
+      <c r="BD293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BE293" s="75">
+      <c r="BE293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BF293" s="75">
+      <c r="BF293" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BG293" s="76"/>
+      <c r="BG293" s="75"/>
       <c r="BH293" s="57" t="s">
         <v>44</v>
       </c>
@@ -32660,16 +32768,12 @@
   </sheetData>
   <autoFilter ref="A4:BG294"/>
   <mergeCells count="26">
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="B280:G280"/>
     <mergeCell ref="B287:G287"/>
     <mergeCell ref="A99:F99"/>
@@ -32680,319 +32784,338 @@
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
     <mergeCell ref="C209:G209"/>
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C117:G117"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">
-    <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="123" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="124" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG6:BG7">
-    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:BG3">
-    <cfRule type="cellIs" dxfId="111" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="120" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="110" priority="111">
+    <cfRule type="expression" dxfId="123" priority="116">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J24 J86:J92 J280:J293 J28:J82">
-    <cfRule type="expression" dxfId="109" priority="108">
+    <cfRule type="expression" dxfId="122" priority="113">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BF24 H86:BF92 H280:BF293 H28:BF82">
-    <cfRule type="expression" dxfId="108" priority="106">
+  <conditionalFormatting sqref="H5:BF24 H86:BF92 H28:BF82 H280:BF293">
+    <cfRule type="expression" dxfId="121" priority="111">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:BF24 K86:BF92 K280:BF293 K28:BF82">
-    <cfRule type="expression" dxfId="107" priority="104">
+    <cfRule type="expression" dxfId="120" priority="109">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J85">
-    <cfRule type="expression" dxfId="106" priority="102">
+    <cfRule type="expression" dxfId="119" priority="107">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:BF85">
-    <cfRule type="expression" dxfId="105" priority="100">
+    <cfRule type="expression" dxfId="118" priority="105">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:BF85">
-    <cfRule type="expression" dxfId="104" priority="98">
+    <cfRule type="expression" dxfId="117" priority="103">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J95">
-    <cfRule type="expression" dxfId="103" priority="96">
+    <cfRule type="expression" dxfId="116" priority="101">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:BF95">
-    <cfRule type="expression" dxfId="102" priority="94">
+    <cfRule type="expression" dxfId="115" priority="99">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:BF95">
-    <cfRule type="expression" dxfId="101" priority="92">
+    <cfRule type="expression" dxfId="114" priority="97">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:J98">
-    <cfRule type="expression" dxfId="100" priority="90">
+    <cfRule type="expression" dxfId="113" priority="95">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:BF98">
-    <cfRule type="expression" dxfId="99" priority="88">
+    <cfRule type="expression" dxfId="112" priority="93">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96:BF98">
-    <cfRule type="expression" dxfId="98" priority="86">
+    <cfRule type="expression" dxfId="111" priority="91">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG99">
-    <cfRule type="cellIs" dxfId="97" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="88" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J99:J113 J175:J181 J117:J171">
-    <cfRule type="expression" dxfId="95" priority="82">
+  <conditionalFormatting sqref="J99:J113 J117:J171">
+    <cfRule type="expression" dxfId="108" priority="87">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99:BF113 H175:BF181 H117:BF171">
-    <cfRule type="expression" dxfId="94" priority="80">
+  <conditionalFormatting sqref="H99:BF113 H175:I181 H117:BF171 K175:BF181">
+    <cfRule type="expression" dxfId="107" priority="85">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:BF113 K175:BF181 K117:BF171">
-    <cfRule type="expression" dxfId="93" priority="78">
+    <cfRule type="expression" dxfId="106" priority="83">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172:J174">
-    <cfRule type="expression" dxfId="92" priority="76">
+    <cfRule type="expression" dxfId="105" priority="81">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H172:BF174">
-    <cfRule type="expression" dxfId="91" priority="74">
+    <cfRule type="expression" dxfId="104" priority="79">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172:BF174">
-    <cfRule type="expression" dxfId="90" priority="72">
+    <cfRule type="expression" dxfId="103" priority="77">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182:J184">
-    <cfRule type="expression" dxfId="89" priority="70">
+    <cfRule type="expression" dxfId="102" priority="75">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182:BF184">
-    <cfRule type="expression" dxfId="88" priority="68">
+    <cfRule type="expression" dxfId="101" priority="73">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K182:BF184">
-    <cfRule type="expression" dxfId="87" priority="66">
+    <cfRule type="expression" dxfId="100" priority="71">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185:J187">
-    <cfRule type="expression" dxfId="86" priority="64">
+    <cfRule type="expression" dxfId="99" priority="69">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185:BF187">
-    <cfRule type="expression" dxfId="85" priority="62">
+    <cfRule type="expression" dxfId="98" priority="67">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K185:BF187">
-    <cfRule type="expression" dxfId="84" priority="60">
+    <cfRule type="expression" dxfId="97" priority="65">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG188">
-    <cfRule type="cellIs" dxfId="83" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="62" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="63" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J202">
-    <cfRule type="expression" dxfId="81" priority="56">
+    <cfRule type="expression" dxfId="94" priority="61">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H188:BF202 H267:I273 H209:I263 K209:BF263 K267:BF273">
-    <cfRule type="expression" dxfId="80" priority="54">
+    <cfRule type="expression" dxfId="93" priority="59">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K188:BF202 K267:BF273 K209:BF263">
-    <cfRule type="expression" dxfId="79" priority="52">
+    <cfRule type="expression" dxfId="92" priority="57">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H264:I266 K264:BF266">
-    <cfRule type="expression" dxfId="78" priority="48">
+    <cfRule type="expression" dxfId="91" priority="53">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264:BF266">
-    <cfRule type="expression" dxfId="77" priority="46">
+    <cfRule type="expression" dxfId="90" priority="51">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J274:J276">
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="89" priority="49">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H274:BF276">
-    <cfRule type="expression" dxfId="75" priority="42">
+    <cfRule type="expression" dxfId="88" priority="47">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274:BF276">
-    <cfRule type="expression" dxfId="74" priority="40">
+    <cfRule type="expression" dxfId="87" priority="45">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J277:J279">
-    <cfRule type="expression" dxfId="73" priority="38">
+    <cfRule type="expression" dxfId="86" priority="43">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277:BF279">
-    <cfRule type="expression" dxfId="72" priority="36">
+    <cfRule type="expression" dxfId="85" priority="41">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K277:BF279">
-    <cfRule type="expression" dxfId="71" priority="34">
+    <cfRule type="expression" dxfId="84" priority="39">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J27">
-    <cfRule type="expression" dxfId="70" priority="32">
+    <cfRule type="expression" dxfId="83" priority="37">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:BF27">
-    <cfRule type="expression" dxfId="69" priority="30">
+    <cfRule type="expression" dxfId="82" priority="35">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BF27">
-    <cfRule type="expression" dxfId="68" priority="28">
+    <cfRule type="expression" dxfId="81" priority="33">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H280:BF280">
-    <cfRule type="cellIs" dxfId="67" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="31" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H281:BF285">
-    <cfRule type="cellIs" dxfId="66" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="30" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H287:BF287">
-    <cfRule type="cellIs" dxfId="65" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="29" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H288:BF292">
-    <cfRule type="cellIs" dxfId="64" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="28" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J206:J208">
-    <cfRule type="expression" dxfId="63" priority="22">
+    <cfRule type="expression" dxfId="76" priority="27">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H206:BF208">
-    <cfRule type="expression" dxfId="62" priority="20">
+    <cfRule type="expression" dxfId="75" priority="25">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206:BF208">
-    <cfRule type="expression" dxfId="61" priority="18">
+    <cfRule type="expression" dxfId="74" priority="23">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J209:J273">
-    <cfRule type="expression" dxfId="60" priority="16">
+    <cfRule type="expression" dxfId="73" priority="21">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J209:J273">
-    <cfRule type="expression" dxfId="59" priority="14">
+    <cfRule type="expression" dxfId="72" priority="19">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J114:J116">
-    <cfRule type="expression" dxfId="58" priority="12">
+    <cfRule type="expression" dxfId="71" priority="17">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:BF116">
-    <cfRule type="expression" dxfId="57" priority="10">
+    <cfRule type="expression" dxfId="70" priority="15">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114:BF116">
-    <cfRule type="expression" dxfId="56" priority="8">
+    <cfRule type="expression" dxfId="69" priority="13">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J203:J205">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="68" priority="11">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H203:BF205">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="67" priority="9">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K203:BF205">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="66" priority="7">
       <formula>K$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J175:J181">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J175:J181">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H288:BF292">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -33010,7 +33133,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="109" id="{2DBFFCFA-F714-4623-A749-A41EA9373A50}">
+          <x14:cfRule type="expression" priority="114" id="{2DBFFCFA-F714-4623-A749-A41EA9373A50}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33020,10 +33143,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5 J86:BF92 J280:BF293 J175:BF181 K267:BF273 K209:BF263 J28:BF82</xm:sqref>
+          <xm:sqref>J5 J86:BF92 J280:BF293 K175:BF181 K267:BF273 K209:BF263 J28:BF82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="107" id="{0AF8D24A-930E-408C-8EFC-DA858E181BE1}">
+          <x14:cfRule type="expression" priority="112" id="{0AF8D24A-930E-408C-8EFC-DA858E181BE1}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33036,7 +33159,7 @@
           <xm:sqref>J6:J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="105" id="{D1506DBF-A076-4413-87C4-16FE7661A8B2}">
+          <x14:cfRule type="expression" priority="110" id="{D1506DBF-A076-4413-87C4-16FE7661A8B2}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33046,10 +33169,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H5:BF24 H86:BF92 H280:BF293 H175:BF181 H267:I273 H209:I263 K209:BF263 K267:BF273 H28:BF82</xm:sqref>
+          <xm:sqref>H5:BF24 H86:BF92 H175:I181 H267:I273 H209:I263 K209:BF263 K267:BF273 H28:BF82 K175:BF181 H280:BF293</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="103" id="{1E187110-9672-4041-B1CB-607A76653925}">
+          <x14:cfRule type="expression" priority="108" id="{1E187110-9672-4041-B1CB-607A76653925}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33062,7 +33185,7 @@
           <xm:sqref>K5:BF24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="101" id="{F690320D-ADBA-4E9C-AFF2-E5E38669CE4D}">
+          <x14:cfRule type="expression" priority="106" id="{F690320D-ADBA-4E9C-AFF2-E5E38669CE4D}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33075,7 +33198,7 @@
           <xm:sqref>J83:J85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="99" id="{0FED0822-4392-45A0-A565-93F6CB42F97D}">
+          <x14:cfRule type="expression" priority="104" id="{0FED0822-4392-45A0-A565-93F6CB42F97D}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33088,7 +33211,7 @@
           <xm:sqref>H83:BF85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="97" id="{205FF400-1447-4065-BE17-E2FE2887731B}">
+          <x14:cfRule type="expression" priority="102" id="{205FF400-1447-4065-BE17-E2FE2887731B}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33101,7 +33224,7 @@
           <xm:sqref>K83:BF85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="95" id="{E1E51682-64EC-4DA7-9CFA-4A0FCB60BE87}">
+          <x14:cfRule type="expression" priority="100" id="{E1E51682-64EC-4DA7-9CFA-4A0FCB60BE87}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33114,7 +33237,7 @@
           <xm:sqref>J93:J95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="93" id="{F7B7E5F6-436A-46BE-9AE5-871116037AC8}">
+          <x14:cfRule type="expression" priority="98" id="{F7B7E5F6-436A-46BE-9AE5-871116037AC8}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33127,7 +33250,7 @@
           <xm:sqref>H93:BF95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="91" id="{E09695AD-45CE-4CFA-869A-9EAEC22941CB}">
+          <x14:cfRule type="expression" priority="96" id="{E09695AD-45CE-4CFA-869A-9EAEC22941CB}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33140,7 +33263,7 @@
           <xm:sqref>K93:BF95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="89" id="{A5D185D8-709F-4A40-B54E-A44E233A11FF}">
+          <x14:cfRule type="expression" priority="94" id="{A5D185D8-709F-4A40-B54E-A44E233A11FF}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33153,7 +33276,7 @@
           <xm:sqref>J96:J98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="87" id="{72181AAE-5162-48A3-A3F7-4A624886A12C}">
+          <x14:cfRule type="expression" priority="92" id="{72181AAE-5162-48A3-A3F7-4A624886A12C}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33166,7 +33289,7 @@
           <xm:sqref>H96:BF98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="85" id="{F87F7F3E-A049-44A8-871D-F303DA4471E9}">
+          <x14:cfRule type="expression" priority="90" id="{F87F7F3E-A049-44A8-871D-F303DA4471E9}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33179,7 +33302,7 @@
           <xm:sqref>K96:BF98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="81" id="{36B582E2-2012-4F33-AC7C-ACA58D8BAC98}">
+          <x14:cfRule type="expression" priority="86" id="{36B582E2-2012-4F33-AC7C-ACA58D8BAC98}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33192,7 +33315,7 @@
           <xm:sqref>J99:J113 J117:J171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="79" id="{03BBF96B-06D2-4791-902F-A699C26B1A8A}">
+          <x14:cfRule type="expression" priority="84" id="{03BBF96B-06D2-4791-902F-A699C26B1A8A}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33205,7 +33328,7 @@
           <xm:sqref>H99:BF113 H117:BF171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="77" id="{1779A834-5448-4E80-8BBC-E939C7BD5DD1}">
+          <x14:cfRule type="expression" priority="82" id="{1779A834-5448-4E80-8BBC-E939C7BD5DD1}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33218,7 +33341,7 @@
           <xm:sqref>K99:BF113 K117:BF171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="75" id="{477571E1-63E4-4E67-986D-95AF568096FB}">
+          <x14:cfRule type="expression" priority="80" id="{477571E1-63E4-4E67-986D-95AF568096FB}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33231,7 +33354,7 @@
           <xm:sqref>J172:J174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="73" id="{DD209A96-9662-4DAF-BC65-9ADF6ACC40EE}">
+          <x14:cfRule type="expression" priority="78" id="{DD209A96-9662-4DAF-BC65-9ADF6ACC40EE}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33244,7 +33367,7 @@
           <xm:sqref>H172:BF174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="71" id="{23DBD7D7-BB83-4C20-A9CA-36DCF7CBCE8D}">
+          <x14:cfRule type="expression" priority="76" id="{23DBD7D7-BB83-4C20-A9CA-36DCF7CBCE8D}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33257,7 +33380,7 @@
           <xm:sqref>K172:BF174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="69" id="{187FD0C4-5D55-4886-BB97-E65FE44A7D92}">
+          <x14:cfRule type="expression" priority="74" id="{187FD0C4-5D55-4886-BB97-E65FE44A7D92}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33270,7 +33393,7 @@
           <xm:sqref>J182:J184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="67" id="{DBF34FBC-1263-458F-937A-233227A654F2}">
+          <x14:cfRule type="expression" priority="72" id="{DBF34FBC-1263-458F-937A-233227A654F2}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33283,7 +33406,7 @@
           <xm:sqref>H182:BF184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="65" id="{C2112C7F-2A4E-4F7A-97D4-4D412543DEB0}">
+          <x14:cfRule type="expression" priority="70" id="{C2112C7F-2A4E-4F7A-97D4-4D412543DEB0}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33296,7 +33419,7 @@
           <xm:sqref>K182:BF184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="63" id="{EDB47FEE-26D3-45C4-B39B-7851E32AD015}">
+          <x14:cfRule type="expression" priority="68" id="{EDB47FEE-26D3-45C4-B39B-7851E32AD015}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33309,7 +33432,7 @@
           <xm:sqref>J185:J187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="61" id="{E05BA7DD-D326-43EC-B339-2FF733EC46F8}">
+          <x14:cfRule type="expression" priority="66" id="{E05BA7DD-D326-43EC-B339-2FF733EC46F8}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33322,7 +33445,7 @@
           <xm:sqref>H185:BF187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="59" id="{374E7DBC-4054-4FF1-9A2B-B0621C2D8A61}">
+          <x14:cfRule type="expression" priority="64" id="{374E7DBC-4054-4FF1-9A2B-B0621C2D8A61}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33335,7 +33458,7 @@
           <xm:sqref>K185:BF187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="55" id="{0AF5C289-A550-410D-8F9A-68B5E6BF1F20}">
+          <x14:cfRule type="expression" priority="60" id="{0AF5C289-A550-410D-8F9A-68B5E6BF1F20}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33348,7 +33471,7 @@
           <xm:sqref>J188:J202</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="53" id="{7CB60735-EAFA-48EB-863C-2F6EE0A14012}">
+          <x14:cfRule type="expression" priority="58" id="{7CB60735-EAFA-48EB-863C-2F6EE0A14012}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33361,7 +33484,7 @@
           <xm:sqref>H188:BF202</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="51" id="{B31EB02C-1050-48E0-9789-0152736EC90A}">
+          <x14:cfRule type="expression" priority="56" id="{B31EB02C-1050-48E0-9789-0152736EC90A}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33374,7 +33497,7 @@
           <xm:sqref>K188:BF202</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="47" id="{BC789A60-CF5D-45EB-AB37-E7A7831791DE}">
+          <x14:cfRule type="expression" priority="52" id="{BC789A60-CF5D-45EB-AB37-E7A7831791DE}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33387,7 +33510,7 @@
           <xm:sqref>H264:I266 K264:BF266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="45" id="{823C9B9C-8180-47C4-8C1E-2D30E3293190}">
+          <x14:cfRule type="expression" priority="50" id="{823C9B9C-8180-47C4-8C1E-2D30E3293190}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33400,7 +33523,7 @@
           <xm:sqref>K264:BF266</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="43" id="{84626CBA-24BA-4C31-A011-34C71CCD2101}">
+          <x14:cfRule type="expression" priority="48" id="{84626CBA-24BA-4C31-A011-34C71CCD2101}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33413,7 +33536,7 @@
           <xm:sqref>J274:J276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="41" id="{ECF9FB3D-2992-45F0-98CA-573583C53824}">
+          <x14:cfRule type="expression" priority="46" id="{ECF9FB3D-2992-45F0-98CA-573583C53824}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33426,7 +33549,7 @@
           <xm:sqref>H274:BF276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="39" id="{0F0DC635-F1A5-460A-BE10-2E13AC8ECC08}">
+          <x14:cfRule type="expression" priority="44" id="{0F0DC635-F1A5-460A-BE10-2E13AC8ECC08}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33439,7 +33562,7 @@
           <xm:sqref>K274:BF276</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="37" id="{6CB66FF9-FF04-49FA-BA86-16ABE2B3EF7F}">
+          <x14:cfRule type="expression" priority="42" id="{6CB66FF9-FF04-49FA-BA86-16ABE2B3EF7F}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33452,7 +33575,7 @@
           <xm:sqref>J277:J279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="35" id="{7817D565-23BB-4260-A41F-822A8E8A7108}">
+          <x14:cfRule type="expression" priority="40" id="{7817D565-23BB-4260-A41F-822A8E8A7108}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33465,7 +33588,7 @@
           <xm:sqref>H277:BF279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="33" id="{E1CDD6C1-40E1-4727-8848-1E89C08ED0F4}">
+          <x14:cfRule type="expression" priority="38" id="{E1CDD6C1-40E1-4727-8848-1E89C08ED0F4}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33478,7 +33601,7 @@
           <xm:sqref>K277:BF279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="31" id="{B3789237-D3CA-4077-BF53-F707A60EA0F2}">
+          <x14:cfRule type="expression" priority="36" id="{B3789237-D3CA-4077-BF53-F707A60EA0F2}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33491,7 +33614,7 @@
           <xm:sqref>J25:J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="29" id="{7795182F-3694-47D7-ACD7-C4D2724456D6}">
+          <x14:cfRule type="expression" priority="34" id="{7795182F-3694-47D7-ACD7-C4D2724456D6}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33504,7 +33627,7 @@
           <xm:sqref>H25:BF27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="27" id="{4FB3249A-F5D4-471F-B4C5-24FE5497D017}">
+          <x14:cfRule type="expression" priority="32" id="{4FB3249A-F5D4-471F-B4C5-24FE5497D017}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33517,7 +33640,7 @@
           <xm:sqref>K25:BF27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="21" id="{330168EC-B99C-47B5-A7EA-5FA206083112}">
+          <x14:cfRule type="expression" priority="26" id="{330168EC-B99C-47B5-A7EA-5FA206083112}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33530,7 +33653,7 @@
           <xm:sqref>J206:J208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{297C57E1-6F4D-436B-A96E-0FD9ADBF6089}">
+          <x14:cfRule type="expression" priority="24" id="{297C57E1-6F4D-436B-A96E-0FD9ADBF6089}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33543,7 +33666,7 @@
           <xm:sqref>H206:BF208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{261E11F6-077F-4B29-9831-EFE703135EFE}">
+          <x14:cfRule type="expression" priority="22" id="{261E11F6-077F-4B29-9831-EFE703135EFE}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33556,7 +33679,7 @@
           <xm:sqref>K206:BF208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{15051913-221B-4A7C-B0F9-C51853DA78E1}">
+          <x14:cfRule type="expression" priority="20" id="{15051913-221B-4A7C-B0F9-C51853DA78E1}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33569,7 +33692,7 @@
           <xm:sqref>J209:J273</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{1646101D-F346-4E07-9950-5E612E1AC327}">
+          <x14:cfRule type="expression" priority="18" id="{1646101D-F346-4E07-9950-5E612E1AC327}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,J$3)&gt;0,J$4="日",J$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33582,7 +33705,7 @@
           <xm:sqref>J209:J273</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{499AD5E7-74B9-4B85-AA29-BC84B5D605A6}">
+          <x14:cfRule type="expression" priority="16" id="{499AD5E7-74B9-4B85-AA29-BC84B5D605A6}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33595,7 +33718,7 @@
           <xm:sqref>J114:J116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{4D840AB0-35AB-49B6-879E-71CA0F193493}">
+          <x14:cfRule type="expression" priority="14" id="{4D840AB0-35AB-49B6-879E-71CA0F193493}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33608,7 +33731,7 @@
           <xm:sqref>H114:BF116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{111CC284-D229-4573-8AD6-90E3E5763D45}">
+          <x14:cfRule type="expression" priority="12" id="{111CC284-D229-4573-8AD6-90E3E5763D45}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33621,7 +33744,7 @@
           <xm:sqref>K114:BF116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{13885E93-3A38-4387-9F2F-C05892A56E6C}">
+          <x14:cfRule type="expression" priority="10" id="{13885E93-3A38-4387-9F2F-C05892A56E6C}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33634,7 +33757,7 @@
           <xm:sqref>J203:J205</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{4BCB4240-AED6-4A31-B870-0FFF341230B0}">
+          <x14:cfRule type="expression" priority="8" id="{4BCB4240-AED6-4A31-B870-0FFF341230B0}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33647,7 +33770,7 @@
           <xm:sqref>H203:BF205</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{9AFC0125-2427-4924-8EFB-077163323A2C}">
+          <x14:cfRule type="expression" priority="6" id="{9AFC0125-2427-4924-8EFB-077163323A2C}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33659,6 +33782,32 @@
           </x14:cfRule>
           <xm:sqref>K203:BF205</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="4" id="{9386264E-1684-48DE-BC37-7BB609A94513}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J175:J181</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{8273E2D3-7247-46A8-A624-CE8AD49745D0}">
+            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,J$3)&gt;0,J$4="日",J$4="土")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J175:J181</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -18,14 +18,14 @@
     <sheet name="予実管理" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">予実管理!$A$4:$BG$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">予実管理!$A$4:$BG$297</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="151">
   <si>
     <t>画面名称</t>
     <rPh sb="0" eb="2">
@@ -951,6 +951,96 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳島県のRSSをゲットする</t>
+    <rPh sb="0" eb="3">
+      <t>トクシマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦島</t>
+    <rPh sb="0" eb="2">
+      <t>ウラシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男班</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再実装</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリのまとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Margeしたコードを調整</t>
+    <rPh sb="11" eb="13">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン画面のサポート</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScrollingActivity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubの方法を試行錯誤</t>
+    <rPh sb="7" eb="9">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1884,9 +1974,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1926,6 +2013,9 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1953,34 +2043,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2022,6 +2088,15 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2031,6 +2106,21 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2038,63 +2128,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="129">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="124">
     <dxf>
       <fill>
         <patternFill>
@@ -2113,20 +2147,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2498,6 +2518,41 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2983,8 +3038,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF97AAEF"/>
       <color rgb="FFEC6800"/>
-      <color rgb="FF97AAEF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -9643,13 +9698,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BR294"/>
+  <dimension ref="A1:BR297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -9668,8 +9723,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111"/>
-      <c r="B1" s="111"/>
+      <c r="A1" s="127"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
         <v>42401</v>
@@ -9677,83 +9732,83 @@
       <c r="D1" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="81" t="str">
+      <c r="E1" s="80" t="str">
         <f ca="1">($BF$3-C1) &amp; "日"</f>
         <v>43日</v>
       </c>
-      <c r="F1" s="81" t="str">
+      <c r="F1" s="80" t="str">
         <f ca="1">"( "&amp;NETWORKDAYS(C1,BF3,休日!A1:A9)&amp;"日 )"</f>
         <v>( 26日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="102" t="s">
+      <c r="AC1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="102" t="s">
+      <c r="AJ1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="102" t="s">
+      <c r="AQ1" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="102"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="102" t="s">
+      <c r="AX1" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="103"/>
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="103"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="102" t="s">
+      <c r="BE1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="103"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -9780,22 +9835,22 @@
       </c>
     </row>
     <row r="2" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="103">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="102">
         <v>42005</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
       <c r="O2" s="128">
         <v>42036</v>
       </c>
@@ -9827,36 +9882,36 @@
       <c r="AO2" s="128"/>
       <c r="AP2" s="128"/>
       <c r="AQ2" s="128"/>
-      <c r="AR2" s="103">
+      <c r="AR2" s="102">
         <v>42064</v>
       </c>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
       <c r="BH2" s="57" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="H3" s="59">
         <v>42394</v>
       </c>
@@ -10018,23 +10073,23 @@
       </c>
     </row>
     <row r="4" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="89" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="60" t="str">
@@ -10250,7 +10305,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="123" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10326,7 +10381,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="107"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10406,7 +10461,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="107"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10486,7 +10541,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="107"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
         <v>101</v>
@@ -10554,131 +10609,131 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="108"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
-      <c r="S9" s="85"/>
-      <c r="T9" s="85"/>
-      <c r="U9" s="85"/>
-      <c r="V9" s="85"/>
-      <c r="W9" s="85"/>
-      <c r="X9" s="85"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="85"/>
-      <c r="AC9" s="85"/>
-      <c r="AD9" s="85"/>
-      <c r="AE9" s="85"/>
-      <c r="AF9" s="85"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="85"/>
-      <c r="AI9" s="85"/>
-      <c r="AJ9" s="85"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="85"/>
-      <c r="AM9" s="85"/>
-      <c r="AN9" s="85"/>
-      <c r="AO9" s="85"/>
-      <c r="AP9" s="85"/>
-      <c r="AQ9" s="85"/>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="85"/>
-      <c r="AY9" s="85"/>
-      <c r="AZ9" s="85"/>
-      <c r="BA9" s="85"/>
-      <c r="BB9" s="85"/>
-      <c r="BC9" s="85"/>
-      <c r="BD9" s="85"/>
-      <c r="BE9" s="85"/>
-      <c r="BF9" s="85"/>
-      <c r="BG9" s="87"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="84"/>
+      <c r="BD9" s="84"/>
+      <c r="BE9" s="84"/>
+      <c r="BF9" s="84"/>
+      <c r="BG9" s="86"/>
       <c r="BH9" s="64" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="82"/>
-      <c r="BE10" s="82"/>
-      <c r="BF10" s="82"/>
-      <c r="BG10" s="83"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="81"/>
+      <c r="AM10" s="81"/>
+      <c r="AN10" s="81"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="81"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="81"/>
+      <c r="AT10" s="81"/>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="81"/>
+      <c r="BA10" s="81"/>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="81"/>
+      <c r="BD10" s="81"/>
+      <c r="BE10" s="81"/>
+      <c r="BF10" s="81"/>
+      <c r="BG10" s="82"/>
       <c r="BH10" s="64" t="s">
         <v>44</v>
       </c>
@@ -10686,13 +10741,13 @@
     <row r="11" spans="1:70" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -11853,13 +11908,13 @@
     <row r="28" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="122" t="s">
+      <c r="C28" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -12080,7 +12135,7 @@
       </c>
       <c r="E31" s="66" t="str">
         <f>IF(MAX($H31:$BF31)=0,"",MAX($H31:$BF31)&amp;" %")</f>
-        <v>60 %</v>
+        <v>100 %</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="73" t="s">
@@ -12096,7 +12151,9 @@
         <v>60</v>
       </c>
       <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
+      <c r="N31" s="66">
+        <v>100</v>
+      </c>
       <c r="O31" s="66"/>
       <c r="P31" s="66"/>
       <c r="Q31" s="66"/>
@@ -12178,7 +12235,9 @@
       <c r="O32" s="66">
         <v>5</v>
       </c>
-      <c r="P32" s="66"/>
+      <c r="P32" s="66">
+        <v>5</v>
+      </c>
       <c r="Q32" s="66"/>
       <c r="R32" s="66"/>
       <c r="S32" s="66"/>
@@ -12233,7 +12292,7 @@
       <c r="D33" s="66"/>
       <c r="E33" s="66">
         <f>SUM($H33:$BF33)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F33" s="62" t="s">
         <v>59</v>
@@ -12252,7 +12311,9 @@
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
+      <c r="O33" s="66">
+        <v>5</v>
+      </c>
       <c r="P33" s="66"/>
       <c r="Q33" s="66"/>
       <c r="R33" s="66"/>
@@ -12310,7 +12371,7 @@
       </c>
       <c r="E34" s="66" t="str">
         <f>IF(MAX($H34:$BF34)=0,"",MAX($H34:$BF34)&amp;" %")</f>
-        <v>45 %</v>
+        <v>55 %</v>
       </c>
       <c r="F34" s="62"/>
       <c r="G34" s="73" t="s">
@@ -12329,7 +12390,9 @@
       <c r="N34" s="66">
         <v>45</v>
       </c>
-      <c r="O34" s="66"/>
+      <c r="O34" s="66">
+        <v>55</v>
+      </c>
       <c r="P34" s="66"/>
       <c r="Q34" s="66"/>
       <c r="R34" s="66"/>
@@ -12408,9 +12471,11 @@
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
       <c r="O35" s="66">
+        <v>5</v>
+      </c>
+      <c r="P35" s="66">
         <v>2</v>
       </c>
-      <c r="P35" s="66"/>
       <c r="Q35" s="66"/>
       <c r="R35" s="66"/>
       <c r="S35" s="66"/>
@@ -12465,7 +12530,7 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66">
         <f>SUM($H36:$BF36)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F36" s="62" t="s">
         <v>57</v>
@@ -12484,7 +12549,9 @@
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
+      <c r="O36" s="66">
+        <v>5</v>
+      </c>
       <c r="P36" s="66"/>
       <c r="Q36" s="66"/>
       <c r="R36" s="66"/>
@@ -12542,7 +12609,7 @@
       </c>
       <c r="E37" s="66" t="str">
         <f>IF(MAX($H37:$BF37)=0,"",MAX($H37:$BF37)&amp;" %")</f>
-        <v>98 %</v>
+        <v>95 %</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="73" t="s">
@@ -12559,9 +12626,11 @@
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66">
-        <v>98</v>
-      </c>
-      <c r="O37" s="66"/>
+        <v>95</v>
+      </c>
+      <c r="O37" s="66">
+        <v>95</v>
+      </c>
       <c r="P37" s="66"/>
       <c r="Q37" s="66"/>
       <c r="R37" s="66"/>
@@ -12697,7 +12766,7 @@
       <c r="D39" s="66"/>
       <c r="E39" s="66">
         <f>SUM($H39:$BF39)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F39" s="62" t="s">
         <v>58</v>
@@ -12716,7 +12785,9 @@
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
+      <c r="O39" s="66">
+        <v>4</v>
+      </c>
       <c r="P39" s="66"/>
       <c r="Q39" s="66"/>
       <c r="R39" s="66"/>
@@ -12774,7 +12845,7 @@
       </c>
       <c r="E40" s="66" t="str">
         <f>IF(MAX($H40:$BF40)=0,"",MAX($H40:$BF40)&amp;" %")</f>
-        <v>80 %</v>
+        <v>100 %</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="73" t="s">
@@ -12791,7 +12862,9 @@
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
+      <c r="O40" s="66">
+        <v>100</v>
+      </c>
       <c r="P40" s="66"/>
       <c r="Q40" s="66"/>
       <c r="R40" s="66"/>
@@ -12872,7 +12945,9 @@
       <c r="O41" s="66">
         <v>2</v>
       </c>
-      <c r="P41" s="66"/>
+      <c r="P41" s="66">
+        <v>2</v>
+      </c>
       <c r="Q41" s="66"/>
       <c r="R41" s="66"/>
       <c r="S41" s="66"/>
@@ -12927,7 +13002,7 @@
       <c r="D42" s="66"/>
       <c r="E42" s="66">
         <f>SUM($H42:$BF42)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>56</v>
@@ -12946,7 +13021,9 @@
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
+      <c r="O42" s="66">
+        <v>5</v>
+      </c>
       <c r="P42" s="66"/>
       <c r="Q42" s="66"/>
       <c r="R42" s="66"/>
@@ -13004,7 +13081,7 @@
       </c>
       <c r="E43" s="66" t="str">
         <f>IF(MAX($H43:$BF43)=0,"",MAX($H43:$BF43)&amp;" %")</f>
-        <v>90 %</v>
+        <v>95 %</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="73" t="s">
@@ -13023,7 +13100,9 @@
       <c r="N43" s="66">
         <v>90</v>
       </c>
-      <c r="O43" s="66"/>
+      <c r="O43" s="66">
+        <v>95</v>
+      </c>
       <c r="P43" s="66"/>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
@@ -13159,7 +13238,7 @@
       <c r="D45" s="66"/>
       <c r="E45" s="66">
         <f>SUM($H45:$BF45)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F45" s="62" t="s">
         <v>60</v>
@@ -13178,7 +13257,9 @@
       </c>
       <c r="M45" s="66"/>
       <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
+      <c r="O45" s="66">
+        <v>3</v>
+      </c>
       <c r="P45" s="66"/>
       <c r="Q45" s="66"/>
       <c r="R45" s="66"/>
@@ -13236,7 +13317,7 @@
       </c>
       <c r="E46" s="66" t="str">
         <f>IF(MAX($H46:$BF46)=0,"",MAX($H46:$BF46)&amp;" %")</f>
-        <v>60 %</v>
+        <v>80 %</v>
       </c>
       <c r="F46" s="62"/>
       <c r="G46" s="73" t="s">
@@ -13253,7 +13334,9 @@
       </c>
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
+      <c r="O46" s="66">
+        <v>80</v>
+      </c>
       <c r="P46" s="66"/>
       <c r="Q46" s="66"/>
       <c r="R46" s="66"/>
@@ -13313,7 +13396,7 @@
       <c r="D47" s="66"/>
       <c r="E47" s="66"/>
       <c r="F47" s="62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G47" s="73" t="s">
         <v>62</v>
@@ -13325,9 +13408,7 @@
       <c r="L47" s="66"/>
       <c r="M47" s="66"/>
       <c r="N47" s="66"/>
-      <c r="O47" s="66">
-        <v>2</v>
-      </c>
+      <c r="O47" s="66"/>
       <c r="P47" s="66"/>
       <c r="Q47" s="66"/>
       <c r="R47" s="66"/>
@@ -13386,7 +13467,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G48" s="73" t="s">
         <v>16</v>
@@ -13456,7 +13537,7 @@
       </c>
       <c r="E49" s="66" t="str">
         <f>IF(MAX($H49:$BF49)=0,"",MAX($H49:$BF49)&amp;" %")</f>
-        <v/>
+        <v>100 %</v>
       </c>
       <c r="F49" s="62"/>
       <c r="G49" s="73" t="s">
@@ -13468,7 +13549,9 @@
       <c r="K49" s="66"/>
       <c r="L49" s="66"/>
       <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
+      <c r="N49" s="66">
+        <v>100</v>
+      </c>
       <c r="O49" s="66"/>
       <c r="P49" s="66"/>
       <c r="Q49" s="66"/>
@@ -13544,7 +13627,9 @@
       <c r="O50" s="66">
         <v>3</v>
       </c>
-      <c r="P50" s="66"/>
+      <c r="P50" s="66">
+        <v>2</v>
+      </c>
       <c r="Q50" s="66"/>
       <c r="R50" s="66"/>
       <c r="S50" s="66"/>
@@ -13599,7 +13684,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="66">
         <f>SUM($H51:$BF51)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="62" t="s">
         <v>58</v>
@@ -13614,7 +13699,9 @@
       <c r="L51" s="66"/>
       <c r="M51" s="66"/>
       <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
+      <c r="O51" s="66">
+        <v>1</v>
+      </c>
       <c r="P51" s="66"/>
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
@@ -13672,7 +13759,7 @@
       </c>
       <c r="E52" s="66" t="str">
         <f>IF(MAX($H52:$BF52)=0,"",MAX($H52:$BF52)&amp;" %")</f>
-        <v/>
+        <v>2 %</v>
       </c>
       <c r="F52" s="62"/>
       <c r="G52" s="73" t="s">
@@ -13685,7 +13772,9 @@
       <c r="L52" s="66"/>
       <c r="M52" s="66"/>
       <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
+      <c r="O52" s="66">
+        <v>2</v>
+      </c>
       <c r="P52" s="66"/>
       <c r="Q52" s="66"/>
       <c r="R52" s="66"/>
@@ -13744,7 +13833,9 @@
       </c>
       <c r="D53" s="66"/>
       <c r="E53" s="66"/>
-      <c r="F53" s="62"/>
+      <c r="F53" s="62" t="s">
+        <v>140</v>
+      </c>
       <c r="G53" s="73" t="s">
         <v>62</v>
       </c>
@@ -13813,7 +13904,9 @@
         <f>SUM($H54:$BF54)</f>
         <v>0</v>
       </c>
-      <c r="F54" s="62"/>
+      <c r="F54" s="62" t="s">
+        <v>140</v>
+      </c>
       <c r="G54" s="73" t="s">
         <v>16</v>
       </c>
@@ -13882,7 +13975,7 @@
       </c>
       <c r="E55" s="66" t="str">
         <f>IF(MAX($H55:$BF55)=0,"",MAX($H55:$BF55)&amp;" %")</f>
-        <v/>
+        <v>70 %</v>
       </c>
       <c r="F55" s="62"/>
       <c r="G55" s="73" t="s">
@@ -13894,7 +13987,9 @@
       <c r="K55" s="66"/>
       <c r="L55" s="66"/>
       <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
+      <c r="N55" s="66">
+        <v>70</v>
+      </c>
       <c r="O55" s="66"/>
       <c r="P55" s="66"/>
       <c r="Q55" s="66"/>
@@ -13950,11 +14045,13 @@
         <v>10</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="D56" s="66"/>
       <c r="E56" s="66"/>
-      <c r="F56" s="62"/>
+      <c r="F56" s="62" t="s">
+        <v>146</v>
+      </c>
       <c r="G56" s="73" t="s">
         <v>62</v>
       </c>
@@ -13966,7 +14063,9 @@
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
       <c r="O56" s="66"/>
-      <c r="P56" s="66"/>
+      <c r="P56" s="66">
+        <v>2</v>
+      </c>
       <c r="Q56" s="66"/>
       <c r="R56" s="66"/>
       <c r="S56" s="66"/>
@@ -14017,13 +14116,17 @@
     <row r="57" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="67"/>
-      <c r="C57" s="69"/>
+      <c r="C57" s="69" t="s">
+        <v>147</v>
+      </c>
       <c r="D57" s="66"/>
       <c r="E57" s="66">
         <f>SUM($H57:$BF57)</f>
         <v>0</v>
       </c>
-      <c r="F57" s="62"/>
+      <c r="F57" s="62" t="s">
+        <v>146</v>
+      </c>
       <c r="G57" s="73" t="s">
         <v>16</v>
       </c>
@@ -14160,11 +14263,13 @@
         <v>11</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="D59" s="66"/>
       <c r="E59" s="66"/>
-      <c r="F59" s="62"/>
+      <c r="F59" s="62" t="s">
+        <v>140</v>
+      </c>
       <c r="G59" s="73" t="s">
         <v>62</v>
       </c>
@@ -14233,7 +14338,9 @@
         <f>SUM($H60:$BF60)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="62"/>
+      <c r="F60" s="62" t="s">
+        <v>140</v>
+      </c>
       <c r="G60" s="73" t="s">
         <v>16</v>
       </c>
@@ -14370,7 +14477,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
@@ -14580,11 +14687,13 @@
         <v>13</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="66"/>
-      <c r="F65" s="62"/>
+      <c r="F65" s="62" t="s">
+        <v>146</v>
+      </c>
       <c r="G65" s="73" t="s">
         <v>62</v>
       </c>
@@ -14595,7 +14704,9 @@
       <c r="L65" s="66"/>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
+      <c r="O65" s="66">
+        <v>0</v>
+      </c>
       <c r="P65" s="66"/>
       <c r="Q65" s="66"/>
       <c r="R65" s="66"/>
@@ -14651,9 +14762,11 @@
       <c r="D66" s="66"/>
       <c r="E66" s="66">
         <f>SUM($H66:$BF66)</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="62"/>
+        <v>2</v>
+      </c>
+      <c r="F66" s="62" t="s">
+        <v>146</v>
+      </c>
       <c r="G66" s="73" t="s">
         <v>16</v>
       </c>
@@ -14664,7 +14777,9 @@
       <c r="L66" s="66"/>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
+      <c r="O66" s="66">
+        <v>2</v>
+      </c>
       <c r="P66" s="66"/>
       <c r="Q66" s="66"/>
       <c r="R66" s="66"/>
@@ -16257,13 +16372,13 @@
     <row r="89" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="122" t="s">
+      <c r="C89" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="123"/>
-      <c r="E89" s="123"/>
-      <c r="F89" s="123"/>
-      <c r="G89" s="124"/>
+      <c r="D89" s="115"/>
+      <c r="E89" s="115"/>
+      <c r="F89" s="115"/>
+      <c r="G89" s="116"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -16328,9 +16443,13 @@
       <c r="C90" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D90" s="66"/>
+      <c r="D90" s="66" t="s">
+        <v>142</v>
+      </c>
       <c r="E90" s="66"/>
-      <c r="F90" s="62"/>
+      <c r="F90" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="G90" s="73" t="s">
         <v>62</v>
       </c>
@@ -16343,7 +16462,9 @@
       <c r="N90" s="66"/>
       <c r="O90" s="66"/>
       <c r="P90" s="66"/>
-      <c r="Q90" s="66"/>
+      <c r="Q90" s="66">
+        <v>4</v>
+      </c>
       <c r="R90" s="66"/>
       <c r="S90" s="66"/>
       <c r="T90" s="66"/>
@@ -16399,7 +16520,9 @@
         <f>SUM($H91:$BF91)</f>
         <v>0</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="G91" s="73" t="s">
         <v>16</v>
       </c>
@@ -16536,11 +16659,15 @@
         <v>2</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="66"/>
+        <v>143</v>
+      </c>
+      <c r="D93" s="66" t="s">
+        <v>144</v>
+      </c>
       <c r="E93" s="66"/>
-      <c r="F93" s="62"/>
+      <c r="F93" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="G93" s="73" t="s">
         <v>62</v>
       </c>
@@ -16554,7 +16681,9 @@
       <c r="O93" s="66"/>
       <c r="P93" s="66"/>
       <c r="Q93" s="66"/>
-      <c r="R93" s="66"/>
+      <c r="R93" s="66">
+        <v>4</v>
+      </c>
       <c r="S93" s="66"/>
       <c r="T93" s="66"/>
       <c r="U93" s="66"/>
@@ -16609,7 +16738,9 @@
         <f>SUM($H94:$BF94)</f>
         <v>0</v>
       </c>
-      <c r="F94" s="62"/>
+      <c r="F94" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="G94" s="73" t="s">
         <v>16</v>
       </c>
@@ -16951,15 +17082,15 @@
       </c>
     </row>
     <row r="99" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="118" t="s">
+      <c r="A99" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="118"/>
-      <c r="C99" s="118"/>
-      <c r="D99" s="118"/>
-      <c r="E99" s="118"/>
-      <c r="F99" s="119"/>
-      <c r="G99" s="79"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="92"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
       <c r="J99" s="66"/>
@@ -17019,13 +17150,13 @@
     <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="104" t="s">
+      <c r="C100" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="106"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="119"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -17183,7 +17314,9 @@
       </c>
       <c r="M102" s="66"/>
       <c r="N102" s="66"/>
-      <c r="O102" s="66"/>
+      <c r="O102" s="66">
+        <v>0</v>
+      </c>
       <c r="P102" s="66"/>
       <c r="Q102" s="66"/>
       <c r="R102" s="66"/>
@@ -17241,7 +17374,7 @@
       </c>
       <c r="E103" s="66" t="str">
         <f>IF(MAX($H103:$BF103)=0,"",MAX($H103:$BF103)&amp;" %")</f>
-        <v>85 %</v>
+        <v>86 %</v>
       </c>
       <c r="F103" s="62"/>
       <c r="G103" s="72" t="s">
@@ -17258,7 +17391,9 @@
       </c>
       <c r="M103" s="66"/>
       <c r="N103" s="66"/>
-      <c r="O103" s="66"/>
+      <c r="O103" s="66">
+        <v>86</v>
+      </c>
       <c r="P103" s="66"/>
       <c r="Q103" s="66"/>
       <c r="R103" s="66"/>
@@ -17524,7 +17659,9 @@
       </c>
       <c r="D107" s="66"/>
       <c r="E107" s="66"/>
-      <c r="F107" s="62"/>
+      <c r="F107" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="G107" s="73" t="s">
         <v>62</v>
       </c>
@@ -17536,9 +17673,15 @@
       <c r="M107" s="66"/>
       <c r="N107" s="66"/>
       <c r="O107" s="66"/>
-      <c r="P107" s="66"/>
-      <c r="Q107" s="66"/>
-      <c r="R107" s="66"/>
+      <c r="P107" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="66">
+        <v>2</v>
+      </c>
+      <c r="R107" s="66">
+        <v>2</v>
+      </c>
       <c r="S107" s="66"/>
       <c r="T107" s="66"/>
       <c r="U107" s="66"/>
@@ -17590,7 +17733,9 @@
       <c r="C108" s="69"/>
       <c r="D108" s="66"/>
       <c r="E108" s="66"/>
-      <c r="F108" s="62"/>
+      <c r="F108" s="62" t="s">
+        <v>141</v>
+      </c>
       <c r="G108" s="73" t="s">
         <v>16</v>
       </c>
@@ -17813,7 +17958,9 @@
       <c r="O111" s="66">
         <v>2</v>
       </c>
-      <c r="P111" s="66"/>
+      <c r="P111" s="66">
+        <v>3</v>
+      </c>
       <c r="Q111" s="66"/>
       <c r="R111" s="66"/>
       <c r="S111" s="66"/>
@@ -17880,7 +18027,9 @@
       <c r="L112" s="66"/>
       <c r="M112" s="66"/>
       <c r="N112" s="66"/>
-      <c r="O112" s="66"/>
+      <c r="O112" s="66">
+        <v>0</v>
+      </c>
       <c r="P112" s="66"/>
       <c r="Q112" s="66"/>
       <c r="R112" s="66"/>
@@ -17951,7 +18100,9 @@
       <c r="L113" s="66"/>
       <c r="M113" s="66"/>
       <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
+      <c r="O113" s="66">
+        <v>0</v>
+      </c>
       <c r="P113" s="66"/>
       <c r="Q113" s="66"/>
       <c r="R113" s="66"/>
@@ -18005,10 +18156,14 @@
       <c r="B114" s="67">
         <v>2</v>
       </c>
-      <c r="C114" s="66"/>
+      <c r="C114" s="66" t="s">
+        <v>149</v>
+      </c>
       <c r="D114" s="66"/>
       <c r="E114" s="66"/>
-      <c r="F114" s="62"/>
+      <c r="F114" s="62" t="s">
+        <v>140</v>
+      </c>
       <c r="G114" s="73" t="s">
         <v>62</v>
       </c>
@@ -18020,7 +18175,9 @@
       <c r="M114" s="66"/>
       <c r="N114" s="66"/>
       <c r="O114" s="66"/>
-      <c r="P114" s="66"/>
+      <c r="P114" s="66">
+        <v>3</v>
+      </c>
       <c r="Q114" s="66"/>
       <c r="R114" s="66"/>
       <c r="S114" s="66"/>
@@ -18074,7 +18231,9 @@
       <c r="C115" s="69"/>
       <c r="D115" s="66"/>
       <c r="E115" s="66"/>
-      <c r="F115" s="62"/>
+      <c r="F115" s="62" t="s">
+        <v>140</v>
+      </c>
       <c r="G115" s="73" t="s">
         <v>16</v>
       </c>
@@ -18208,13 +18367,13 @@
     <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="104" t="s">
+      <c r="C117" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="105"/>
-      <c r="E117" s="105"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="106"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="118"/>
+      <c r="G117" s="119"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
@@ -22424,13 +22583,13 @@
     <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
-      <c r="C178" s="104" t="s">
+      <c r="C178" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="105"/>
-      <c r="E178" s="105"/>
-      <c r="F178" s="105"/>
-      <c r="G178" s="106"/>
+      <c r="D178" s="118"/>
+      <c r="E178" s="118"/>
+      <c r="F178" s="118"/>
+      <c r="G178" s="119"/>
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
       <c r="J178" s="66"/>
@@ -23109,15 +23268,15 @@
       </c>
     </row>
     <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="120" t="s">
+      <c r="A188" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B188" s="120"/>
-      <c r="C188" s="120"/>
-      <c r="D188" s="120"/>
-      <c r="E188" s="120"/>
-      <c r="F188" s="121"/>
-      <c r="G188" s="80"/>
+      <c r="B188" s="112"/>
+      <c r="C188" s="112"/>
+      <c r="D188" s="112"/>
+      <c r="E188" s="112"/>
+      <c r="F188" s="113"/>
+      <c r="G188" s="79"/>
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
       <c r="J188" s="66"/>
@@ -23177,13 +23336,13 @@
     <row r="189" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="57"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="125" t="s">
+      <c r="C189" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="126"/>
-      <c r="E189" s="126"/>
-      <c r="F189" s="126"/>
-      <c r="G189" s="127"/>
+      <c r="D189" s="121"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="G189" s="122"/>
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
       <c r="J189" s="66"/>
@@ -23278,15 +23437,9 @@
       <c r="O190" s="66">
         <v>1</v>
       </c>
-      <c r="P190" s="66">
-        <v>1</v>
-      </c>
-      <c r="Q190" s="66">
-        <v>1</v>
-      </c>
-      <c r="R190" s="66">
-        <v>1</v>
-      </c>
+      <c r="P190" s="66"/>
+      <c r="Q190" s="66"/>
+      <c r="R190" s="66"/>
       <c r="S190" s="66"/>
       <c r="T190" s="66"/>
       <c r="U190" s="66"/>
@@ -23361,7 +23514,9 @@
       </c>
       <c r="M191" s="66"/>
       <c r="N191" s="66"/>
-      <c r="O191" s="66"/>
+      <c r="O191" s="66">
+        <v>1</v>
+      </c>
       <c r="P191" s="66"/>
       <c r="Q191" s="66"/>
       <c r="R191" s="66"/>
@@ -23995,17 +24150,13 @@
       <c r="M200" s="66"/>
       <c r="N200" s="66"/>
       <c r="O200" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P200" s="66">
-        <v>1</v>
-      </c>
-      <c r="Q200" s="66">
         <v>3</v>
       </c>
-      <c r="R200" s="66">
-        <v>3</v>
-      </c>
+      <c r="Q200" s="66"/>
+      <c r="R200" s="66"/>
       <c r="S200" s="66"/>
       <c r="T200" s="66"/>
       <c r="U200" s="66"/>
@@ -24072,7 +24223,9 @@
       </c>
       <c r="M201" s="66"/>
       <c r="N201" s="66"/>
-      <c r="O201" s="66"/>
+      <c r="O201" s="66">
+        <v>0</v>
+      </c>
       <c r="P201" s="66"/>
       <c r="Q201" s="66"/>
       <c r="R201" s="66"/>
@@ -24416,11 +24569,11 @@
         <v>86</v>
       </c>
       <c r="D206" s="66" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E206" s="66"/>
       <c r="F206" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G206" s="73" t="s">
         <v>62</v>
@@ -24433,15 +24586,9 @@
       <c r="M206" s="66"/>
       <c r="N206" s="66"/>
       <c r="O206" s="66"/>
-      <c r="P206" s="66">
-        <v>1</v>
-      </c>
-      <c r="Q206" s="66">
-        <v>1</v>
-      </c>
-      <c r="R206" s="66">
-        <v>1</v>
-      </c>
+      <c r="P206" s="66"/>
+      <c r="Q206" s="66"/>
+      <c r="R206" s="66"/>
       <c r="S206" s="66"/>
       <c r="T206" s="66"/>
       <c r="U206" s="66"/>
@@ -24494,7 +24641,7 @@
       <c r="D207" s="66"/>
       <c r="E207" s="66"/>
       <c r="F207" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G207" s="73" t="s">
         <v>16</v>
@@ -24626,16 +24773,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A209" s="57"/>
-      <c r="B209" s="67"/>
-      <c r="C209" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D209" s="126"/>
-      <c r="E209" s="126"/>
-      <c r="F209" s="126"/>
-      <c r="G209" s="127"/>
+      <c r="B209" s="67">
+        <v>4</v>
+      </c>
+      <c r="C209" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D209" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E209" s="66"/>
+      <c r="F209" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G209" s="73" t="s">
+        <v>62</v>
+      </c>
       <c r="H209" s="66"/>
       <c r="I209" s="66"/>
       <c r="J209" s="66"/>
@@ -24644,7 +24799,9 @@
       <c r="M209" s="66"/>
       <c r="N209" s="66"/>
       <c r="O209" s="66"/>
-      <c r="P209" s="66"/>
+      <c r="P209" s="66">
+        <v>3</v>
+      </c>
       <c r="Q209" s="66"/>
       <c r="R209" s="66"/>
       <c r="S209" s="66"/>
@@ -24694,17 +24851,15 @@
     </row>
     <row r="210" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A210" s="57"/>
-      <c r="B210" s="67">
-        <v>1</v>
-      </c>
-      <c r="C210" s="66" t="s">
-        <v>38</v>
-      </c>
+      <c r="B210" s="67"/>
+      <c r="C210" s="69"/>
       <c r="D210" s="66"/>
       <c r="E210" s="66"/>
-      <c r="F210" s="62"/>
+      <c r="F210" s="62" t="s">
+        <v>58</v>
+      </c>
       <c r="G210" s="73" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H210" s="66"/>
       <c r="I210" s="66"/>
@@ -24766,11 +24921,16 @@
       <c r="A211" s="57"/>
       <c r="B211" s="67"/>
       <c r="C211" s="69"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="66"/>
+      <c r="D211" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E211" s="66" t="str">
+        <f>IF(MAX($H211:$BF211)=0,"",MAX($H211:$BF211)&amp;" %")</f>
+        <v/>
+      </c>
       <c r="F211" s="62"/>
       <c r="G211" s="73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H211" s="66"/>
       <c r="I211" s="66"/>
@@ -24828,21 +24988,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A212" s="57"/>
       <c r="B212" s="67"/>
-      <c r="C212" s="69"/>
-      <c r="D212" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E212" s="66" t="str">
-        <f>IF(MAX($H212:$BF212)=0,"",MAX($H212:$BF212)&amp;" %")</f>
-        <v/>
-      </c>
-      <c r="F212" s="62"/>
-      <c r="G212" s="73" t="s">
-        <v>17</v>
-      </c>
+      <c r="C212" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D212" s="121"/>
+      <c r="E212" s="121"/>
+      <c r="F212" s="121"/>
+      <c r="G212" s="122"/>
       <c r="H212" s="66"/>
       <c r="I212" s="66"/>
       <c r="J212" s="66"/>
@@ -24902,10 +25057,10 @@
     <row r="213" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A213" s="57"/>
       <c r="B213" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D213" s="66"/>
       <c r="E213" s="66"/>
@@ -25109,10 +25264,10 @@
     <row r="216" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A216" s="57"/>
       <c r="B216" s="67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" s="66" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D216" s="66"/>
       <c r="E216" s="66"/>
@@ -25316,10 +25471,10 @@
     <row r="219" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A219" s="57"/>
       <c r="B219" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C219" s="66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D219" s="66"/>
       <c r="E219" s="66"/>
@@ -25523,10 +25678,10 @@
     <row r="222" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A222" s="57"/>
       <c r="B222" s="67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C222" s="66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D222" s="66"/>
       <c r="E222" s="66"/>
@@ -25730,10 +25885,10 @@
     <row r="225" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A225" s="57"/>
       <c r="B225" s="67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" s="66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D225" s="66"/>
       <c r="E225" s="66"/>
@@ -25937,10 +26092,10 @@
     <row r="228" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A228" s="57"/>
       <c r="B228" s="67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" s="66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D228" s="66"/>
       <c r="E228" s="66"/>
@@ -26144,10 +26299,10 @@
     <row r="231" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A231" s="57"/>
       <c r="B231" s="67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D231" s="66"/>
       <c r="E231" s="66"/>
@@ -26351,10 +26506,10 @@
     <row r="234" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A234" s="57"/>
       <c r="B234" s="67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C234" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D234" s="66"/>
       <c r="E234" s="66"/>
@@ -26558,10 +26713,10 @@
     <row r="237" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A237" s="57"/>
       <c r="B237" s="67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C237" s="66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D237" s="66"/>
       <c r="E237" s="66"/>
@@ -26765,10 +26920,10 @@
     <row r="240" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A240" s="57"/>
       <c r="B240" s="67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C240" s="66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D240" s="66"/>
       <c r="E240" s="66"/>
@@ -26972,10 +27127,10 @@
     <row r="243" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A243" s="57"/>
       <c r="B243" s="67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C243" s="66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D243" s="66"/>
       <c r="E243" s="66"/>
@@ -27179,10 +27334,10 @@
     <row r="246" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A246" s="57"/>
       <c r="B246" s="67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C246" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D246" s="66"/>
       <c r="E246" s="66"/>
@@ -27386,10 +27541,10 @@
     <row r="249" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A249" s="57"/>
       <c r="B249" s="67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C249" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D249" s="66"/>
       <c r="E249" s="66"/>
@@ -27593,10 +27748,10 @@
     <row r="252" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A252" s="57"/>
       <c r="B252" s="67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C252" s="66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D252" s="66"/>
       <c r="E252" s="66"/>
@@ -27800,10 +27955,10 @@
     <row r="255" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A255" s="57"/>
       <c r="B255" s="67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C255" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D255" s="66"/>
       <c r="E255" s="66"/>
@@ -28007,10 +28162,10 @@
     <row r="258" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A258" s="57"/>
       <c r="B258" s="67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C258" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D258" s="66"/>
       <c r="E258" s="66"/>
@@ -28214,10 +28369,10 @@
     <row r="261" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A261" s="57"/>
       <c r="B261" s="67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C261" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D261" s="66"/>
       <c r="E261" s="66"/>
@@ -28421,10 +28576,10 @@
     <row r="264" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A264" s="57"/>
       <c r="B264" s="67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C264" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D264" s="66"/>
       <c r="E264" s="66"/>
@@ -28628,10 +28783,10 @@
     <row r="267" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A267" s="57"/>
       <c r="B267" s="67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C267" s="66" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D267" s="66"/>
       <c r="E267" s="66"/>
@@ -28832,16 +28987,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A270" s="57"/>
-      <c r="B270" s="67"/>
+      <c r="B270" s="67">
+        <v>20</v>
+      </c>
       <c r="C270" s="66" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D270" s="66"/>
       <c r="E270" s="66"/>
       <c r="F270" s="62"/>
-      <c r="G270" s="73"/>
+      <c r="G270" s="73" t="s">
+        <v>62</v>
+      </c>
       <c r="H270" s="66"/>
       <c r="I270" s="66"/>
       <c r="J270" s="66"/>
@@ -28898,19 +29057,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A271" s="57"/>
-      <c r="B271" s="67">
-        <v>1</v>
-      </c>
-      <c r="C271" s="70" t="s">
-        <v>35</v>
-      </c>
+      <c r="B271" s="67"/>
+      <c r="C271" s="69"/>
       <c r="D271" s="66"/>
       <c r="E271" s="66"/>
       <c r="F271" s="62"/>
       <c r="G271" s="73" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H271" s="66"/>
       <c r="I271" s="66"/>
@@ -28968,15 +29123,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="272" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A272" s="57"/>
       <c r="B272" s="67"/>
       <c r="C272" s="69"/>
-      <c r="D272" s="66"/>
-      <c r="E272" s="66"/>
+      <c r="D272" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E272" s="66" t="str">
+        <f>IF(MAX($H272:$BF272)=0,"",MAX($H272:$BF272)&amp;" %")</f>
+        <v/>
+      </c>
       <c r="F272" s="62"/>
       <c r="G272" s="73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H272" s="66"/>
       <c r="I272" s="66"/>
@@ -29037,18 +29197,13 @@
     <row r="273" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A273" s="57"/>
       <c r="B273" s="67"/>
-      <c r="C273" s="69"/>
-      <c r="D273" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E273" s="66" t="str">
-        <f>IF(MAX($H273:$BF273)=0,"",MAX($H273:$BF273)&amp;" %")</f>
-        <v/>
-      </c>
+      <c r="C273" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273" s="66"/>
+      <c r="E273" s="66"/>
       <c r="F273" s="62"/>
-      <c r="G273" s="73" t="s">
-        <v>17</v>
-      </c>
+      <c r="G273" s="73"/>
       <c r="H273" s="66"/>
       <c r="I273" s="66"/>
       <c r="J273" s="66"/>
@@ -29108,7 +29263,7 @@
     <row r="274" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A274" s="57"/>
       <c r="B274" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C274" s="70" t="s">
         <v>35</v>
@@ -29315,7 +29470,7 @@
     <row r="277" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A277" s="57"/>
       <c r="B277" s="67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" s="70" t="s">
         <v>35</v>
@@ -29519,875 +29674,425 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A280" s="57"/>
-      <c r="B280" s="112" t="s">
+      <c r="B280" s="67">
+        <v>3</v>
+      </c>
+      <c r="C280" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D280" s="66"/>
+      <c r="E280" s="66"/>
+      <c r="F280" s="62"/>
+      <c r="G280" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H280" s="66"/>
+      <c r="I280" s="66"/>
+      <c r="J280" s="66"/>
+      <c r="K280" s="66"/>
+      <c r="L280" s="66"/>
+      <c r="M280" s="66"/>
+      <c r="N280" s="66"/>
+      <c r="O280" s="66"/>
+      <c r="P280" s="66"/>
+      <c r="Q280" s="66"/>
+      <c r="R280" s="66"/>
+      <c r="S280" s="66"/>
+      <c r="T280" s="66"/>
+      <c r="U280" s="66"/>
+      <c r="V280" s="66"/>
+      <c r="W280" s="66"/>
+      <c r="X280" s="66"/>
+      <c r="Y280" s="66"/>
+      <c r="Z280" s="66"/>
+      <c r="AA280" s="66"/>
+      <c r="AB280" s="66"/>
+      <c r="AC280" s="66"/>
+      <c r="AD280" s="66"/>
+      <c r="AE280" s="66"/>
+      <c r="AF280" s="66"/>
+      <c r="AG280" s="66"/>
+      <c r="AH280" s="66"/>
+      <c r="AI280" s="66"/>
+      <c r="AJ280" s="66"/>
+      <c r="AK280" s="66"/>
+      <c r="AL280" s="66"/>
+      <c r="AM280" s="66"/>
+      <c r="AN280" s="66"/>
+      <c r="AO280" s="66"/>
+      <c r="AP280" s="66"/>
+      <c r="AQ280" s="66"/>
+      <c r="AR280" s="66"/>
+      <c r="AS280" s="66"/>
+      <c r="AT280" s="66"/>
+      <c r="AU280" s="66"/>
+      <c r="AV280" s="66"/>
+      <c r="AW280" s="66"/>
+      <c r="AX280" s="66"/>
+      <c r="AY280" s="66"/>
+      <c r="AZ280" s="66"/>
+      <c r="BA280" s="66"/>
+      <c r="BB280" s="66"/>
+      <c r="BC280" s="66"/>
+      <c r="BD280" s="66"/>
+      <c r="BE280" s="66"/>
+      <c r="BF280" s="66"/>
+      <c r="BG280" s="68"/>
+      <c r="BH280" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="281" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="57"/>
+      <c r="B281" s="67"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="66"/>
+      <c r="E281" s="66"/>
+      <c r="F281" s="62"/>
+      <c r="G281" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" s="66"/>
+      <c r="I281" s="66"/>
+      <c r="J281" s="66"/>
+      <c r="K281" s="66"/>
+      <c r="L281" s="66"/>
+      <c r="M281" s="66"/>
+      <c r="N281" s="66"/>
+      <c r="O281" s="66"/>
+      <c r="P281" s="66"/>
+      <c r="Q281" s="66"/>
+      <c r="R281" s="66"/>
+      <c r="S281" s="66"/>
+      <c r="T281" s="66"/>
+      <c r="U281" s="66"/>
+      <c r="V281" s="66"/>
+      <c r="W281" s="66"/>
+      <c r="X281" s="66"/>
+      <c r="Y281" s="66"/>
+      <c r="Z281" s="66"/>
+      <c r="AA281" s="66"/>
+      <c r="AB281" s="66"/>
+      <c r="AC281" s="66"/>
+      <c r="AD281" s="66"/>
+      <c r="AE281" s="66"/>
+      <c r="AF281" s="66"/>
+      <c r="AG281" s="66"/>
+      <c r="AH281" s="66"/>
+      <c r="AI281" s="66"/>
+      <c r="AJ281" s="66"/>
+      <c r="AK281" s="66"/>
+      <c r="AL281" s="66"/>
+      <c r="AM281" s="66"/>
+      <c r="AN281" s="66"/>
+      <c r="AO281" s="66"/>
+      <c r="AP281" s="66"/>
+      <c r="AQ281" s="66"/>
+      <c r="AR281" s="66"/>
+      <c r="AS281" s="66"/>
+      <c r="AT281" s="66"/>
+      <c r="AU281" s="66"/>
+      <c r="AV281" s="66"/>
+      <c r="AW281" s="66"/>
+      <c r="AX281" s="66"/>
+      <c r="AY281" s="66"/>
+      <c r="AZ281" s="66"/>
+      <c r="BA281" s="66"/>
+      <c r="BB281" s="66"/>
+      <c r="BC281" s="66"/>
+      <c r="BD281" s="66"/>
+      <c r="BE281" s="66"/>
+      <c r="BF281" s="66"/>
+      <c r="BG281" s="68"/>
+      <c r="BH281" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="57"/>
+      <c r="B282" s="67"/>
+      <c r="C282" s="69"/>
+      <c r="D282" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E282" s="66" t="str">
+        <f>IF(MAX($H282:$BF282)=0,"",MAX($H282:$BF282)&amp;" %")</f>
+        <v/>
+      </c>
+      <c r="F282" s="62"/>
+      <c r="G282" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H282" s="66"/>
+      <c r="I282" s="66"/>
+      <c r="J282" s="66"/>
+      <c r="K282" s="66"/>
+      <c r="L282" s="66"/>
+      <c r="M282" s="66"/>
+      <c r="N282" s="66"/>
+      <c r="O282" s="66"/>
+      <c r="P282" s="66"/>
+      <c r="Q282" s="66"/>
+      <c r="R282" s="66"/>
+      <c r="S282" s="66"/>
+      <c r="T282" s="66"/>
+      <c r="U282" s="66"/>
+      <c r="V282" s="66"/>
+      <c r="W282" s="66"/>
+      <c r="X282" s="66"/>
+      <c r="Y282" s="66"/>
+      <c r="Z282" s="66"/>
+      <c r="AA282" s="66"/>
+      <c r="AB282" s="66"/>
+      <c r="AC282" s="66"/>
+      <c r="AD282" s="66"/>
+      <c r="AE282" s="66"/>
+      <c r="AF282" s="66"/>
+      <c r="AG282" s="66"/>
+      <c r="AH282" s="66"/>
+      <c r="AI282" s="66"/>
+      <c r="AJ282" s="66"/>
+      <c r="AK282" s="66"/>
+      <c r="AL282" s="66"/>
+      <c r="AM282" s="66"/>
+      <c r="AN282" s="66"/>
+      <c r="AO282" s="66"/>
+      <c r="AP282" s="66"/>
+      <c r="AQ282" s="66"/>
+      <c r="AR282" s="66"/>
+      <c r="AS282" s="66"/>
+      <c r="AT282" s="66"/>
+      <c r="AU282" s="66"/>
+      <c r="AV282" s="66"/>
+      <c r="AW282" s="66"/>
+      <c r="AX282" s="66"/>
+      <c r="AY282" s="66"/>
+      <c r="AZ282" s="66"/>
+      <c r="BA282" s="66"/>
+      <c r="BB282" s="66"/>
+      <c r="BC282" s="66"/>
+      <c r="BD282" s="66"/>
+      <c r="BE282" s="66"/>
+      <c r="BF282" s="66"/>
+      <c r="BG282" s="68"/>
+      <c r="BH282" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="283" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="57"/>
+      <c r="B283" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C280" s="113"/>
-      <c r="D280" s="113"/>
-      <c r="E280" s="113"/>
-      <c r="F280" s="113"/>
-      <c r="G280" s="114"/>
-      <c r="H280" s="66">
-        <f>SUM(H281:H285)</f>
+      <c r="C283" s="105"/>
+      <c r="D283" s="105"/>
+      <c r="E283" s="105"/>
+      <c r="F283" s="105"/>
+      <c r="G283" s="106"/>
+      <c r="H283" s="66">
+        <f>SUM(H284:H288)</f>
         <v>5</v>
       </c>
-      <c r="I280" s="66">
-        <f t="shared" ref="I280:BF280" si="2">SUM(I281:I285)</f>
+      <c r="I283" s="66">
+        <f t="shared" ref="I283:BF283" si="2">SUM(I284:I288)</f>
         <v>5</v>
       </c>
-      <c r="J280" s="66">
+      <c r="J283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K280" s="66">
+      <c r="K283" s="66">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="L280" s="66">
+      <c r="L283" s="66">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M280" s="66">
+      <c r="M283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N280" s="66">
+      <c r="N283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O280" s="66">
+      <c r="O283" s="66">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="P280" s="66">
+        <v>30</v>
+      </c>
+      <c r="P283" s="66">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q280" s="66">
+        <v>30</v>
+      </c>
+      <c r="Q283" s="66">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="R280" s="66">
+        <v>30</v>
+      </c>
+      <c r="R283" s="66">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="S280" s="66">
+        <v>30</v>
+      </c>
+      <c r="S283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T280" s="66">
+      <c r="T283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U280" s="66">
+      <c r="U283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V280" s="66">
+      <c r="V283" s="66">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="W280" s="66">
+      <c r="W283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X280" s="66">
+      <c r="X283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y280" s="66">
+      <c r="Y283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z280" s="66">
+      <c r="Z283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA280" s="66">
+      <c r="AA283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB280" s="66">
+      <c r="AB283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC280" s="66">
+      <c r="AC283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD280" s="66">
+      <c r="AD283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE280" s="66">
+      <c r="AE283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF280" s="66">
+      <c r="AF283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG280" s="66">
+      <c r="AG283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH280" s="66">
+      <c r="AH283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI280" s="66">
+      <c r="AI283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ280" s="66">
+      <c r="AJ283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK280" s="66">
+      <c r="AK283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL280" s="66">
+      <c r="AL283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM280" s="66">
+      <c r="AM283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN280" s="66">
+      <c r="AN283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO280" s="66">
+      <c r="AO283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP280" s="66">
+      <c r="AP283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ280" s="66">
+      <c r="AQ283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR280" s="66">
+      <c r="AR283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS280" s="66">
+      <c r="AS283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT280" s="66">
+      <c r="AT283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU280" s="66">
+      <c r="AU283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AV280" s="66">
+      <c r="AV283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW280" s="66">
+      <c r="AW283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AX280" s="66">
+      <c r="AX283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AY280" s="66">
+      <c r="AY283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AZ280" s="66">
+      <c r="AZ283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA280" s="66">
+      <c r="BA283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BB280" s="66">
+      <c r="BB283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BC280" s="66">
+      <c r="BC283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BD280" s="66">
+      <c r="BD283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE280" s="66">
+      <c r="BE283" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BF280" s="66">
+      <c r="BF283" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BG280" s="68"/>
-      <c r="BH280" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="281" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="57"/>
-      <c r="B281" s="76"/>
-      <c r="C281" s="76"/>
-      <c r="D281" s="76"/>
-      <c r="E281" s="76"/>
-      <c r="F281" s="77"/>
-      <c r="G281" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H281" s="66">
-        <f t="shared" ref="H281:AM281" si="3">SUMIFS(H12:H279,$G12:$G279,"予定時間",$F12:$F279,"今井")+H286</f>
-        <v>1</v>
-      </c>
-      <c r="I281" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K281" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L281" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O281" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="P281" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q281" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R281" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V281" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM281" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN281" s="66">
-        <f t="shared" ref="AN281:BF281" si="4">SUMIFS(AN12:AN279,$G12:$G279,"予定時間",$F12:$F279,"今井")+AN286</f>
-        <v>0</v>
-      </c>
-      <c r="AO281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AU281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AX281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AZ281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BA281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BB281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BF281" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BG281" s="68"/>
-      <c r="BH281" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="282" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="57"/>
-      <c r="B282" s="76"/>
-      <c r="C282" s="76"/>
-      <c r="D282" s="76"/>
-      <c r="E282" s="76"/>
-      <c r="F282" s="77"/>
-      <c r="G282" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="H282" s="66">
-        <f t="shared" ref="H282:AM282" si="5">SUMIFS(H12:H279,$G12:$G279,"予定時間",$F12:$F279,"浦島")+H286</f>
-        <v>1</v>
-      </c>
-      <c r="I282" s="66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K282" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L282" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="M282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O282" s="66">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="P282" s="66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Q282" s="66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="R282" s="66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V282" s="66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="W282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM282" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AN282" s="66">
-        <f t="shared" ref="AN282:BF282" si="6">SUMIFS(AN12:AN279,$G12:$G279,"予定時間",$F12:$F279,"浦島")+AN286</f>
-        <v>0</v>
-      </c>
-      <c r="AO282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AP282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AQ282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AR282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AS282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AT282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AU282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AW282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AY282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AZ282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BA282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BC282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BD282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF282" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BG282" s="68"/>
-      <c r="BH282" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="283" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="57"/>
-      <c r="B283" s="76"/>
-      <c r="C283" s="76"/>
-      <c r="D283" s="76"/>
-      <c r="E283" s="76"/>
-      <c r="F283" s="77"/>
-      <c r="G283" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="H283" s="66">
-        <f t="shared" ref="H283:AM283" si="7">SUMIFS(H12:H279,$G12:$G279,"予定時間",$F12:$F279,"河野")+H286</f>
-        <v>1</v>
-      </c>
-      <c r="I283" s="66">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K283" s="66">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="L283" s="66">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="M283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O283" s="66">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="P283" s="66">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Q283" s="66">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="R283" s="66">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="S283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V283" s="66">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AK283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AM283" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN283" s="66">
-        <f t="shared" ref="AN283:BF283" si="8">SUMIFS(AN12:AN279,$G12:$G279,"予定時間",$F12:$F279,"河野")+AN286</f>
-        <v>0</v>
-      </c>
-      <c r="AO283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AP283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AQ283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AR283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AS283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AT283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AU283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AV283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AW283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AX283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AY283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AZ283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BA283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BB283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BC283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BD283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BE283" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BF283" s="66">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG283" s="68"/>
@@ -30403,210 +30108,210 @@
       <c r="E284" s="76"/>
       <c r="F284" s="77"/>
       <c r="G284" s="62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H284" s="66">
-        <f t="shared" ref="H284:AM284" si="9">SUMIFS(H12:H279,$G12:$G279,"予定時間",$F12:$F279,"堀川")+H286</f>
+        <f t="shared" ref="H284:AM284" si="3">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"今井")+H289</f>
         <v>1</v>
       </c>
       <c r="I284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K284" s="66">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="L284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="P284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Q284" s="66">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="R284" s="66">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S284" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T284" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U284" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V284" s="66">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q284" s="66">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R284" s="66">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S284" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T284" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U284" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V284" s="66">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
       <c r="W284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM284" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN284" s="66">
-        <f t="shared" ref="AN284:BF284" si="10">SUMIFS(AN12:AN279,$G12:$G279,"予定時間",$F12:$F279,"堀川")+AN286</f>
+        <f t="shared" ref="AN284:BF284" si="4">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"今井")+AN289</f>
         <v>0</v>
       </c>
       <c r="AO284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AZ284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BA284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BC284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BD284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BF284" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG284" s="68"/>
@@ -30622,210 +30327,210 @@
       <c r="E285" s="76"/>
       <c r="F285" s="77"/>
       <c r="G285" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H285" s="66">
-        <f t="shared" ref="H285:AM285" si="11">SUMIFS(H12:H279,$G12:$G279,"予定時間",$F12:$F279,"田中")+H286</f>
+        <f t="shared" ref="H285:AM285" si="5">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"浦島")+H289</f>
         <v>1</v>
       </c>
       <c r="I285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="L285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="M285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O285" s="66">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="P285" s="66">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="Q285" s="66">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="R285" s="66">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="S285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM285" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN285" s="66">
-        <f t="shared" ref="AN285:BF285" si="12">SUMIFS(AN12:AN279,$G12:$G279,"予定時間",$F12:$F279,"田中")+AN286</f>
+        <f t="shared" ref="AN285:BF285" si="6">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"浦島")+AN289</f>
         <v>0</v>
       </c>
       <c r="AO285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AT285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AW285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BB285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF285" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BG285" s="68"/>
@@ -30841,1089 +30546,1089 @@
       <c r="E286" s="76"/>
       <c r="F286" s="77"/>
       <c r="G286" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H286" s="66">
+        <f t="shared" ref="H286:AM286" si="7">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"河野")+H289</f>
+        <v>1</v>
+      </c>
+      <c r="I286" s="66">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K286" s="66">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L286" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O286" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P286" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q286" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="R286" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="S286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V286" s="66">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM286" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN286" s="66">
+        <f t="shared" ref="AN286:BF286" si="8">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"河野")+AN289</f>
+        <v>0</v>
+      </c>
+      <c r="AO286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF286" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG286" s="68"/>
+      <c r="BH286" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="57"/>
+      <c r="B287" s="76"/>
+      <c r="C287" s="76"/>
+      <c r="D287" s="76"/>
+      <c r="E287" s="76"/>
+      <c r="F287" s="77"/>
+      <c r="G287" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H287" s="66">
+        <f t="shared" ref="H287:AM287" si="9">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"堀川")+H289</f>
+        <v>1</v>
+      </c>
+      <c r="I287" s="66">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K287" s="66">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="L287" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="M287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O287" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="P287" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Q287" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="R287" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V287" s="66">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM287" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN287" s="66">
+        <f t="shared" ref="AN287:BF287" si="10">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"堀川")+AN289</f>
+        <v>0</v>
+      </c>
+      <c r="AO287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AZ287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BA287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BB287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BC287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BD287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BE287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF287" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BG287" s="68"/>
+      <c r="BH287" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="57"/>
+      <c r="B288" s="76"/>
+      <c r="C288" s="76"/>
+      <c r="D288" s="76"/>
+      <c r="E288" s="76"/>
+      <c r="F288" s="77"/>
+      <c r="G288" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H288" s="66">
+        <f t="shared" ref="H288:AM288" si="11">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"田中")+H289</f>
+        <v>1</v>
+      </c>
+      <c r="I288" s="66">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K288" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L288" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="M288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O288" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P288" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Q288" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="R288" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="S288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V288" s="66">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM288" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN288" s="66">
+        <f t="shared" ref="AN288:BF288" si="12">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"田中")+AN289</f>
+        <v>0</v>
+      </c>
+      <c r="AO288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AV288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AX288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AZ288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BB288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BD288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF288" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG288" s="68"/>
+      <c r="BH288" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="289" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="57"/>
+      <c r="B289" s="76"/>
+      <c r="C289" s="76"/>
+      <c r="D289" s="76"/>
+      <c r="E289" s="76"/>
+      <c r="F289" s="77"/>
+      <c r="G289" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H286" s="66">
-        <f t="shared" ref="H286:AM286" si="13">SUMIFS(H12:H279,$G12:$G279,"予定時間",$F12:$F279,"男班")</f>
+      <c r="H289" s="66">
+        <f t="shared" ref="H289:AM289" si="13">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"男班")</f>
         <v>1</v>
       </c>
-      <c r="I286" s="66">
+      <c r="I289" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J286" s="66">
+      <c r="J289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K286" s="66">
+      <c r="K289" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L286" s="66">
+      <c r="L289" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M286" s="66">
+      <c r="M289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N286" s="66">
+      <c r="N289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O286" s="66">
+      <c r="O289" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="P286" s="66">
+      <c r="P289" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q286" s="66">
+      <c r="Q289" s="66">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="R289" s="66">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="S289" s="66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T289" s="66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U289" s="66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V289" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="R286" s="66">
+      <c r="W289" s="66">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="S286" s="66">
+        <v>0</v>
+      </c>
+      <c r="X289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T286" s="66">
+      <c r="Y289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U286" s="66">
+      <c r="Z289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V286" s="66">
+      <c r="AA289" s="66">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="W286" s="66">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X286" s="66">
+      <c r="AC289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y286" s="66">
+      <c r="AD289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z286" s="66">
+      <c r="AE289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA286" s="66">
+      <c r="AF289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AB286" s="66">
+      <c r="AG289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC286" s="66">
+      <c r="AH289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD286" s="66">
+      <c r="AI289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE286" s="66">
+      <c r="AJ289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF286" s="66">
+      <c r="AK289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AG286" s="66">
+      <c r="AL289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AH286" s="66">
+      <c r="AM289" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AI286" s="66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AJ286" s="66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AK286" s="66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AL286" s="66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AM286" s="66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AN286" s="66">
-        <f t="shared" ref="AN286:BF286" si="14">SUMIFS(AN12:AN279,$G12:$G279,"予定時間",$F12:$F279,"男班")</f>
-        <v>0</v>
-      </c>
-      <c r="AO286" s="66">
+      <c r="AN289" s="66">
+        <f t="shared" ref="AN289:BF289" si="14">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"男班")</f>
+        <v>0</v>
+      </c>
+      <c r="AO289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AP286" s="66">
+      <c r="AP289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ286" s="66">
+      <c r="AQ289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AR286" s="66">
+      <c r="AR289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AS286" s="66">
+      <c r="AS289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AT286" s="66">
+      <c r="AT289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AU286" s="66">
+      <c r="AU289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AV286" s="66">
+      <c r="AV289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW286" s="66">
+      <c r="AW289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AX286" s="66">
+      <c r="AX289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AY286" s="66">
+      <c r="AY289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AZ286" s="66">
+      <c r="AZ289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BA286" s="66">
+      <c r="BA289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BB286" s="66">
+      <c r="BB289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BC286" s="66">
+      <c r="BC289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BD286" s="66">
+      <c r="BD289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BE286" s="66">
+      <c r="BE289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF286" s="66">
+      <c r="BF289" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BG286" s="68"/>
-      <c r="BH286" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="287" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="57"/>
-      <c r="B287" s="115" t="s">
+      <c r="BG289" s="68"/>
+      <c r="BH289" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="57"/>
+      <c r="B290" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C287" s="116"/>
-      <c r="D287" s="116"/>
-      <c r="E287" s="116"/>
-      <c r="F287" s="116"/>
-      <c r="G287" s="117"/>
-      <c r="H287" s="66">
-        <f>SUM(H288:H292)</f>
+      <c r="C290" s="108"/>
+      <c r="D290" s="108"/>
+      <c r="E290" s="108"/>
+      <c r="F290" s="108"/>
+      <c r="G290" s="109"/>
+      <c r="H290" s="66">
+        <f>SUM(H291:H295)</f>
         <v>5</v>
       </c>
-      <c r="I287" s="66">
-        <f t="shared" ref="I287:BF287" si="15">SUM(I288:I292)</f>
+      <c r="I290" s="66">
+        <f t="shared" ref="I290:BF290" si="15">SUM(I291:I295)</f>
         <v>5</v>
       </c>
-      <c r="J287" s="66">
+      <c r="J290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K287" s="66">
+      <c r="K290" s="66">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="L287" s="66">
+      <c r="L290" s="66">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="M287" s="66">
+      <c r="M290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N287" s="66">
+      <c r="N290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O287" s="66">
+      <c r="O290" s="66">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P287" s="66">
+        <v>30</v>
+      </c>
+      <c r="P290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q287" s="66">
+      <c r="Q290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R287" s="66">
+      <c r="R290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S287" s="66">
+      <c r="S290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T287" s="66">
+      <c r="T290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U287" s="66">
+      <c r="U290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V287" s="66">
+      <c r="V290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W287" s="66">
+      <c r="W290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X287" s="66">
+      <c r="X290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y287" s="66">
+      <c r="Y290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Z287" s="66">
+      <c r="Z290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA287" s="66">
+      <c r="AA290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AB287" s="66">
+      <c r="AB290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC287" s="66">
+      <c r="AC290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD287" s="66">
+      <c r="AD290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE287" s="66">
+      <c r="AE290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AF287" s="66">
+      <c r="AF290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG287" s="66">
+      <c r="AG290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AH287" s="66">
+      <c r="AH290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AI287" s="66">
+      <c r="AI290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AJ287" s="66">
+      <c r="AJ290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK287" s="66">
+      <c r="AK290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AL287" s="66">
+      <c r="AL290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM287" s="66">
+      <c r="AM290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN287" s="66">
+      <c r="AN290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AO287" s="66">
+      <c r="AO290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP287" s="66">
+      <c r="AP290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AQ287" s="66">
+      <c r="AQ290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AR287" s="66">
+      <c r="AR290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AS287" s="66">
+      <c r="AS290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AT287" s="66">
+      <c r="AT290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AU287" s="66">
+      <c r="AU290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AV287" s="66">
+      <c r="AV290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AW287" s="66">
+      <c r="AW290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AX287" s="66">
+      <c r="AX290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AY287" s="66">
+      <c r="AY290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AZ287" s="66">
+      <c r="AZ290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA287" s="66">
+      <c r="BA290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BB287" s="66">
+      <c r="BB290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BC287" s="66">
+      <c r="BC290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BD287" s="66">
+      <c r="BD290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BE287" s="66">
+      <c r="BE290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BF287" s="66">
+      <c r="BF290" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BG287" s="68"/>
-      <c r="BH287" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="288" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="57"/>
-      <c r="B288" s="78"/>
-      <c r="C288" s="78"/>
-      <c r="D288" s="78"/>
-      <c r="E288" s="78"/>
-      <c r="F288" s="78"/>
-      <c r="G288" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="H288" s="66">
-        <f t="shared" ref="H288:AM288" si="16">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"今井")+H293</f>
-        <v>1</v>
-      </c>
-      <c r="I288" s="66">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K288" s="66">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="L288" s="66">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="M288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AL288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM288" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN288" s="66">
-        <f t="shared" ref="AN288:BF288" si="17">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"今井")+AN293</f>
-        <v>0</v>
-      </c>
-      <c r="AO288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AX288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AY288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AZ288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BA288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BB288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BC288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BD288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BE288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BF288" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BG288" s="75"/>
-      <c r="BH288" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="289" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A289" s="57"/>
-      <c r="B289" s="78"/>
-      <c r="C289" s="78"/>
-      <c r="D289" s="78"/>
-      <c r="E289" s="78"/>
-      <c r="F289" s="78"/>
-      <c r="G289" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="H289" s="66">
-        <f t="shared" ref="H289:AM289" si="18">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"浦島")+H293</f>
-        <v>1</v>
-      </c>
-      <c r="I289" s="66">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="J289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K289" s="66">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="L289" s="66">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="M289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AB289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AC289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AG289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AH289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AL289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM289" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AN289" s="66">
-        <f t="shared" ref="AN289:BF289" si="19">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"浦島")+AN293</f>
-        <v>0</v>
-      </c>
-      <c r="AO289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AP289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AR289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AS289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AU289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AV289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AW289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AX289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AY289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AZ289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BA289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BB289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BC289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BD289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BE289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BF289" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BG289" s="75"/>
-      <c r="BH289" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="290" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="57"/>
-      <c r="B290" s="78"/>
-      <c r="C290" s="78"/>
-      <c r="D290" s="78"/>
-      <c r="E290" s="78"/>
-      <c r="F290" s="78"/>
-      <c r="G290" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="H290" s="66">
-        <f t="shared" ref="H290:AM290" si="20">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"河野")+H293</f>
-        <v>1</v>
-      </c>
-      <c r="I290" s="66">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="J290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K290" s="66">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="L290" s="66">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="M290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Y290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Z290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AA290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AB290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AD290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AE290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AF290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AG290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AH290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AI290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AJ290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AK290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AM290" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AN290" s="66">
-        <f t="shared" ref="AN290:BF290" si="21">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"河野")+AN293</f>
-        <v>0</v>
-      </c>
-      <c r="AO290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AP290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AQ290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AR290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AT290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AV290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AW290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AX290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AY290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AZ290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BA290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BB290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BC290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BD290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BE290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BF290" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BG290" s="75"/>
+      <c r="BG290" s="68"/>
       <c r="BH290" s="57" t="s">
         <v>44</v>
       </c>
@@ -31936,210 +31641,210 @@
       <c r="E291" s="78"/>
       <c r="F291" s="78"/>
       <c r="G291" s="74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H291" s="66">
-        <f t="shared" ref="H291:AM291" si="22">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"堀川")+H293</f>
+        <f t="shared" ref="H291:AM291" si="16">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"今井")+H296</f>
         <v>1</v>
       </c>
       <c r="I291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K291" s="66">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="L291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="M291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O291" s="66">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="P291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM291" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN291" s="66">
-        <f t="shared" ref="AN291:BF291" si="23">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"堀川")+AN293</f>
+        <f t="shared" ref="AN291:BF291" si="17">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"今井")+AN296</f>
         <v>0</v>
       </c>
       <c r="AO291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BD291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF291" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BG291" s="75"/>
@@ -32155,210 +31860,210 @@
       <c r="E292" s="78"/>
       <c r="F292" s="78"/>
       <c r="G292" s="74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H292" s="66">
-        <f t="shared" ref="H292:AM292" si="24">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"田中")+H293</f>
+        <f t="shared" ref="H292:AM292" si="18">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"浦島")+H296</f>
         <v>1</v>
       </c>
       <c r="I292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="L292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="M292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O292" s="66">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="P292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AL292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AM292" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AN292" s="66">
-        <f t="shared" ref="AN292:BF292" si="25">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"田中")+AN293</f>
+        <f t="shared" ref="AN292:BF292" si="19">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"浦島")+AN296</f>
         <v>0</v>
       </c>
       <c r="AO292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AQ292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AR292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AS292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AT292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AV292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AW292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AX292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BA292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BB292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BC292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BD292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BF292" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG292" s="75"/>
@@ -32374,408 +32079,1069 @@
       <c r="E293" s="78"/>
       <c r="F293" s="78"/>
       <c r="G293" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H293" s="66">
+        <f t="shared" ref="H293:AM293" si="20">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"河野")+H296</f>
+        <v>1</v>
+      </c>
+      <c r="I293" s="66">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K293" s="66">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="L293" s="66">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="M293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O293" s="66">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="P293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AI293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AJ293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM293" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AN293" s="66">
+        <f t="shared" ref="AN293:BF293" si="21">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"河野")+AN296</f>
+        <v>0</v>
+      </c>
+      <c r="AO293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AP293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AQ293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AR293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AS293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AT293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AW293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AX293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AZ293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BA293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BB293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BD293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BE293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BF293" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BG293" s="75"/>
+      <c r="BH293" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="294" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="57"/>
+      <c r="B294" s="78"/>
+      <c r="C294" s="78"/>
+      <c r="D294" s="78"/>
+      <c r="E294" s="78"/>
+      <c r="F294" s="78"/>
+      <c r="G294" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H294" s="66">
+        <f t="shared" ref="H294:AM294" si="22">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"堀川")+H296</f>
+        <v>1</v>
+      </c>
+      <c r="I294" s="66">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K294" s="66">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="L294" s="66">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="M294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O294" s="66">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="P294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM294" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN294" s="66">
+        <f t="shared" ref="AN294:BF294" si="23">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"堀川")+AN296</f>
+        <v>0</v>
+      </c>
+      <c r="AO294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AP294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AQ294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AR294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AS294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AT294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AV294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AW294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AY294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AZ294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BB294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BC294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BD294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BE294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BF294" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BG294" s="75"/>
+      <c r="BH294" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="57"/>
+      <c r="B295" s="78"/>
+      <c r="C295" s="78"/>
+      <c r="D295" s="78"/>
+      <c r="E295" s="78"/>
+      <c r="F295" s="78"/>
+      <c r="G295" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H295" s="66">
+        <f t="shared" ref="H295:AM295" si="24">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"田中")+H296</f>
+        <v>1</v>
+      </c>
+      <c r="I295" s="66">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="J295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K295" s="66">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="L295" s="66">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="M295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O295" s="66">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="P295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AD295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AE295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AJ295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AK295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AM295" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN295" s="66">
+        <f t="shared" ref="AN295:BF295" si="25">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"田中")+AN296</f>
+        <v>0</v>
+      </c>
+      <c r="AO295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AP295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AQ295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AR295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AS295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AT295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AW295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AX295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AY295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BA295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BB295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BD295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BF295" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BG295" s="75"/>
+      <c r="BH295" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="57"/>
+      <c r="B296" s="78"/>
+      <c r="C296" s="78"/>
+      <c r="D296" s="78"/>
+      <c r="E296" s="78"/>
+      <c r="F296" s="78"/>
+      <c r="G296" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="H293" s="66">
-        <f t="shared" ref="H293:AM293" si="26">SUMIFS(H12:H279,$G12:$G279,"実績時間",$F12:$F279,"男班")</f>
+      <c r="H296" s="66">
+        <f t="shared" ref="H296:AM296" si="26">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"男班")</f>
         <v>1</v>
       </c>
-      <c r="I293" s="66">
+      <c r="I296" s="66">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="J293" s="66">
+      <c r="J296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K293" s="66">
+      <c r="K296" s="66">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="L293" s="66">
-        <f>SUMIFS(L12:L279,$G12:$G279,"実績時間",$F12:$F279,"男班")</f>
+      <c r="L296" s="66">
+        <f>SUMIFS(L12:L282,$G12:$G282,"実績時間",$F12:$F282,"男班")</f>
         <v>1</v>
       </c>
-      <c r="M293" s="66">
+      <c r="M296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N293" s="66">
+      <c r="N296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O293" s="66">
+      <c r="O296" s="66">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P293" s="66">
+        <v>1</v>
+      </c>
+      <c r="P296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Q293" s="66">
+      <c r="Q296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R293" s="66">
+      <c r="R296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S293" s="66">
+      <c r="S296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T293" s="66">
+      <c r="T296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U293" s="66">
+      <c r="U296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V293" s="66">
+      <c r="V296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W293" s="66">
+      <c r="W296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="X293" s="66">
+      <c r="X296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Y293" s="66">
+      <c r="Y296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Z293" s="66">
+      <c r="Z296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA293" s="66">
+      <c r="AA296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB293" s="66">
+      <c r="AB296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC293" s="66">
+      <c r="AC296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD293" s="66">
+      <c r="AD296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AE293" s="66">
+      <c r="AE296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AF293" s="66">
+      <c r="AF296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AG293" s="66">
+      <c r="AG296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AH293" s="66">
+      <c r="AH296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AI293" s="66">
+      <c r="AI296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AJ293" s="66">
+      <c r="AJ296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AK293" s="66">
+      <c r="AK296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AL293" s="66">
+      <c r="AL296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AM293" s="66">
+      <c r="AM296" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN293" s="66">
-        <f t="shared" ref="AN293:BF293" si="27">SUMIFS(AN12:AN279,$G12:$G279,"実績時間",$F12:$F279,"男班")</f>
-        <v>0</v>
-      </c>
-      <c r="AO293" s="66">
+      <c r="AN296" s="66">
+        <f t="shared" ref="AN296:BF296" si="27">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"男班")</f>
+        <v>0</v>
+      </c>
+      <c r="AO296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP293" s="66">
+      <c r="AP296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AQ293" s="66">
+      <c r="AQ296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AR293" s="66">
+      <c r="AR296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS293" s="66">
+      <c r="AS296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AT293" s="66">
+      <c r="AT296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AU293" s="66">
+      <c r="AU296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AV293" s="66">
+      <c r="AV296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AW293" s="66">
+      <c r="AW296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX293" s="66">
+      <c r="AX296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AY293" s="66">
+      <c r="AY296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AZ293" s="66">
+      <c r="AZ296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BA293" s="66">
+      <c r="BA296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BB293" s="66">
+      <c r="BB296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BC293" s="66">
+      <c r="BC296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BD293" s="66">
+      <c r="BD296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BE293" s="66">
+      <c r="BE296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BF293" s="66">
+      <c r="BF296" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BG293" s="75"/>
-      <c r="BH293" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="294" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="57"/>
-      <c r="B294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="I294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="L294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="M294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="N294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="O294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="P294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="R294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="S294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="T294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="U294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="V294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="W294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="X294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF294" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG294" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH294" s="57" t="s">
+      <c r="BG296" s="75"/>
+      <c r="BH296" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="297" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="57"/>
+      <c r="B297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="R297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="S297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="T297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="U297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="V297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="W297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="X297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF297" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG297" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH297" s="57" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BG294"/>
+  <autoFilter ref="A4:BG297"/>
   <mergeCells count="26">
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="B280:G280"/>
-    <mergeCell ref="B287:G287"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="B283:G283"/>
+    <mergeCell ref="B290:G290"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A188:F188"/>
     <mergeCell ref="C11:G11"/>
@@ -32783,343 +33149,354 @@
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">
-    <cfRule type="cellIs" dxfId="128" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG6:BG7">
-    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="127" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="128" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:BG3">
-    <cfRule type="cellIs" dxfId="124" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="126" operator="equal">
       <formula>$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="123" priority="116">
+    <cfRule type="expression" dxfId="118" priority="122">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J24 J86:J92 J280:J293 J28:J82">
-    <cfRule type="expression" dxfId="122" priority="113">
+  <conditionalFormatting sqref="J6:J24 J86:J92 J283:J296 J28:J82">
+    <cfRule type="expression" dxfId="117" priority="119">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BF24 H86:BF92 H28:BF82 H280:BF293">
-    <cfRule type="expression" dxfId="121" priority="111">
+  <conditionalFormatting sqref="H5:BF24 H86:BF92 H28:BF82 H283:BF296">
+    <cfRule type="expression" dxfId="116" priority="117">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BF24 K86:BF92 K280:BF293 K28:BF82">
-    <cfRule type="expression" dxfId="120" priority="109">
+  <conditionalFormatting sqref="K5:BF24 K86:BF92 K283:BF296 K28:BF82">
+    <cfRule type="expression" dxfId="115" priority="115">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83:J85">
-    <cfRule type="expression" dxfId="119" priority="107">
+    <cfRule type="expression" dxfId="114" priority="113">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:BF85">
-    <cfRule type="expression" dxfId="118" priority="105">
+    <cfRule type="expression" dxfId="113" priority="111">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K83:BF85">
-    <cfRule type="expression" dxfId="117" priority="103">
+    <cfRule type="expression" dxfId="112" priority="109">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93:J95">
-    <cfRule type="expression" dxfId="116" priority="101">
+    <cfRule type="expression" dxfId="111" priority="107">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:BF95">
-    <cfRule type="expression" dxfId="115" priority="99">
+    <cfRule type="expression" dxfId="110" priority="105">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K93:BF95">
-    <cfRule type="expression" dxfId="114" priority="97">
+    <cfRule type="expression" dxfId="109" priority="103">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96:J98">
-    <cfRule type="expression" dxfId="113" priority="95">
+    <cfRule type="expression" dxfId="108" priority="101">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:BF98">
-    <cfRule type="expression" dxfId="112" priority="93">
+    <cfRule type="expression" dxfId="107" priority="99">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K96:BF98">
-    <cfRule type="expression" dxfId="111" priority="91">
+    <cfRule type="expression" dxfId="106" priority="97">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG99">
-    <cfRule type="cellIs" dxfId="110" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="94" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="95" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J99:J113 J117:J171">
-    <cfRule type="expression" dxfId="108" priority="87">
+    <cfRule type="expression" dxfId="103" priority="93">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:BF113 H175:I181 H117:BF171 K175:BF181">
-    <cfRule type="expression" dxfId="107" priority="85">
+    <cfRule type="expression" dxfId="102" priority="91">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K99:BF113 K175:BF181 K117:BF171">
-    <cfRule type="expression" dxfId="106" priority="83">
+    <cfRule type="expression" dxfId="101" priority="89">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J172:J174">
-    <cfRule type="expression" dxfId="105" priority="81">
+    <cfRule type="expression" dxfId="100" priority="87">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H172:BF174">
-    <cfRule type="expression" dxfId="104" priority="79">
+    <cfRule type="expression" dxfId="99" priority="85">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K172:BF174">
-    <cfRule type="expression" dxfId="103" priority="77">
+    <cfRule type="expression" dxfId="98" priority="83">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J182:J184">
-    <cfRule type="expression" dxfId="102" priority="75">
+    <cfRule type="expression" dxfId="97" priority="81">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H182:BF184">
-    <cfRule type="expression" dxfId="101" priority="73">
+    <cfRule type="expression" dxfId="96" priority="79">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K182:BF184">
-    <cfRule type="expression" dxfId="100" priority="71">
+    <cfRule type="expression" dxfId="95" priority="77">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185:J187">
-    <cfRule type="expression" dxfId="99" priority="69">
+    <cfRule type="expression" dxfId="94" priority="75">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185:BF187">
-    <cfRule type="expression" dxfId="98" priority="67">
+    <cfRule type="expression" dxfId="93" priority="73">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K185:BF187">
-    <cfRule type="expression" dxfId="97" priority="65">
+    <cfRule type="expression" dxfId="92" priority="71">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG188">
-    <cfRule type="cellIs" dxfId="96" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="68" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="69" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J188:J202">
-    <cfRule type="expression" dxfId="94" priority="61">
+    <cfRule type="expression" dxfId="89" priority="67">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H188:BF202 H267:I273 H209:I263 K209:BF263 K267:BF273">
-    <cfRule type="expression" dxfId="93" priority="59">
+  <conditionalFormatting sqref="H188:BF202 H270:I276 H212:I266 K212:BF266 K270:BF276">
+    <cfRule type="expression" dxfId="88" priority="65">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K188:BF202 K267:BF273 K209:BF263">
-    <cfRule type="expression" dxfId="92" priority="57">
+  <conditionalFormatting sqref="K188:BF202 K270:BF276 K212:BF266">
+    <cfRule type="expression" dxfId="87" priority="63">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H264:I266 K264:BF266">
-    <cfRule type="expression" dxfId="91" priority="53">
+  <conditionalFormatting sqref="H267:I269 K267:BF269">
+    <cfRule type="expression" dxfId="86" priority="59">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K264:BF266">
-    <cfRule type="expression" dxfId="90" priority="51">
-      <formula>K$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J274:J276">
-    <cfRule type="expression" dxfId="89" priority="49">
-      <formula>J$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H274:BF276">
-    <cfRule type="expression" dxfId="88" priority="47">
-      <formula>H$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K274:BF276">
-    <cfRule type="expression" dxfId="87" priority="45">
+  <conditionalFormatting sqref="K267:BF269">
+    <cfRule type="expression" dxfId="85" priority="57">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J277:J279">
-    <cfRule type="expression" dxfId="86" priority="43">
+    <cfRule type="expression" dxfId="84" priority="55">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277:BF279">
-    <cfRule type="expression" dxfId="85" priority="41">
+    <cfRule type="expression" dxfId="83" priority="53">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K277:BF279">
-    <cfRule type="expression" dxfId="84" priority="39">
+    <cfRule type="expression" dxfId="82" priority="51">
+      <formula>K$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J280:J282">
+    <cfRule type="expression" dxfId="81" priority="49">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H280:BF282">
+    <cfRule type="expression" dxfId="80" priority="47">
+      <formula>H$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K280:BF282">
+    <cfRule type="expression" dxfId="79" priority="45">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J27">
-    <cfRule type="expression" dxfId="83" priority="37">
+    <cfRule type="expression" dxfId="78" priority="43">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:BF27">
-    <cfRule type="expression" dxfId="82" priority="35">
+    <cfRule type="expression" dxfId="77" priority="41">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:BF27">
-    <cfRule type="expression" dxfId="81" priority="33">
+    <cfRule type="expression" dxfId="76" priority="39">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H280:BF280">
-    <cfRule type="cellIs" dxfId="80" priority="31" operator="greaterThan">
+  <conditionalFormatting sqref="H283:BF283">
+    <cfRule type="cellIs" dxfId="75" priority="37" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H281:BF285">
-    <cfRule type="cellIs" dxfId="79" priority="30" operator="greaterThan">
+  <conditionalFormatting sqref="H284:BF288">
+    <cfRule type="cellIs" dxfId="74" priority="36" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H287:BF287">
-    <cfRule type="cellIs" dxfId="78" priority="29" operator="greaterThan">
+  <conditionalFormatting sqref="H290:BF290">
+    <cfRule type="cellIs" dxfId="73" priority="35" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H288:BF292">
-    <cfRule type="cellIs" dxfId="77" priority="28" operator="greaterThan">
+  <conditionalFormatting sqref="H291:BF295">
+    <cfRule type="cellIs" dxfId="72" priority="34" operator="greaterThan">
+      <formula>6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J209:J211">
+    <cfRule type="expression" dxfId="71" priority="33">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H209:BF211">
+    <cfRule type="expression" dxfId="70" priority="31">
+      <formula>H$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K209:BF211">
+    <cfRule type="expression" dxfId="69" priority="29">
+      <formula>K$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J212:J276">
+    <cfRule type="expression" dxfId="68" priority="27">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J212:J276">
+    <cfRule type="expression" dxfId="67" priority="25">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114:J116">
+    <cfRule type="expression" dxfId="66" priority="23">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114:BF116">
+    <cfRule type="expression" dxfId="65" priority="21">
+      <formula>H$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:BF116">
+    <cfRule type="expression" dxfId="64" priority="19">
+      <formula>K$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J203:J205">
+    <cfRule type="expression" dxfId="63" priority="17">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H203:BF205">
+    <cfRule type="expression" dxfId="62" priority="15">
+      <formula>H$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K203:BF205">
+    <cfRule type="expression" dxfId="61" priority="13">
+      <formula>K$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J175:J181">
+    <cfRule type="expression" dxfId="60" priority="11">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J175:J181">
+    <cfRule type="expression" dxfId="59" priority="9">
+      <formula>J$3&lt;$C$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H291:BF295">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J206:J208">
-    <cfRule type="expression" dxfId="76" priority="27">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H206:BF208">
-    <cfRule type="expression" dxfId="75" priority="25">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K206:BF208">
-    <cfRule type="expression" dxfId="74" priority="23">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J209:J273">
-    <cfRule type="expression" dxfId="73" priority="21">
-      <formula>J$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J209:J273">
-    <cfRule type="expression" dxfId="72" priority="19">
-      <formula>J$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J114:J116">
-    <cfRule type="expression" dxfId="71" priority="17">
-      <formula>J$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H114:BF116">
-    <cfRule type="expression" dxfId="70" priority="15">
-      <formula>H$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114:BF116">
-    <cfRule type="expression" dxfId="69" priority="13">
-      <formula>K$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J203:J205">
-    <cfRule type="expression" dxfId="68" priority="11">
-      <formula>J$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H203:BF205">
-    <cfRule type="expression" dxfId="67" priority="9">
-      <formula>H$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K203:BF205">
-    <cfRule type="expression" dxfId="66" priority="7">
-      <formula>K$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J175:J181">
-    <cfRule type="expression" dxfId="15" priority="5">
-      <formula>J$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J175:J181">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>J$3&lt;$C$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H288:BF292">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
-      <formula>6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F179:F187 F12:F27 F90:F98 F210:F279 F29:F88 F118:F177 F101:F116 F190:F208">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F179:F187 F12:F27 F90:F98 F213:F282 F29:F88 F118:F177 F101:F116 F190:F211">
       <formula1>$BL$1:$BR$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -33133,7 +33510,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="114" id="{2DBFFCFA-F714-4623-A749-A41EA9373A50}">
+          <x14:cfRule type="expression" priority="120" id="{2DBFFCFA-F714-4623-A749-A41EA9373A50}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33143,10 +33520,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5 J86:BF92 J280:BF293 K175:BF181 K267:BF273 K209:BF263 J28:BF82</xm:sqref>
+          <xm:sqref>J5 J86:BF92 J283:BF296 K175:BF181 K270:BF276 K212:BF266 J28:BF82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="112" id="{0AF8D24A-930E-408C-8EFC-DA858E181BE1}">
+          <x14:cfRule type="expression" priority="118" id="{0AF8D24A-930E-408C-8EFC-DA858E181BE1}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33159,7 +33536,7 @@
           <xm:sqref>J6:J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="110" id="{D1506DBF-A076-4413-87C4-16FE7661A8B2}">
+          <x14:cfRule type="expression" priority="116" id="{D1506DBF-A076-4413-87C4-16FE7661A8B2}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33169,10 +33546,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H5:BF24 H86:BF92 H175:I181 H267:I273 H209:I263 K209:BF263 K267:BF273 H28:BF82 K175:BF181 H280:BF293</xm:sqref>
+          <xm:sqref>H5:BF24 H86:BF92 H175:I181 H270:I276 H212:I266 K212:BF266 K270:BF276 H28:BF82 K175:BF181 H283:BF296</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="108" id="{1E187110-9672-4041-B1CB-607A76653925}">
+          <x14:cfRule type="expression" priority="114" id="{1E187110-9672-4041-B1CB-607A76653925}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33185,7 +33562,7 @@
           <xm:sqref>K5:BF24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="106" id="{F690320D-ADBA-4E9C-AFF2-E5E38669CE4D}">
+          <x14:cfRule type="expression" priority="112" id="{F690320D-ADBA-4E9C-AFF2-E5E38669CE4D}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33198,7 +33575,7 @@
           <xm:sqref>J83:J85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="104" id="{0FED0822-4392-45A0-A565-93F6CB42F97D}">
+          <x14:cfRule type="expression" priority="110" id="{0FED0822-4392-45A0-A565-93F6CB42F97D}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33211,7 +33588,7 @@
           <xm:sqref>H83:BF85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="102" id="{205FF400-1447-4065-BE17-E2FE2887731B}">
+          <x14:cfRule type="expression" priority="108" id="{205FF400-1447-4065-BE17-E2FE2887731B}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33224,7 +33601,7 @@
           <xm:sqref>K83:BF85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="100" id="{E1E51682-64EC-4DA7-9CFA-4A0FCB60BE87}">
+          <x14:cfRule type="expression" priority="106" id="{E1E51682-64EC-4DA7-9CFA-4A0FCB60BE87}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33237,7 +33614,7 @@
           <xm:sqref>J93:J95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="98" id="{F7B7E5F6-436A-46BE-9AE5-871116037AC8}">
+          <x14:cfRule type="expression" priority="104" id="{F7B7E5F6-436A-46BE-9AE5-871116037AC8}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33250,7 +33627,7 @@
           <xm:sqref>H93:BF95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="96" id="{E09695AD-45CE-4CFA-869A-9EAEC22941CB}">
+          <x14:cfRule type="expression" priority="102" id="{E09695AD-45CE-4CFA-869A-9EAEC22941CB}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33263,7 +33640,7 @@
           <xm:sqref>K93:BF95</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="94" id="{A5D185D8-709F-4A40-B54E-A44E233A11FF}">
+          <x14:cfRule type="expression" priority="100" id="{A5D185D8-709F-4A40-B54E-A44E233A11FF}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33276,7 +33653,7 @@
           <xm:sqref>J96:J98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="92" id="{72181AAE-5162-48A3-A3F7-4A624886A12C}">
+          <x14:cfRule type="expression" priority="98" id="{72181AAE-5162-48A3-A3F7-4A624886A12C}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33289,7 +33666,7 @@
           <xm:sqref>H96:BF98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="90" id="{F87F7F3E-A049-44A8-871D-F303DA4471E9}">
+          <x14:cfRule type="expression" priority="96" id="{F87F7F3E-A049-44A8-871D-F303DA4471E9}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33302,7 +33679,7 @@
           <xm:sqref>K96:BF98</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="86" id="{36B582E2-2012-4F33-AC7C-ACA58D8BAC98}">
+          <x14:cfRule type="expression" priority="92" id="{36B582E2-2012-4F33-AC7C-ACA58D8BAC98}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33315,7 +33692,7 @@
           <xm:sqref>J99:J113 J117:J171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="84" id="{03BBF96B-06D2-4791-902F-A699C26B1A8A}">
+          <x14:cfRule type="expression" priority="90" id="{03BBF96B-06D2-4791-902F-A699C26B1A8A}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33328,7 +33705,7 @@
           <xm:sqref>H99:BF113 H117:BF171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="82" id="{1779A834-5448-4E80-8BBC-E939C7BD5DD1}">
+          <x14:cfRule type="expression" priority="88" id="{1779A834-5448-4E80-8BBC-E939C7BD5DD1}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33341,7 +33718,7 @@
           <xm:sqref>K99:BF113 K117:BF171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="80" id="{477571E1-63E4-4E67-986D-95AF568096FB}">
+          <x14:cfRule type="expression" priority="86" id="{477571E1-63E4-4E67-986D-95AF568096FB}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33354,7 +33731,7 @@
           <xm:sqref>J172:J174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="78" id="{DD209A96-9662-4DAF-BC65-9ADF6ACC40EE}">
+          <x14:cfRule type="expression" priority="84" id="{DD209A96-9662-4DAF-BC65-9ADF6ACC40EE}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33367,7 +33744,7 @@
           <xm:sqref>H172:BF174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="76" id="{23DBD7D7-BB83-4C20-A9CA-36DCF7CBCE8D}">
+          <x14:cfRule type="expression" priority="82" id="{23DBD7D7-BB83-4C20-A9CA-36DCF7CBCE8D}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33380,7 +33757,7 @@
           <xm:sqref>K172:BF174</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="74" id="{187FD0C4-5D55-4886-BB97-E65FE44A7D92}">
+          <x14:cfRule type="expression" priority="80" id="{187FD0C4-5D55-4886-BB97-E65FE44A7D92}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33393,7 +33770,7 @@
           <xm:sqref>J182:J184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="72" id="{DBF34FBC-1263-458F-937A-233227A654F2}">
+          <x14:cfRule type="expression" priority="78" id="{DBF34FBC-1263-458F-937A-233227A654F2}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33406,7 +33783,7 @@
           <xm:sqref>H182:BF184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="70" id="{C2112C7F-2A4E-4F7A-97D4-4D412543DEB0}">
+          <x14:cfRule type="expression" priority="76" id="{C2112C7F-2A4E-4F7A-97D4-4D412543DEB0}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33419,7 +33796,7 @@
           <xm:sqref>K182:BF184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="68" id="{EDB47FEE-26D3-45C4-B39B-7851E32AD015}">
+          <x14:cfRule type="expression" priority="74" id="{EDB47FEE-26D3-45C4-B39B-7851E32AD015}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33432,7 +33809,7 @@
           <xm:sqref>J185:J187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="66" id="{E05BA7DD-D326-43EC-B339-2FF733EC46F8}">
+          <x14:cfRule type="expression" priority="72" id="{E05BA7DD-D326-43EC-B339-2FF733EC46F8}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33445,7 +33822,7 @@
           <xm:sqref>H185:BF187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="64" id="{374E7DBC-4054-4FF1-9A2B-B0621C2D8A61}">
+          <x14:cfRule type="expression" priority="70" id="{374E7DBC-4054-4FF1-9A2B-B0621C2D8A61}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33458,7 +33835,7 @@
           <xm:sqref>K185:BF187</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="60" id="{0AF5C289-A550-410D-8F9A-68B5E6BF1F20}">
+          <x14:cfRule type="expression" priority="66" id="{0AF5C289-A550-410D-8F9A-68B5E6BF1F20}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33471,7 +33848,7 @@
           <xm:sqref>J188:J202</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="58" id="{7CB60735-EAFA-48EB-863C-2F6EE0A14012}">
+          <x14:cfRule type="expression" priority="64" id="{7CB60735-EAFA-48EB-863C-2F6EE0A14012}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33484,7 +33861,7 @@
           <xm:sqref>H188:BF202</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="56" id="{B31EB02C-1050-48E0-9789-0152736EC90A}">
+          <x14:cfRule type="expression" priority="62" id="{B31EB02C-1050-48E0-9789-0152736EC90A}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33497,7 +33874,7 @@
           <xm:sqref>K188:BF202</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="52" id="{BC789A60-CF5D-45EB-AB37-E7A7831791DE}">
+          <x14:cfRule type="expression" priority="58" id="{BC789A60-CF5D-45EB-AB37-E7A7831791DE}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33507,10 +33884,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H264:I266 K264:BF266</xm:sqref>
+          <xm:sqref>H267:I269 K267:BF269</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="50" id="{823C9B9C-8180-47C4-8C1E-2D30E3293190}">
+          <x14:cfRule type="expression" priority="56" id="{823C9B9C-8180-47C4-8C1E-2D30E3293190}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33520,49 +33897,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K264:BF266</xm:sqref>
+          <xm:sqref>K267:BF269</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="48" id="{84626CBA-24BA-4C31-A011-34C71CCD2101}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J274:J276</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="46" id="{ECF9FB3D-2992-45F0-98CA-573583C53824}">
-            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H274:BF276</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="44" id="{0F0DC635-F1A5-460A-BE10-2E13AC8ECC08}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K274:BF276</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="42" id="{6CB66FF9-FF04-49FA-BA86-16ABE2B3EF7F}">
+          <x14:cfRule type="expression" priority="54" id="{84626CBA-24BA-4C31-A011-34C71CCD2101}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33575,7 +33913,7 @@
           <xm:sqref>J277:J279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="40" id="{7817D565-23BB-4260-A41F-822A8E8A7108}">
+          <x14:cfRule type="expression" priority="52" id="{ECF9FB3D-2992-45F0-98CA-573583C53824}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33588,7 +33926,7 @@
           <xm:sqref>H277:BF279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="38" id="{E1CDD6C1-40E1-4727-8848-1E89C08ED0F4}">
+          <x14:cfRule type="expression" priority="50" id="{0F0DC635-F1A5-460A-BE10-2E13AC8ECC08}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33601,7 +33939,46 @@
           <xm:sqref>K277:BF279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="36" id="{B3789237-D3CA-4077-BF53-F707A60EA0F2}">
+          <x14:cfRule type="expression" priority="48" id="{6CB66FF9-FF04-49FA-BA86-16ABE2B3EF7F}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J280:J282</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="46" id="{7817D565-23BB-4260-A41F-822A8E8A7108}">
+            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H280:BF282</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="44" id="{E1CDD6C1-40E1-4727-8848-1E89C08ED0F4}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K280:BF282</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="42" id="{B3789237-D3CA-4077-BF53-F707A60EA0F2}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33614,7 +33991,7 @@
           <xm:sqref>J25:J27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="34" id="{7795182F-3694-47D7-ACD7-C4D2724456D6}">
+          <x14:cfRule type="expression" priority="40" id="{7795182F-3694-47D7-ACD7-C4D2724456D6}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33627,7 +34004,7 @@
           <xm:sqref>H25:BF27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="32" id="{4FB3249A-F5D4-471F-B4C5-24FE5497D017}">
+          <x14:cfRule type="expression" priority="38" id="{4FB3249A-F5D4-471F-B4C5-24FE5497D017}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33640,7 +34017,176 @@
           <xm:sqref>K25:BF27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="26" id="{330168EC-B99C-47B5-A7EA-5FA206083112}">
+          <x14:cfRule type="expression" priority="32" id="{330168EC-B99C-47B5-A7EA-5FA206083112}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J209:J211</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="30" id="{297C57E1-6F4D-436B-A96E-0FD9ADBF6089}">
+            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H209:BF211</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="28" id="{261E11F6-077F-4B29-9831-EFE703135EFE}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K209:BF211</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="26" id="{15051913-221B-4A7C-B0F9-C51853DA78E1}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J212:J276</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="24" id="{1646101D-F346-4E07-9950-5E612E1AC327}">
+            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,J$3)&gt;0,J$4="日",J$4="土")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J212:J276</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="22" id="{499AD5E7-74B9-4B85-AA29-BC84B5D605A6}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J114:J116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="20" id="{4D840AB0-35AB-49B6-879E-71CA0F193493}">
+            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H114:BF116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="18" id="{111CC284-D229-4573-8AD6-90E3E5763D45}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K114:BF116</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="16" id="{13885E93-3A38-4387-9F2F-C05892A56E6C}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J203:J205</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="14" id="{4BCB4240-AED6-4A31-B870-0FFF341230B0}">
+            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>H203:BF205</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="12" id="{9AFC0125-2427-4924-8EFB-077163323A2C}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K203:BF205</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="10" id="{9386264E-1684-48DE-BC37-7BB609A94513}">
+            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J175:J181</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="8" id="{8273E2D3-7247-46A8-A624-CE8AD49745D0}">
+            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,J$3)&gt;0,J$4="日",J$4="土")</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J175:J181</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{6CB72D6D-45F3-4DF3-8A25-E5171268A215}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33653,7 +34199,7 @@
           <xm:sqref>J206:J208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="24" id="{297C57E1-6F4D-436B-A96E-0FD9ADBF6089}">
+          <x14:cfRule type="expression" priority="3" id="{C15D977E-2F5A-424B-A39E-97A4D3AD0675}">
             <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
             <x14:dxf>
               <fill>
@@ -33666,7 +34212,7 @@
           <xm:sqref>H206:BF208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="22" id="{261E11F6-077F-4B29-9831-EFE703135EFE}">
+          <x14:cfRule type="expression" priority="1" id="{DDBD091E-8085-420B-AF80-423C53AE26BD}">
             <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
             <x14:dxf>
               <fill>
@@ -33678,136 +34224,6 @@
           </x14:cfRule>
           <xm:sqref>K206:BF208</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="20" id="{15051913-221B-4A7C-B0F9-C51853DA78E1}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J209:J273</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="18" id="{1646101D-F346-4E07-9950-5E612E1AC327}">
-            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,J$3)&gt;0,J$4="日",J$4="土")</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J209:J273</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="16" id="{499AD5E7-74B9-4B85-AA29-BC84B5D605A6}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J114:J116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="14" id="{4D840AB0-35AB-49B6-879E-71CA0F193493}">
-            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H114:BF116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="12" id="{111CC284-D229-4573-8AD6-90E3E5763D45}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K114:BF116</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{13885E93-3A38-4387-9F2F-C05892A56E6C}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J203:J205</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="8" id="{4BCB4240-AED6-4A31-B870-0FFF341230B0}">
-            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,H$3)&gt;0,H$4="日",H$4="土")</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H203:BF205</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{9AFC0125-2427-4924-8EFB-077163323A2C}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,K$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>K203:BF205</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{9386264E-1684-48DE-BC37-7BB609A94513}">
-            <xm:f>COUNTIF(休日!$A$1:$A$9,J$3)&gt;0</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J175:J181</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="2" id="{8273E2D3-7247-46A8-A624-CE8AD49745D0}">
-            <xm:f>OR(COUNTIF(休日!$A$1:$A$9,J$3)&gt;0,J$4="日",J$4="土")</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>J175:J181</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -18,14 +18,39 @@
     <sheet name="予実管理" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">予実管理!$A$4:$BG$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">予実管理!$A$4:$BG$300</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dan imai</author>
+  </authors>
+  <commentList>
+    <comment ref="P103" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>ページ構成が朝のMTGで変更になったため</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="155">
   <si>
     <t>画面名称</t>
     <rPh sb="0" eb="2">
@@ -1014,13 +1039,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Margeしたコードを調整</t>
-    <rPh sb="11" eb="13">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メイン画面のサポート</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -1044,6 +1062,47 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>P2とTotalの調整</t>
+    <rPh sb="9" eb="11">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀川</t>
+    <rPh sb="0" eb="2">
+      <t>ホリカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの動作確認</t>
+    <rPh sb="4" eb="6">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P4のUI・コーディングアプリ解説の文言</t>
+    <rPh sb="15" eb="17">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モンゴン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀川</t>
+    <rPh sb="0" eb="2">
+      <t>ホリカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1052,7 +1111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1108,6 +1167,14 @@
       <sz val="9"/>
       <color theme="0"/>
       <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2153,21 +2220,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2531,7 +2584,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9696,15 +9763,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BR297"/>
+  <dimension ref="A1:BR300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O103" sqref="O103"/>
+      <selection pane="bottomRight" activeCell="Q204" sqref="Q204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -9727,18 +9794,18 @@
       <c r="B1" s="127"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
-        <v>42401</v>
+        <v>42404</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="80" t="str">
         <f ca="1">($BF$3-C1) &amp; "日"</f>
-        <v>43日</v>
+        <v>40日</v>
       </c>
       <c r="F1" s="80" t="str">
         <f ca="1">"( "&amp;NETWORKDAYS(C1,BF3,休日!A1:A9)&amp;"日 )"</f>
-        <v>( 26日 )</v>
+        <v>( 23日 )</v>
       </c>
       <c r="G1" s="58"/>
       <c r="H1" s="103" t="s">
@@ -12236,7 +12303,7 @@
         <v>5</v>
       </c>
       <c r="P32" s="66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="66"/>
       <c r="R32" s="66"/>
@@ -12314,7 +12381,9 @@
       <c r="O33" s="66">
         <v>5</v>
       </c>
-      <c r="P33" s="66"/>
+      <c r="P33" s="66">
+        <v>0</v>
+      </c>
       <c r="Q33" s="66"/>
       <c r="R33" s="66"/>
       <c r="S33" s="66"/>
@@ -12530,7 +12599,7 @@
       <c r="D36" s="66"/>
       <c r="E36" s="66">
         <f>SUM($H36:$BF36)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F36" s="62" t="s">
         <v>57</v>
@@ -12552,7 +12621,9 @@
       <c r="O36" s="66">
         <v>5</v>
       </c>
-      <c r="P36" s="66"/>
+      <c r="P36" s="66">
+        <v>2</v>
+      </c>
       <c r="Q36" s="66"/>
       <c r="R36" s="66"/>
       <c r="S36" s="66"/>
@@ -13002,7 +13073,7 @@
       <c r="D42" s="66"/>
       <c r="E42" s="66">
         <f>SUM($H42:$BF42)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>56</v>
@@ -13024,7 +13095,9 @@
       <c r="O42" s="66">
         <v>5</v>
       </c>
-      <c r="P42" s="66"/>
+      <c r="P42" s="66">
+        <v>4</v>
+      </c>
       <c r="Q42" s="66"/>
       <c r="R42" s="66"/>
       <c r="S42" s="66"/>
@@ -13081,7 +13154,7 @@
       </c>
       <c r="E43" s="66" t="str">
         <f>IF(MAX($H43:$BF43)=0,"",MAX($H43:$BF43)&amp;" %")</f>
-        <v>95 %</v>
+        <v>100 %</v>
       </c>
       <c r="F43" s="62"/>
       <c r="G43" s="73" t="s">
@@ -13103,7 +13176,9 @@
       <c r="O43" s="66">
         <v>95</v>
       </c>
-      <c r="P43" s="66"/>
+      <c r="P43" s="66">
+        <v>100</v>
+      </c>
       <c r="Q43" s="66"/>
       <c r="R43" s="66"/>
       <c r="S43" s="66"/>
@@ -13684,7 +13759,7 @@
       <c r="D51" s="66"/>
       <c r="E51" s="66">
         <f>SUM($H51:$BF51)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" s="62" t="s">
         <v>58</v>
@@ -13702,7 +13777,9 @@
       <c r="O51" s="66">
         <v>1</v>
       </c>
-      <c r="P51" s="66"/>
+      <c r="P51" s="66">
+        <v>2</v>
+      </c>
       <c r="Q51" s="66"/>
       <c r="R51" s="66"/>
       <c r="S51" s="66"/>
@@ -13759,7 +13836,7 @@
       </c>
       <c r="E52" s="66" t="str">
         <f>IF(MAX($H52:$BF52)=0,"",MAX($H52:$BF52)&amp;" %")</f>
-        <v>2 %</v>
+        <v>100 %</v>
       </c>
       <c r="F52" s="62"/>
       <c r="G52" s="73" t="s">
@@ -13775,7 +13852,9 @@
       <c r="O52" s="66">
         <v>2</v>
       </c>
-      <c r="P52" s="66"/>
+      <c r="P52" s="66">
+        <v>100</v>
+      </c>
       <c r="Q52" s="66"/>
       <c r="R52" s="66"/>
       <c r="S52" s="66"/>
@@ -14066,7 +14145,9 @@
       <c r="P56" s="66">
         <v>2</v>
       </c>
-      <c r="Q56" s="66"/>
+      <c r="Q56" s="66">
+        <v>4</v>
+      </c>
       <c r="R56" s="66"/>
       <c r="S56" s="66"/>
       <c r="T56" s="66"/>
@@ -14117,12 +14198,12 @@
       <c r="A57" s="57"/>
       <c r="B57" s="67"/>
       <c r="C57" s="69" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D57" s="66"/>
       <c r="E57" s="66">
         <f>SUM($H57:$BF57)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="62" t="s">
         <v>146</v>
@@ -14138,7 +14219,9 @@
       <c r="M57" s="66"/>
       <c r="N57" s="66"/>
       <c r="O57" s="66"/>
-      <c r="P57" s="66"/>
+      <c r="P57" s="66">
+        <v>5</v>
+      </c>
       <c r="Q57" s="66"/>
       <c r="R57" s="66"/>
       <c r="S57" s="66"/>
@@ -14263,12 +14346,12 @@
         <v>11</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D59" s="66"/>
       <c r="E59" s="66"/>
       <c r="F59" s="62" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="G59" s="73" t="s">
         <v>62</v>
@@ -14282,7 +14365,9 @@
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
       <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
+      <c r="Q59" s="66">
+        <v>2</v>
+      </c>
       <c r="R59" s="66"/>
       <c r="S59" s="66"/>
       <c r="T59" s="66"/>
@@ -14339,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="G60" s="73" t="s">
         <v>16</v>
@@ -14477,7 +14562,7 @@
         <v>12</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
@@ -14687,7 +14772,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="66"/>
@@ -14905,11 +14990,13 @@
         <v>14</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="D68" s="66"/>
       <c r="E68" s="66"/>
-      <c r="F68" s="62"/>
+      <c r="F68" s="62" t="s">
+        <v>154</v>
+      </c>
       <c r="G68" s="73" t="s">
         <v>62</v>
       </c>
@@ -14922,7 +15009,9 @@
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
       <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
+      <c r="Q68" s="66">
+        <v>1</v>
+      </c>
       <c r="R68" s="66"/>
       <c r="S68" s="66"/>
       <c r="T68" s="66"/>
@@ -14978,7 +15067,9 @@
         <f>SUM($H69:$BF69)</f>
         <v>0</v>
       </c>
-      <c r="F69" s="62"/>
+      <c r="F69" s="62" t="s">
+        <v>154</v>
+      </c>
       <c r="G69" s="73" t="s">
         <v>16</v>
       </c>
@@ -16463,7 +16554,7 @@
       <c r="O90" s="66"/>
       <c r="P90" s="66"/>
       <c r="Q90" s="66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R90" s="66"/>
       <c r="S90" s="66"/>
@@ -16682,7 +16773,7 @@
       <c r="P93" s="66"/>
       <c r="Q93" s="66"/>
       <c r="R93" s="66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S93" s="66"/>
       <c r="T93" s="66"/>
@@ -17243,8 +17334,12 @@
       <c r="O101" s="66">
         <v>1</v>
       </c>
-      <c r="P101" s="66"/>
-      <c r="Q101" s="66"/>
+      <c r="P101" s="66">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="66">
+        <v>2</v>
+      </c>
       <c r="R101" s="66"/>
       <c r="S101" s="66"/>
       <c r="T101" s="66"/>
@@ -17317,7 +17412,9 @@
       <c r="O102" s="66">
         <v>0</v>
       </c>
-      <c r="P102" s="66"/>
+      <c r="P102" s="66">
+        <v>1</v>
+      </c>
       <c r="Q102" s="66"/>
       <c r="R102" s="66"/>
       <c r="S102" s="66"/>
@@ -17394,7 +17491,9 @@
       <c r="O103" s="66">
         <v>86</v>
       </c>
-      <c r="P103" s="66"/>
+      <c r="P103" s="66">
+        <v>75</v>
+      </c>
       <c r="Q103" s="66"/>
       <c r="R103" s="66"/>
       <c r="S103" s="66"/>
@@ -17676,11 +17775,9 @@
       <c r="P107" s="66">
         <v>1</v>
       </c>
-      <c r="Q107" s="66">
-        <v>2</v>
-      </c>
+      <c r="Q107" s="66"/>
       <c r="R107" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S107" s="66"/>
       <c r="T107" s="66"/>
@@ -17747,7 +17844,9 @@
       <c r="M108" s="66"/>
       <c r="N108" s="66"/>
       <c r="O108" s="66"/>
-      <c r="P108" s="66"/>
+      <c r="P108" s="66">
+        <v>1</v>
+      </c>
       <c r="Q108" s="66"/>
       <c r="R108" s="66"/>
       <c r="S108" s="66"/>
@@ -17804,7 +17903,7 @@
       </c>
       <c r="E109" s="66" t="str">
         <f>IF(MAX($H109:$BF109)=0,"",MAX($H109:$BF109)&amp;" %")</f>
-        <v/>
+        <v>30 %</v>
       </c>
       <c r="F109" s="62"/>
       <c r="G109" s="73" t="s">
@@ -17818,7 +17917,9 @@
       <c r="M109" s="66"/>
       <c r="N109" s="66"/>
       <c r="O109" s="66"/>
-      <c r="P109" s="66"/>
+      <c r="P109" s="66">
+        <v>30</v>
+      </c>
       <c r="Q109" s="66"/>
       <c r="R109" s="66"/>
       <c r="S109" s="66"/>
@@ -17943,7 +18044,7 @@
       <c r="D111" s="66"/>
       <c r="E111" s="66"/>
       <c r="F111" s="62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G111" s="73" t="s">
         <v>62</v>
@@ -17961,7 +18062,9 @@
       <c r="P111" s="66">
         <v>3</v>
       </c>
-      <c r="Q111" s="66"/>
+      <c r="Q111" s="66">
+        <v>4</v>
+      </c>
       <c r="R111" s="66"/>
       <c r="S111" s="66"/>
       <c r="T111" s="66"/>
@@ -18015,7 +18118,7 @@
       <c r="D112" s="66"/>
       <c r="E112" s="66"/>
       <c r="F112" s="62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G112" s="73" t="s">
         <v>16</v>
@@ -18030,7 +18133,9 @@
       <c r="O112" s="66">
         <v>0</v>
       </c>
-      <c r="P112" s="66"/>
+      <c r="P112" s="66">
+        <v>3</v>
+      </c>
       <c r="Q112" s="66"/>
       <c r="R112" s="66"/>
       <c r="S112" s="66"/>
@@ -18087,7 +18192,7 @@
       </c>
       <c r="E113" s="66" t="str">
         <f>IF(MAX($H113:$BF113)=0,"",MAX($H113:$BF113)&amp;" %")</f>
-        <v/>
+        <v>80 %</v>
       </c>
       <c r="F113" s="62"/>
       <c r="G113" s="73" t="s">
@@ -18103,7 +18208,9 @@
       <c r="O113" s="66">
         <v>0</v>
       </c>
-      <c r="P113" s="66"/>
+      <c r="P113" s="66">
+        <v>80</v>
+      </c>
       <c r="Q113" s="66"/>
       <c r="R113" s="66"/>
       <c r="S113" s="66"/>
@@ -18157,12 +18264,12 @@
         <v>2</v>
       </c>
       <c r="C114" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D114" s="66"/>
       <c r="E114" s="66"/>
       <c r="F114" s="62" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="G114" s="73" t="s">
         <v>62</v>
@@ -18178,7 +18285,9 @@
       <c r="P114" s="66">
         <v>3</v>
       </c>
-      <c r="Q114" s="66"/>
+      <c r="Q114" s="66">
+        <v>1</v>
+      </c>
       <c r="R114" s="66"/>
       <c r="S114" s="66"/>
       <c r="T114" s="66"/>
@@ -18232,7 +18341,7 @@
       <c r="D115" s="66"/>
       <c r="E115" s="66"/>
       <c r="F115" s="62" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="G115" s="73" t="s">
         <v>16</v>
@@ -18245,7 +18354,9 @@
       <c r="M115" s="66"/>
       <c r="N115" s="66"/>
       <c r="O115" s="66"/>
-      <c r="P115" s="66"/>
+      <c r="P115" s="66">
+        <v>4</v>
+      </c>
       <c r="Q115" s="66"/>
       <c r="R115" s="66"/>
       <c r="S115" s="66"/>
@@ -18302,7 +18413,7 @@
       </c>
       <c r="E116" s="66" t="str">
         <f>IF(MAX($H116:$BF116)=0,"",MAX($H116:$BF116)&amp;" %")</f>
-        <v/>
+        <v>100 %</v>
       </c>
       <c r="F116" s="62"/>
       <c r="G116" s="73" t="s">
@@ -18316,7 +18427,9 @@
       <c r="M116" s="66"/>
       <c r="N116" s="66"/>
       <c r="O116" s="66"/>
-      <c r="P116" s="66"/>
+      <c r="P116" s="66">
+        <v>100</v>
+      </c>
       <c r="Q116" s="66"/>
       <c r="R116" s="66"/>
       <c r="S116" s="66"/>
@@ -24226,7 +24339,9 @@
       <c r="O201" s="66">
         <v>0</v>
       </c>
-      <c r="P201" s="66"/>
+      <c r="P201" s="66">
+        <v>0</v>
+      </c>
       <c r="Q201" s="66"/>
       <c r="R201" s="66"/>
       <c r="S201" s="66"/>
@@ -24347,18 +24462,16 @@
     </row>
     <row r="203" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A203" s="57"/>
-      <c r="B203" s="67">
-        <v>2</v>
-      </c>
+      <c r="B203" s="67"/>
       <c r="C203" s="66" t="s">
         <v>86</v>
       </c>
       <c r="D203" s="66" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E203" s="66"/>
       <c r="F203" s="62" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="G203" s="73" t="s">
         <v>62</v>
@@ -24371,8 +24484,12 @@
       <c r="M203" s="66"/>
       <c r="N203" s="66"/>
       <c r="O203" s="66"/>
-      <c r="P203" s="66"/>
-      <c r="Q203" s="66"/>
+      <c r="P203" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="66">
+        <v>2</v>
+      </c>
       <c r="R203" s="66"/>
       <c r="S203" s="66"/>
       <c r="T203" s="66"/>
@@ -24415,20 +24532,16 @@
       <c r="BE203" s="66"/>
       <c r="BF203" s="66"/>
       <c r="BG203" s="68"/>
-      <c r="BH203" s="57" t="s">
-        <v>44</v>
-      </c>
+      <c r="BH203" s="57"/>
     </row>
     <row r="204" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A204" s="57"/>
       <c r="B204" s="67"/>
       <c r="C204" s="69"/>
-      <c r="D204" s="66" t="s">
-        <v>137</v>
-      </c>
+      <c r="D204" s="66"/>
       <c r="E204" s="66"/>
       <c r="F204" s="62" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="G204" s="73" t="s">
         <v>16</v>
@@ -24441,7 +24554,9 @@
       <c r="M204" s="66"/>
       <c r="N204" s="66"/>
       <c r="O204" s="66"/>
-      <c r="P204" s="66"/>
+      <c r="P204" s="66">
+        <v>1</v>
+      </c>
       <c r="Q204" s="66"/>
       <c r="R204" s="66"/>
       <c r="S204" s="66"/>
@@ -24485,9 +24600,7 @@
       <c r="BE204" s="66"/>
       <c r="BF204" s="66"/>
       <c r="BG204" s="68"/>
-      <c r="BH204" s="57" t="s">
-        <v>44</v>
-      </c>
+      <c r="BH204" s="57"/>
     </row>
     <row r="205" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A205" s="57"/>
@@ -24498,7 +24611,7 @@
       </c>
       <c r="E205" s="66" t="str">
         <f>IF(MAX($H205:$BF205)=0,"",MAX($H205:$BF205)&amp;" %")</f>
-        <v/>
+        <v>50 %</v>
       </c>
       <c r="F205" s="62"/>
       <c r="G205" s="73" t="s">
@@ -24512,7 +24625,9 @@
       <c r="M205" s="66"/>
       <c r="N205" s="66"/>
       <c r="O205" s="66"/>
-      <c r="P205" s="66"/>
+      <c r="P205" s="66">
+        <v>50</v>
+      </c>
       <c r="Q205" s="66"/>
       <c r="R205" s="66"/>
       <c r="S205" s="66"/>
@@ -24556,20 +24671,18 @@
       <c r="BE205" s="66"/>
       <c r="BF205" s="66"/>
       <c r="BG205" s="68"/>
-      <c r="BH205" s="57" t="s">
-        <v>44</v>
-      </c>
+      <c r="BH205" s="57"/>
     </row>
     <row r="206" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A206" s="57"/>
       <c r="B206" s="67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C206" s="66" t="s">
         <v>86</v>
       </c>
       <c r="D206" s="66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E206" s="66"/>
       <c r="F206" s="62" t="s">
@@ -24638,7 +24751,9 @@
       <c r="A207" s="57"/>
       <c r="B207" s="67"/>
       <c r="C207" s="69"/>
-      <c r="D207" s="66"/>
+      <c r="D207" s="66" t="s">
+        <v>137</v>
+      </c>
       <c r="E207" s="66"/>
       <c r="F207" s="62" t="s">
         <v>57</v>
@@ -24776,17 +24891,17 @@
     <row r="209" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A209" s="57"/>
       <c r="B209" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C209" s="66" t="s">
         <v>86</v>
       </c>
       <c r="D209" s="66" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="E209" s="66"/>
       <c r="F209" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G209" s="73" t="s">
         <v>62</v>
@@ -24799,9 +24914,7 @@
       <c r="M209" s="66"/>
       <c r="N209" s="66"/>
       <c r="O209" s="66"/>
-      <c r="P209" s="66">
-        <v>3</v>
-      </c>
+      <c r="P209" s="66"/>
       <c r="Q209" s="66"/>
       <c r="R209" s="66"/>
       <c r="S209" s="66"/>
@@ -24856,7 +24969,7 @@
       <c r="D210" s="66"/>
       <c r="E210" s="66"/>
       <c r="F210" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G210" s="73" t="s">
         <v>16</v>
@@ -24988,16 +25101,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A212" s="57"/>
-      <c r="B212" s="67"/>
-      <c r="C212" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="D212" s="121"/>
-      <c r="E212" s="121"/>
-      <c r="F212" s="121"/>
-      <c r="G212" s="122"/>
+      <c r="B212" s="67">
+        <v>4</v>
+      </c>
+      <c r="C212" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D212" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E212" s="66"/>
+      <c r="F212" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G212" s="73" t="s">
+        <v>62</v>
+      </c>
       <c r="H212" s="66"/>
       <c r="I212" s="66"/>
       <c r="J212" s="66"/>
@@ -25006,8 +25127,12 @@
       <c r="M212" s="66"/>
       <c r="N212" s="66"/>
       <c r="O212" s="66"/>
-      <c r="P212" s="66"/>
-      <c r="Q212" s="66"/>
+      <c r="P212" s="66">
+        <v>3</v>
+      </c>
+      <c r="Q212" s="66">
+        <v>2</v>
+      </c>
       <c r="R212" s="66"/>
       <c r="S212" s="66"/>
       <c r="T212" s="66"/>
@@ -25056,17 +25181,15 @@
     </row>
     <row r="213" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A213" s="57"/>
-      <c r="B213" s="67">
-        <v>1</v>
-      </c>
-      <c r="C213" s="66" t="s">
-        <v>38</v>
-      </c>
+      <c r="B213" s="67"/>
+      <c r="C213" s="69"/>
       <c r="D213" s="66"/>
       <c r="E213" s="66"/>
-      <c r="F213" s="62"/>
+      <c r="F213" s="62" t="s">
+        <v>58</v>
+      </c>
       <c r="G213" s="73" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H213" s="66"/>
       <c r="I213" s="66"/>
@@ -25076,7 +25199,9 @@
       <c r="M213" s="66"/>
       <c r="N213" s="66"/>
       <c r="O213" s="66"/>
-      <c r="P213" s="66"/>
+      <c r="P213" s="66">
+        <v>3</v>
+      </c>
       <c r="Q213" s="66"/>
       <c r="R213" s="66"/>
       <c r="S213" s="66"/>
@@ -25128,11 +25253,16 @@
       <c r="A214" s="57"/>
       <c r="B214" s="67"/>
       <c r="C214" s="69"/>
-      <c r="D214" s="66"/>
-      <c r="E214" s="66"/>
+      <c r="D214" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E214" s="66" t="str">
+        <f>IF(MAX($H214:$BF214)=0,"",MAX($H214:$BF214)&amp;" %")</f>
+        <v>20 %</v>
+      </c>
       <c r="F214" s="62"/>
       <c r="G214" s="73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H214" s="66"/>
       <c r="I214" s="66"/>
@@ -25142,7 +25272,9 @@
       <c r="M214" s="66"/>
       <c r="N214" s="66"/>
       <c r="O214" s="66"/>
-      <c r="P214" s="66"/>
+      <c r="P214" s="66">
+        <v>20</v>
+      </c>
       <c r="Q214" s="66"/>
       <c r="R214" s="66"/>
       <c r="S214" s="66"/>
@@ -25190,21 +25322,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A215" s="57"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="69"/>
-      <c r="D215" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E215" s="66" t="str">
-        <f>IF(MAX($H215:$BF215)=0,"",MAX($H215:$BF215)&amp;" %")</f>
-        <v/>
-      </c>
-      <c r="F215" s="62"/>
-      <c r="G215" s="73" t="s">
-        <v>17</v>
-      </c>
+      <c r="C215" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" s="121"/>
+      <c r="E215" s="121"/>
+      <c r="F215" s="121"/>
+      <c r="G215" s="122"/>
       <c r="H215" s="66"/>
       <c r="I215" s="66"/>
       <c r="J215" s="66"/>
@@ -25264,10 +25391,10 @@
     <row r="216" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A216" s="57"/>
       <c r="B216" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D216" s="66"/>
       <c r="E216" s="66"/>
@@ -25471,10 +25598,10 @@
     <row r="219" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A219" s="57"/>
       <c r="B219" s="67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" s="66" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D219" s="66"/>
       <c r="E219" s="66"/>
@@ -25678,10 +25805,10 @@
     <row r="222" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A222" s="57"/>
       <c r="B222" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" s="66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D222" s="66"/>
       <c r="E222" s="66"/>
@@ -25885,10 +26012,10 @@
     <row r="225" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A225" s="57"/>
       <c r="B225" s="67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C225" s="66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D225" s="66"/>
       <c r="E225" s="66"/>
@@ -26092,10 +26219,10 @@
     <row r="228" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A228" s="57"/>
       <c r="B228" s="67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" s="66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D228" s="66"/>
       <c r="E228" s="66"/>
@@ -26299,10 +26426,10 @@
     <row r="231" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A231" s="57"/>
       <c r="B231" s="67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" s="66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D231" s="66"/>
       <c r="E231" s="66"/>
@@ -26506,10 +26633,10 @@
     <row r="234" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A234" s="57"/>
       <c r="B234" s="67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D234" s="66"/>
       <c r="E234" s="66"/>
@@ -26713,10 +26840,10 @@
     <row r="237" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A237" s="57"/>
       <c r="B237" s="67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C237" s="66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D237" s="66"/>
       <c r="E237" s="66"/>
@@ -26920,10 +27047,10 @@
     <row r="240" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A240" s="57"/>
       <c r="B240" s="67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" s="66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D240" s="66"/>
       <c r="E240" s="66"/>
@@ -27127,10 +27254,10 @@
     <row r="243" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A243" s="57"/>
       <c r="B243" s="67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C243" s="66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D243" s="66"/>
       <c r="E243" s="66"/>
@@ -27334,10 +27461,10 @@
     <row r="246" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A246" s="57"/>
       <c r="B246" s="67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C246" s="66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D246" s="66"/>
       <c r="E246" s="66"/>
@@ -27541,10 +27668,10 @@
     <row r="249" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A249" s="57"/>
       <c r="B249" s="67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C249" s="66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D249" s="66"/>
       <c r="E249" s="66"/>
@@ -27748,10 +27875,10 @@
     <row r="252" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A252" s="57"/>
       <c r="B252" s="67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C252" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D252" s="66"/>
       <c r="E252" s="66"/>
@@ -27955,10 +28082,10 @@
     <row r="255" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A255" s="57"/>
       <c r="B255" s="67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C255" s="66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D255" s="66"/>
       <c r="E255" s="66"/>
@@ -28162,10 +28289,10 @@
     <row r="258" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A258" s="57"/>
       <c r="B258" s="67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C258" s="66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D258" s="66"/>
       <c r="E258" s="66"/>
@@ -28369,10 +28496,10 @@
     <row r="261" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A261" s="57"/>
       <c r="B261" s="67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C261" s="66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D261" s="66"/>
       <c r="E261" s="66"/>
@@ -28576,10 +28703,10 @@
     <row r="264" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A264" s="57"/>
       <c r="B264" s="67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C264" s="66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D264" s="66"/>
       <c r="E264" s="66"/>
@@ -28783,10 +28910,10 @@
     <row r="267" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A267" s="57"/>
       <c r="B267" s="67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C267" s="66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D267" s="66"/>
       <c r="E267" s="66"/>
@@ -28990,10 +29117,10 @@
     <row r="270" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A270" s="57"/>
       <c r="B270" s="67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C270" s="66" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="D270" s="66"/>
       <c r="E270" s="66"/>
@@ -29194,16 +29321,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="273" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A273" s="57"/>
-      <c r="B273" s="67"/>
+      <c r="B273" s="67">
+        <v>20</v>
+      </c>
       <c r="C273" s="66" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D273" s="66"/>
       <c r="E273" s="66"/>
       <c r="F273" s="62"/>
-      <c r="G273" s="73"/>
+      <c r="G273" s="73" t="s">
+        <v>62</v>
+      </c>
       <c r="H273" s="66"/>
       <c r="I273" s="66"/>
       <c r="J273" s="66"/>
@@ -29260,19 +29391,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="274" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A274" s="57"/>
-      <c r="B274" s="67">
-        <v>1</v>
-      </c>
-      <c r="C274" s="70" t="s">
-        <v>35</v>
-      </c>
+      <c r="B274" s="67"/>
+      <c r="C274" s="69"/>
       <c r="D274" s="66"/>
       <c r="E274" s="66"/>
       <c r="F274" s="62"/>
       <c r="G274" s="73" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="H274" s="66"/>
       <c r="I274" s="66"/>
@@ -29330,15 +29457,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="275" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A275" s="57"/>
       <c r="B275" s="67"/>
       <c r="C275" s="69"/>
-      <c r="D275" s="66"/>
-      <c r="E275" s="66"/>
+      <c r="D275" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E275" s="66" t="str">
+        <f>IF(MAX($H275:$BF275)=0,"",MAX($H275:$BF275)&amp;" %")</f>
+        <v/>
+      </c>
       <c r="F275" s="62"/>
       <c r="G275" s="73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H275" s="66"/>
       <c r="I275" s="66"/>
@@ -29399,18 +29531,13 @@
     <row r="276" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A276" s="57"/>
       <c r="B276" s="67"/>
-      <c r="C276" s="69"/>
-      <c r="D276" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E276" s="66" t="str">
-        <f>IF(MAX($H276:$BF276)=0,"",MAX($H276:$BF276)&amp;" %")</f>
-        <v/>
-      </c>
+      <c r="C276" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D276" s="66"/>
+      <c r="E276" s="66"/>
       <c r="F276" s="62"/>
-      <c r="G276" s="73" t="s">
-        <v>17</v>
-      </c>
+      <c r="G276" s="73"/>
       <c r="H276" s="66"/>
       <c r="I276" s="66"/>
       <c r="J276" s="66"/>
@@ -29470,7 +29597,7 @@
     <row r="277" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A277" s="57"/>
       <c r="B277" s="67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C277" s="70" t="s">
         <v>35</v>
@@ -29677,7 +29804,7 @@
     <row r="280" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A280" s="57"/>
       <c r="B280" s="67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" s="70" t="s">
         <v>35</v>
@@ -29881,875 +30008,425 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A283" s="57"/>
-      <c r="B283" s="104" t="s">
+      <c r="B283" s="67">
+        <v>3</v>
+      </c>
+      <c r="C283" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D283" s="66"/>
+      <c r="E283" s="66"/>
+      <c r="F283" s="62"/>
+      <c r="G283" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H283" s="66"/>
+      <c r="I283" s="66"/>
+      <c r="J283" s="66"/>
+      <c r="K283" s="66"/>
+      <c r="L283" s="66"/>
+      <c r="M283" s="66"/>
+      <c r="N283" s="66"/>
+      <c r="O283" s="66"/>
+      <c r="P283" s="66"/>
+      <c r="Q283" s="66"/>
+      <c r="R283" s="66"/>
+      <c r="S283" s="66"/>
+      <c r="T283" s="66"/>
+      <c r="U283" s="66"/>
+      <c r="V283" s="66"/>
+      <c r="W283" s="66"/>
+      <c r="X283" s="66"/>
+      <c r="Y283" s="66"/>
+      <c r="Z283" s="66"/>
+      <c r="AA283" s="66"/>
+      <c r="AB283" s="66"/>
+      <c r="AC283" s="66"/>
+      <c r="AD283" s="66"/>
+      <c r="AE283" s="66"/>
+      <c r="AF283" s="66"/>
+      <c r="AG283" s="66"/>
+      <c r="AH283" s="66"/>
+      <c r="AI283" s="66"/>
+      <c r="AJ283" s="66"/>
+      <c r="AK283" s="66"/>
+      <c r="AL283" s="66"/>
+      <c r="AM283" s="66"/>
+      <c r="AN283" s="66"/>
+      <c r="AO283" s="66"/>
+      <c r="AP283" s="66"/>
+      <c r="AQ283" s="66"/>
+      <c r="AR283" s="66"/>
+      <c r="AS283" s="66"/>
+      <c r="AT283" s="66"/>
+      <c r="AU283" s="66"/>
+      <c r="AV283" s="66"/>
+      <c r="AW283" s="66"/>
+      <c r="AX283" s="66"/>
+      <c r="AY283" s="66"/>
+      <c r="AZ283" s="66"/>
+      <c r="BA283" s="66"/>
+      <c r="BB283" s="66"/>
+      <c r="BC283" s="66"/>
+      <c r="BD283" s="66"/>
+      <c r="BE283" s="66"/>
+      <c r="BF283" s="66"/>
+      <c r="BG283" s="68"/>
+      <c r="BH283" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="284" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="57"/>
+      <c r="B284" s="67"/>
+      <c r="C284" s="69"/>
+      <c r="D284" s="66"/>
+      <c r="E284" s="66"/>
+      <c r="F284" s="62"/>
+      <c r="G284" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H284" s="66"/>
+      <c r="I284" s="66"/>
+      <c r="J284" s="66"/>
+      <c r="K284" s="66"/>
+      <c r="L284" s="66"/>
+      <c r="M284" s="66"/>
+      <c r="N284" s="66"/>
+      <c r="O284" s="66"/>
+      <c r="P284" s="66"/>
+      <c r="Q284" s="66"/>
+      <c r="R284" s="66"/>
+      <c r="S284" s="66"/>
+      <c r="T284" s="66"/>
+      <c r="U284" s="66"/>
+      <c r="V284" s="66"/>
+      <c r="W284" s="66"/>
+      <c r="X284" s="66"/>
+      <c r="Y284" s="66"/>
+      <c r="Z284" s="66"/>
+      <c r="AA284" s="66"/>
+      <c r="AB284" s="66"/>
+      <c r="AC284" s="66"/>
+      <c r="AD284" s="66"/>
+      <c r="AE284" s="66"/>
+      <c r="AF284" s="66"/>
+      <c r="AG284" s="66"/>
+      <c r="AH284" s="66"/>
+      <c r="AI284" s="66"/>
+      <c r="AJ284" s="66"/>
+      <c r="AK284" s="66"/>
+      <c r="AL284" s="66"/>
+      <c r="AM284" s="66"/>
+      <c r="AN284" s="66"/>
+      <c r="AO284" s="66"/>
+      <c r="AP284" s="66"/>
+      <c r="AQ284" s="66"/>
+      <c r="AR284" s="66"/>
+      <c r="AS284" s="66"/>
+      <c r="AT284" s="66"/>
+      <c r="AU284" s="66"/>
+      <c r="AV284" s="66"/>
+      <c r="AW284" s="66"/>
+      <c r="AX284" s="66"/>
+      <c r="AY284" s="66"/>
+      <c r="AZ284" s="66"/>
+      <c r="BA284" s="66"/>
+      <c r="BB284" s="66"/>
+      <c r="BC284" s="66"/>
+      <c r="BD284" s="66"/>
+      <c r="BE284" s="66"/>
+      <c r="BF284" s="66"/>
+      <c r="BG284" s="68"/>
+      <c r="BH284" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="57"/>
+      <c r="B285" s="67"/>
+      <c r="C285" s="69"/>
+      <c r="D285" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E285" s="66" t="str">
+        <f>IF(MAX($H285:$BF285)=0,"",MAX($H285:$BF285)&amp;" %")</f>
+        <v/>
+      </c>
+      <c r="F285" s="62"/>
+      <c r="G285" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H285" s="66"/>
+      <c r="I285" s="66"/>
+      <c r="J285" s="66"/>
+      <c r="K285" s="66"/>
+      <c r="L285" s="66"/>
+      <c r="M285" s="66"/>
+      <c r="N285" s="66"/>
+      <c r="O285" s="66"/>
+      <c r="P285" s="66"/>
+      <c r="Q285" s="66"/>
+      <c r="R285" s="66"/>
+      <c r="S285" s="66"/>
+      <c r="T285" s="66"/>
+      <c r="U285" s="66"/>
+      <c r="V285" s="66"/>
+      <c r="W285" s="66"/>
+      <c r="X285" s="66"/>
+      <c r="Y285" s="66"/>
+      <c r="Z285" s="66"/>
+      <c r="AA285" s="66"/>
+      <c r="AB285" s="66"/>
+      <c r="AC285" s="66"/>
+      <c r="AD285" s="66"/>
+      <c r="AE285" s="66"/>
+      <c r="AF285" s="66"/>
+      <c r="AG285" s="66"/>
+      <c r="AH285" s="66"/>
+      <c r="AI285" s="66"/>
+      <c r="AJ285" s="66"/>
+      <c r="AK285" s="66"/>
+      <c r="AL285" s="66"/>
+      <c r="AM285" s="66"/>
+      <c r="AN285" s="66"/>
+      <c r="AO285" s="66"/>
+      <c r="AP285" s="66"/>
+      <c r="AQ285" s="66"/>
+      <c r="AR285" s="66"/>
+      <c r="AS285" s="66"/>
+      <c r="AT285" s="66"/>
+      <c r="AU285" s="66"/>
+      <c r="AV285" s="66"/>
+      <c r="AW285" s="66"/>
+      <c r="AX285" s="66"/>
+      <c r="AY285" s="66"/>
+      <c r="AZ285" s="66"/>
+      <c r="BA285" s="66"/>
+      <c r="BB285" s="66"/>
+      <c r="BC285" s="66"/>
+      <c r="BD285" s="66"/>
+      <c r="BE285" s="66"/>
+      <c r="BF285" s="66"/>
+      <c r="BG285" s="68"/>
+      <c r="BH285" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="57"/>
+      <c r="B286" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C283" s="105"/>
-      <c r="D283" s="105"/>
-      <c r="E283" s="105"/>
-      <c r="F283" s="105"/>
-      <c r="G283" s="106"/>
-      <c r="H283" s="66">
-        <f>SUM(H284:H288)</f>
+      <c r="C286" s="105"/>
+      <c r="D286" s="105"/>
+      <c r="E286" s="105"/>
+      <c r="F286" s="105"/>
+      <c r="G286" s="106"/>
+      <c r="H286" s="66">
+        <f>SUM(H287:H291)</f>
         <v>5</v>
       </c>
-      <c r="I283" s="66">
-        <f t="shared" ref="I283:BF283" si="2">SUM(I284:I288)</f>
+      <c r="I286" s="66">
+        <f t="shared" ref="I286:BF286" si="2">SUM(I287:I291)</f>
         <v>5</v>
       </c>
-      <c r="J283" s="66">
+      <c r="J286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K283" s="66">
+      <c r="K286" s="66">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="L283" s="66">
+      <c r="L286" s="66">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="M283" s="66">
+      <c r="M286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N283" s="66">
+      <c r="N286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O283" s="66">
+      <c r="O286" s="66">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="P283" s="66">
+      <c r="P286" s="66">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q283" s="66">
+      <c r="Q286" s="66">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="R286" s="66">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="R283" s="66">
+      <c r="S286" s="66">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="S283" s="66">
+        <v>0</v>
+      </c>
+      <c r="T286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T283" s="66">
+      <c r="U286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U283" s="66">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V283" s="66">
+      <c r="V286" s="66">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="W283" s="66">
+      <c r="W286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X283" s="66">
+      <c r="X286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y283" s="66">
+      <c r="Y286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z283" s="66">
+      <c r="Z286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA283" s="66">
+      <c r="AA286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB283" s="66">
+      <c r="AB286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC283" s="66">
+      <c r="AC286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD283" s="66">
+      <c r="AD286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE283" s="66">
+      <c r="AE286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF283" s="66">
+      <c r="AF286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG283" s="66">
+      <c r="AG286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH283" s="66">
+      <c r="AH286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI283" s="66">
+      <c r="AI286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ283" s="66">
+      <c r="AJ286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK283" s="66">
+      <c r="AK286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AL283" s="66">
+      <c r="AL286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AM283" s="66">
+      <c r="AM286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AN283" s="66">
+      <c r="AN286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AO283" s="66">
+      <c r="AO286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AP283" s="66">
+      <c r="AP286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ283" s="66">
+      <c r="AQ286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AR283" s="66">
+      <c r="AR286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AS283" s="66">
+      <c r="AS286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AT283" s="66">
+      <c r="AT286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AU283" s="66">
+      <c r="AU286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AV283" s="66">
+      <c r="AV286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AW283" s="66">
+      <c r="AW286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AX283" s="66">
+      <c r="AX286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AY283" s="66">
+      <c r="AY286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AZ283" s="66">
+      <c r="AZ286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BA283" s="66">
+      <c r="BA286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BB283" s="66">
+      <c r="BB286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BC283" s="66">
+      <c r="BC286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BD283" s="66">
+      <c r="BD286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BE283" s="66">
+      <c r="BE286" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BF283" s="66">
+      <c r="BF286" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BG283" s="68"/>
-      <c r="BH283" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="284" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="57"/>
-      <c r="B284" s="76"/>
-      <c r="C284" s="76"/>
-      <c r="D284" s="76"/>
-      <c r="E284" s="76"/>
-      <c r="F284" s="77"/>
-      <c r="G284" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="H284" s="66">
-        <f t="shared" ref="H284:AM284" si="3">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"今井")+H289</f>
-        <v>1</v>
-      </c>
-      <c r="I284" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K284" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="L284" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O284" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="P284" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="Q284" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="R284" s="66">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="S284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V284" s="66">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AG284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AK284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AL284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AM284" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN284" s="66">
-        <f t="shared" ref="AN284:BF284" si="4">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"今井")+AN289</f>
-        <v>0</v>
-      </c>
-      <c r="AO284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AP284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AT284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AU284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AV284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AW284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AX284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AZ284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BA284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BB284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BF284" s="66">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BG284" s="68"/>
-      <c r="BH284" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="285" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="57"/>
-      <c r="B285" s="76"/>
-      <c r="C285" s="76"/>
-      <c r="D285" s="76"/>
-      <c r="E285" s="76"/>
-      <c r="F285" s="77"/>
-      <c r="G285" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="H285" s="66">
-        <f t="shared" ref="H285:AM285" si="5">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"浦島")+H289</f>
-        <v>1</v>
-      </c>
-      <c r="I285" s="66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K285" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L285" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="M285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O285" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="P285" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="Q285" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="R285" s="66">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="S285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V285" s="66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="W285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM285" s="66">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AN285" s="66">
-        <f t="shared" ref="AN285:BF285" si="6">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"浦島")+AN289</f>
-        <v>0</v>
-      </c>
-      <c r="AO285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AP285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AQ285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AR285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AS285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AT285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AU285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AV285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AW285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AX285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AY285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AZ285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BA285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BB285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BC285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BD285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BE285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BF285" s="66">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="BG285" s="68"/>
-      <c r="BH285" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="57"/>
-      <c r="B286" s="76"/>
-      <c r="C286" s="76"/>
-      <c r="D286" s="76"/>
-      <c r="E286" s="76"/>
-      <c r="F286" s="77"/>
-      <c r="G286" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="H286" s="66">
-        <f t="shared" ref="H286:AM286" si="7">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"河野")+H289</f>
-        <v>1</v>
-      </c>
-      <c r="I286" s="66">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K286" s="66">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="L286" s="66">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="M286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O286" s="66">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="P286" s="66">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="Q286" s="66">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="R286" s="66">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="S286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V286" s="66">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="W286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AC286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AK286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AL286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AM286" s="66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AN286" s="66">
-        <f t="shared" ref="AN286:BF286" si="8">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"河野")+AN289</f>
-        <v>0</v>
-      </c>
-      <c r="AO286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AP286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AQ286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AR286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AS286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AT286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AU286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AV286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AW286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AX286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AY286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AZ286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BA286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BB286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BC286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BD286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BE286" s="66">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BF286" s="66">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG286" s="68"/>
@@ -30765,210 +30442,210 @@
       <c r="E287" s="76"/>
       <c r="F287" s="77"/>
       <c r="G287" s="62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H287" s="66">
-        <f t="shared" ref="H287:AM287" si="9">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"堀川")+H289</f>
+        <f t="shared" ref="H287:AM287" si="3">SUMIFS(H12:H285,$G12:$G285,"予定時間",$F12:$F285,"今井")+H292</f>
         <v>1</v>
       </c>
       <c r="I287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K287" s="66">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="L287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P287" s="66">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="P287" s="66">
-        <f t="shared" si="9"/>
+      <c r="Q287" s="66">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="Q287" s="66">
-        <f t="shared" si="9"/>
+      <c r="R287" s="66">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="R287" s="66">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
       <c r="S287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM287" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN287" s="66">
-        <f t="shared" ref="AN287:BF287" si="10">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"堀川")+AN289</f>
+        <f t="shared" ref="AN287:BF287" si="4">SUMIFS(AN12:AN285,$G12:$G285,"予定時間",$F12:$F285,"今井")+AN292</f>
         <v>0</v>
       </c>
       <c r="AO287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AZ287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BA287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BB287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BC287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BD287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BF287" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG287" s="68"/>
@@ -30984,210 +30661,210 @@
       <c r="E288" s="76"/>
       <c r="F288" s="77"/>
       <c r="G288" s="62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H288" s="66">
-        <f t="shared" ref="H288:AM288" si="11">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"田中")+H289</f>
+        <f t="shared" ref="H288:AM288" si="5">SUMIFS(H12:H285,$G12:$G285,"予定時間",$F12:$F285,"浦島")+H292</f>
         <v>1</v>
       </c>
       <c r="I288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="L288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="M288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P288" s="66">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="P288" s="66">
-        <f t="shared" si="11"/>
+      <c r="Q288" s="66">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="Q288" s="66">
-        <f t="shared" si="11"/>
+      <c r="R288" s="66">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="R288" s="66">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
       <c r="S288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="W288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM288" s="66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN288" s="66">
-        <f t="shared" ref="AN288:BF288" si="12">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"田中")+AN289</f>
+        <f t="shared" ref="AN288:BF288" si="6">SUMIFS(AN12:AN285,$G12:$G285,"予定時間",$F12:$F285,"浦島")+AN292</f>
         <v>0</v>
       </c>
       <c r="AO288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AQ288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AR288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AS288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AT288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AU288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AV288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AW288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AX288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AY288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AZ288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BA288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BB288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BC288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BE288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF288" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BG288" s="68"/>
@@ -31203,1089 +30880,1089 @@
       <c r="E289" s="76"/>
       <c r="F289" s="77"/>
       <c r="G289" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H289" s="66">
+        <f t="shared" ref="H289:AM289" si="7">SUMIFS(H12:H285,$G12:$G285,"予定時間",$F12:$F285,"河野")+H292</f>
+        <v>1</v>
+      </c>
+      <c r="I289" s="66">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K289" s="66">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L289" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O289" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P289" s="66">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q289" s="68">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="R289" s="68">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="S289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V289" s="66">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="W289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AM289" s="66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AN289" s="66">
+        <f t="shared" ref="AN289:BF289" si="8">SUMIFS(AN12:AN285,$G12:$G285,"予定時間",$F12:$F285,"河野")+AN292</f>
+        <v>0</v>
+      </c>
+      <c r="AO289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AS289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AT289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AU289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AV289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AW289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AX289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AY289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AZ289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BA289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BB289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BC289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BE289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BF289" s="66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG289" s="68"/>
+      <c r="BH289" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="57"/>
+      <c r="B290" s="76"/>
+      <c r="C290" s="76"/>
+      <c r="D290" s="76"/>
+      <c r="E290" s="76"/>
+      <c r="F290" s="77"/>
+      <c r="G290" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H290" s="66">
+        <f t="shared" ref="H290:AM290" si="9">SUMIFS(H12:H285,$G12:$G285,"予定時間",$F12:$F285,"堀川")+H292</f>
+        <v>1</v>
+      </c>
+      <c r="I290" s="66">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="J290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K290" s="66">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="L290" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="M290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O290" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="P290" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Q290" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="R290" s="66">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V290" s="66">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="W290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AL290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AM290" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN290" s="66">
+        <f t="shared" ref="AN290:BF290" si="10">SUMIFS(AN12:AN285,$G12:$G285,"予定時間",$F12:$F285,"堀川")+AN292</f>
+        <v>0</v>
+      </c>
+      <c r="AO290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AZ290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BA290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BB290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BC290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BD290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BE290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BF290" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BG290" s="68"/>
+      <c r="BH290" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="57"/>
+      <c r="B291" s="76"/>
+      <c r="C291" s="76"/>
+      <c r="D291" s="76"/>
+      <c r="E291" s="76"/>
+      <c r="F291" s="77"/>
+      <c r="G291" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="H291" s="66">
+        <f t="shared" ref="H291:AM291" si="11">SUMIFS(H12:H285,$G12:$G285,"予定時間",$F12:$F285,"田中")+H292</f>
+        <v>1</v>
+      </c>
+      <c r="I291" s="66">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K291" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L291" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="M291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O291" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P291" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Q291" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="R291" s="66">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="S291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V291" s="66">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AK291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AM291" s="66">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AN291" s="66">
+        <f t="shared" ref="AN291:BF291" si="12">SUMIFS(AN12:AN285,$G12:$G285,"予定時間",$F12:$F285,"田中")+AN292</f>
+        <v>0</v>
+      </c>
+      <c r="AO291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AQ291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AR291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AS291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AT291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AU291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AV291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AW291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AX291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AY291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AZ291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BB291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BC291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BD291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BE291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BF291" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BG291" s="68"/>
+      <c r="BH291" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="57"/>
+      <c r="B292" s="76"/>
+      <c r="C292" s="76"/>
+      <c r="D292" s="76"/>
+      <c r="E292" s="76"/>
+      <c r="F292" s="77"/>
+      <c r="G292" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="H289" s="66">
-        <f t="shared" ref="H289:AM289" si="13">SUMIFS(H12:H282,$G12:$G282,"予定時間",$F12:$F282,"男班")</f>
+      <c r="H292" s="66">
+        <f t="shared" ref="H292:AM292" si="13">SUMIFS(H12:H285,$G12:$G285,"予定時間",$F12:$F285,"男班")</f>
         <v>1</v>
       </c>
-      <c r="I289" s="66">
+      <c r="I292" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J289" s="66">
+      <c r="J292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K289" s="66">
+      <c r="K292" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L289" s="66">
+      <c r="L292" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M289" s="66">
+      <c r="M292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N289" s="66">
+      <c r="N292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O289" s="66">
+      <c r="O292" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="P289" s="66">
+      <c r="P292" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q289" s="66">
+      <c r="Q292" s="66">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="R292" s="66">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="R289" s="66">
+      <c r="S292" s="66">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="S289" s="66">
+        <v>0</v>
+      </c>
+      <c r="T292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="T289" s="66">
+      <c r="U292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="U289" s="66">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V289" s="66">
+      <c r="V292" s="66">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="W289" s="66">
+      <c r="W292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X289" s="66">
+      <c r="X292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y289" s="66">
+      <c r="Y292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z289" s="66">
+      <c r="Z292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA289" s="66">
+      <c r="AA292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AB289" s="66">
+      <c r="AB292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC289" s="66">
+      <c r="AC292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD289" s="66">
+      <c r="AD292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE289" s="66">
+      <c r="AE292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF289" s="66">
+      <c r="AF292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AG289" s="66">
+      <c r="AG292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AH289" s="66">
+      <c r="AH292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AI289" s="66">
+      <c r="AI292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AJ289" s="66">
+      <c r="AJ292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AK289" s="66">
+      <c r="AK292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AL289" s="66">
+      <c r="AL292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AM289" s="66">
+      <c r="AM292" s="66">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AN289" s="66">
-        <f t="shared" ref="AN289:BF289" si="14">SUMIFS(AN12:AN282,$G12:$G282,"予定時間",$F12:$F282,"男班")</f>
-        <v>0</v>
-      </c>
-      <c r="AO289" s="66">
+      <c r="AN292" s="66">
+        <f t="shared" ref="AN292:BF292" si="14">SUMIFS(AN12:AN285,$G12:$G285,"予定時間",$F12:$F285,"男班")</f>
+        <v>0</v>
+      </c>
+      <c r="AO292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AP289" s="66">
+      <c r="AP292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AQ289" s="66">
+      <c r="AQ292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AR289" s="66">
+      <c r="AR292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AS289" s="66">
+      <c r="AS292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AT289" s="66">
+      <c r="AT292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AU289" s="66">
+      <c r="AU292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AV289" s="66">
+      <c r="AV292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AW289" s="66">
+      <c r="AW292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AX289" s="66">
+      <c r="AX292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AY289" s="66">
+      <c r="AY292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AZ289" s="66">
+      <c r="AZ292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BA289" s="66">
+      <c r="BA292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BB289" s="66">
+      <c r="BB292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BC289" s="66">
+      <c r="BC292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BD289" s="66">
+      <c r="BD292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BE289" s="66">
+      <c r="BE292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BF289" s="66">
+      <c r="BF292" s="66">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BG289" s="68"/>
-      <c r="BH289" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="290" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A290" s="57"/>
-      <c r="B290" s="107" t="s">
+      <c r="BG292" s="68"/>
+      <c r="BH292" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="57"/>
+      <c r="B293" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C290" s="108"/>
-      <c r="D290" s="108"/>
-      <c r="E290" s="108"/>
-      <c r="F290" s="108"/>
-      <c r="G290" s="109"/>
-      <c r="H290" s="66">
-        <f>SUM(H291:H295)</f>
+      <c r="C293" s="108"/>
+      <c r="D293" s="108"/>
+      <c r="E293" s="108"/>
+      <c r="F293" s="108"/>
+      <c r="G293" s="109"/>
+      <c r="H293" s="66">
+        <f>SUM(H294:H298)</f>
         <v>5</v>
       </c>
-      <c r="I290" s="66">
-        <f t="shared" ref="I290:BF290" si="15">SUM(I291:I295)</f>
+      <c r="I293" s="66">
+        <f t="shared" ref="I293:BF293" si="15">SUM(I294:I298)</f>
         <v>5</v>
       </c>
-      <c r="J290" s="66">
+      <c r="J293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K290" s="66">
+      <c r="K293" s="66">
         <f t="shared" si="15"/>
         <v>28</v>
       </c>
-      <c r="L290" s="66">
+      <c r="L293" s="66">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="M290" s="66">
+      <c r="M293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N290" s="66">
+      <c r="N293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O290" s="66">
+      <c r="O293" s="66">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="P290" s="66">
+      <c r="P293" s="66">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q290" s="66">
+        <v>30</v>
+      </c>
+      <c r="Q293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R290" s="66">
+      <c r="R293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S290" s="66">
+      <c r="S293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T290" s="66">
+      <c r="T293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="U290" s="66">
+      <c r="U293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="V290" s="66">
+      <c r="V293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="W290" s="66">
+      <c r="W293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="X290" s="66">
+      <c r="X293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y290" s="66">
+      <c r="Y293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Z290" s="66">
+      <c r="Z293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AA290" s="66">
+      <c r="AA293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AB290" s="66">
+      <c r="AB293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AC290" s="66">
+      <c r="AC293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AD290" s="66">
+      <c r="AD293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AE290" s="66">
+      <c r="AE293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AF290" s="66">
+      <c r="AF293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG290" s="66">
+      <c r="AG293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AH290" s="66">
+      <c r="AH293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AI290" s="66">
+      <c r="AI293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AJ290" s="66">
+      <c r="AJ293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AK290" s="66">
+      <c r="AK293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AL290" s="66">
+      <c r="AL293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AM290" s="66">
+      <c r="AM293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AN290" s="66">
+      <c r="AN293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AO290" s="66">
+      <c r="AO293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP290" s="66">
+      <c r="AP293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AQ290" s="66">
+      <c r="AQ293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AR290" s="66">
+      <c r="AR293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AS290" s="66">
+      <c r="AS293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AT290" s="66">
+      <c r="AT293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AU290" s="66">
+      <c r="AU293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AV290" s="66">
+      <c r="AV293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AW290" s="66">
+      <c r="AW293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AX290" s="66">
+      <c r="AX293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AY290" s="66">
+      <c r="AY293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AZ290" s="66">
+      <c r="AZ293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BA290" s="66">
+      <c r="BA293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BB290" s="66">
+      <c r="BB293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BC290" s="66">
+      <c r="BC293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BD290" s="66">
+      <c r="BD293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BE290" s="66">
+      <c r="BE293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BF290" s="66">
+      <c r="BF293" s="66">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="BG290" s="68"/>
-      <c r="BH290" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="291" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A291" s="57"/>
-      <c r="B291" s="78"/>
-      <c r="C291" s="78"/>
-      <c r="D291" s="78"/>
-      <c r="E291" s="78"/>
-      <c r="F291" s="78"/>
-      <c r="G291" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="H291" s="66">
-        <f t="shared" ref="H291:AM291" si="16">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"今井")+H296</f>
-        <v>1</v>
-      </c>
-      <c r="I291" s="66">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K291" s="66">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="L291" s="66">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="M291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O291" s="66">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="P291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="W291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="X291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Y291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Z291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AA291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AB291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AD291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AE291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AG291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AJ291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AK291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AL291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AM291" s="66">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AN291" s="66">
-        <f t="shared" ref="AN291:BF291" si="17">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"今井")+AN296</f>
-        <v>0</v>
-      </c>
-      <c r="AO291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AP291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AQ291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AS291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AT291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AU291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AV291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AW291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AX291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AY291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AZ291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BA291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BB291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BC291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BD291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BE291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BF291" s="66">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BG291" s="75"/>
-      <c r="BH291" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="292" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A292" s="57"/>
-      <c r="B292" s="78"/>
-      <c r="C292" s="78"/>
-      <c r="D292" s="78"/>
-      <c r="E292" s="78"/>
-      <c r="F292" s="78"/>
-      <c r="G292" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="H292" s="66">
-        <f t="shared" ref="H292:AM292" si="18">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"浦島")+H296</f>
-        <v>1</v>
-      </c>
-      <c r="I292" s="66">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="J292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K292" s="66">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="L292" s="66">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="M292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O292" s="66">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="P292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Y292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Z292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AA292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AB292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AC292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AD292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AF292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AG292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AH292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AI292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AL292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM292" s="66">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AN292" s="66">
-        <f t="shared" ref="AN292:BF292" si="19">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"浦島")+AN296</f>
-        <v>0</v>
-      </c>
-      <c r="AO292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AP292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AQ292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AR292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AS292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AU292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AV292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AW292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AX292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AY292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AZ292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BA292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BB292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BC292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BD292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BE292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BF292" s="66">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BG292" s="75"/>
-      <c r="BH292" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="57"/>
-      <c r="B293" s="78"/>
-      <c r="C293" s="78"/>
-      <c r="D293" s="78"/>
-      <c r="E293" s="78"/>
-      <c r="F293" s="78"/>
-      <c r="G293" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="H293" s="66">
-        <f t="shared" ref="H293:AM293" si="20">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"河野")+H296</f>
-        <v>1</v>
-      </c>
-      <c r="I293" s="66">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="J293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K293" s="66">
-        <f t="shared" si="20"/>
-        <v>5</v>
-      </c>
-      <c r="L293" s="66">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="M293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O293" s="66">
-        <f t="shared" si="20"/>
-        <v>6</v>
-      </c>
-      <c r="P293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="X293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Y293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Z293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AA293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AB293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AC293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AD293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AE293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AF293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AG293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AH293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AI293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AJ293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AK293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AM293" s="66">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AN293" s="66">
-        <f t="shared" ref="AN293:BF293" si="21">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"河野")+AN296</f>
-        <v>0</v>
-      </c>
-      <c r="AO293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AP293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AQ293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AR293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AS293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AT293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AU293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AV293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AW293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AX293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AY293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AZ293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BA293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BB293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BC293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BD293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BE293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BF293" s="66">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BG293" s="75"/>
+      <c r="BG293" s="68"/>
       <c r="BH293" s="57" t="s">
         <v>44</v>
       </c>
@@ -32298,210 +31975,210 @@
       <c r="E294" s="78"/>
       <c r="F294" s="78"/>
       <c r="G294" s="74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H294" s="66">
-        <f t="shared" ref="H294:AM294" si="22">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"堀川")+H296</f>
+        <f t="shared" ref="H294:AM294" si="16">SUMIFS(H12:H285,$G12:$G285,"実績時間",$F12:$F285,"今井")+H299</f>
         <v>1</v>
       </c>
       <c r="I294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K294" s="66">
-        <f t="shared" si="22"/>
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="L294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="M294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="P294" s="66">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="Q294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AI294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AJ294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AK294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AL294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AM294" s="66">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AN294" s="66">
-        <f t="shared" ref="AN294:BF294" si="23">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"堀川")+AN296</f>
+        <f t="shared" ref="AN294:BF294" si="17">SUMIFS(AN12:AN285,$G12:$G285,"実績時間",$F12:$F285,"今井")+AN299</f>
         <v>0</v>
       </c>
       <c r="AO294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AP294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AQ294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AR294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AS294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AT294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AU294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AV294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AW294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AX294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AY294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AZ294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BA294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BB294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BC294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BD294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BE294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BF294" s="66">
-        <f t="shared" si="23"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BG294" s="75"/>
@@ -32517,210 +32194,210 @@
       <c r="E295" s="78"/>
       <c r="F295" s="78"/>
       <c r="G295" s="74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H295" s="66">
-        <f t="shared" ref="H295:AM295" si="24">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"田中")+H296</f>
+        <f t="shared" ref="H295:AM295" si="18">SUMIFS(H12:H285,$G12:$G285,"実績時間",$F12:$F285,"浦島")+H299</f>
         <v>1</v>
       </c>
       <c r="I295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="L295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="M295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="P295" s="66">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>6</v>
       </c>
       <c r="Q295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AI295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AJ295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AK295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AL295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AM295" s="66">
-        <f t="shared" si="24"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AN295" s="66">
-        <f t="shared" ref="AN295:BF295" si="25">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"田中")+AN296</f>
+        <f t="shared" ref="AN295:BF295" si="19">SUMIFS(AN12:AN285,$G12:$G285,"実績時間",$F12:$F285,"浦島")+AN299</f>
         <v>0</v>
       </c>
       <c r="AO295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AP295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AQ295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AR295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AS295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AT295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AU295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AV295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AW295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AX295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AY295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AZ295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BA295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BB295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BC295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BD295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BE295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BF295" s="66">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG295" s="75"/>
@@ -32736,399 +32413,1055 @@
       <c r="E296" s="78"/>
       <c r="F296" s="78"/>
       <c r="G296" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H296" s="66">
+        <f t="shared" ref="H296:AM296" si="20">SUMIFS(H12:H285,$G12:$G285,"実績時間",$F12:$F285,"河野")+H299</f>
+        <v>1</v>
+      </c>
+      <c r="I296" s="66">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="J296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K296" s="66">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="L296" s="66">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="M296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O296" s="66">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="P296" s="66">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="Q296" s="68">
+        <v>0</v>
+      </c>
+      <c r="R296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AG296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AH296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AI296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AJ296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM296" s="66">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AN296" s="66">
+        <f t="shared" ref="AN296:BF296" si="21">SUMIFS(AN12:AN285,$G12:$G285,"実績時間",$F12:$F285,"河野")+AN299</f>
+        <v>0</v>
+      </c>
+      <c r="AO296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AP296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AQ296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AR296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AS296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AT296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AU296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AV296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AW296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AX296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AY296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AZ296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BA296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BB296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BC296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BD296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BE296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BF296" s="66">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BG296" s="75"/>
+      <c r="BH296" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="297" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="57"/>
+      <c r="B297" s="78"/>
+      <c r="C297" s="78"/>
+      <c r="D297" s="78"/>
+      <c r="E297" s="78"/>
+      <c r="F297" s="78"/>
+      <c r="G297" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H297" s="66">
+        <f t="shared" ref="H297:AM297" si="22">SUMIFS(H12:H285,$G12:$G285,"実績時間",$F12:$F285,"堀川")+H299</f>
+        <v>1</v>
+      </c>
+      <c r="I297" s="66">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K297" s="66">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="L297" s="66">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="M297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O297" s="66">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="P297" s="66">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="Q297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AG297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM297" s="66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN297" s="66">
+        <f t="shared" ref="AN297:BF297" si="23">SUMIFS(AN12:AN285,$G12:$G285,"実績時間",$F12:$F285,"堀川")+AN299</f>
+        <v>0</v>
+      </c>
+      <c r="AO297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AP297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AQ297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AR297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AS297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AT297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AU297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AV297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AW297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AX297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AY297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AZ297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BA297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BB297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BC297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BD297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BE297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BF297" s="66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BG297" s="75"/>
+      <c r="BH297" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="298" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="57"/>
+      <c r="B298" s="78"/>
+      <c r="C298" s="78"/>
+      <c r="D298" s="78"/>
+      <c r="E298" s="78"/>
+      <c r="F298" s="78"/>
+      <c r="G298" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H298" s="66">
+        <f t="shared" ref="H298:AM298" si="24">SUMIFS(H12:H285,$G12:$G285,"実績時間",$F12:$F285,"田中")+H299</f>
+        <v>1</v>
+      </c>
+      <c r="I298" s="66">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="J298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K298" s="66">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="L298" s="66">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="M298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O298" s="66">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="P298" s="66">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="Q298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AD298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AE298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AJ298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AK298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AM298" s="66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN298" s="66">
+        <f t="shared" ref="AN298:BF298" si="25">SUMIFS(AN12:AN285,$G12:$G285,"実績時間",$F12:$F285,"田中")+AN299</f>
+        <v>0</v>
+      </c>
+      <c r="AO298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AP298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AQ298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AR298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AS298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AT298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AU298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AV298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AW298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AX298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AY298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AZ298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BA298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BB298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BC298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BD298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BE298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BF298" s="66">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BG298" s="75"/>
+      <c r="BH298" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="57"/>
+      <c r="B299" s="78"/>
+      <c r="C299" s="78"/>
+      <c r="D299" s="78"/>
+      <c r="E299" s="78"/>
+      <c r="F299" s="78"/>
+      <c r="G299" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="H296" s="66">
-        <f t="shared" ref="H296:AM296" si="26">SUMIFS(H12:H282,$G12:$G282,"実績時間",$F12:$F282,"男班")</f>
+      <c r="H299" s="66">
+        <f t="shared" ref="H299:AM299" si="26">SUMIFS(H12:H285,$G12:$G285,"実績時間",$F12:$F285,"男班")</f>
         <v>1</v>
       </c>
-      <c r="I296" s="66">
+      <c r="I299" s="66">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="J296" s="66">
+      <c r="J299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K296" s="66">
+      <c r="K299" s="66">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="L296" s="66">
-        <f>SUMIFS(L12:L282,$G12:$G282,"実績時間",$F12:$F282,"男班")</f>
+      <c r="L299" s="66">
+        <f>SUMIFS(L12:L285,$G12:$G285,"実績時間",$F12:$F285,"男班")</f>
         <v>1</v>
       </c>
-      <c r="M296" s="66">
+      <c r="M299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N296" s="66">
+      <c r="N299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O296" s="66">
+      <c r="O299" s="66">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="P296" s="66">
+      <c r="P299" s="66">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="Q296" s="66">
+        <v>1</v>
+      </c>
+      <c r="Q299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="R296" s="66">
+      <c r="R299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="S296" s="66">
+      <c r="S299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="T296" s="66">
+      <c r="T299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U296" s="66">
+      <c r="U299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="V296" s="66">
+      <c r="V299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="W296" s="66">
+      <c r="W299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="X296" s="66">
+      <c r="X299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Y296" s="66">
+      <c r="Y299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="Z296" s="66">
+      <c r="Z299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AA296" s="66">
+      <c r="AA299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB296" s="66">
+      <c r="AB299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AC296" s="66">
+      <c r="AC299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AD296" s="66">
+      <c r="AD299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AE296" s="66">
+      <c r="AE299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AF296" s="66">
+      <c r="AF299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AG296" s="66">
+      <c r="AG299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AH296" s="66">
+      <c r="AH299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AI296" s="66">
+      <c r="AI299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AJ296" s="66">
+      <c r="AJ299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AK296" s="66">
+      <c r="AK299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AL296" s="66">
+      <c r="AL299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AM296" s="66">
+      <c r="AM299" s="66">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AN296" s="66">
-        <f t="shared" ref="AN296:BF296" si="27">SUMIFS(AN12:AN282,$G12:$G282,"実績時間",$F12:$F282,"男班")</f>
-        <v>0</v>
-      </c>
-      <c r="AO296" s="66">
+      <c r="AN299" s="66">
+        <f t="shared" ref="AN299:BF299" si="27">SUMIFS(AN12:AN285,$G12:$G285,"実績時間",$F12:$F285,"男班")</f>
+        <v>0</v>
+      </c>
+      <c r="AO299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AP296" s="66">
+      <c r="AP299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AQ296" s="66">
+      <c r="AQ299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AR296" s="66">
+      <c r="AR299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AS296" s="66">
+      <c r="AS299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AT296" s="66">
+      <c r="AT299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AU296" s="66">
+      <c r="AU299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AV296" s="66">
+      <c r="AV299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AW296" s="66">
+      <c r="AW299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AX296" s="66">
+      <c r="AX299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AY296" s="66">
+      <c r="AY299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AZ296" s="66">
+      <c r="AZ299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BA296" s="66">
+      <c r="BA299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BB296" s="66">
+      <c r="BB299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BC296" s="66">
+      <c r="BC299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BD296" s="66">
+      <c r="BD299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BE296" s="66">
+      <c r="BE299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BF296" s="66">
+      <c r="BF299" s="66">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="BG296" s="75"/>
-      <c r="BH296" s="57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="297" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="57"/>
-      <c r="B297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="G297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="I297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="J297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="K297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="L297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="M297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="N297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="O297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="P297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="R297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="S297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="T297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="U297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="V297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="W297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="X297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="AZ297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BD297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF297" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG297" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH297" s="57" t="s">
+      <c r="BG299" s="75"/>
+      <c r="BH299" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="300" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="57"/>
+      <c r="B300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="I300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="J300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="K300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="N300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="R300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="S300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="T300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="U300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="V300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="W300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="X300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF300" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG300" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH300" s="57" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:BG297"/>
+  <autoFilter ref="A4:BG300"/>
   <mergeCells count="26">
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="H2:N2"/>
@@ -33140,8 +33473,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="O1:S1"/>
-    <mergeCell ref="B283:G283"/>
-    <mergeCell ref="B290:G290"/>
+    <mergeCell ref="B286:G286"/>
+    <mergeCell ref="B293:G293"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A188:F188"/>
     <mergeCell ref="C11:G11"/>
@@ -33149,7 +33482,7 @@
     <mergeCell ref="C89:G89"/>
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
-    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="C215:G215"/>
     <mergeCell ref="AR2:BG2"/>
     <mergeCell ref="AC1:AG1"/>
     <mergeCell ref="AJ1:AN1"/>
@@ -33184,17 +33517,17 @@
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J24 J86:J92 J283:J296 J28:J82">
+  <conditionalFormatting sqref="J6:J24 J86:J92 J286:J299 J28:J82">
     <cfRule type="expression" dxfId="117" priority="119">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BF24 H86:BF92 H28:BF82 H283:BF296">
+  <conditionalFormatting sqref="H5:BF24 H86:BF92 H28:BF82 H286:BF299">
     <cfRule type="expression" dxfId="116" priority="117">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:BF24 K86:BF92 K283:BF296 K28:BF82">
+  <conditionalFormatting sqref="K5:BF24 K86:BF92 K286:BF299 K28:BF82">
     <cfRule type="expression" dxfId="115" priority="115">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
@@ -33320,57 +33653,57 @@
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J188:J202">
+  <conditionalFormatting sqref="J188:J205">
     <cfRule type="expression" dxfId="89" priority="67">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H188:BF202 H270:I276 H212:I266 K212:BF266 K270:BF276">
+  <conditionalFormatting sqref="H273:I279 H215:I269 K215:BF269 K273:BF279 H188:BF205">
     <cfRule type="expression" dxfId="88" priority="65">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K188:BF202 K270:BF276 K212:BF266">
+  <conditionalFormatting sqref="K273:BF279 K215:BF269 K188:BF205">
     <cfRule type="expression" dxfId="87" priority="63">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H267:I269 K267:BF269">
+  <conditionalFormatting sqref="H270:I272 K270:BF272">
     <cfRule type="expression" dxfId="86" priority="59">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K267:BF269">
+  <conditionalFormatting sqref="K270:BF272">
     <cfRule type="expression" dxfId="85" priority="57">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J277:J279">
+  <conditionalFormatting sqref="J280:J282">
     <cfRule type="expression" dxfId="84" priority="55">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H277:BF279">
+  <conditionalFormatting sqref="H280:BF282">
     <cfRule type="expression" dxfId="83" priority="53">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K277:BF279">
+  <conditionalFormatting sqref="K280:BF282">
     <cfRule type="expression" dxfId="82" priority="51">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J280:J282">
+  <conditionalFormatting sqref="J283:J285">
     <cfRule type="expression" dxfId="81" priority="49">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H280:BF282">
+  <conditionalFormatting sqref="H283:BF285">
     <cfRule type="expression" dxfId="80" priority="47">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K280:BF282">
+  <conditionalFormatting sqref="K283:BF285">
     <cfRule type="expression" dxfId="79" priority="45">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
@@ -33390,47 +33723,47 @@
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H283:BF283">
+  <conditionalFormatting sqref="H286:BF286">
     <cfRule type="cellIs" dxfId="75" priority="37" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H284:BF288">
+  <conditionalFormatting sqref="H287:BF291">
     <cfRule type="cellIs" dxfId="74" priority="36" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H290:BF290">
+  <conditionalFormatting sqref="H293:BF293">
     <cfRule type="cellIs" dxfId="73" priority="35" operator="greaterThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H291:BF295">
+  <conditionalFormatting sqref="H294:BF298">
     <cfRule type="cellIs" dxfId="72" priority="34" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J209:J211">
+  <conditionalFormatting sqref="J212:J214">
     <cfRule type="expression" dxfId="71" priority="33">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H209:BF211">
+  <conditionalFormatting sqref="H212:BF214">
     <cfRule type="expression" dxfId="70" priority="31">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K209:BF211">
+  <conditionalFormatting sqref="K212:BF214">
     <cfRule type="expression" dxfId="69" priority="29">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J212:J276">
+  <conditionalFormatting sqref="J215:J279">
     <cfRule type="expression" dxfId="68" priority="27">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J212:J276">
+  <conditionalFormatting sqref="J215:J279">
     <cfRule type="expression" dxfId="67" priority="25">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
@@ -33450,17 +33783,17 @@
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J203:J205">
+  <conditionalFormatting sqref="J206:J208">
     <cfRule type="expression" dxfId="63" priority="17">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H203:BF205">
+  <conditionalFormatting sqref="H206:BF208">
     <cfRule type="expression" dxfId="62" priority="15">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K203:BF205">
+  <conditionalFormatting sqref="K206:BF208">
     <cfRule type="expression" dxfId="61" priority="13">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
@@ -33475,28 +33808,28 @@
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H291:BF295">
+  <conditionalFormatting sqref="H294:BF298">
     <cfRule type="cellIs" dxfId="58" priority="7" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J206:J208">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="J209:J211">
+    <cfRule type="expression" dxfId="57" priority="6">
       <formula>J$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H206:BF208">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="H209:BF211">
+    <cfRule type="expression" dxfId="56" priority="4">
       <formula>H$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K206:BF208">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="K209:BF211">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>K$3&lt;$C$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F179:F187 F12:F27 F90:F98 F213:F282 F29:F88 F118:F177 F101:F116 F190:F211">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F179:F187 F12:F27 F90:F98 F216:F285 F29:F88 F118:F177 F101:F116 F190:F214">
       <formula1>$BL$1:$BR$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -33506,6 +33839,7 @@
     <oddHeader>&amp;L&amp;"メイリオ,レギュラー"&amp;14ササクラ開発進捗管理表&amp;R&amp;"ＭＳ Ｐ明朝,標準"
 &amp;D</oddHeader>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -33520,7 +33854,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J5 J86:BF92 J283:BF296 K175:BF181 K270:BF276 K212:BF266 J28:BF82</xm:sqref>
+          <xm:sqref>J5 J86:BF92 J286:BF299 K175:BF181 K273:BF279 K215:BF269 J28:BF82</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="118" id="{0AF8D24A-930E-408C-8EFC-DA858E181BE1}">
@@ -33546,7 +33880,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H5:BF24 H86:BF92 H175:I181 H270:I276 H212:I266 K212:BF266 K270:BF276 H28:BF82 K175:BF181 H283:BF296</xm:sqref>
+          <xm:sqref>H5:BF24 H86:BF92 H175:I181 H273:I279 H215:I269 K215:BF269 K273:BF279 H28:BF82 K175:BF181 H286:BF299</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="114" id="{1E187110-9672-4041-B1CB-607A76653925}">
@@ -33845,7 +34179,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J188:J202</xm:sqref>
+          <xm:sqref>J188:J205</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="64" id="{7CB60735-EAFA-48EB-863C-2F6EE0A14012}">
@@ -33858,7 +34192,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H188:BF202</xm:sqref>
+          <xm:sqref>H188:BF205</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="62" id="{B31EB02C-1050-48E0-9789-0152736EC90A}">
@@ -33871,7 +34205,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K188:BF202</xm:sqref>
+          <xm:sqref>K188:BF205</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="58" id="{BC789A60-CF5D-45EB-AB37-E7A7831791DE}">
@@ -33884,7 +34218,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H267:I269 K267:BF269</xm:sqref>
+          <xm:sqref>H270:I272 K270:BF272</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="56" id="{823C9B9C-8180-47C4-8C1E-2D30E3293190}">
@@ -33897,7 +34231,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K267:BF269</xm:sqref>
+          <xm:sqref>K270:BF272</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="54" id="{84626CBA-24BA-4C31-A011-34C71CCD2101}">
@@ -33910,7 +34244,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J277:J279</xm:sqref>
+          <xm:sqref>J280:J282</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="52" id="{ECF9FB3D-2992-45F0-98CA-573583C53824}">
@@ -33923,7 +34257,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H277:BF279</xm:sqref>
+          <xm:sqref>H280:BF282</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="50" id="{0F0DC635-F1A5-460A-BE10-2E13AC8ECC08}">
@@ -33936,7 +34270,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K277:BF279</xm:sqref>
+          <xm:sqref>K280:BF282</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="48" id="{6CB66FF9-FF04-49FA-BA86-16ABE2B3EF7F}">
@@ -33949,7 +34283,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J280:J282</xm:sqref>
+          <xm:sqref>J283:J285</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="46" id="{7817D565-23BB-4260-A41F-822A8E8A7108}">
@@ -33962,7 +34296,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H280:BF282</xm:sqref>
+          <xm:sqref>H283:BF285</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="44" id="{E1CDD6C1-40E1-4727-8848-1E89C08ED0F4}">
@@ -33975,7 +34309,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K280:BF282</xm:sqref>
+          <xm:sqref>K283:BF285</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="42" id="{B3789237-D3CA-4077-BF53-F707A60EA0F2}">
@@ -34027,7 +34361,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J209:J211</xm:sqref>
+          <xm:sqref>J212:J214</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="30" id="{297C57E1-6F4D-436B-A96E-0FD9ADBF6089}">
@@ -34040,7 +34374,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H209:BF211</xm:sqref>
+          <xm:sqref>H212:BF214</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="28" id="{261E11F6-077F-4B29-9831-EFE703135EFE}">
@@ -34053,7 +34387,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K209:BF211</xm:sqref>
+          <xm:sqref>K212:BF214</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="26" id="{15051913-221B-4A7C-B0F9-C51853DA78E1}">
@@ -34066,7 +34400,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J212:J276</xm:sqref>
+          <xm:sqref>J215:J279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="24" id="{1646101D-F346-4E07-9950-5E612E1AC327}">
@@ -34079,7 +34413,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J212:J276</xm:sqref>
+          <xm:sqref>J215:J279</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="22" id="{499AD5E7-74B9-4B85-AA29-BC84B5D605A6}">
@@ -34131,7 +34465,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J203:J205</xm:sqref>
+          <xm:sqref>J206:J208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="14" id="{4BCB4240-AED6-4A31-B870-0FFF341230B0}">
@@ -34144,7 +34478,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H203:BF205</xm:sqref>
+          <xm:sqref>H206:BF208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="12" id="{9AFC0125-2427-4924-8EFB-077163323A2C}">
@@ -34157,7 +34491,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K203:BF205</xm:sqref>
+          <xm:sqref>K206:BF208</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="10" id="{9386264E-1684-48DE-BC37-7BB609A94513}">
@@ -34196,7 +34530,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J206:J208</xm:sqref>
+          <xm:sqref>J209:J211</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{C15D977E-2F5A-424B-A39E-97A4D3AD0675}">
@@ -34209,7 +34543,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H206:BF208</xm:sqref>
+          <xm:sqref>H209:BF211</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{DDBD091E-8085-420B-AF80-423C53AE26BD}">
@@ -34222,7 +34556,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K206:BF208</xm:sqref>
+          <xm:sqref>K209:BF211</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -42,6 +42,48 @@
             <charset val="128"/>
           </rPr>
           <t>ページ構成が朝のMTGで変更になったため</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q296" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">河野　欠席
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R296" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>河野欠席</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1111,7 +1153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1172,6 +1214,13 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2110,10 +2159,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2155,15 +2231,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2171,24 +2238,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9768,10 +9817,10 @@
   <dimension ref="A1:BR300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H200" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Q204" sqref="Q204"/>
+      <selection pane="bottomRight" activeCell="R95" sqref="R95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
@@ -9790,8 +9839,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
         <v>42404</v>
@@ -9808,74 +9857,74 @@
         <v>( 23日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="103" t="s">
+      <c r="AC1" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="103" t="s">
+      <c r="AJ1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="103" t="s">
+      <c r="AQ1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="103" t="s">
+      <c r="AX1" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="103"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="103" t="s">
+      <c r="BE1" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="103"/>
-      <c r="BG1" s="103"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -9909,64 +9958,64 @@
       <c r="E2" s="90"/>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="102">
+      <c r="H2" s="103">
         <v>42005</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="128">
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104">
         <v>42036</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="102">
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="103">
         <v>42064</v>
       </c>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
       <c r="BH2" s="57" t="s">
         <v>45</v>
       </c>
@@ -10372,7 +10421,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="108" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10448,7 +10497,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10528,7 +10577,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10608,7 +10657,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
         <v>101</v>
@@ -10676,7 +10725,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="124"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="83"/>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -10740,14 +10789,14 @@
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="91"/>
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
@@ -10808,13 +10857,13 @@
     <row r="11" spans="1:70" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -11975,13 +12024,13 @@
     <row r="28" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -16463,13 +16512,13 @@
     <row r="89" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="115"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="115"/>
-      <c r="G89" s="116"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="125"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -16556,7 +16605,9 @@
       <c r="Q90" s="66">
         <v>2</v>
       </c>
-      <c r="R90" s="66"/>
+      <c r="R90" s="66">
+        <v>0</v>
+      </c>
       <c r="S90" s="66"/>
       <c r="T90" s="66"/>
       <c r="U90" s="66"/>
@@ -16609,7 +16660,7 @@
       <c r="D91" s="66"/>
       <c r="E91" s="66">
         <f>SUM($H91:$BF91)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91" s="62" t="s">
         <v>141</v>
@@ -16627,7 +16678,9 @@
       <c r="O91" s="66"/>
       <c r="P91" s="66"/>
       <c r="Q91" s="66"/>
-      <c r="R91" s="66"/>
+      <c r="R91" s="66">
+        <v>3</v>
+      </c>
       <c r="S91" s="66"/>
       <c r="T91" s="66"/>
       <c r="U91" s="66"/>
@@ -16827,7 +16880,7 @@
       <c r="D94" s="66"/>
       <c r="E94" s="66">
         <f>SUM($H94:$BF94)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" s="62" t="s">
         <v>141</v>
@@ -16845,7 +16898,9 @@
       <c r="O94" s="66"/>
       <c r="P94" s="66"/>
       <c r="Q94" s="66"/>
-      <c r="R94" s="66"/>
+      <c r="R94" s="66">
+        <v>3</v>
+      </c>
       <c r="S94" s="66"/>
       <c r="T94" s="66"/>
       <c r="U94" s="66"/>
@@ -17173,14 +17228,14 @@
       </c>
     </row>
     <row r="99" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="111"/>
+      <c r="B99" s="119"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="119"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="120"/>
       <c r="G99" s="92"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
@@ -17241,13 +17296,13 @@
     <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="117" t="s">
+      <c r="C100" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="118"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="119"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="107"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -17848,7 +17903,9 @@
         <v>1</v>
       </c>
       <c r="Q108" s="66"/>
-      <c r="R108" s="66"/>
+      <c r="R108" s="66">
+        <v>0</v>
+      </c>
       <c r="S108" s="66"/>
       <c r="T108" s="66"/>
       <c r="U108" s="66"/>
@@ -18480,13 +18537,13 @@
     <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="117" t="s">
+      <c r="C117" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="118"/>
-      <c r="E117" s="118"/>
-      <c r="F117" s="118"/>
-      <c r="G117" s="119"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="106"/>
+      <c r="F117" s="106"/>
+      <c r="G117" s="107"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
@@ -22696,13 +22753,13 @@
     <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
-      <c r="C178" s="117" t="s">
+      <c r="C178" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="118"/>
-      <c r="E178" s="118"/>
-      <c r="F178" s="118"/>
-      <c r="G178" s="119"/>
+      <c r="D178" s="106"/>
+      <c r="E178" s="106"/>
+      <c r="F178" s="106"/>
+      <c r="G178" s="107"/>
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
       <c r="J178" s="66"/>
@@ -23381,14 +23438,14 @@
       </c>
     </row>
     <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="112" t="s">
+      <c r="A188" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B188" s="112"/>
-      <c r="C188" s="112"/>
-      <c r="D188" s="112"/>
-      <c r="E188" s="112"/>
-      <c r="F188" s="113"/>
+      <c r="B188" s="121"/>
+      <c r="C188" s="121"/>
+      <c r="D188" s="121"/>
+      <c r="E188" s="121"/>
+      <c r="F188" s="122"/>
       <c r="G188" s="79"/>
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
@@ -23449,13 +23506,13 @@
     <row r="189" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="57"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="120" t="s">
+      <c r="C189" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="121"/>
-      <c r="E189" s="121"/>
-      <c r="F189" s="121"/>
-      <c r="G189" s="122"/>
+      <c r="D189" s="127"/>
+      <c r="E189" s="127"/>
+      <c r="F189" s="127"/>
+      <c r="G189" s="128"/>
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
       <c r="J189" s="66"/>
@@ -25325,13 +25382,13 @@
     <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A215" s="57"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="120" t="s">
+      <c r="C215" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="121"/>
-      <c r="E215" s="121"/>
-      <c r="F215" s="121"/>
-      <c r="G215" s="122"/>
+      <c r="D215" s="127"/>
+      <c r="E215" s="127"/>
+      <c r="F215" s="127"/>
+      <c r="G215" s="128"/>
       <c r="H215" s="66"/>
       <c r="I215" s="66"/>
       <c r="J215" s="66"/>
@@ -30217,14 +30274,14 @@
     </row>
     <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="57"/>
-      <c r="B286" s="104" t="s">
+      <c r="B286" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C286" s="105"/>
-      <c r="D286" s="105"/>
-      <c r="E286" s="105"/>
-      <c r="F286" s="105"/>
-      <c r="G286" s="106"/>
+      <c r="C286" s="114"/>
+      <c r="D286" s="114"/>
+      <c r="E286" s="114"/>
+      <c r="F286" s="114"/>
+      <c r="G286" s="115"/>
       <c r="H286" s="66">
         <f>SUM(H287:H291)</f>
         <v>5</v>
@@ -31750,14 +31807,14 @@
     </row>
     <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="57"/>
-      <c r="B293" s="107" t="s">
+      <c r="B293" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C293" s="108"/>
-      <c r="D293" s="108"/>
-      <c r="E293" s="108"/>
-      <c r="F293" s="108"/>
-      <c r="G293" s="109"/>
+      <c r="C293" s="117"/>
+      <c r="D293" s="117"/>
+      <c r="E293" s="117"/>
+      <c r="F293" s="117"/>
+      <c r="G293" s="118"/>
       <c r="H293" s="66">
         <f>SUM(H294:H298)</f>
         <v>5</v>
@@ -31800,7 +31857,7 @@
       </c>
       <c r="R293" s="66">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S293" s="66">
         <f t="shared" si="15"/>
@@ -32019,7 +32076,7 @@
       </c>
       <c r="R294" s="66">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S294" s="66">
         <f t="shared" si="16"/>
@@ -32238,7 +32295,7 @@
       </c>
       <c r="R295" s="66">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S295" s="66">
         <f t="shared" si="18"/>
@@ -32456,7 +32513,7 @@
       </c>
       <c r="R296" s="66">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S296" s="66">
         <f t="shared" si="20"/>
@@ -32675,7 +32732,7 @@
       </c>
       <c r="R297" s="66">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S297" s="66">
         <f t="shared" si="22"/>
@@ -32894,7 +32951,7 @@
       </c>
       <c r="R298" s="66">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S298" s="66">
         <f t="shared" si="24"/>
@@ -33113,7 +33170,7 @@
       </c>
       <c r="R299" s="66">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S299" s="66">
         <f t="shared" si="26"/>
@@ -33463,16 +33520,12 @@
   </sheetData>
   <autoFilter ref="A4:BG300"/>
   <mergeCells count="26">
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="B286:G286"/>
     <mergeCell ref="B293:G293"/>
     <mergeCell ref="A99:F99"/>
@@ -33483,12 +33536,16 @@
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
     <mergeCell ref="C215:G215"/>
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C117:G117"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -2159,37 +2159,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,6 +2204,15 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2238,6 +2220,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9817,13 +9817,13 @@
   <dimension ref="A1:BR300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="V9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="R95" sqref="R95"/>
+      <selection pane="bottomRight" activeCell="V99" sqref="V99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" style="4"/>
     <col min="2" max="2" width="3.625" style="4" bestFit="1" customWidth="1"/>
@@ -9832,99 +9832,101 @@
     <col min="5" max="5" width="15.875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="4" customWidth="1"/>
-    <col min="8" max="59" width="7" style="4" customWidth="1"/>
+    <col min="8" max="21" width="7" style="4" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="7" style="4" customWidth="1" collapsed="1"/>
+    <col min="23" max="59" width="7" style="4" customWidth="1"/>
     <col min="60" max="60" width="6.125" style="4" customWidth="1"/>
     <col min="61" max="63" width="3.5" style="4" customWidth="1"/>
     <col min="64" max="16384" width="2.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
+      <c r="A1" s="127"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
-        <v>42404</v>
+        <v>42408</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="80" t="str">
         <f ca="1">($BF$3-C1) &amp; "日"</f>
-        <v>40日</v>
+        <v>36日</v>
       </c>
       <c r="F1" s="80" t="str">
         <f ca="1">"( "&amp;NETWORKDAYS(C1,BF3,休日!A1:A9)&amp;"日 )"</f>
-        <v>( 23日 )</v>
+        <v>( 22日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="102" t="s">
+      <c r="AC1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="102" t="s">
+      <c r="AJ1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="102" t="s">
+      <c r="AQ1" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="102"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="102" t="s">
+      <c r="AX1" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="103"/>
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="103"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="102" t="s">
+      <c r="BE1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="103"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -9958,64 +9960,64 @@
       <c r="E2" s="90"/>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="103">
+      <c r="H2" s="102">
         <v>42005</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="128">
         <v>42036</v>
       </c>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="103">
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="102">
         <v>42064</v>
       </c>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
       <c r="BH2" s="57" t="s">
         <v>45</v>
       </c>
@@ -10421,7 +10423,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="123" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10497,7 +10499,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10577,7 +10579,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10657,7 +10659,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="108"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
         <v>101</v>
@@ -10725,7 +10727,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="83"/>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -10789,14 +10791,14 @@
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
       <c r="G10" s="91"/>
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
@@ -10854,16 +10856,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:70" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -10920,7 +10922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
       <c r="B12" s="67">
         <v>1</v>
@@ -10990,7 +10992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
       <c r="B13" s="67"/>
       <c r="C13" s="69"/>
@@ -11056,7 +11058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
       <c r="B14" s="67"/>
       <c r="C14" s="69"/>
@@ -11127,7 +11129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
       <c r="B15" s="67">
         <v>2</v>
@@ -11197,7 +11199,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="67"/>
       <c r="C16" s="69"/>
@@ -11263,7 +11265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
       <c r="B17" s="67"/>
       <c r="C17" s="69"/>
@@ -11334,7 +11336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
       <c r="B18" s="67">
         <v>3</v>
@@ -11404,7 +11406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
       <c r="B19" s="67"/>
       <c r="C19" s="69"/>
@@ -11470,7 +11472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
       <c r="B20" s="67"/>
       <c r="C20" s="69"/>
@@ -11541,7 +11543,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="67"/>
       <c r="C21" s="66" t="s">
@@ -11607,7 +11609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="67">
         <v>1</v>
@@ -11677,7 +11679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
       <c r="B23" s="67"/>
       <c r="C23" s="69"/>
@@ -11743,7 +11745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="67"/>
       <c r="C24" s="69"/>
@@ -11814,7 +11816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
       <c r="B25" s="67">
         <v>2</v>
@@ -11884,7 +11886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
       <c r="B26" s="67"/>
       <c r="C26" s="69"/>
@@ -11950,7 +11952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="67"/>
       <c r="C27" s="69"/>
@@ -12021,16 +12023,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="125"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -12087,7 +12089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
       <c r="B29" s="67">
         <v>1</v>
@@ -12165,7 +12167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="67"/>
       <c r="C30" s="69" t="s">
@@ -12242,7 +12244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="67"/>
       <c r="C31" s="69"/>
@@ -12319,7 +12321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="67">
         <v>2</v>
@@ -12401,7 +12403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="67"/>
       <c r="C33" s="69"/>
@@ -12480,7 +12482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="67"/>
       <c r="C34" s="69"/>
@@ -12559,7 +12561,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="67">
         <v>3</v>
@@ -12641,7 +12643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="67"/>
       <c r="C36" s="69"/>
@@ -12720,7 +12722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A37" s="57"/>
       <c r="B37" s="67"/>
       <c r="C37" s="69"/>
@@ -12799,7 +12801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="67">
         <v>4</v>
@@ -12879,7 +12881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
       <c r="B39" s="67"/>
       <c r="C39" s="69"/>
@@ -12956,7 +12958,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
       <c r="B40" s="67"/>
       <c r="C40" s="69"/>
@@ -13033,7 +13035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
       <c r="B41" s="67">
         <v>5</v>
@@ -13115,7 +13117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
       <c r="B42" s="67"/>
       <c r="C42" s="69"/>
@@ -13194,7 +13196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A43" s="57"/>
       <c r="B43" s="67"/>
       <c r="C43" s="69"/>
@@ -13275,7 +13277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
       <c r="B44" s="67">
         <v>6</v>
@@ -13355,7 +13357,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
       <c r="B45" s="67"/>
       <c r="C45" s="69"/>
@@ -13432,7 +13434,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
       <c r="B46" s="67"/>
       <c r="C46" s="69"/>
@@ -13509,7 +13511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
       <c r="B47" s="67">
         <v>7</v>
@@ -13581,7 +13583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
       <c r="B48" s="67"/>
       <c r="C48" s="69"/>
@@ -13652,7 +13654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
       <c r="B49" s="67"/>
       <c r="C49" s="69"/>
@@ -13725,7 +13727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="67">
         <v>8</v>
@@ -13801,7 +13803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="67"/>
       <c r="C51" s="69"/>
@@ -13876,7 +13878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="67"/>
       <c r="C52" s="69"/>
@@ -13951,7 +13953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="67">
         <v>9</v>
@@ -14023,7 +14025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="67"/>
       <c r="C54" s="69"/>
@@ -14094,7 +14096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="67"/>
       <c r="C55" s="69"/>
@@ -14167,7 +14169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="67">
         <v>10</v>
@@ -14243,7 +14245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="67"/>
       <c r="C57" s="69" t="s">
@@ -14318,7 +14320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="67"/>
       <c r="C58" s="69"/>
@@ -14389,7 +14391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="67">
         <v>11</v>
@@ -14463,7 +14465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="67"/>
       <c r="C60" s="69"/>
@@ -14534,7 +14536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="67"/>
       <c r="C61" s="69"/>
@@ -14605,7 +14607,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="67">
         <v>12</v>
@@ -14675,7 +14677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="67"/>
       <c r="C63" s="69"/>
@@ -14744,7 +14746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="67"/>
       <c r="C64" s="69"/>
@@ -14815,7 +14817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="67">
         <v>13</v>
@@ -14889,7 +14891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="67"/>
       <c r="C66" s="69"/>
@@ -14962,7 +14964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="67"/>
       <c r="C67" s="69"/>
@@ -15033,7 +15035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="67">
         <v>14</v>
@@ -15107,7 +15109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="67"/>
       <c r="C69" s="69"/>
@@ -15178,7 +15180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="67"/>
       <c r="C70" s="69"/>
@@ -15249,7 +15251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="67">
         <v>15</v>
@@ -15319,7 +15321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="67"/>
       <c r="C72" s="69"/>
@@ -15388,7 +15390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="67"/>
       <c r="C73" s="69"/>
@@ -15459,7 +15461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="67">
         <v>16</v>
@@ -15529,7 +15531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="67"/>
       <c r="C75" s="69"/>
@@ -15598,7 +15600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="67"/>
       <c r="C76" s="69"/>
@@ -15669,7 +15671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="67">
         <v>17</v>
@@ -15739,7 +15741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="67"/>
       <c r="C78" s="69"/>
@@ -15808,7 +15810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="67"/>
       <c r="C79" s="69"/>
@@ -15879,7 +15881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="67">
         <v>18</v>
@@ -15949,7 +15951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="67"/>
       <c r="C81" s="69"/>
@@ -16018,7 +16020,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="67"/>
       <c r="C82" s="69"/>
@@ -16089,7 +16091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="67">
         <v>19</v>
@@ -16159,7 +16161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="67"/>
       <c r="C84" s="69"/>
@@ -16228,7 +16230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="67"/>
       <c r="C85" s="69"/>
@@ -16299,7 +16301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="67">
         <v>20</v>
@@ -16369,7 +16371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="67"/>
       <c r="C87" s="69"/>
@@ -16438,7 +16440,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="67"/>
       <c r="C88" s="69"/>
@@ -16509,16 +16511,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="123" t="s">
+      <c r="C89" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="125"/>
+      <c r="D89" s="115"/>
+      <c r="E89" s="115"/>
+      <c r="F89" s="115"/>
+      <c r="G89" s="116"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -16575,7 +16577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="67">
         <v>1</v>
@@ -16653,7 +16655,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="67"/>
       <c r="C91" s="69"/>
@@ -16726,7 +16728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="67"/>
       <c r="C92" s="69"/>
@@ -16797,7 +16799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="67">
         <v>2</v>
@@ -16873,7 +16875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="67"/>
       <c r="C94" s="69"/>
@@ -16946,7 +16948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="67"/>
       <c r="C95" s="69"/>
@@ -17017,7 +17019,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="67">
         <v>3</v>
@@ -17087,7 +17089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="67"/>
       <c r="C97" s="69"/>
@@ -17156,7 +17158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="67"/>
       <c r="C98" s="69"/>
@@ -17227,15 +17229,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="119" t="s">
+    <row r="99" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="119"/>
-      <c r="C99" s="119"/>
-      <c r="D99" s="119"/>
-      <c r="E99" s="119"/>
-      <c r="F99" s="120"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="111"/>
       <c r="G99" s="92"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
@@ -17296,13 +17298,13 @@
     <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="105" t="s">
+      <c r="C100" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="106"/>
-      <c r="G100" s="107"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="119"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -18537,13 +18539,13 @@
     <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="105" t="s">
+      <c r="C117" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="106"/>
-      <c r="E117" s="106"/>
-      <c r="F117" s="106"/>
-      <c r="G117" s="107"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="118"/>
+      <c r="G117" s="119"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
@@ -22753,13 +22755,13 @@
     <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
-      <c r="C178" s="105" t="s">
+      <c r="C178" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="106"/>
-      <c r="E178" s="106"/>
-      <c r="F178" s="106"/>
-      <c r="G178" s="107"/>
+      <c r="D178" s="118"/>
+      <c r="E178" s="118"/>
+      <c r="F178" s="118"/>
+      <c r="G178" s="119"/>
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
       <c r="J178" s="66"/>
@@ -23438,14 +23440,14 @@
       </c>
     </row>
     <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="121" t="s">
+      <c r="A188" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B188" s="121"/>
-      <c r="C188" s="121"/>
-      <c r="D188" s="121"/>
-      <c r="E188" s="121"/>
-      <c r="F188" s="122"/>
+      <c r="B188" s="112"/>
+      <c r="C188" s="112"/>
+      <c r="D188" s="112"/>
+      <c r="E188" s="112"/>
+      <c r="F188" s="113"/>
       <c r="G188" s="79"/>
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
@@ -23506,13 +23508,13 @@
     <row r="189" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="57"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="126" t="s">
+      <c r="C189" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="127"/>
-      <c r="E189" s="127"/>
-      <c r="F189" s="127"/>
-      <c r="G189" s="128"/>
+      <c r="D189" s="121"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="G189" s="122"/>
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
       <c r="J189" s="66"/>
@@ -25382,13 +25384,13 @@
     <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A215" s="57"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="126" t="s">
+      <c r="C215" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="127"/>
-      <c r="E215" s="127"/>
-      <c r="F215" s="127"/>
-      <c r="G215" s="128"/>
+      <c r="D215" s="121"/>
+      <c r="E215" s="121"/>
+      <c r="F215" s="121"/>
+      <c r="G215" s="122"/>
       <c r="H215" s="66"/>
       <c r="I215" s="66"/>
       <c r="J215" s="66"/>
@@ -30274,14 +30276,14 @@
     </row>
     <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="57"/>
-      <c r="B286" s="113" t="s">
+      <c r="B286" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C286" s="114"/>
-      <c r="D286" s="114"/>
-      <c r="E286" s="114"/>
-      <c r="F286" s="114"/>
-      <c r="G286" s="115"/>
+      <c r="C286" s="105"/>
+      <c r="D286" s="105"/>
+      <c r="E286" s="105"/>
+      <c r="F286" s="105"/>
+      <c r="G286" s="106"/>
       <c r="H286" s="66">
         <f>SUM(H287:H291)</f>
         <v>5</v>
@@ -31807,14 +31809,14 @@
     </row>
     <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="57"/>
-      <c r="B293" s="116" t="s">
+      <c r="B293" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C293" s="117"/>
-      <c r="D293" s="117"/>
-      <c r="E293" s="117"/>
-      <c r="F293" s="117"/>
-      <c r="G293" s="118"/>
+      <c r="C293" s="108"/>
+      <c r="D293" s="108"/>
+      <c r="E293" s="108"/>
+      <c r="F293" s="108"/>
+      <c r="G293" s="109"/>
       <c r="H293" s="66">
         <f>SUM(H294:H298)</f>
         <v>5</v>
@@ -33520,12 +33522,16 @@
   </sheetData>
   <autoFilter ref="A4:BG300"/>
   <mergeCells count="26">
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="B286:G286"/>
     <mergeCell ref="B293:G293"/>
     <mergeCell ref="A99:F99"/>
@@ -33536,16 +33542,12 @@
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
     <mergeCell ref="C215:G215"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -2159,10 +2159,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,15 +2231,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2220,24 +2238,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9817,10 +9817,10 @@
   <dimension ref="A1:BR300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="V9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="V117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="V99" sqref="V99"/>
+      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -9841,8 +9841,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
         <v>42408</v>
@@ -9859,74 +9859,74 @@
         <v>( 22日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="103" t="s">
+      <c r="AC1" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="103" t="s">
+      <c r="AJ1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="103" t="s">
+      <c r="AQ1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="103" t="s">
+      <c r="AX1" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="103"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="103" t="s">
+      <c r="BE1" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="103"/>
-      <c r="BG1" s="103"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -9960,64 +9960,64 @@
       <c r="E2" s="90"/>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="102">
+      <c r="H2" s="103">
         <v>42005</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="128">
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104">
         <v>42036</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="102">
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="103">
         <v>42064</v>
       </c>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
       <c r="BH2" s="57" t="s">
         <v>45</v>
       </c>
@@ -10423,7 +10423,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="108" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10499,7 +10499,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10579,7 +10579,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10659,7 +10659,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
         <v>101</v>
@@ -10727,7 +10727,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="124"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="83"/>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -10791,14 +10791,14 @@
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="91"/>
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
@@ -10859,13 +10859,13 @@
     <row r="11" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -12026,13 +12026,13 @@
     <row r="28" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -16514,13 +16514,13 @@
     <row r="89" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="115"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="115"/>
-      <c r="G89" s="116"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="125"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -17230,14 +17230,14 @@
       </c>
     </row>
     <row r="99" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="111"/>
+      <c r="B99" s="119"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="119"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="120"/>
       <c r="G99" s="92"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
@@ -17298,13 +17298,13 @@
     <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="117" t="s">
+      <c r="C100" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="118"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="119"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="107"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -18539,13 +18539,13 @@
     <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="117" t="s">
+      <c r="C117" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="118"/>
-      <c r="E117" s="118"/>
-      <c r="F117" s="118"/>
-      <c r="G117" s="119"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="106"/>
+      <c r="F117" s="106"/>
+      <c r="G117" s="107"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
@@ -22755,13 +22755,13 @@
     <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
-      <c r="C178" s="117" t="s">
+      <c r="C178" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="118"/>
-      <c r="E178" s="118"/>
-      <c r="F178" s="118"/>
-      <c r="G178" s="119"/>
+      <c r="D178" s="106"/>
+      <c r="E178" s="106"/>
+      <c r="F178" s="106"/>
+      <c r="G178" s="107"/>
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
       <c r="J178" s="66"/>
@@ -23440,14 +23440,14 @@
       </c>
     </row>
     <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="112" t="s">
+      <c r="A188" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B188" s="112"/>
-      <c r="C188" s="112"/>
-      <c r="D188" s="112"/>
-      <c r="E188" s="112"/>
-      <c r="F188" s="113"/>
+      <c r="B188" s="121"/>
+      <c r="C188" s="121"/>
+      <c r="D188" s="121"/>
+      <c r="E188" s="121"/>
+      <c r="F188" s="122"/>
       <c r="G188" s="79"/>
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
@@ -23508,13 +23508,13 @@
     <row r="189" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="57"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="120" t="s">
+      <c r="C189" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="121"/>
-      <c r="E189" s="121"/>
-      <c r="F189" s="121"/>
-      <c r="G189" s="122"/>
+      <c r="D189" s="127"/>
+      <c r="E189" s="127"/>
+      <c r="F189" s="127"/>
+      <c r="G189" s="128"/>
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
       <c r="J189" s="66"/>
@@ -25384,13 +25384,13 @@
     <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A215" s="57"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="120" t="s">
+      <c r="C215" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="121"/>
-      <c r="E215" s="121"/>
-      <c r="F215" s="121"/>
-      <c r="G215" s="122"/>
+      <c r="D215" s="127"/>
+      <c r="E215" s="127"/>
+      <c r="F215" s="127"/>
+      <c r="G215" s="128"/>
       <c r="H215" s="66"/>
       <c r="I215" s="66"/>
       <c r="J215" s="66"/>
@@ -30276,14 +30276,14 @@
     </row>
     <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="57"/>
-      <c r="B286" s="104" t="s">
+      <c r="B286" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C286" s="105"/>
-      <c r="D286" s="105"/>
-      <c r="E286" s="105"/>
-      <c r="F286" s="105"/>
-      <c r="G286" s="106"/>
+      <c r="C286" s="114"/>
+      <c r="D286" s="114"/>
+      <c r="E286" s="114"/>
+      <c r="F286" s="114"/>
+      <c r="G286" s="115"/>
       <c r="H286" s="66">
         <f>SUM(H287:H291)</f>
         <v>5</v>
@@ -31809,14 +31809,14 @@
     </row>
     <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="57"/>
-      <c r="B293" s="107" t="s">
+      <c r="B293" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C293" s="108"/>
-      <c r="D293" s="108"/>
-      <c r="E293" s="108"/>
-      <c r="F293" s="108"/>
-      <c r="G293" s="109"/>
+      <c r="C293" s="117"/>
+      <c r="D293" s="117"/>
+      <c r="E293" s="117"/>
+      <c r="F293" s="117"/>
+      <c r="G293" s="118"/>
       <c r="H293" s="66">
         <f>SUM(H294:H298)</f>
         <v>5</v>
@@ -33522,16 +33522,12 @@
   </sheetData>
   <autoFilter ref="A4:BG300"/>
   <mergeCells count="26">
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="B286:G286"/>
     <mergeCell ref="B293:G293"/>
     <mergeCell ref="A99:F99"/>
@@ -33542,12 +33538,16 @@
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
     <mergeCell ref="C215:G215"/>
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C117:G117"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="173">
   <si>
     <t>画面名称</t>
     <rPh sb="0" eb="2">
@@ -772,10 +772,6 @@
     <t>PT</t>
   </si>
   <si>
-    <t>PT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>修正・完成</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -901,27 +897,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>P2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -930,10 +906,6 @@
   </si>
   <si>
     <t>P7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P8</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -949,39 +921,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User情報初期設定画面</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メインメニュー画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PW新規登録画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PW生成画面</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1143,6 +1087,176 @@
     <rPh sb="0" eb="2">
       <t>ホリカワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず動くようにしたい→</t>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正・レイアウトの詰め作業→</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正・完成→</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PT→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW生成画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW登録確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P5/P8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PW確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User情報一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ設定画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ初期化確認画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User情報登録</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今井</t>
+    <rPh sb="0" eb="2">
+      <t>イマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河野</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河野</t>
+    <rPh sb="0" eb="2">
+      <t>カワノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦島</t>
+    <rPh sb="0" eb="2">
+      <t>ウラシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堀川</t>
+    <rPh sb="0" eb="2">
+      <t>ホリカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBHelper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Preference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleDrive Upload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecyclerViewAdapter作成</t>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NavDrawer レイアウト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2159,37 +2273,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,6 +2318,15 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2238,6 +2334,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9762,7 +9876,7 @@
         <v>42405</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -9817,10 +9931,10 @@
   <dimension ref="A1:BR300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="V117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="V90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="V8" sqref="V8"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -9841,8 +9955,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112"/>
-      <c r="B1" s="112"/>
+      <c r="A1" s="127"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
         <v>42408</v>
@@ -9859,74 +9973,74 @@
         <v>( 22日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="102" t="s">
+      <c r="O1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="102" t="s">
+      <c r="V1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="102"/>
-      <c r="X1" s="102"/>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
+      <c r="W1" s="103"/>
+      <c r="X1" s="103"/>
+      <c r="Y1" s="103"/>
+      <c r="Z1" s="103"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="102" t="s">
+      <c r="AC1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="103"/>
+      <c r="AF1" s="103"/>
+      <c r="AG1" s="103"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="102" t="s">
+      <c r="AJ1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="102"/>
-      <c r="AM1" s="102"/>
-      <c r="AN1" s="102"/>
+      <c r="AK1" s="103"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="103"/>
+      <c r="AN1" s="103"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="102" t="s">
+      <c r="AQ1" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="102"/>
-      <c r="AS1" s="102"/>
-      <c r="AT1" s="102"/>
-      <c r="AU1" s="102"/>
+      <c r="AR1" s="103"/>
+      <c r="AS1" s="103"/>
+      <c r="AT1" s="103"/>
+      <c r="AU1" s="103"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="102" t="s">
+      <c r="AX1" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="102"/>
-      <c r="AZ1" s="102"/>
-      <c r="BA1" s="102"/>
-      <c r="BB1" s="102"/>
+      <c r="AY1" s="103"/>
+      <c r="AZ1" s="103"/>
+      <c r="BA1" s="103"/>
+      <c r="BB1" s="103"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="102" t="s">
+      <c r="BE1" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="102"/>
-      <c r="BG1" s="102"/>
+      <c r="BF1" s="103"/>
+      <c r="BG1" s="103"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -9960,64 +10074,64 @@
       <c r="E2" s="90"/>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="103">
+      <c r="H2" s="102">
         <v>42005</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="104">
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="128">
         <v>42036</v>
       </c>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="103">
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="128"/>
+      <c r="AJ2" s="128"/>
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="102">
         <v>42064</v>
       </c>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="103"/>
-      <c r="AU2" s="103"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="103"/>
-      <c r="BA2" s="103"/>
-      <c r="BB2" s="103"/>
-      <c r="BC2" s="103"/>
-      <c r="BD2" s="103"/>
-      <c r="BE2" s="103"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="103"/>
+      <c r="AS2" s="102"/>
+      <c r="AT2" s="102"/>
+      <c r="AU2" s="102"/>
+      <c r="AV2" s="102"/>
+      <c r="AW2" s="102"/>
+      <c r="AX2" s="102"/>
+      <c r="AY2" s="102"/>
+      <c r="AZ2" s="102"/>
+      <c r="BA2" s="102"/>
+      <c r="BB2" s="102"/>
+      <c r="BC2" s="102"/>
+      <c r="BD2" s="102"/>
+      <c r="BE2" s="102"/>
+      <c r="BF2" s="102"/>
+      <c r="BG2" s="102"/>
       <c r="BH2" s="57" t="s">
         <v>45</v>
       </c>
@@ -10193,7 +10307,7 @@
     <row r="4" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="87"/>
       <c r="B4" s="87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>0</v>
@@ -10423,7 +10537,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="123" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10451,7 +10565,7 @@
         <v>97</v>
       </c>
       <c r="R5" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
@@ -10499,7 +10613,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10524,7 +10638,7 @@
       </c>
       <c r="P6" s="66"/>
       <c r="Q6" s="66" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="R6" s="66"/>
       <c r="S6" s="66"/>
@@ -10542,11 +10656,15 @@
       <c r="AC6" s="66"/>
       <c r="AD6" s="66"/>
       <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
+      <c r="AF6" s="69" t="s">
+        <v>141</v>
+      </c>
       <c r="AG6" s="66"/>
       <c r="AH6" s="66"/>
       <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
+      <c r="AJ6" s="66" t="s">
+        <v>142</v>
+      </c>
       <c r="AK6" s="66"/>
       <c r="AL6" s="66"/>
       <c r="AM6" s="66"/>
@@ -10554,14 +10672,14 @@
       <c r="AO6" s="66"/>
       <c r="AP6" s="66"/>
       <c r="AQ6" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR6" s="66" t="s">
-        <v>99</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AR6" s="66"/>
       <c r="AS6" s="66"/>
       <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
+      <c r="AU6" s="69" t="s">
+        <v>143</v>
+      </c>
       <c r="AV6" s="66"/>
       <c r="AW6" s="66"/>
       <c r="AX6" s="66"/>
@@ -10579,7 +10697,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10609,7 +10727,7 @@
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
@@ -10619,14 +10737,14 @@
       <c r="AD7" s="66"/>
       <c r="AE7" s="66"/>
       <c r="AF7" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG7" s="66"/>
       <c r="AH7" s="66"/>
       <c r="AI7" s="66"/>
       <c r="AJ7" s="66"/>
       <c r="AK7" s="66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL7" s="66"/>
       <c r="AM7" s="66"/>
@@ -10641,10 +10759,10 @@
       <c r="AV7" s="66"/>
       <c r="AW7" s="66"/>
       <c r="AX7" s="66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AY7" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AZ7" s="66"/>
       <c r="BA7" s="66"/>
@@ -10659,10 +10777,10 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="108"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="66"/>
       <c r="E8" s="66"/>
@@ -10714,7 +10832,7 @@
       <c r="AY8" s="66"/>
       <c r="AZ8" s="66"/>
       <c r="BA8" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB8" s="66"/>
       <c r="BC8" s="66"/>
@@ -10727,7 +10845,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="109"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="83"/>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -10791,14 +10909,14 @@
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
       <c r="G10" s="91"/>
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
@@ -10856,16 +10974,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:70" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -10922,7 +11040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
       <c r="B12" s="67">
         <v>1</v>
@@ -10992,7 +11110,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
       <c r="B13" s="67"/>
       <c r="C13" s="69"/>
@@ -11058,7 +11176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
       <c r="B14" s="67"/>
       <c r="C14" s="69"/>
@@ -11129,7 +11247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
       <c r="B15" s="67">
         <v>2</v>
@@ -11199,7 +11317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="67"/>
       <c r="C16" s="69"/>
@@ -11265,7 +11383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
       <c r="B17" s="67"/>
       <c r="C17" s="69"/>
@@ -11336,7 +11454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
       <c r="B18" s="67">
         <v>3</v>
@@ -11406,7 +11524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
       <c r="B19" s="67"/>
       <c r="C19" s="69"/>
@@ -11472,7 +11590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
       <c r="B20" s="67"/>
       <c r="C20" s="69"/>
@@ -11543,7 +11661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="67"/>
       <c r="C21" s="66" t="s">
@@ -11609,7 +11727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="67">
         <v>1</v>
@@ -11679,7 +11797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
       <c r="B23" s="67"/>
       <c r="C23" s="69"/>
@@ -11745,7 +11863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="67"/>
       <c r="C24" s="69"/>
@@ -11816,7 +11934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
       <c r="B25" s="67">
         <v>2</v>
@@ -11886,7 +12004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
       <c r="B26" s="67"/>
       <c r="C26" s="69"/>
@@ -11952,7 +12070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="67"/>
       <c r="C27" s="69"/>
@@ -12023,16 +12141,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="123" t="s">
+      <c r="C28" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="125"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="116"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -12089,7 +12207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
       <c r="B29" s="67">
         <v>1</v>
@@ -12167,7 +12285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="67"/>
       <c r="C30" s="69" t="s">
@@ -12244,7 +12362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="67"/>
       <c r="C31" s="69"/>
@@ -12321,7 +12439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="67">
         <v>2</v>
@@ -12403,7 +12521,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="67"/>
       <c r="C33" s="69"/>
@@ -12482,7 +12600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="67"/>
       <c r="C34" s="69"/>
@@ -12561,7 +12679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="67">
         <v>3</v>
@@ -12643,7 +12761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="67"/>
       <c r="C36" s="69"/>
@@ -12722,7 +12840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A37" s="57"/>
       <c r="B37" s="67"/>
       <c r="C37" s="69"/>
@@ -12801,7 +12919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="67">
         <v>4</v>
@@ -12881,7 +12999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
       <c r="B39" s="67"/>
       <c r="C39" s="69"/>
@@ -12958,7 +13076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
       <c r="B40" s="67"/>
       <c r="C40" s="69"/>
@@ -13035,7 +13153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
       <c r="B41" s="67">
         <v>5</v>
@@ -13117,7 +13235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
       <c r="B42" s="67"/>
       <c r="C42" s="69"/>
@@ -13196,7 +13314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A43" s="57"/>
       <c r="B43" s="67"/>
       <c r="C43" s="69"/>
@@ -13277,13 +13395,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
       <c r="B44" s="67">
         <v>6</v>
       </c>
       <c r="C44" s="66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="66"/>
       <c r="E44" s="66">
@@ -13357,7 +13475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
       <c r="B45" s="67"/>
       <c r="C45" s="69"/>
@@ -13434,7 +13552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
       <c r="B46" s="67"/>
       <c r="C46" s="69"/>
@@ -13511,13 +13629,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
       <c r="B47" s="67">
         <v>7</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="66"/>
       <c r="E47" s="66"/>
@@ -13583,7 +13701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
       <c r="B48" s="67"/>
       <c r="C48" s="69"/>
@@ -13654,7 +13772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
       <c r="B49" s="67"/>
       <c r="C49" s="69"/>
@@ -13727,13 +13845,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="67">
         <v>8</v>
       </c>
       <c r="C50" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50" s="66"/>
       <c r="E50" s="66"/>
@@ -13803,7 +13921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="67"/>
       <c r="C51" s="69"/>
@@ -13878,7 +13996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="67"/>
       <c r="C52" s="69"/>
@@ -13953,18 +14071,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="67">
         <v>9</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" s="66"/>
       <c r="E53" s="66"/>
       <c r="F53" s="62" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G53" s="73" t="s">
         <v>62</v>
@@ -14025,7 +14143,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="67"/>
       <c r="C54" s="69"/>
@@ -14035,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="62" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G54" s="73" t="s">
         <v>16</v>
@@ -14096,7 +14214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="67"/>
       <c r="C55" s="69"/>
@@ -14169,18 +14287,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="67">
         <v>10</v>
       </c>
       <c r="C56" s="66" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D56" s="66"/>
       <c r="E56" s="66"/>
       <c r="F56" s="62" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G56" s="73" t="s">
         <v>62</v>
@@ -14245,11 +14363,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="67"/>
       <c r="C57" s="69" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D57" s="66"/>
       <c r="E57" s="66">
@@ -14257,7 +14375,7 @@
         <v>5</v>
       </c>
       <c r="F57" s="62" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G57" s="73" t="s">
         <v>16</v>
@@ -14320,7 +14438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="67"/>
       <c r="C58" s="69"/>
@@ -14391,13 +14509,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="67">
         <v>11</v>
       </c>
       <c r="C59" s="66" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D59" s="66"/>
       <c r="E59" s="66"/>
@@ -14465,7 +14583,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="67"/>
       <c r="C60" s="69"/>
@@ -14536,7 +14654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="67"/>
       <c r="C61" s="69"/>
@@ -14607,13 +14725,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="67">
         <v>12</v>
       </c>
       <c r="C62" s="66" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D62" s="66"/>
       <c r="E62" s="66"/>
@@ -14677,7 +14795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="67"/>
       <c r="C63" s="69"/>
@@ -14746,7 +14864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="67"/>
       <c r="C64" s="69"/>
@@ -14817,18 +14935,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="67">
         <v>13</v>
       </c>
       <c r="C65" s="66" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D65" s="66"/>
       <c r="E65" s="66"/>
       <c r="F65" s="62" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G65" s="73" t="s">
         <v>62</v>
@@ -14891,7 +15009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="67"/>
       <c r="C66" s="69"/>
@@ -14901,7 +15019,7 @@
         <v>2</v>
       </c>
       <c r="F66" s="62" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G66" s="73" t="s">
         <v>16</v>
@@ -14964,7 +15082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="67"/>
       <c r="C67" s="69"/>
@@ -15035,18 +15153,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="67">
         <v>14</v>
       </c>
       <c r="C68" s="66" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D68" s="66"/>
       <c r="E68" s="66"/>
       <c r="F68" s="62" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G68" s="73" t="s">
         <v>62</v>
@@ -15109,7 +15227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="67"/>
       <c r="C69" s="69"/>
@@ -15119,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="62" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G69" s="73" t="s">
         <v>16</v>
@@ -15180,7 +15298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="67"/>
       <c r="C70" s="69"/>
@@ -15251,7 +15369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="67">
         <v>15</v>
@@ -15321,7 +15439,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="67"/>
       <c r="C72" s="69"/>
@@ -15390,7 +15508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="67"/>
       <c r="C73" s="69"/>
@@ -15461,7 +15579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="67">
         <v>16</v>
@@ -15531,7 +15649,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="67"/>
       <c r="C75" s="69"/>
@@ -15600,7 +15718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="67"/>
       <c r="C76" s="69"/>
@@ -15671,7 +15789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="67">
         <v>17</v>
@@ -15741,7 +15859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="67"/>
       <c r="C78" s="69"/>
@@ -15810,7 +15928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="67"/>
       <c r="C79" s="69"/>
@@ -15881,7 +15999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="67">
         <v>18</v>
@@ -15951,7 +16069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="67"/>
       <c r="C81" s="69"/>
@@ -16020,7 +16138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="67"/>
       <c r="C82" s="69"/>
@@ -16091,7 +16209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="67">
         <v>19</v>
@@ -16161,7 +16279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="67"/>
       <c r="C84" s="69"/>
@@ -16230,7 +16348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="67"/>
       <c r="C85" s="69"/>
@@ -16301,7 +16419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="67">
         <v>20</v>
@@ -16371,7 +16489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="67"/>
       <c r="C87" s="69"/>
@@ -16440,7 +16558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="67"/>
       <c r="C88" s="69"/>
@@ -16511,16 +16629,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="123" t="s">
+      <c r="C89" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="124"/>
-      <c r="E89" s="124"/>
-      <c r="F89" s="124"/>
-      <c r="G89" s="125"/>
+      <c r="D89" s="115"/>
+      <c r="E89" s="115"/>
+      <c r="F89" s="115"/>
+      <c r="G89" s="116"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -16577,7 +16695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="67">
         <v>1</v>
@@ -16586,11 +16704,11 @@
         <v>35</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E90" s="66"/>
       <c r="F90" s="62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G90" s="73" t="s">
         <v>62</v>
@@ -16613,7 +16731,9 @@
       <c r="S90" s="66"/>
       <c r="T90" s="66"/>
       <c r="U90" s="66"/>
-      <c r="V90" s="66"/>
+      <c r="V90" s="66">
+        <v>3</v>
+      </c>
       <c r="W90" s="66"/>
       <c r="X90" s="66"/>
       <c r="Y90" s="66"/>
@@ -16655,17 +16775,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="67"/>
       <c r="C91" s="69"/>
       <c r="D91" s="66"/>
       <c r="E91" s="66">
         <f>SUM($H91:$BF91)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F91" s="62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G91" s="73" t="s">
         <v>16</v>
@@ -16686,7 +16806,9 @@
       <c r="S91" s="66"/>
       <c r="T91" s="66"/>
       <c r="U91" s="66"/>
-      <c r="V91" s="66"/>
+      <c r="V91" s="66">
+        <v>3</v>
+      </c>
       <c r="W91" s="66"/>
       <c r="X91" s="66"/>
       <c r="Y91" s="66"/>
@@ -16728,7 +16850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="67"/>
       <c r="C92" s="69"/>
@@ -16799,20 +16921,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="67">
         <v>2</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E93" s="66"/>
       <c r="F93" s="62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G93" s="73" t="s">
         <v>62</v>
@@ -16875,7 +16997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="67"/>
       <c r="C94" s="69"/>
@@ -16885,7 +17007,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G94" s="73" t="s">
         <v>16</v>
@@ -16948,7 +17070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="67"/>
       <c r="C95" s="69"/>
@@ -17019,7 +17141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="67">
         <v>3</v>
@@ -17089,7 +17211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="67"/>
       <c r="C97" s="69"/>
@@ -17158,7 +17280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="67"/>
       <c r="C98" s="69"/>
@@ -17229,15 +17351,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="119" t="s">
+    <row r="99" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="119"/>
-      <c r="C99" s="119"/>
-      <c r="D99" s="119"/>
-      <c r="E99" s="119"/>
-      <c r="F99" s="120"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="111"/>
       <c r="G99" s="92"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
@@ -17298,13 +17420,13 @@
     <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="105" t="s">
+      <c r="C100" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="106"/>
-      <c r="G100" s="107"/>
+      <c r="D100" s="118"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
+      <c r="G100" s="119"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -17608,7 +17730,9 @@
       </c>
       <c r="D104" s="66"/>
       <c r="E104" s="66"/>
-      <c r="F104" s="62"/>
+      <c r="F104" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G104" s="73" t="s">
         <v>62</v>
       </c>
@@ -17626,7 +17750,9 @@
       <c r="S104" s="66"/>
       <c r="T104" s="66"/>
       <c r="U104" s="66"/>
-      <c r="V104" s="66"/>
+      <c r="V104" s="66">
+        <v>0</v>
+      </c>
       <c r="W104" s="66"/>
       <c r="X104" s="66"/>
       <c r="Y104" s="66"/>
@@ -17674,7 +17800,9 @@
       <c r="C105" s="69"/>
       <c r="D105" s="66"/>
       <c r="E105" s="66"/>
-      <c r="F105" s="62"/>
+      <c r="F105" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G105" s="73" t="s">
         <v>16</v>
       </c>
@@ -17692,7 +17820,9 @@
       <c r="S105" s="66"/>
       <c r="T105" s="66"/>
       <c r="U105" s="66"/>
-      <c r="V105" s="66"/>
+      <c r="V105" s="66">
+        <v>1</v>
+      </c>
       <c r="W105" s="66"/>
       <c r="X105" s="66"/>
       <c r="Y105" s="66"/>
@@ -17816,7 +17946,7 @@
       <c r="D107" s="66"/>
       <c r="E107" s="66"/>
       <c r="F107" s="62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G107" s="73" t="s">
         <v>62</v>
@@ -17839,7 +17969,9 @@
       <c r="S107" s="66"/>
       <c r="T107" s="66"/>
       <c r="U107" s="66"/>
-      <c r="V107" s="66"/>
+      <c r="V107" s="66">
+        <v>2</v>
+      </c>
       <c r="W107" s="66"/>
       <c r="X107" s="66"/>
       <c r="Y107" s="66"/>
@@ -17888,7 +18020,7 @@
       <c r="D108" s="66"/>
       <c r="E108" s="66"/>
       <c r="F108" s="62" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G108" s="73" t="s">
         <v>16</v>
@@ -17911,7 +18043,9 @@
       <c r="S108" s="66"/>
       <c r="T108" s="66"/>
       <c r="U108" s="66"/>
-      <c r="V108" s="66"/>
+      <c r="V108" s="66">
+        <v>2</v>
+      </c>
       <c r="W108" s="66"/>
       <c r="X108" s="66"/>
       <c r="Y108" s="66"/>
@@ -18098,7 +18232,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D111" s="66"/>
       <c r="E111" s="66"/>
@@ -18323,7 +18457,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="66" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D114" s="66"/>
       <c r="E114" s="66"/>
@@ -18539,13 +18673,13 @@
     <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="105" t="s">
+      <c r="C117" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="106"/>
-      <c r="E117" s="106"/>
-      <c r="F117" s="106"/>
-      <c r="G117" s="107"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="118"/>
+      <c r="F117" s="118"/>
+      <c r="G117" s="119"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
@@ -18608,11 +18742,13 @@
         <v>1</v>
       </c>
       <c r="C118" s="66" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D118" s="66"/>
       <c r="E118" s="66"/>
-      <c r="F118" s="62"/>
+      <c r="F118" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="G118" s="73" t="s">
         <v>62</v>
       </c>
@@ -18630,7 +18766,9 @@
       <c r="S118" s="66"/>
       <c r="T118" s="66"/>
       <c r="U118" s="66"/>
-      <c r="V118" s="66"/>
+      <c r="V118" s="66">
+        <v>0</v>
+      </c>
       <c r="W118" s="66"/>
       <c r="X118" s="66"/>
       <c r="Y118" s="66"/>
@@ -18676,11 +18814,13 @@
       <c r="A119" s="57"/>
       <c r="B119" s="67"/>
       <c r="C119" s="69" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
-      <c r="F119" s="62"/>
+      <c r="F119" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="G119" s="73" t="s">
         <v>16</v>
       </c>
@@ -18698,7 +18838,9 @@
       <c r="S119" s="66"/>
       <c r="T119" s="66"/>
       <c r="U119" s="66"/>
-      <c r="V119" s="66"/>
+      <c r="V119" s="66">
+        <v>1</v>
+      </c>
       <c r="W119" s="66"/>
       <c r="X119" s="66"/>
       <c r="Y119" s="66"/>
@@ -18817,11 +18959,13 @@
         <v>2</v>
       </c>
       <c r="C121" s="66" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D121" s="66"/>
       <c r="E121" s="66"/>
-      <c r="F121" s="62"/>
+      <c r="F121" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="G121" s="73" t="s">
         <v>62</v>
       </c>
@@ -18885,11 +19029,13 @@
       <c r="A122" s="57"/>
       <c r="B122" s="67"/>
       <c r="C122" s="69" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D122" s="66"/>
       <c r="E122" s="66"/>
-      <c r="F122" s="62"/>
+      <c r="F122" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="G122" s="73" t="s">
         <v>16</v>
       </c>
@@ -19026,11 +19172,13 @@
         <v>3</v>
       </c>
       <c r="C124" s="66" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="D124" s="66"/>
       <c r="E124" s="66"/>
-      <c r="F124" s="62"/>
+      <c r="F124" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="G124" s="73" t="s">
         <v>62</v>
       </c>
@@ -19094,11 +19242,13 @@
       <c r="A125" s="57"/>
       <c r="B125" s="67"/>
       <c r="C125" s="69" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D125" s="66"/>
       <c r="E125" s="66"/>
-      <c r="F125" s="62"/>
+      <c r="F125" s="62" t="s">
+        <v>162</v>
+      </c>
       <c r="G125" s="73" t="s">
         <v>16</v>
       </c>
@@ -19235,11 +19385,13 @@
         <v>4</v>
       </c>
       <c r="C127" s="66" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D127" s="66"/>
       <c r="E127" s="66"/>
-      <c r="F127" s="62"/>
+      <c r="F127" s="62" t="s">
+        <v>59</v>
+      </c>
       <c r="G127" s="73" t="s">
         <v>62</v>
       </c>
@@ -19303,11 +19455,13 @@
       <c r="A128" s="57"/>
       <c r="B128" s="67"/>
       <c r="C128" s="69" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D128" s="66"/>
       <c r="E128" s="66"/>
-      <c r="F128" s="62"/>
+      <c r="F128" s="62" t="s">
+        <v>59</v>
+      </c>
       <c r="G128" s="73" t="s">
         <v>16</v>
       </c>
@@ -19444,11 +19598,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D130" s="66"/>
       <c r="E130" s="66"/>
-      <c r="F130" s="62"/>
+      <c r="F130" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G130" s="73" t="s">
         <v>62</v>
       </c>
@@ -19512,11 +19668,13 @@
       <c r="A131" s="57"/>
       <c r="B131" s="67"/>
       <c r="C131" s="69" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D131" s="66"/>
       <c r="E131" s="66"/>
-      <c r="F131" s="62"/>
+      <c r="F131" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G131" s="73" t="s">
         <v>16</v>
       </c>
@@ -19653,11 +19811,13 @@
         <v>6</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="D133" s="66"/>
       <c r="E133" s="66"/>
-      <c r="F133" s="62"/>
+      <c r="F133" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G133" s="73" t="s">
         <v>62</v>
       </c>
@@ -19720,10 +19880,14 @@
     <row r="134" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A134" s="57"/>
       <c r="B134" s="67"/>
-      <c r="C134" s="69"/>
+      <c r="C134" s="69" t="s">
+        <v>152</v>
+      </c>
       <c r="D134" s="66"/>
       <c r="E134" s="66"/>
-      <c r="F134" s="62"/>
+      <c r="F134" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G134" s="73" t="s">
         <v>16</v>
       </c>
@@ -19860,11 +20024,13 @@
         <v>7</v>
       </c>
       <c r="C136" s="66" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="D136" s="66"/>
       <c r="E136" s="66"/>
-      <c r="F136" s="62"/>
+      <c r="F136" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G136" s="73" t="s">
         <v>62</v>
       </c>
@@ -19927,10 +20093,14 @@
     <row r="137" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A137" s="57"/>
       <c r="B137" s="67"/>
-      <c r="C137" s="69"/>
+      <c r="C137" s="69" t="s">
+        <v>153</v>
+      </c>
       <c r="D137" s="66"/>
       <c r="E137" s="66"/>
-      <c r="F137" s="62"/>
+      <c r="F137" s="62" t="s">
+        <v>163</v>
+      </c>
       <c r="G137" s="73" t="s">
         <v>16</v>
       </c>
@@ -20067,11 +20237,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="66" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="D139" s="66"/>
       <c r="E139" s="66"/>
-      <c r="F139" s="62"/>
+      <c r="F139" s="62" t="s">
+        <v>164</v>
+      </c>
       <c r="G139" s="73" t="s">
         <v>62</v>
       </c>
@@ -20089,7 +20261,9 @@
       <c r="S139" s="66"/>
       <c r="T139" s="66"/>
       <c r="U139" s="66"/>
-      <c r="V139" s="66"/>
+      <c r="V139" s="66">
+        <v>0</v>
+      </c>
       <c r="W139" s="66"/>
       <c r="X139" s="66"/>
       <c r="Y139" s="66"/>
@@ -20134,10 +20308,14 @@
     <row r="140" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A140" s="57"/>
       <c r="B140" s="67"/>
-      <c r="C140" s="69"/>
+      <c r="C140" s="69" t="s">
+        <v>154</v>
+      </c>
       <c r="D140" s="66"/>
       <c r="E140" s="66"/>
-      <c r="F140" s="62"/>
+      <c r="F140" s="62" t="s">
+        <v>164</v>
+      </c>
       <c r="G140" s="73" t="s">
         <v>16</v>
       </c>
@@ -20155,7 +20333,9 @@
       <c r="S140" s="66"/>
       <c r="T140" s="66"/>
       <c r="U140" s="66"/>
-      <c r="V140" s="66"/>
+      <c r="V140" s="66">
+        <v>1</v>
+      </c>
       <c r="W140" s="66"/>
       <c r="X140" s="66"/>
       <c r="Y140" s="66"/>
@@ -20274,11 +20454,13 @@
         <v>9</v>
       </c>
       <c r="C142" s="66" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D142" s="66"/>
       <c r="E142" s="66"/>
-      <c r="F142" s="62"/>
+      <c r="F142" s="62" t="s">
+        <v>165</v>
+      </c>
       <c r="G142" s="73" t="s">
         <v>62</v>
       </c>
@@ -20341,10 +20523,14 @@
     <row r="143" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A143" s="57"/>
       <c r="B143" s="67"/>
-      <c r="C143" s="69"/>
+      <c r="C143" s="69" t="s">
+        <v>156</v>
+      </c>
       <c r="D143" s="66"/>
       <c r="E143" s="66"/>
-      <c r="F143" s="62"/>
+      <c r="F143" s="62" t="s">
+        <v>165</v>
+      </c>
       <c r="G143" s="73" t="s">
         <v>16</v>
       </c>
@@ -20481,11 +20667,13 @@
         <v>10</v>
       </c>
       <c r="C145" s="66" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D145" s="66"/>
       <c r="E145" s="66"/>
-      <c r="F145" s="62"/>
+      <c r="F145" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G145" s="73" t="s">
         <v>62</v>
       </c>
@@ -20503,7 +20691,9 @@
       <c r="S145" s="66"/>
       <c r="T145" s="66"/>
       <c r="U145" s="66"/>
-      <c r="V145" s="66"/>
+      <c r="V145" s="66">
+        <v>0</v>
+      </c>
       <c r="W145" s="66"/>
       <c r="X145" s="66"/>
       <c r="Y145" s="66"/>
@@ -20548,10 +20738,14 @@
     <row r="146" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A146" s="57"/>
       <c r="B146" s="67"/>
-      <c r="C146" s="69"/>
+      <c r="C146" s="69" t="s">
+        <v>157</v>
+      </c>
       <c r="D146" s="66"/>
       <c r="E146" s="66"/>
-      <c r="F146" s="62"/>
+      <c r="F146" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G146" s="73" t="s">
         <v>16</v>
       </c>
@@ -20569,7 +20763,9 @@
       <c r="S146" s="66"/>
       <c r="T146" s="66"/>
       <c r="U146" s="66"/>
-      <c r="V146" s="66"/>
+      <c r="V146" s="66">
+        <v>1</v>
+      </c>
       <c r="W146" s="66"/>
       <c r="X146" s="66"/>
       <c r="Y146" s="66"/>
@@ -20688,11 +20884,13 @@
         <v>11</v>
       </c>
       <c r="C148" s="66" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D148" s="66"/>
       <c r="E148" s="66"/>
-      <c r="F148" s="62"/>
+      <c r="F148" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G148" s="73" t="s">
         <v>62</v>
       </c>
@@ -20755,10 +20953,14 @@
     <row r="149" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A149" s="57"/>
       <c r="B149" s="67"/>
-      <c r="C149" s="69"/>
+      <c r="C149" s="69" t="s">
+        <v>157</v>
+      </c>
       <c r="D149" s="66"/>
       <c r="E149" s="66"/>
-      <c r="F149" s="62"/>
+      <c r="F149" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G149" s="73" t="s">
         <v>16</v>
       </c>
@@ -20895,11 +21097,13 @@
         <v>12</v>
       </c>
       <c r="C151" s="66" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D151" s="66"/>
       <c r="E151" s="66"/>
-      <c r="F151" s="62"/>
+      <c r="F151" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G151" s="73" t="s">
         <v>62</v>
       </c>
@@ -20962,10 +21166,14 @@
     <row r="152" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A152" s="57"/>
       <c r="B152" s="67"/>
-      <c r="C152" s="69"/>
+      <c r="C152" s="69" t="s">
+        <v>158</v>
+      </c>
       <c r="D152" s="66"/>
       <c r="E152" s="66"/>
-      <c r="F152" s="62"/>
+      <c r="F152" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G152" s="73" t="s">
         <v>16</v>
       </c>
@@ -21102,11 +21310,13 @@
         <v>13</v>
       </c>
       <c r="C154" s="66" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D154" s="66"/>
       <c r="E154" s="66"/>
-      <c r="F154" s="62"/>
+      <c r="F154" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G154" s="73" t="s">
         <v>62</v>
       </c>
@@ -21169,10 +21379,14 @@
     <row r="155" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A155" s="57"/>
       <c r="B155" s="67"/>
-      <c r="C155" s="69"/>
+      <c r="C155" s="69" t="s">
+        <v>160</v>
+      </c>
       <c r="D155" s="66"/>
       <c r="E155" s="66"/>
-      <c r="F155" s="62"/>
+      <c r="F155" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G155" s="73" t="s">
         <v>16</v>
       </c>
@@ -21309,11 +21523,13 @@
         <v>14</v>
       </c>
       <c r="C157" s="66" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="D157" s="66"/>
       <c r="E157" s="66"/>
-      <c r="F157" s="62"/>
+      <c r="F157" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G157" s="73" t="s">
         <v>62</v>
       </c>
@@ -21376,10 +21592,14 @@
     <row r="158" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A158" s="57"/>
       <c r="B158" s="67"/>
-      <c r="C158" s="69"/>
+      <c r="C158" s="69" t="s">
+        <v>161</v>
+      </c>
       <c r="D158" s="66"/>
       <c r="E158" s="66"/>
-      <c r="F158" s="62"/>
+      <c r="F158" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G158" s="73" t="s">
         <v>16</v>
       </c>
@@ -21516,7 +21736,7 @@
         <v>15</v>
       </c>
       <c r="C160" s="66" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D160" s="66"/>
       <c r="E160" s="66"/>
@@ -21723,7 +21943,7 @@
         <v>16</v>
       </c>
       <c r="C163" s="66" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D163" s="66"/>
       <c r="E163" s="66"/>
@@ -21930,11 +22150,13 @@
         <v>17</v>
       </c>
       <c r="C166" s="66" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="D166" s="66"/>
       <c r="E166" s="66"/>
-      <c r="F166" s="62"/>
+      <c r="F166" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G166" s="73" t="s">
         <v>62</v>
       </c>
@@ -22000,7 +22222,9 @@
       <c r="C167" s="69"/>
       <c r="D167" s="66"/>
       <c r="E167" s="66"/>
-      <c r="F167" s="62"/>
+      <c r="F167" s="62" t="s">
+        <v>166</v>
+      </c>
       <c r="G167" s="73" t="s">
         <v>16</v>
       </c>
@@ -22137,11 +22361,13 @@
         <v>18</v>
       </c>
       <c r="C169" s="66" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="D169" s="66"/>
       <c r="E169" s="66"/>
-      <c r="F169" s="62"/>
+      <c r="F169" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G169" s="73" t="s">
         <v>62</v>
       </c>
@@ -22207,7 +22433,9 @@
       <c r="C170" s="69"/>
       <c r="D170" s="66"/>
       <c r="E170" s="66"/>
-      <c r="F170" s="62"/>
+      <c r="F170" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G170" s="73" t="s">
         <v>16</v>
       </c>
@@ -22344,11 +22572,13 @@
         <v>19</v>
       </c>
       <c r="C172" s="66" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="D172" s="66"/>
       <c r="E172" s="66"/>
-      <c r="F172" s="62"/>
+      <c r="F172" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G172" s="73" t="s">
         <v>62</v>
       </c>
@@ -22366,7 +22596,9 @@
       <c r="S172" s="66"/>
       <c r="T172" s="66"/>
       <c r="U172" s="66"/>
-      <c r="V172" s="66"/>
+      <c r="V172" s="66">
+        <v>0</v>
+      </c>
       <c r="W172" s="66"/>
       <c r="X172" s="66"/>
       <c r="Y172" s="66"/>
@@ -22414,7 +22646,9 @@
       <c r="C173" s="69"/>
       <c r="D173" s="66"/>
       <c r="E173" s="66"/>
-      <c r="F173" s="62"/>
+      <c r="F173" s="62" t="s">
+        <v>167</v>
+      </c>
       <c r="G173" s="73" t="s">
         <v>16</v>
       </c>
@@ -22432,7 +22666,9 @@
       <c r="S173" s="66"/>
       <c r="T173" s="66"/>
       <c r="U173" s="66"/>
-      <c r="V173" s="66"/>
+      <c r="V173" s="66">
+        <v>1</v>
+      </c>
       <c r="W173" s="66"/>
       <c r="X173" s="66"/>
       <c r="Y173" s="66"/>
@@ -22755,13 +22991,13 @@
     <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
-      <c r="C178" s="105" t="s">
+      <c r="C178" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="106"/>
-      <c r="E178" s="106"/>
-      <c r="F178" s="106"/>
-      <c r="G178" s="107"/>
+      <c r="D178" s="118"/>
+      <c r="E178" s="118"/>
+      <c r="F178" s="118"/>
+      <c r="G178" s="119"/>
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
       <c r="J178" s="66"/>
@@ -23440,14 +23676,14 @@
       </c>
     </row>
     <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="121" t="s">
+      <c r="A188" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="B188" s="121"/>
-      <c r="C188" s="121"/>
-      <c r="D188" s="121"/>
-      <c r="E188" s="121"/>
-      <c r="F188" s="122"/>
+      <c r="B188" s="112"/>
+      <c r="C188" s="112"/>
+      <c r="D188" s="112"/>
+      <c r="E188" s="112"/>
+      <c r="F188" s="113"/>
       <c r="G188" s="79"/>
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
@@ -23508,13 +23744,13 @@
     <row r="189" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="57"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="126" t="s">
+      <c r="C189" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="127"/>
-      <c r="E189" s="127"/>
-      <c r="F189" s="127"/>
-      <c r="G189" s="128"/>
+      <c r="D189" s="121"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="G189" s="122"/>
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
       <c r="J189" s="66"/>
@@ -23695,7 +23931,9 @@
       <c r="S191" s="66"/>
       <c r="T191" s="66"/>
       <c r="U191" s="66"/>
-      <c r="V191" s="66"/>
+      <c r="V191" s="66">
+        <v>0</v>
+      </c>
       <c r="W191" s="66"/>
       <c r="X191" s="66"/>
       <c r="Y191" s="66"/>
@@ -23818,7 +24056,7 @@
       </c>
       <c r="D193" s="66"/>
       <c r="E193" s="66" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F193" s="62" t="s">
         <v>56</v>
@@ -24303,7 +24541,7 @@
         <v>86</v>
       </c>
       <c r="D200" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E200" s="66"/>
       <c r="F200" s="62" t="s">
@@ -24526,11 +24764,11 @@
         <v>86</v>
       </c>
       <c r="D203" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E203" s="66"/>
       <c r="F203" s="62" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G203" s="73" t="s">
         <v>62</v>
@@ -24600,7 +24838,7 @@
       <c r="D204" s="66"/>
       <c r="E204" s="66"/>
       <c r="F204" s="62" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G204" s="73" t="s">
         <v>16</v>
@@ -24741,7 +24979,7 @@
         <v>86</v>
       </c>
       <c r="D206" s="66" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E206" s="66"/>
       <c r="F206" s="62" t="s">
@@ -24811,7 +25049,7 @@
       <c r="B207" s="67"/>
       <c r="C207" s="69"/>
       <c r="D207" s="66" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E207" s="66"/>
       <c r="F207" s="62" t="s">
@@ -24956,7 +25194,7 @@
         <v>86</v>
       </c>
       <c r="D209" s="66" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E209" s="66"/>
       <c r="F209" s="62" t="s">
@@ -25169,7 +25407,7 @@
         <v>86</v>
       </c>
       <c r="D212" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E212" s="66"/>
       <c r="F212" s="62" t="s">
@@ -25384,13 +25622,13 @@
     <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A215" s="57"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="126" t="s">
+      <c r="C215" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="127"/>
-      <c r="E215" s="127"/>
-      <c r="F215" s="127"/>
-      <c r="G215" s="128"/>
+      <c r="D215" s="121"/>
+      <c r="E215" s="121"/>
+      <c r="F215" s="121"/>
+      <c r="G215" s="122"/>
       <c r="H215" s="66"/>
       <c r="I215" s="66"/>
       <c r="J215" s="66"/>
@@ -30276,14 +30514,14 @@
     </row>
     <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="57"/>
-      <c r="B286" s="113" t="s">
+      <c r="B286" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="C286" s="114"/>
-      <c r="D286" s="114"/>
-      <c r="E286" s="114"/>
-      <c r="F286" s="114"/>
-      <c r="G286" s="115"/>
+      <c r="C286" s="105"/>
+      <c r="D286" s="105"/>
+      <c r="E286" s="105"/>
+      <c r="F286" s="105"/>
+      <c r="G286" s="106"/>
       <c r="H286" s="66">
         <f>SUM(H287:H291)</f>
         <v>5</v>
@@ -30342,7 +30580,7 @@
       </c>
       <c r="V286" s="66">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="W286" s="66">
         <f t="shared" si="2"/>
@@ -30561,7 +30799,7 @@
       </c>
       <c r="V287" s="66">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W287" s="66">
         <f t="shared" si="3"/>
@@ -30780,7 +31018,7 @@
       </c>
       <c r="V288" s="66">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W288" s="66">
         <f t="shared" si="5"/>
@@ -30999,7 +31237,7 @@
       </c>
       <c r="V289" s="66">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W289" s="66">
         <f t="shared" si="7"/>
@@ -31218,7 +31456,7 @@
       </c>
       <c r="V290" s="66">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W290" s="66">
         <f t="shared" si="9"/>
@@ -31437,7 +31675,7 @@
       </c>
       <c r="V291" s="66">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W291" s="66">
         <f t="shared" si="11"/>
@@ -31656,7 +31894,7 @@
       </c>
       <c r="V292" s="66">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W292" s="66">
         <f t="shared" si="13"/>
@@ -31809,14 +32047,14 @@
     </row>
     <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="57"/>
-      <c r="B293" s="116" t="s">
+      <c r="B293" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="C293" s="117"/>
-      <c r="D293" s="117"/>
-      <c r="E293" s="117"/>
-      <c r="F293" s="117"/>
-      <c r="G293" s="118"/>
+      <c r="C293" s="108"/>
+      <c r="D293" s="108"/>
+      <c r="E293" s="108"/>
+      <c r="F293" s="108"/>
+      <c r="G293" s="109"/>
       <c r="H293" s="66">
         <f>SUM(H294:H298)</f>
         <v>5</v>
@@ -31875,7 +32113,7 @@
       </c>
       <c r="V293" s="66">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W293" s="66">
         <f t="shared" si="15"/>
@@ -32094,7 +32332,7 @@
       </c>
       <c r="V294" s="66">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W294" s="66">
         <f t="shared" si="16"/>
@@ -32313,7 +32551,7 @@
       </c>
       <c r="V295" s="66">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W295" s="66">
         <f t="shared" si="18"/>
@@ -32531,7 +32769,7 @@
       </c>
       <c r="V296" s="66">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W296" s="66">
         <f t="shared" si="20"/>
@@ -32750,7 +32988,7 @@
       </c>
       <c r="V297" s="66">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W297" s="66">
         <f t="shared" si="22"/>
@@ -32969,7 +33207,7 @@
       </c>
       <c r="V298" s="66">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W298" s="66">
         <f t="shared" si="24"/>
@@ -33188,7 +33426,7 @@
       </c>
       <c r="V299" s="66">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W299" s="66">
         <f t="shared" si="26"/>
@@ -33522,12 +33760,16 @@
   </sheetData>
   <autoFilter ref="A4:BG300"/>
   <mergeCells count="26">
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
     <mergeCell ref="B286:G286"/>
     <mergeCell ref="B293:G293"/>
     <mergeCell ref="A99:F99"/>
@@ -33538,16 +33780,12 @@
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
     <mergeCell ref="C215:G215"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">
@@ -33888,7 +34126,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F179:F187 F12:F27 F90:F98 F216:F285 F29:F88 F118:F177 F101:F116 F190:F214">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F9 F179:F187 F12:F27 F90:F98 F216:F285 F29:F88 F190:F214 F101:F116 F118:F177">
       <formula1>$BL$1:$BR$1</formula1>
     </dataValidation>
   </dataValidations>

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="175">
   <si>
     <t>画面名称</t>
     <rPh sb="0" eb="2">
@@ -1259,6 +1259,20 @@
     <t>NavDrawer レイアウト</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小テスト</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2273,10 +2287,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2318,15 +2359,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2334,24 +2366,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9931,10 +9945,10 @@
   <dimension ref="A1:BR300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="V90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="V280" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:Z1"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -9955,92 +9969,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127"/>
-      <c r="B1" s="127"/>
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
-        <v>42408</v>
+        <v>42409</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="80" t="str">
         <f ca="1">($BF$3-C1) &amp; "日"</f>
-        <v>36日</v>
+        <v>35日</v>
       </c>
       <c r="F1" s="80" t="str">
         <f ca="1">"( "&amp;NETWORKDAYS(C1,BF3,休日!A1:A9)&amp;"日 )"</f>
-        <v>( 22日 )</v>
+        <v>( 21日 )</v>
       </c>
       <c r="G1" s="58"/>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
-      <c r="V1" s="103" t="s">
+      <c r="V1" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
+      <c r="W1" s="102"/>
+      <c r="X1" s="102"/>
+      <c r="Y1" s="102"/>
+      <c r="Z1" s="102"/>
       <c r="AA1" s="57"/>
       <c r="AB1" s="57"/>
-      <c r="AC1" s="103" t="s">
+      <c r="AC1" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
       <c r="AH1" s="57"/>
       <c r="AI1" s="57"/>
-      <c r="AJ1" s="103" t="s">
+      <c r="AJ1" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="103"/>
-      <c r="AL1" s="103"/>
-      <c r="AM1" s="103"/>
-      <c r="AN1" s="103"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="102"/>
+      <c r="AM1" s="102"/>
+      <c r="AN1" s="102"/>
       <c r="AO1" s="57"/>
       <c r="AP1" s="57"/>
-      <c r="AQ1" s="103" t="s">
+      <c r="AQ1" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
       <c r="AV1" s="57"/>
       <c r="AW1" s="57"/>
-      <c r="AX1" s="103" t="s">
+      <c r="AX1" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="103"/>
+      <c r="AY1" s="102"/>
+      <c r="AZ1" s="102"/>
+      <c r="BA1" s="102"/>
+      <c r="BB1" s="102"/>
       <c r="BC1" s="57"/>
       <c r="BD1" s="57"/>
-      <c r="BE1" s="103" t="s">
+      <c r="BE1" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="103"/>
-      <c r="BG1" s="103"/>
+      <c r="BF1" s="102"/>
+      <c r="BG1" s="102"/>
       <c r="BH1" s="57" t="s">
         <v>44</v>
       </c>
@@ -10074,64 +10088,64 @@
       <c r="E2" s="90"/>
       <c r="F2" s="89"/>
       <c r="G2" s="89"/>
-      <c r="H2" s="102">
+      <c r="H2" s="103">
         <v>42005</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="128">
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="104">
         <v>42036</v>
       </c>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
-      <c r="AG2" s="128"/>
-      <c r="AH2" s="128"/>
-      <c r="AI2" s="128"/>
-      <c r="AJ2" s="128"/>
-      <c r="AK2" s="128"/>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="128"/>
-      <c r="AQ2" s="128"/>
-      <c r="AR2" s="102">
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="103">
         <v>42064</v>
       </c>
-      <c r="AS2" s="102"/>
-      <c r="AT2" s="102"/>
-      <c r="AU2" s="102"/>
-      <c r="AV2" s="102"/>
-      <c r="AW2" s="102"/>
-      <c r="AX2" s="102"/>
-      <c r="AY2" s="102"/>
-      <c r="AZ2" s="102"/>
-      <c r="BA2" s="102"/>
-      <c r="BB2" s="102"/>
-      <c r="BC2" s="102"/>
-      <c r="BD2" s="102"/>
-      <c r="BE2" s="102"/>
-      <c r="BF2" s="102"/>
-      <c r="BG2" s="102"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="103"/>
+      <c r="AU2" s="103"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="103"/>
+      <c r="BC2" s="103"/>
+      <c r="BD2" s="103"/>
+      <c r="BE2" s="103"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="103"/>
       <c r="BH2" s="57" t="s">
         <v>45</v>
       </c>
@@ -10537,7 +10551,7 @@
       </c>
     </row>
     <row r="5" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="108" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="65" t="s">
@@ -10613,7 +10627,7 @@
       </c>
     </row>
     <row r="6" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="65" t="s">
         <v>52</v>
       </c>
@@ -10697,7 +10711,7 @@
       </c>
     </row>
     <row r="7" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="65" t="s">
         <v>53</v>
       </c>
@@ -10777,7 +10791,7 @@
       </c>
     </row>
     <row r="8" spans="1:70" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="67"/>
       <c r="C8" s="66" t="s">
         <v>100</v>
@@ -10845,7 +10859,7 @@
       </c>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="124"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="83"/>
       <c r="C9" s="84"/>
       <c r="D9" s="84"/>
@@ -10909,14 +10923,14 @@
       </c>
     </row>
     <row r="10" spans="1:70" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="91"/>
       <c r="H10" s="81"/>
       <c r="I10" s="81"/>
@@ -10974,16 +10988,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:70" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="67"/>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -11040,7 +11054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
       <c r="B12" s="67">
         <v>1</v>
@@ -11110,7 +11124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
       <c r="B13" s="67"/>
       <c r="C13" s="69"/>
@@ -11176,7 +11190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
       <c r="B14" s="67"/>
       <c r="C14" s="69"/>
@@ -11247,7 +11261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
       <c r="B15" s="67">
         <v>2</v>
@@ -11317,7 +11331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:70" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:70" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
       <c r="B16" s="67"/>
       <c r="C16" s="69"/>
@@ -11383,7 +11397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
       <c r="B17" s="67"/>
       <c r="C17" s="69"/>
@@ -11454,7 +11468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
       <c r="B18" s="67">
         <v>3</v>
@@ -11524,7 +11538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
       <c r="B19" s="67"/>
       <c r="C19" s="69"/>
@@ -11590,7 +11604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
       <c r="B20" s="67"/>
       <c r="C20" s="69"/>
@@ -11661,7 +11675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="67"/>
       <c r="C21" s="66" t="s">
@@ -11727,7 +11741,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="67">
         <v>1</v>
@@ -11797,7 +11811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
       <c r="B23" s="67"/>
       <c r="C23" s="69"/>
@@ -11863,7 +11877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
       <c r="B24" s="67"/>
       <c r="C24" s="69"/>
@@ -11934,7 +11948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
       <c r="B25" s="67">
         <v>2</v>
@@ -12004,7 +12018,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
       <c r="B26" s="67"/>
       <c r="C26" s="69"/>
@@ -12070,7 +12084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
       <c r="B27" s="67"/>
       <c r="C27" s="69"/>
@@ -12141,16 +12155,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
       <c r="B28" s="67"/>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="125"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -12207,7 +12221,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
       <c r="B29" s="67">
         <v>1</v>
@@ -12285,7 +12299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="67"/>
       <c r="C30" s="69" t="s">
@@ -12362,7 +12376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="67"/>
       <c r="C31" s="69"/>
@@ -12439,7 +12453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="67">
         <v>2</v>
@@ -12521,7 +12535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="67"/>
       <c r="C33" s="69"/>
@@ -12600,7 +12614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="67"/>
       <c r="C34" s="69"/>
@@ -12679,7 +12693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="67">
         <v>3</v>
@@ -12761,7 +12775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="67"/>
       <c r="C36" s="69"/>
@@ -12840,7 +12854,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A37" s="57"/>
       <c r="B37" s="67"/>
       <c r="C37" s="69"/>
@@ -12919,7 +12933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A38" s="57"/>
       <c r="B38" s="67">
         <v>4</v>
@@ -12999,7 +13013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A39" s="57"/>
       <c r="B39" s="67"/>
       <c r="C39" s="69"/>
@@ -13076,7 +13090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A40" s="57"/>
       <c r="B40" s="67"/>
       <c r="C40" s="69"/>
@@ -13153,7 +13167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A41" s="57"/>
       <c r="B41" s="67">
         <v>5</v>
@@ -13235,7 +13249,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A42" s="57"/>
       <c r="B42" s="67"/>
       <c r="C42" s="69"/>
@@ -13314,7 +13328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A43" s="57"/>
       <c r="B43" s="67"/>
       <c r="C43" s="69"/>
@@ -13395,7 +13409,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A44" s="57"/>
       <c r="B44" s="67">
         <v>6</v>
@@ -13475,7 +13489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A45" s="57"/>
       <c r="B45" s="67"/>
       <c r="C45" s="69"/>
@@ -13552,7 +13566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A46" s="57"/>
       <c r="B46" s="67"/>
       <c r="C46" s="69"/>
@@ -13629,7 +13643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A47" s="57"/>
       <c r="B47" s="67">
         <v>7</v>
@@ -13701,7 +13715,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A48" s="57"/>
       <c r="B48" s="67"/>
       <c r="C48" s="69"/>
@@ -13772,7 +13786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A49" s="57"/>
       <c r="B49" s="67"/>
       <c r="C49" s="69"/>
@@ -13845,7 +13859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A50" s="57"/>
       <c r="B50" s="67">
         <v>8</v>
@@ -13921,7 +13935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A51" s="57"/>
       <c r="B51" s="67"/>
       <c r="C51" s="69"/>
@@ -13996,7 +14010,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A52" s="57"/>
       <c r="B52" s="67"/>
       <c r="C52" s="69"/>
@@ -14071,7 +14085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A53" s="57"/>
       <c r="B53" s="67">
         <v>9</v>
@@ -14143,7 +14157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A54" s="57"/>
       <c r="B54" s="67"/>
       <c r="C54" s="69"/>
@@ -14214,7 +14228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A55" s="57"/>
       <c r="B55" s="67"/>
       <c r="C55" s="69"/>
@@ -14287,7 +14301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A56" s="57"/>
       <c r="B56" s="67">
         <v>10</v>
@@ -14363,7 +14377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A57" s="57"/>
       <c r="B57" s="67"/>
       <c r="C57" s="69" t="s">
@@ -14438,7 +14452,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A58" s="57"/>
       <c r="B58" s="67"/>
       <c r="C58" s="69"/>
@@ -14509,7 +14523,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A59" s="57"/>
       <c r="B59" s="67">
         <v>11</v>
@@ -14583,7 +14597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A60" s="57"/>
       <c r="B60" s="67"/>
       <c r="C60" s="69"/>
@@ -14654,7 +14668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A61" s="57"/>
       <c r="B61" s="67"/>
       <c r="C61" s="69"/>
@@ -14725,7 +14739,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A62" s="57"/>
       <c r="B62" s="67">
         <v>12</v>
@@ -14795,7 +14809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A63" s="57"/>
       <c r="B63" s="67"/>
       <c r="C63" s="69"/>
@@ -14864,7 +14878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A64" s="57"/>
       <c r="B64" s="67"/>
       <c r="C64" s="69"/>
@@ -14935,7 +14949,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="67">
         <v>13</v>
@@ -15009,7 +15023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A66" s="57"/>
       <c r="B66" s="67"/>
       <c r="C66" s="69"/>
@@ -15082,7 +15096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A67" s="57"/>
       <c r="B67" s="67"/>
       <c r="C67" s="69"/>
@@ -15153,7 +15167,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A68" s="57"/>
       <c r="B68" s="67">
         <v>14</v>
@@ -15227,7 +15241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="67"/>
       <c r="C69" s="69"/>
@@ -15298,7 +15312,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A70" s="57"/>
       <c r="B70" s="67"/>
       <c r="C70" s="69"/>
@@ -15369,7 +15383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="67">
         <v>15</v>
@@ -15439,7 +15453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A72" s="57"/>
       <c r="B72" s="67"/>
       <c r="C72" s="69"/>
@@ -15508,7 +15522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="67"/>
       <c r="C73" s="69"/>
@@ -15579,7 +15593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A74" s="57"/>
       <c r="B74" s="67">
         <v>16</v>
@@ -15649,7 +15663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A75" s="57"/>
       <c r="B75" s="67"/>
       <c r="C75" s="69"/>
@@ -15718,7 +15732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A76" s="57"/>
       <c r="B76" s="67"/>
       <c r="C76" s="69"/>
@@ -15789,7 +15803,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A77" s="57"/>
       <c r="B77" s="67">
         <v>17</v>
@@ -15859,7 +15873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A78" s="57"/>
       <c r="B78" s="67"/>
       <c r="C78" s="69"/>
@@ -15928,7 +15942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="67"/>
       <c r="C79" s="69"/>
@@ -15999,7 +16013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A80" s="57"/>
       <c r="B80" s="67">
         <v>18</v>
@@ -16069,7 +16083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
       <c r="B81" s="67"/>
       <c r="C81" s="69"/>
@@ -16138,7 +16152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A82" s="57"/>
       <c r="B82" s="67"/>
       <c r="C82" s="69"/>
@@ -16209,7 +16223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A83" s="57"/>
       <c r="B83" s="67">
         <v>19</v>
@@ -16279,7 +16293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A84" s="57"/>
       <c r="B84" s="67"/>
       <c r="C84" s="69"/>
@@ -16348,7 +16362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A85" s="57"/>
       <c r="B85" s="67"/>
       <c r="C85" s="69"/>
@@ -16419,7 +16433,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A86" s="57"/>
       <c r="B86" s="67">
         <v>20</v>
@@ -16489,7 +16503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A87" s="57"/>
       <c r="B87" s="67"/>
       <c r="C87" s="69"/>
@@ -16558,7 +16572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A88" s="57"/>
       <c r="B88" s="67"/>
       <c r="C88" s="69"/>
@@ -16629,16 +16643,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="57"/>
       <c r="B89" s="67"/>
-      <c r="C89" s="114" t="s">
+      <c r="C89" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="115"/>
-      <c r="E89" s="115"/>
-      <c r="F89" s="115"/>
-      <c r="G89" s="116"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="124"/>
+      <c r="F89" s="124"/>
+      <c r="G89" s="125"/>
       <c r="H89" s="66"/>
       <c r="I89" s="66"/>
       <c r="J89" s="66"/>
@@ -16695,7 +16709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A90" s="57"/>
       <c r="B90" s="67">
         <v>1</v>
@@ -16775,7 +16789,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A91" s="57"/>
       <c r="B91" s="67"/>
       <c r="C91" s="69"/>
@@ -16850,7 +16864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A92" s="57"/>
       <c r="B92" s="67"/>
       <c r="C92" s="69"/>
@@ -16921,7 +16935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A93" s="57"/>
       <c r="B93" s="67">
         <v>2</v>
@@ -16997,7 +17011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A94" s="57"/>
       <c r="B94" s="67"/>
       <c r="C94" s="69"/>
@@ -17070,7 +17084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A95" s="57"/>
       <c r="B95" s="67"/>
       <c r="C95" s="69"/>
@@ -17141,7 +17155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A96" s="57"/>
       <c r="B96" s="67">
         <v>3</v>
@@ -17211,7 +17225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A97" s="57"/>
       <c r="B97" s="67"/>
       <c r="C97" s="69"/>
@@ -17280,7 +17294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A98" s="57"/>
       <c r="B98" s="67"/>
       <c r="C98" s="69"/>
@@ -17351,15 +17365,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="110" t="s">
+    <row r="99" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="111"/>
+      <c r="B99" s="119"/>
+      <c r="C99" s="119"/>
+      <c r="D99" s="119"/>
+      <c r="E99" s="119"/>
+      <c r="F99" s="120"/>
       <c r="G99" s="92"/>
       <c r="H99" s="66"/>
       <c r="I99" s="66"/>
@@ -17417,16 +17431,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
-      <c r="C100" s="117" t="s">
+      <c r="C100" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="D100" s="118"/>
-      <c r="E100" s="118"/>
-      <c r="F100" s="118"/>
-      <c r="G100" s="119"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="107"/>
       <c r="H100" s="66"/>
       <c r="I100" s="66"/>
       <c r="J100" s="66"/>
@@ -17483,7 +17497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="67">
         <v>1</v>
@@ -17524,7 +17538,9 @@
       <c r="T101" s="66"/>
       <c r="U101" s="66"/>
       <c r="V101" s="66"/>
-      <c r="W101" s="66"/>
+      <c r="W101" s="66">
+        <v>1</v>
+      </c>
       <c r="X101" s="66"/>
       <c r="Y101" s="66"/>
       <c r="Z101" s="66"/>
@@ -17565,7 +17581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="67"/>
       <c r="C102" s="69"/>
@@ -17600,7 +17616,9 @@
       <c r="T102" s="66"/>
       <c r="U102" s="66"/>
       <c r="V102" s="66"/>
-      <c r="W102" s="66"/>
+      <c r="W102" s="66">
+        <v>1</v>
+      </c>
       <c r="X102" s="66"/>
       <c r="Y102" s="66"/>
       <c r="Z102" s="66"/>
@@ -17641,7 +17659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="67"/>
       <c r="C103" s="69"/>
@@ -17650,7 +17668,7 @@
       </c>
       <c r="E103" s="66" t="str">
         <f>IF(MAX($H103:$BF103)=0,"",MAX($H103:$BF103)&amp;" %")</f>
-        <v>86 %</v>
+        <v>100 %</v>
       </c>
       <c r="F103" s="62"/>
       <c r="G103" s="72" t="s">
@@ -17679,7 +17697,9 @@
       <c r="T103" s="66"/>
       <c r="U103" s="66"/>
       <c r="V103" s="66"/>
-      <c r="W103" s="66"/>
+      <c r="W103" s="66">
+        <v>100</v>
+      </c>
       <c r="X103" s="66"/>
       <c r="Y103" s="66"/>
       <c r="Z103" s="66"/>
@@ -17720,7 +17740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="67">
         <v>2</v>
@@ -17753,7 +17773,9 @@
       <c r="V104" s="66">
         <v>0</v>
       </c>
-      <c r="W104" s="66"/>
+      <c r="W104" s="66">
+        <v>2</v>
+      </c>
       <c r="X104" s="66"/>
       <c r="Y104" s="66"/>
       <c r="Z104" s="66"/>
@@ -17794,7 +17816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="67"/>
       <c r="C105" s="69"/>
@@ -17823,7 +17845,9 @@
       <c r="V105" s="66">
         <v>1</v>
       </c>
-      <c r="W105" s="66"/>
+      <c r="W105" s="66">
+        <v>2</v>
+      </c>
       <c r="X105" s="66"/>
       <c r="Y105" s="66"/>
       <c r="Z105" s="66"/>
@@ -17864,7 +17888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="67"/>
       <c r="C106" s="69"/>
@@ -17873,7 +17897,7 @@
       </c>
       <c r="E106" s="66" t="str">
         <f>IF(MAX($H106:$BF106)=0,"",MAX($H106:$BF106)&amp;" %")</f>
-        <v/>
+        <v>100 %</v>
       </c>
       <c r="F106" s="62"/>
       <c r="G106" s="73" t="s">
@@ -17894,7 +17918,9 @@
       <c r="T106" s="66"/>
       <c r="U106" s="66"/>
       <c r="V106" s="66"/>
-      <c r="W106" s="66"/>
+      <c r="W106" s="66">
+        <v>100</v>
+      </c>
       <c r="X106" s="66"/>
       <c r="Y106" s="66"/>
       <c r="Z106" s="66"/>
@@ -17935,7 +17961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="67">
         <v>3</v>
@@ -18013,7 +18039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="67"/>
       <c r="C108" s="69"/>
@@ -18087,7 +18113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="67"/>
       <c r="C109" s="69"/>
@@ -18160,7 +18186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="67"/>
       <c r="C110" s="66" t="s">
@@ -18226,7 +18252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A111" s="57"/>
       <c r="B111" s="67">
         <v>1</v>
@@ -18304,7 +18330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A112" s="57"/>
       <c r="B112" s="67"/>
       <c r="C112" s="69"/>
@@ -18376,7 +18402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A113" s="57"/>
       <c r="B113" s="67"/>
       <c r="C113" s="69"/>
@@ -18451,7 +18477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A114" s="57"/>
       <c r="B114" s="67">
         <v>2</v>
@@ -18527,7 +18553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A115" s="57"/>
       <c r="B115" s="67"/>
       <c r="C115" s="69"/>
@@ -18597,7 +18623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A116" s="57"/>
       <c r="B116" s="67"/>
       <c r="C116" s="69"/>
@@ -18670,16 +18696,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
-      <c r="C117" s="117" t="s">
+      <c r="C117" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="118"/>
-      <c r="E117" s="118"/>
-      <c r="F117" s="118"/>
-      <c r="G117" s="119"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="106"/>
+      <c r="F117" s="106"/>
+      <c r="G117" s="107"/>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
       <c r="J117" s="66"/>
@@ -18736,7 +18762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A118" s="57"/>
       <c r="B118" s="67">
         <v>1</v>
@@ -18769,7 +18795,9 @@
       <c r="V118" s="66">
         <v>0</v>
       </c>
-      <c r="W118" s="66"/>
+      <c r="W118" s="66">
+        <v>5</v>
+      </c>
       <c r="X118" s="66"/>
       <c r="Y118" s="66"/>
       <c r="Z118" s="66"/>
@@ -18810,7 +18838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A119" s="57"/>
       <c r="B119" s="67"/>
       <c r="C119" s="69" t="s">
@@ -18841,7 +18869,9 @@
       <c r="V119" s="66">
         <v>1</v>
       </c>
-      <c r="W119" s="66"/>
+      <c r="W119" s="66">
+        <v>5</v>
+      </c>
       <c r="X119" s="66"/>
       <c r="Y119" s="66"/>
       <c r="Z119" s="66"/>
@@ -18882,7 +18912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A120" s="57"/>
       <c r="B120" s="67"/>
       <c r="C120" s="69"/>
@@ -18891,7 +18921,7 @@
       </c>
       <c r="E120" s="66" t="str">
         <f>IF(MAX($H120:$BF120)=0,"",MAX($H120:$BF120)&amp;" %")</f>
-        <v/>
+        <v>50 %</v>
       </c>
       <c r="F120" s="62"/>
       <c r="G120" s="73" t="s">
@@ -18912,7 +18942,9 @@
       <c r="T120" s="66"/>
       <c r="U120" s="66"/>
       <c r="V120" s="66"/>
-      <c r="W120" s="66"/>
+      <c r="W120" s="66">
+        <v>50</v>
+      </c>
       <c r="X120" s="66"/>
       <c r="Y120" s="66"/>
       <c r="Z120" s="66"/>
@@ -18953,7 +18985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A121" s="57"/>
       <c r="B121" s="67">
         <v>2</v>
@@ -19025,7 +19057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A122" s="57"/>
       <c r="B122" s="67"/>
       <c r="C122" s="69" t="s">
@@ -19095,7 +19127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A123" s="57"/>
       <c r="B123" s="67"/>
       <c r="C123" s="69"/>
@@ -19166,7 +19198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A124" s="57"/>
       <c r="B124" s="67">
         <v>3</v>
@@ -19238,7 +19270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A125" s="57"/>
       <c r="B125" s="67"/>
       <c r="C125" s="69" t="s">
@@ -19308,7 +19340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A126" s="57"/>
       <c r="B126" s="67"/>
       <c r="C126" s="69"/>
@@ -19379,7 +19411,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A127" s="57"/>
       <c r="B127" s="67">
         <v>4</v>
@@ -19410,7 +19442,9 @@
       <c r="T127" s="66"/>
       <c r="U127" s="66"/>
       <c r="V127" s="66"/>
-      <c r="W127" s="66"/>
+      <c r="W127" s="66">
+        <v>2</v>
+      </c>
       <c r="X127" s="66"/>
       <c r="Y127" s="66"/>
       <c r="Z127" s="66"/>
@@ -19451,7 +19485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A128" s="57"/>
       <c r="B128" s="67"/>
       <c r="C128" s="69" t="s">
@@ -19480,7 +19514,9 @@
       <c r="T128" s="66"/>
       <c r="U128" s="66"/>
       <c r="V128" s="66"/>
-      <c r="W128" s="66"/>
+      <c r="W128" s="66">
+        <v>2</v>
+      </c>
       <c r="X128" s="66"/>
       <c r="Y128" s="66"/>
       <c r="Z128" s="66"/>
@@ -19521,7 +19557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A129" s="57"/>
       <c r="B129" s="67"/>
       <c r="C129" s="69"/>
@@ -19530,7 +19566,7 @@
       </c>
       <c r="E129" s="66" t="str">
         <f>IF(MAX($H129:$BF129)=0,"",MAX($H129:$BF129)&amp;" %")</f>
-        <v/>
+        <v>15 %</v>
       </c>
       <c r="F129" s="62"/>
       <c r="G129" s="73" t="s">
@@ -19551,7 +19587,9 @@
       <c r="T129" s="66"/>
       <c r="U129" s="66"/>
       <c r="V129" s="66"/>
-      <c r="W129" s="66"/>
+      <c r="W129" s="66">
+        <v>15</v>
+      </c>
       <c r="X129" s="66"/>
       <c r="Y129" s="66"/>
       <c r="Z129" s="66"/>
@@ -19592,7 +19630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A130" s="57"/>
       <c r="B130" s="67">
         <v>5</v>
@@ -19664,7 +19702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A131" s="57"/>
       <c r="B131" s="67"/>
       <c r="C131" s="69" t="s">
@@ -19734,7 +19772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A132" s="57"/>
       <c r="B132" s="67"/>
       <c r="C132" s="69"/>
@@ -19805,7 +19843,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A133" s="57"/>
       <c r="B133" s="67">
         <v>6</v>
@@ -19877,7 +19915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A134" s="57"/>
       <c r="B134" s="67"/>
       <c r="C134" s="69" t="s">
@@ -19947,7 +19985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A135" s="57"/>
       <c r="B135" s="67"/>
       <c r="C135" s="69"/>
@@ -20018,7 +20056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A136" s="57"/>
       <c r="B136" s="67">
         <v>7</v>
@@ -20090,7 +20128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A137" s="57"/>
       <c r="B137" s="67"/>
       <c r="C137" s="69" t="s">
@@ -20160,7 +20198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A138" s="57"/>
       <c r="B138" s="67"/>
       <c r="C138" s="69"/>
@@ -20231,7 +20269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A139" s="57"/>
       <c r="B139" s="67">
         <v>8</v>
@@ -20264,7 +20302,9 @@
       <c r="V139" s="66">
         <v>0</v>
       </c>
-      <c r="W139" s="66"/>
+      <c r="W139" s="66">
+        <v>4</v>
+      </c>
       <c r="X139" s="66"/>
       <c r="Y139" s="66"/>
       <c r="Z139" s="66"/>
@@ -20305,7 +20345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A140" s="57"/>
       <c r="B140" s="67"/>
       <c r="C140" s="69" t="s">
@@ -20336,7 +20376,9 @@
       <c r="V140" s="66">
         <v>1</v>
       </c>
-      <c r="W140" s="66"/>
+      <c r="W140" s="66">
+        <v>4</v>
+      </c>
       <c r="X140" s="66"/>
       <c r="Y140" s="66"/>
       <c r="Z140" s="66"/>
@@ -20377,7 +20419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A141" s="57"/>
       <c r="B141" s="67"/>
       <c r="C141" s="69"/>
@@ -20386,7 +20428,7 @@
       </c>
       <c r="E141" s="66" t="str">
         <f>IF(MAX($H141:$BF141)=0,"",MAX($H141:$BF141)&amp;" %")</f>
-        <v/>
+        <v>8 %</v>
       </c>
       <c r="F141" s="62"/>
       <c r="G141" s="73" t="s">
@@ -20407,7 +20449,9 @@
       <c r="T141" s="66"/>
       <c r="U141" s="66"/>
       <c r="V141" s="66"/>
-      <c r="W141" s="66"/>
+      <c r="W141" s="66">
+        <v>8</v>
+      </c>
       <c r="X141" s="66"/>
       <c r="Y141" s="66"/>
       <c r="Z141" s="66"/>
@@ -20448,7 +20492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A142" s="57"/>
       <c r="B142" s="67">
         <v>9</v>
@@ -20520,7 +20564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A143" s="57"/>
       <c r="B143" s="67"/>
       <c r="C143" s="69" t="s">
@@ -20590,7 +20634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A144" s="57"/>
       <c r="B144" s="67"/>
       <c r="C144" s="69"/>
@@ -20661,7 +20705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A145" s="57"/>
       <c r="B145" s="67">
         <v>10</v>
@@ -20735,7 +20779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A146" s="57"/>
       <c r="B146" s="67"/>
       <c r="C146" s="69" t="s">
@@ -20807,7 +20851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A147" s="57"/>
       <c r="B147" s="67"/>
       <c r="C147" s="69"/>
@@ -20816,7 +20860,7 @@
       </c>
       <c r="E147" s="66" t="str">
         <f>IF(MAX($H147:$BF147)=0,"",MAX($H147:$BF147)&amp;" %")</f>
-        <v/>
+        <v>20 %</v>
       </c>
       <c r="F147" s="62"/>
       <c r="G147" s="73" t="s">
@@ -20837,7 +20881,9 @@
       <c r="T147" s="66"/>
       <c r="U147" s="66"/>
       <c r="V147" s="66"/>
-      <c r="W147" s="66"/>
+      <c r="W147" s="66">
+        <v>20</v>
+      </c>
       <c r="X147" s="66"/>
       <c r="Y147" s="66"/>
       <c r="Z147" s="66"/>
@@ -20878,7 +20924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A148" s="57"/>
       <c r="B148" s="67">
         <v>11</v>
@@ -20950,7 +20996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A149" s="57"/>
       <c r="B149" s="67"/>
       <c r="C149" s="69" t="s">
@@ -21020,7 +21066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A150" s="57"/>
       <c r="B150" s="67"/>
       <c r="C150" s="69"/>
@@ -21029,7 +21075,7 @@
       </c>
       <c r="E150" s="66" t="str">
         <f>IF(MAX($H150:$BF150)=0,"",MAX($H150:$BF150)&amp;" %")</f>
-        <v/>
+        <v>10 %</v>
       </c>
       <c r="F150" s="62"/>
       <c r="G150" s="73" t="s">
@@ -21050,7 +21096,9 @@
       <c r="T150" s="66"/>
       <c r="U150" s="66"/>
       <c r="V150" s="66"/>
-      <c r="W150" s="66"/>
+      <c r="W150" s="66">
+        <v>10</v>
+      </c>
       <c r="X150" s="66"/>
       <c r="Y150" s="66"/>
       <c r="Z150" s="66"/>
@@ -21091,7 +21139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A151" s="57"/>
       <c r="B151" s="67">
         <v>12</v>
@@ -21163,7 +21211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A152" s="57"/>
       <c r="B152" s="67"/>
       <c r="C152" s="69" t="s">
@@ -21233,7 +21281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A153" s="57"/>
       <c r="B153" s="67"/>
       <c r="C153" s="69"/>
@@ -21304,7 +21352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A154" s="57"/>
       <c r="B154" s="67">
         <v>13</v>
@@ -21376,7 +21424,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A155" s="57"/>
       <c r="B155" s="67"/>
       <c r="C155" s="69" t="s">
@@ -21446,7 +21494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A156" s="57"/>
       <c r="B156" s="67"/>
       <c r="C156" s="69"/>
@@ -21517,7 +21565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A157" s="57"/>
       <c r="B157" s="67">
         <v>14</v>
@@ -21589,7 +21637,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A158" s="57"/>
       <c r="B158" s="67"/>
       <c r="C158" s="69" t="s">
@@ -21659,7 +21707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A159" s="57"/>
       <c r="B159" s="67"/>
       <c r="C159" s="69"/>
@@ -21668,7 +21716,7 @@
       </c>
       <c r="E159" s="66" t="str">
         <f>IF(MAX($H159:$BF159)=0,"",MAX($H159:$BF159)&amp;" %")</f>
-        <v/>
+        <v>10 %</v>
       </c>
       <c r="F159" s="62"/>
       <c r="G159" s="73" t="s">
@@ -21689,7 +21737,9 @@
       <c r="T159" s="66"/>
       <c r="U159" s="66"/>
       <c r="V159" s="66"/>
-      <c r="W159" s="66"/>
+      <c r="W159" s="66">
+        <v>10</v>
+      </c>
       <c r="X159" s="66"/>
       <c r="Y159" s="66"/>
       <c r="Z159" s="66"/>
@@ -21730,7 +21780,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A160" s="57"/>
       <c r="B160" s="67">
         <v>15</v>
@@ -21740,7 +21790,9 @@
       </c>
       <c r="D160" s="66"/>
       <c r="E160" s="66"/>
-      <c r="F160" s="62"/>
+      <c r="F160" s="62" t="s">
+        <v>173</v>
+      </c>
       <c r="G160" s="73" t="s">
         <v>62</v>
       </c>
@@ -21759,7 +21811,9 @@
       <c r="T160" s="66"/>
       <c r="U160" s="66"/>
       <c r="V160" s="66"/>
-      <c r="W160" s="66"/>
+      <c r="W160" s="66">
+        <v>3</v>
+      </c>
       <c r="X160" s="66"/>
       <c r="Y160" s="66"/>
       <c r="Z160" s="66"/>
@@ -21800,13 +21854,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A161" s="57"/>
       <c r="B161" s="67"/>
       <c r="C161" s="69"/>
       <c r="D161" s="66"/>
       <c r="E161" s="66"/>
-      <c r="F161" s="62"/>
+      <c r="F161" s="62" t="s">
+        <v>173</v>
+      </c>
       <c r="G161" s="73" t="s">
         <v>16</v>
       </c>
@@ -21825,7 +21881,9 @@
       <c r="T161" s="66"/>
       <c r="U161" s="66"/>
       <c r="V161" s="66"/>
-      <c r="W161" s="66"/>
+      <c r="W161" s="66">
+        <v>3</v>
+      </c>
       <c r="X161" s="66"/>
       <c r="Y161" s="66"/>
       <c r="Z161" s="66"/>
@@ -21866,7 +21924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A162" s="57"/>
       <c r="B162" s="67"/>
       <c r="C162" s="69"/>
@@ -21875,7 +21933,7 @@
       </c>
       <c r="E162" s="66" t="str">
         <f>IF(MAX($H162:$BF162)=0,"",MAX($H162:$BF162)&amp;" %")</f>
-        <v/>
+        <v>50 %</v>
       </c>
       <c r="F162" s="62"/>
       <c r="G162" s="73" t="s">
@@ -21896,7 +21954,9 @@
       <c r="T162" s="66"/>
       <c r="U162" s="66"/>
       <c r="V162" s="66"/>
-      <c r="W162" s="66"/>
+      <c r="W162" s="66">
+        <v>50</v>
+      </c>
       <c r="X162" s="66"/>
       <c r="Y162" s="66"/>
       <c r="Z162" s="66"/>
@@ -21937,7 +21997,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A163" s="57"/>
       <c r="B163" s="67">
         <v>16</v>
@@ -22007,7 +22067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A164" s="57"/>
       <c r="B164" s="67"/>
       <c r="C164" s="69"/>
@@ -22073,7 +22133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A165" s="57"/>
       <c r="B165" s="67"/>
       <c r="C165" s="69"/>
@@ -22144,7 +22204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A166" s="57"/>
       <c r="B166" s="67">
         <v>17</v>
@@ -22216,7 +22276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A167" s="57"/>
       <c r="B167" s="67"/>
       <c r="C167" s="69"/>
@@ -22284,7 +22344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A168" s="57"/>
       <c r="B168" s="67"/>
       <c r="C168" s="69"/>
@@ -22355,7 +22415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A169" s="57"/>
       <c r="B169" s="67">
         <v>18</v>
@@ -22386,7 +22446,9 @@
       <c r="T169" s="66"/>
       <c r="U169" s="66"/>
       <c r="V169" s="66"/>
-      <c r="W169" s="66"/>
+      <c r="W169" s="66">
+        <v>5</v>
+      </c>
       <c r="X169" s="66"/>
       <c r="Y169" s="66"/>
       <c r="Z169" s="66"/>
@@ -22427,7 +22489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A170" s="57"/>
       <c r="B170" s="67"/>
       <c r="C170" s="69"/>
@@ -22454,7 +22516,9 @@
       <c r="T170" s="66"/>
       <c r="U170" s="66"/>
       <c r="V170" s="66"/>
-      <c r="W170" s="66"/>
+      <c r="W170" s="66">
+        <v>5</v>
+      </c>
       <c r="X170" s="66"/>
       <c r="Y170" s="66"/>
       <c r="Z170" s="66"/>
@@ -22495,7 +22559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A171" s="57"/>
       <c r="B171" s="67"/>
       <c r="C171" s="69"/>
@@ -22504,7 +22568,7 @@
       </c>
       <c r="E171" s="66" t="str">
         <f>IF(MAX($H171:$BF171)=0,"",MAX($H171:$BF171)&amp;" %")</f>
-        <v/>
+        <v>100 %</v>
       </c>
       <c r="F171" s="62"/>
       <c r="G171" s="73" t="s">
@@ -22525,7 +22589,9 @@
       <c r="T171" s="66"/>
       <c r="U171" s="66"/>
       <c r="V171" s="66"/>
-      <c r="W171" s="66"/>
+      <c r="W171" s="66">
+        <v>100</v>
+      </c>
       <c r="X171" s="66"/>
       <c r="Y171" s="66"/>
       <c r="Z171" s="66"/>
@@ -22566,7 +22632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A172" s="57"/>
       <c r="B172" s="67">
         <v>19</v>
@@ -22640,7 +22706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A173" s="57"/>
       <c r="B173" s="67"/>
       <c r="C173" s="69"/>
@@ -22710,7 +22776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A174" s="57"/>
       <c r="B174" s="67"/>
       <c r="C174" s="69"/>
@@ -22781,17 +22847,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A175" s="57"/>
       <c r="B175" s="67">
         <v>20</v>
       </c>
       <c r="C175" s="66" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="D175" s="66"/>
       <c r="E175" s="66"/>
-      <c r="F175" s="62"/>
+      <c r="F175" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="G175" s="73" t="s">
         <v>62</v>
       </c>
@@ -22810,7 +22878,9 @@
       <c r="T175" s="66"/>
       <c r="U175" s="66"/>
       <c r="V175" s="66"/>
-      <c r="W175" s="66"/>
+      <c r="W175" s="66">
+        <v>1</v>
+      </c>
       <c r="X175" s="66"/>
       <c r="Y175" s="66"/>
       <c r="Z175" s="66"/>
@@ -22851,13 +22921,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A176" s="57"/>
       <c r="B176" s="67"/>
       <c r="C176" s="69"/>
       <c r="D176" s="66"/>
       <c r="E176" s="66"/>
-      <c r="F176" s="62"/>
+      <c r="F176" s="62" t="s">
+        <v>61</v>
+      </c>
       <c r="G176" s="73" t="s">
         <v>16</v>
       </c>
@@ -22876,7 +22948,9 @@
       <c r="T176" s="66"/>
       <c r="U176" s="66"/>
       <c r="V176" s="66"/>
-      <c r="W176" s="66"/>
+      <c r="W176" s="66">
+        <v>1</v>
+      </c>
       <c r="X176" s="66"/>
       <c r="Y176" s="66"/>
       <c r="Z176" s="66"/>
@@ -22917,7 +22991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A177" s="57"/>
       <c r="B177" s="67"/>
       <c r="C177" s="69"/>
@@ -22988,16 +23062,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
-      <c r="C178" s="117" t="s">
+      <c r="C178" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D178" s="118"/>
-      <c r="E178" s="118"/>
-      <c r="F178" s="118"/>
-      <c r="G178" s="119"/>
+      <c r="D178" s="106"/>
+      <c r="E178" s="106"/>
+      <c r="F178" s="106"/>
+      <c r="G178" s="107"/>
       <c r="H178" s="66"/>
       <c r="I178" s="66"/>
       <c r="J178" s="66"/>
@@ -23054,7 +23128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A179" s="57"/>
       <c r="B179" s="67">
         <v>1</v>
@@ -23124,7 +23198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A180" s="57"/>
       <c r="B180" s="67"/>
       <c r="C180" s="69"/>
@@ -23190,7 +23264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A181" s="57"/>
       <c r="B181" s="67"/>
       <c r="C181" s="69"/>
@@ -23261,7 +23335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A182" s="57"/>
       <c r="B182" s="67">
         <v>2</v>
@@ -23331,7 +23405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A183" s="57"/>
       <c r="B183" s="67"/>
       <c r="C183" s="69"/>
@@ -23397,7 +23471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A184" s="57"/>
       <c r="B184" s="67"/>
       <c r="C184" s="69"/>
@@ -23468,7 +23542,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A185" s="57"/>
       <c r="B185" s="67">
         <v>3</v>
@@ -23538,7 +23612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A186" s="57"/>
       <c r="B186" s="67"/>
       <c r="C186" s="69"/>
@@ -23604,7 +23678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A187" s="57"/>
       <c r="B187" s="67"/>
       <c r="C187" s="69"/>
@@ -23675,15 +23749,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="112" t="s">
+    <row r="188" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="B188" s="112"/>
-      <c r="C188" s="112"/>
-      <c r="D188" s="112"/>
-      <c r="E188" s="112"/>
-      <c r="F188" s="113"/>
+      <c r="B188" s="121"/>
+      <c r="C188" s="121"/>
+      <c r="D188" s="121"/>
+      <c r="E188" s="121"/>
+      <c r="F188" s="122"/>
       <c r="G188" s="79"/>
       <c r="H188" s="66"/>
       <c r="I188" s="66"/>
@@ -23741,16 +23815,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A189" s="57"/>
       <c r="B189" s="67"/>
-      <c r="C189" s="120" t="s">
+      <c r="C189" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="D189" s="121"/>
-      <c r="E189" s="121"/>
-      <c r="F189" s="121"/>
-      <c r="G189" s="122"/>
+      <c r="D189" s="127"/>
+      <c r="E189" s="127"/>
+      <c r="F189" s="127"/>
+      <c r="G189" s="128"/>
       <c r="H189" s="66"/>
       <c r="I189" s="66"/>
       <c r="J189" s="66"/>
@@ -23807,7 +23881,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A190" s="57"/>
       <c r="B190" s="67">
         <v>1</v>
@@ -23895,7 +23969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A191" s="57"/>
       <c r="B191" s="67"/>
       <c r="C191" s="69"/>
@@ -23975,7 +24049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A192" s="57"/>
       <c r="B192" s="67"/>
       <c r="C192" s="69"/>
@@ -24046,7 +24120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A193" s="57"/>
       <c r="B193" s="67">
         <v>2</v>
@@ -24120,7 +24194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="194" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A194" s="57"/>
       <c r="B194" s="67"/>
       <c r="C194" s="69"/>
@@ -24188,7 +24262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A195" s="57"/>
       <c r="B195" s="67"/>
       <c r="C195" s="69"/>
@@ -24259,7 +24333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="196" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A196" s="57"/>
       <c r="B196" s="67">
         <v>3</v>
@@ -24329,7 +24403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A197" s="57"/>
       <c r="B197" s="67"/>
       <c r="C197" s="69"/>
@@ -24395,7 +24469,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A198" s="57"/>
       <c r="B198" s="67"/>
       <c r="C198" s="69"/>
@@ -24466,7 +24540,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="199" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A199" s="57"/>
       <c r="B199" s="67"/>
       <c r="C199" s="66" t="s">
@@ -24532,7 +24606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="200" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A200" s="57"/>
       <c r="B200" s="67">
         <v>1</v>
@@ -24612,7 +24686,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="201" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A201" s="57"/>
       <c r="B201" s="67"/>
       <c r="C201" s="69"/>
@@ -24686,7 +24760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A202" s="57"/>
       <c r="B202" s="67"/>
       <c r="C202" s="69"/>
@@ -24757,7 +24831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A203" s="57"/>
       <c r="B203" s="67"/>
       <c r="C203" s="66" t="s">
@@ -24831,7 +24905,7 @@
       <c r="BG203" s="68"/>
       <c r="BH203" s="57"/>
     </row>
-    <row r="204" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A204" s="57"/>
       <c r="B204" s="67"/>
       <c r="C204" s="69"/>
@@ -24899,7 +24973,7 @@
       <c r="BG204" s="68"/>
       <c r="BH204" s="57"/>
     </row>
-    <row r="205" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A205" s="57"/>
       <c r="B205" s="67"/>
       <c r="C205" s="69"/>
@@ -24970,7 +25044,7 @@
       <c r="BG205" s="68"/>
       <c r="BH205" s="57"/>
     </row>
-    <row r="206" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A206" s="57"/>
       <c r="B206" s="67">
         <v>2</v>
@@ -25044,7 +25118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="207" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A207" s="57"/>
       <c r="B207" s="67"/>
       <c r="C207" s="69"/>
@@ -25114,7 +25188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="208" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A208" s="57"/>
       <c r="B208" s="67"/>
       <c r="C208" s="69"/>
@@ -25185,7 +25259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="209" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A209" s="57"/>
       <c r="B209" s="67">
         <v>3</v>
@@ -25259,7 +25333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="210" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A210" s="57"/>
       <c r="B210" s="67"/>
       <c r="C210" s="69"/>
@@ -25327,7 +25401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="211" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A211" s="57"/>
       <c r="B211" s="67"/>
       <c r="C211" s="69"/>
@@ -25398,7 +25472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="212" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A212" s="57"/>
       <c r="B212" s="67">
         <v>4</v>
@@ -25476,7 +25550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A213" s="57"/>
       <c r="B213" s="67"/>
       <c r="C213" s="69"/>
@@ -25546,7 +25620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A214" s="57"/>
       <c r="B214" s="67"/>
       <c r="C214" s="69"/>
@@ -25619,16 +25693,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="215" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A215" s="57"/>
       <c r="B215" s="67"/>
-      <c r="C215" s="120" t="s">
+      <c r="C215" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="121"/>
-      <c r="E215" s="121"/>
-      <c r="F215" s="121"/>
-      <c r="G215" s="122"/>
+      <c r="D215" s="127"/>
+      <c r="E215" s="127"/>
+      <c r="F215" s="127"/>
+      <c r="G215" s="128"/>
       <c r="H215" s="66"/>
       <c r="I215" s="66"/>
       <c r="J215" s="66"/>
@@ -25685,7 +25759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="216" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A216" s="57"/>
       <c r="B216" s="67">
         <v>1</v>
@@ -25755,7 +25829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="217" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A217" s="57"/>
       <c r="B217" s="67"/>
       <c r="C217" s="69"/>
@@ -25821,7 +25895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="218" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A218" s="57"/>
       <c r="B218" s="67"/>
       <c r="C218" s="69"/>
@@ -25892,7 +25966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="219" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A219" s="57"/>
       <c r="B219" s="67">
         <v>2</v>
@@ -25962,7 +26036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="220" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A220" s="57"/>
       <c r="B220" s="67"/>
       <c r="C220" s="69"/>
@@ -26028,7 +26102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="221" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A221" s="57"/>
       <c r="B221" s="67"/>
       <c r="C221" s="69"/>
@@ -26099,7 +26173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A222" s="57"/>
       <c r="B222" s="67">
         <v>3</v>
@@ -26169,7 +26243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A223" s="57"/>
       <c r="B223" s="67"/>
       <c r="C223" s="69"/>
@@ -26235,7 +26309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A224" s="57"/>
       <c r="B224" s="67"/>
       <c r="C224" s="69"/>
@@ -26306,7 +26380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A225" s="57"/>
       <c r="B225" s="67">
         <v>4</v>
@@ -26376,7 +26450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A226" s="57"/>
       <c r="B226" s="67"/>
       <c r="C226" s="69"/>
@@ -26442,7 +26516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A227" s="57"/>
       <c r="B227" s="67"/>
       <c r="C227" s="69"/>
@@ -26513,7 +26587,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A228" s="57"/>
       <c r="B228" s="67">
         <v>5</v>
@@ -26583,7 +26657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A229" s="57"/>
       <c r="B229" s="67"/>
       <c r="C229" s="69"/>
@@ -26649,7 +26723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A230" s="57"/>
       <c r="B230" s="67"/>
       <c r="C230" s="69"/>
@@ -26720,7 +26794,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A231" s="57"/>
       <c r="B231" s="67">
         <v>6</v>
@@ -26790,7 +26864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A232" s="57"/>
       <c r="B232" s="67"/>
       <c r="C232" s="69"/>
@@ -26856,7 +26930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A233" s="57"/>
       <c r="B233" s="67"/>
       <c r="C233" s="69"/>
@@ -26927,7 +27001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="234" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A234" s="57"/>
       <c r="B234" s="67">
         <v>7</v>
@@ -26997,7 +27071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A235" s="57"/>
       <c r="B235" s="67"/>
       <c r="C235" s="69"/>
@@ -27063,7 +27137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A236" s="57"/>
       <c r="B236" s="67"/>
       <c r="C236" s="69"/>
@@ -27134,7 +27208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="237" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A237" s="57"/>
       <c r="B237" s="67">
         <v>8</v>
@@ -27204,7 +27278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A238" s="57"/>
       <c r="B238" s="67"/>
       <c r="C238" s="69"/>
@@ -27270,7 +27344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A239" s="57"/>
       <c r="B239" s="67"/>
       <c r="C239" s="69"/>
@@ -27341,7 +27415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A240" s="57"/>
       <c r="B240" s="67">
         <v>9</v>
@@ -27411,7 +27485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A241" s="57"/>
       <c r="B241" s="67"/>
       <c r="C241" s="69"/>
@@ -27477,7 +27551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A242" s="57"/>
       <c r="B242" s="67"/>
       <c r="C242" s="69"/>
@@ -27548,7 +27622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A243" s="57"/>
       <c r="B243" s="67">
         <v>10</v>
@@ -27618,7 +27692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A244" s="57"/>
       <c r="B244" s="67"/>
       <c r="C244" s="69"/>
@@ -27684,7 +27758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A245" s="57"/>
       <c r="B245" s="67"/>
       <c r="C245" s="69"/>
@@ -27755,7 +27829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="246" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A246" s="57"/>
       <c r="B246" s="67">
         <v>11</v>
@@ -27825,7 +27899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A247" s="57"/>
       <c r="B247" s="67"/>
       <c r="C247" s="69"/>
@@ -27891,7 +27965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="248" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A248" s="57"/>
       <c r="B248" s="67"/>
       <c r="C248" s="69"/>
@@ -27962,7 +28036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A249" s="57"/>
       <c r="B249" s="67">
         <v>12</v>
@@ -28032,7 +28106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="250" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A250" s="57"/>
       <c r="B250" s="67"/>
       <c r="C250" s="69"/>
@@ -28098,7 +28172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A251" s="57"/>
       <c r="B251" s="67"/>
       <c r="C251" s="69"/>
@@ -28169,7 +28243,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A252" s="57"/>
       <c r="B252" s="67">
         <v>13</v>
@@ -28239,7 +28313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A253" s="57"/>
       <c r="B253" s="67"/>
       <c r="C253" s="69"/>
@@ -28305,7 +28379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A254" s="57"/>
       <c r="B254" s="67"/>
       <c r="C254" s="69"/>
@@ -28376,7 +28450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A255" s="57"/>
       <c r="B255" s="67">
         <v>14</v>
@@ -28446,7 +28520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A256" s="57"/>
       <c r="B256" s="67"/>
       <c r="C256" s="69"/>
@@ -28512,7 +28586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="257" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A257" s="57"/>
       <c r="B257" s="67"/>
       <c r="C257" s="69"/>
@@ -28583,7 +28657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A258" s="57"/>
       <c r="B258" s="67">
         <v>15</v>
@@ -28653,7 +28727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="259" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A259" s="57"/>
       <c r="B259" s="67"/>
       <c r="C259" s="69"/>
@@ -28719,7 +28793,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="260" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A260" s="57"/>
       <c r="B260" s="67"/>
       <c r="C260" s="69"/>
@@ -28790,7 +28864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="261" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A261" s="57"/>
       <c r="B261" s="67">
         <v>16</v>
@@ -28860,7 +28934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="262" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A262" s="57"/>
       <c r="B262" s="67"/>
       <c r="C262" s="69"/>
@@ -28926,7 +29000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="263" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A263" s="57"/>
       <c r="B263" s="67"/>
       <c r="C263" s="69"/>
@@ -28997,7 +29071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A264" s="57"/>
       <c r="B264" s="67">
         <v>17</v>
@@ -29067,7 +29141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A265" s="57"/>
       <c r="B265" s="67"/>
       <c r="C265" s="69"/>
@@ -29133,7 +29207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="266" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A266" s="57"/>
       <c r="B266" s="67"/>
       <c r="C266" s="69"/>
@@ -29204,7 +29278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A267" s="57"/>
       <c r="B267" s="67">
         <v>18</v>
@@ -29274,7 +29348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="268" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A268" s="57"/>
       <c r="B268" s="67"/>
       <c r="C268" s="69"/>
@@ -29340,7 +29414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A269" s="57"/>
       <c r="B269" s="67"/>
       <c r="C269" s="69"/>
@@ -29411,7 +29485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A270" s="57"/>
       <c r="B270" s="67">
         <v>19</v>
@@ -29481,7 +29555,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A271" s="57"/>
       <c r="B271" s="67"/>
       <c r="C271" s="69"/>
@@ -29547,7 +29621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="272" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A272" s="57"/>
       <c r="B272" s="67"/>
       <c r="C272" s="69"/>
@@ -29618,7 +29692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="273" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A273" s="57"/>
       <c r="B273" s="67">
         <v>20</v>
@@ -29688,7 +29762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="274" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A274" s="57"/>
       <c r="B274" s="67"/>
       <c r="C274" s="69"/>
@@ -29754,7 +29828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="275" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A275" s="57"/>
       <c r="B275" s="67"/>
       <c r="C275" s="69"/>
@@ -29825,7 +29899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A276" s="57"/>
       <c r="B276" s="67"/>
       <c r="C276" s="66" t="s">
@@ -29891,7 +29965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="277" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A277" s="57"/>
       <c r="B277" s="67">
         <v>1</v>
@@ -29961,7 +30035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="278" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A278" s="57"/>
       <c r="B278" s="67"/>
       <c r="C278" s="69"/>
@@ -30027,7 +30101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="279" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A279" s="57"/>
       <c r="B279" s="67"/>
       <c r="C279" s="69"/>
@@ -30098,7 +30172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="280" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A280" s="57"/>
       <c r="B280" s="67">
         <v>2</v>
@@ -30168,7 +30242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="281" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A281" s="57"/>
       <c r="B281" s="67"/>
       <c r="C281" s="69"/>
@@ -30234,7 +30308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="282" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A282" s="57"/>
       <c r="B282" s="67"/>
       <c r="C282" s="69"/>
@@ -30305,7 +30379,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A283" s="57"/>
       <c r="B283" s="67">
         <v>3</v>
@@ -30375,7 +30449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="284" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A284" s="57"/>
       <c r="B284" s="67"/>
       <c r="C284" s="69"/>
@@ -30441,7 +30515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A285" s="57"/>
       <c r="B285" s="67"/>
       <c r="C285" s="69"/>
@@ -30512,16 +30586,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="A286" s="57"/>
-      <c r="B286" s="104" t="s">
+      <c r="B286" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="C286" s="105"/>
-      <c r="D286" s="105"/>
-      <c r="E286" s="105"/>
-      <c r="F286" s="105"/>
-      <c r="G286" s="106"/>
+      <c r="C286" s="114"/>
+      <c r="D286" s="114"/>
+      <c r="E286" s="114"/>
+      <c r="F286" s="114"/>
+      <c r="G286" s="115"/>
       <c r="H286" s="66">
         <f>SUM(H287:H291)</f>
         <v>5</v>
@@ -30584,7 +30658,7 @@
       </c>
       <c r="W286" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X286" s="66">
         <f t="shared" si="2"/>
@@ -30803,7 +30877,7 @@
       </c>
       <c r="W287" s="66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X287" s="66">
         <f t="shared" si="3"/>
@@ -31022,7 +31096,7 @@
       </c>
       <c r="W288" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X288" s="66">
         <f t="shared" si="5"/>
@@ -31241,7 +31315,7 @@
       </c>
       <c r="W289" s="66">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X289" s="66">
         <f t="shared" si="7"/>
@@ -31460,7 +31534,7 @@
       </c>
       <c r="W290" s="66">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X290" s="66">
         <f t="shared" si="9"/>
@@ -31679,7 +31753,7 @@
       </c>
       <c r="W291" s="66">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X291" s="66">
         <f t="shared" si="11"/>
@@ -31898,7 +31972,7 @@
       </c>
       <c r="W292" s="66">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X292" s="66">
         <f t="shared" si="13"/>
@@ -32047,14 +32121,14 @@
     </row>
     <row r="293" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="57"/>
-      <c r="B293" s="107" t="s">
+      <c r="B293" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="C293" s="108"/>
-      <c r="D293" s="108"/>
-      <c r="E293" s="108"/>
-      <c r="F293" s="108"/>
-      <c r="G293" s="109"/>
+      <c r="C293" s="117"/>
+      <c r="D293" s="117"/>
+      <c r="E293" s="117"/>
+      <c r="F293" s="117"/>
+      <c r="G293" s="118"/>
       <c r="H293" s="66">
         <f>SUM(H294:H298)</f>
         <v>5</v>
@@ -32117,7 +32191,7 @@
       </c>
       <c r="W293" s="66">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="X293" s="66">
         <f t="shared" si="15"/>
@@ -32336,7 +32410,7 @@
       </c>
       <c r="W294" s="66">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X294" s="66">
         <f t="shared" si="16"/>
@@ -32555,7 +32629,7 @@
       </c>
       <c r="W295" s="66">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X295" s="66">
         <f t="shared" si="18"/>
@@ -32773,7 +32847,7 @@
       </c>
       <c r="W296" s="66">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X296" s="66">
         <f t="shared" si="20"/>
@@ -32992,7 +33066,7 @@
       </c>
       <c r="W297" s="66">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X297" s="66">
         <f t="shared" si="22"/>
@@ -33211,7 +33285,7 @@
       </c>
       <c r="W298" s="66">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X298" s="66">
         <f t="shared" si="24"/>
@@ -33430,7 +33504,7 @@
       </c>
       <c r="W299" s="66">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X299" s="66">
         <f t="shared" si="26"/>
@@ -33760,16 +33834,12 @@
   </sheetData>
   <autoFilter ref="A4:BG300"/>
   <mergeCells count="26">
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:AQ2"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="AR2:BG2"/>
+    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AQ1:AU1"/>
+    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="BE1:BG1"/>
     <mergeCell ref="B286:G286"/>
     <mergeCell ref="B293:G293"/>
     <mergeCell ref="A99:F99"/>
@@ -33780,12 +33850,16 @@
     <mergeCell ref="C178:G178"/>
     <mergeCell ref="C189:G189"/>
     <mergeCell ref="C215:G215"/>
-    <mergeCell ref="AR2:BG2"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AQ1:AU1"/>
-    <mergeCell ref="AX1:BB1"/>
-    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:AQ2"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C117:G117"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H4:BG4 BG5 BG8:BG10">

--- a/07進捗管理表_mobile10.xlsx
+++ b/07進捗管理表_mobile10.xlsx
@@ -9945,10 +9945,10 @@
   <dimension ref="A1:BR300"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="V280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="V9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="W127" sqref="W127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -9973,18 +9973,18 @@
       <c r="B1" s="112"/>
       <c r="C1" s="56">
         <f ca="1">TODAY()</f>
-        <v>42409</v>
+        <v>42411</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>55</v>
       </c>
       <c r="E1" s="80" t="str">
         <f ca="1">($BF$3-C1) &amp; "日"</f>
-        <v>35日</v>
+        <v>33日</v>
       </c>
       <c r="F1" s="80" t="str">
         <f ca="1">"( "&amp;NETWORKDAYS(C1,BF3,休日!A1:A9)&amp;"日 )"</f>
-        <v>( 21日 )</v>
+        <v>( 19日 )</v>
       </c>
       <c r="G1" s="58"/>
       <c r="H1" s="102" t="s">
@@ -17431,7 +17431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="57"/>
       <c r="B100" s="67"/>
       <c r="C100" s="105" t="s">
@@ -17497,7 +17497,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A101" s="57"/>
       <c r="B101" s="67">
         <v>1</v>
@@ -17581,7 +17581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A102" s="57"/>
       <c r="B102" s="67"/>
       <c r="C102" s="69"/>
@@ -17659,7 +17659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A103" s="57"/>
       <c r="B103" s="67"/>
       <c r="C103" s="69"/>
@@ -17740,7 +17740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A104" s="57"/>
       <c r="B104" s="67">
         <v>2</v>
@@ -17816,7 +17816,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A105" s="57"/>
       <c r="B105" s="67"/>
       <c r="C105" s="69"/>
@@ -17888,7 +17888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A106" s="57"/>
       <c r="B106" s="67"/>
       <c r="C106" s="69"/>
@@ -17961,7 +17961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A107" s="57"/>
       <c r="B107" s="67">
         <v>3</v>
@@ -18039,7 +18039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A108" s="57"/>
       <c r="B108" s="67"/>
       <c r="C108" s="69"/>
@@ -18113,7 +18113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A109" s="57"/>
       <c r="B109" s="67"/>
       <c r="C109" s="69"/>
@@ -18186,7 +18186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A110" s="57"/>
       <c r="B110" s="67"/>
       <c r="C110" s="66" t="s">
@@ -18252,7 +18252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A111" s="57"/>
       <c r="B111" s="67">
         <v>1</v>
@@ -18330,7 +18330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A112" s="57"/>
       <c r="B112" s="67"/>
       <c r="C112" s="69"/>
@@ -18402,7 +18402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A113" s="57"/>
       <c r="B113" s="67"/>
       <c r="C113" s="69"/>
@@ -18477,7 +18477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A114" s="57"/>
       <c r="B114" s="67">
         <v>2</v>
@@ -18553,7 +18553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A115" s="57"/>
       <c r="B115" s="67"/>
       <c r="C115" s="69"/>
@@ -18623,7 +18623,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A116" s="57"/>
       <c r="B116" s="67"/>
       <c r="C116" s="69"/>
@@ -18696,7 +18696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A117" s="57"/>
       <c r="B117" s="67"/>
       <c r="C117" s="105" t="s">
@@ -18762,7 +18762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A118" s="57"/>
       <c r="B118" s="67">
         <v>1</v>
@@ -18796,9 +18796,11 @@
         <v>0</v>
       </c>
       <c r="W118" s="66">
-        <v>5</v>
-      </c>
-      <c r="X118" s="66"/>
+        <v>4</v>
+      </c>
+      <c r="X118" s="66">
+        <v>3</v>
+      </c>
       <c r="Y118" s="66"/>
       <c r="Z118" s="66"/>
       <c r="AA118" s="66"/>
@@ -18838,7 +18840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A119" s="57"/>
       <c r="B119" s="67"/>
       <c r="C119" s="69" t="s">
@@ -18870,9 +18872,11 @@
         <v>1</v>
       </c>
       <c r="W119" s="66">
-        <v>5</v>
-      </c>
-      <c r="X119" s="66"/>
+        <v>4</v>
+      </c>
+      <c r="X119" s="66">
+        <v>3</v>
+      </c>
       <c r="Y119" s="66"/>
       <c r="Z119" s="66"/>
       <c r="AA119" s="66"/>
@@ -18912,7 +18916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A120" s="57"/>
       <c r="B120" s="67"/>
       <c r="C120" s="69"/>
@@ -18921,7 +18925,7 @@
       </c>
       <c r="E120" s="66" t="str">
         <f>IF(MAX($H120:$BF120)=0,"",MAX($H120:$BF120)&amp;" %")</f>
-        <v>50 %</v>
+        <v>65 %</v>
       </c>
       <c r="F120" s="62"/>
       <c r="G120" s="73" t="s">
@@ -18945,7 +18949,9 @@
       <c r="W120" s="66">
         <v>50</v>
       </c>
-      <c r="X120" s="66"/>
+      <c r="X120" s="66">
+        <v>65</v>
+      </c>
       <c r="Y120" s="66"/>
       <c r="Z120" s="66"/>
       <c r="AA120" s="66"/>
@@ -18985,7 +18991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A121" s="57"/>
       <c r="B121" s="67">
         <v>2</v>
@@ -19017,7 +19023,9 @@
       <c r="U121" s="66"/>
       <c r="V121" s="66"/>
       <c r="W121" s="66"/>
-      <c r="X121" s="66"/>
+      <c r="X121" s="66">
+        <v>3</v>
+      </c>
       <c r="Y121" s="66"/>
       <c r="Z121" s="66"/>
       <c r="AA121" s="66"/>
@@ -19057,7 +19065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A122" s="57"/>
       <c r="B122" s="67"/>
       <c r="C122" s="69" t="s">
@@ -19087,7 +19095,9 @@
       <c r="U122" s="66"/>
       <c r="V122" s="66"/>
       <c r="W122" s="66"/>
-      <c r="X122" s="66"/>
+      <c r="X122" s="66">
+        <v>3</v>
+      </c>
       <c r="Y122" s="66"/>
       <c r="Z122" s="66"/>
       <c r="AA122" s="66"/>
@@ -19127,7 +19137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A123" s="57"/>
       <c r="B123" s="67"/>
       <c r="C123" s="69"/>
@@ -19136,7 +19146,7 @@
       </c>
       <c r="E123" s="66" t="str">
         <f>IF(MAX($H123:$BF123)=0,"",MAX($H123:$BF123)&amp;" %")</f>
-        <v/>
+        <v>65 %</v>
       </c>
       <c r="F123" s="62"/>
       <c r="G123" s="73" t="s">
@@ -19158,7 +19168,9 @@
       <c r="U123" s="66"/>
       <c r="V123" s="66"/>
       <c r="W123" s="66"/>
-      <c r="X123" s="66"/>
+      <c r="X123" s="66">
+        <v>65</v>
+      </c>
       <c r="Y123" s="66"/>
       <c r="Z123" s="66"/>
       <c r="AA123" s="66"/>
@@ -19198,7 +19210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A124" s="57"/>
       <c r="B124" s="67">
         <v>3</v>
@@ -19270,7 +19282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A125" s="57"/>
       <c r="B125" s="67"/>
       <c r="C125" s="69" t="s">
@@ -19340,7 +19352,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A126" s="57"/>
       <c r="B126" s="67"/>
       <c r="C126" s="69"/>
@@ -19411,7 +19423,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A127" s="57"/>
       <c r="B127" s="67">
         <v>4</v>
@@ -19445,7 +19457,9 @@
       <c r="W127" s="66">
         <v>2</v>
       </c>
-      <c r="X127" s="66"/>
+      <c r="X127" s="66">
+        <v>6</v>
+      </c>
       <c r="Y127" s="66"/>
       <c r="Z127" s="66"/>
       <c r="AA127" s="66"/>
@@ -19485,7 +19499,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A128" s="57"/>
       <c r="B128" s="67"/>
       <c r="C128" s="69" t="s">
@@ -19517,7 +19531,9 @@
       <c r="W128" s="66">
         <v>2</v>
       </c>
-      <c r="X128" s="66"/>
+      <c r="X128" s="66">
+        <v>6</v>
+      </c>
       <c r="Y128" s="66"/>
       <c r="Z128" s="66"/>
       <c r="AA128" s="66"/>
@@ -19557,7 +19573,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A129" s="57"/>
       <c r="B129" s="67"/>
       <c r="C129" s="69"/>
@@ -19566,7 +19582,7 @@
       </c>
       <c r="E129" s="66" t="str">
         <f>IF(MAX($H129:$BF129)=0,"",MAX($H129:$BF129)&amp;" %")</f>
-        <v>15 %</v>
+        <v>40 %</v>
       </c>
       <c r="F129" s="62"/>
       <c r="G129" s="73" t="s">
@@ -19590,7 +19606,9 @@
       <c r="W129" s="66">
         <v>15</v>
       </c>
-      <c r="X129" s="66"/>
+      <c r="X129" s="66">
+        <v>40</v>
+      </c>
       <c r="Y129" s="66"/>
       <c r="Z129" s="66"/>
       <c r="AA129" s="66"/>
@@ -19630,7 +19648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A130" s="57"/>
       <c r="B130" s="67">
         <v>5</v>
@@ -19702,7 +19720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A131" s="57"/>
       <c r="B131" s="67"/>
       <c r="C131" s="69" t="s">
@@ -19772,7 +19790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A132" s="57"/>
       <c r="B132" s="67"/>
       <c r="C132" s="69"/>
@@ -19843,7 +19861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A133" s="57"/>
       <c r="B133" s="67">
         <v>6</v>
@@ -19915,7 +19933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A134" s="57"/>
       <c r="B134" s="67"/>
       <c r="C134" s="69" t="s">
@@ -19985,7 +20003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A135" s="57"/>
       <c r="B135" s="67"/>
       <c r="C135" s="69"/>
@@ -20056,7 +20074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A136" s="57"/>
       <c r="B136" s="67">
         <v>7</v>
@@ -20128,7 +20146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A137" s="57"/>
       <c r="B137" s="67"/>
       <c r="C137" s="69" t="s">
@@ -20198,7 +20216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A138" s="57"/>
       <c r="B138" s="67"/>
       <c r="C138" s="69"/>
@@ -20269,7 +20287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A139" s="57"/>
       <c r="B139" s="67">
         <v>8</v>
@@ -20303,9 +20321,11 @@
         <v>0</v>
       </c>
       <c r="W139" s="66">
-        <v>4</v>
-      </c>
-      <c r="X139" s="66"/>
+        <v>5</v>
+      </c>
+      <c r="X139" s="66">
+        <v>3</v>
+      </c>
       <c r="Y139" s="66"/>
       <c r="Z139" s="66"/>
       <c r="AA139" s="66"/>
@@ -20345,7 +20365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A140" s="57"/>
       <c r="B140" s="67"/>
       <c r="C140" s="69" t="s">
@@ -20377,9 +20397,11 @@
         <v>1</v>
       </c>
       <c r="W140" s="66">
-        <v>4</v>
-      </c>
-      <c r="X140" s="66"/>
+        <v>5</v>
+      </c>
+      <c r="X140" s="66">
+        <v>3</v>
+      </c>
       <c r="Y140" s="66"/>
       <c r="Z140" s="66"/>
       <c r="AA140" s="66"/>
@@ -20419,7 +20441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A141" s="57"/>
       <c r="B141" s="67"/>
       <c r="C141" s="69"/>
@@ -20428,7 +20450,7 @@
       </c>
       <c r="E141" s="66" t="str">
         <f>IF(MAX($H141:$BF141)=0,"",MAX($H141:$BF141)&amp;" %")</f>
-        <v>8 %</v>
+        <v>60 %</v>
       </c>
       <c r="F141" s="62"/>
       <c r="G141" s="73" t="s">
@@ -20452,7 +20474,9 @@
       <c r="W141" s="66">
         <v>8</v>
       </c>
-      <c r="X141" s="66"/>
+      <c r="X141" s="66">
+        <v>60</v>
+      </c>
       <c r="Y141" s="66"/>
       <c r="Z141" s="66"/>
       <c r="AA141" s="66"/>
@@ -20492,7 +20516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A142" s="57"/>
       <c r="B142" s="67">
         <v>9</v>
@@ -20524,7 +20548,9 @@
       <c r="U142" s="66"/>
       <c r="V142" s="66"/>
       <c r="W142" s="66"/>
-      <c r="X142" s="66"/>
+      <c r="X142" s="66">
+        <v>3</v>
+      </c>
       <c r="Y142" s="66"/>
       <c r="Z142" s="66"/>
       <c r="AA142" s="66"/>
@@ -20564,7 +20590,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A143" s="57"/>
       <c r="B143" s="67"/>
       <c r="C143" s="69" t="s">
@@ -20594,7 +20620,9 @@
       <c r="U143" s="66"/>
       <c r="V143" s="66"/>
       <c r="W143" s="66"/>
-      <c r="X143" s="66"/>
+      <c r="X143" s="66">
+        <v>3</v>
+      </c>
       <c r="Y143" s="66"/>
       <c r="Z143" s="66"/>
       <c r="AA143" s="66"/>
@@ -20634,7 +20662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A144" s="57"/>
       <c r="B144" s="67"/>
       <c r="C144" s="69"/>
@@ -20643,7 +20671,7 @@
       </c>
       <c r="E144" s="66" t="str">
         <f>IF(MAX($H144:$BF144)=0,"",MAX($H144:$BF144)&amp;" %")</f>
-        <v/>
+        <v>60 %</v>
       </c>
       <c r="F144" s="62"/>
       <c r="G144" s="73" t="s">
@@ -20665,7 +20693,9 @@
       <c r="U144" s="66"/>
       <c r="V144" s="66"/>
       <c r="W144" s="66"/>
-      <c r="X144" s="66"/>
+      <c r="X144" s="66">
+        <v>60</v>
+      </c>
       <c r="Y144" s="66"/>
       <c r="Z144" s="66"/>
       <c r="AA144" s="66"/>
@@ -20705,7 +20735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A145" s="57"/>
       <c r="B145" s="67">
         <v>10</v>
@@ -20738,8 +20768,12 @@
       <c r="V145" s="66">
         <v>0</v>
       </c>
-      <c r="W145" s="66"/>
-      <c r="X145" s="66"/>
+      <c r="W145" s="66">
+        <v>4</v>
+      </c>
+      <c r="X145" s="66">
+        <v>2</v>
+      </c>
       <c r="Y145" s="66"/>
       <c r="Z145" s="66"/>
       <c r="AA145" s="66"/>
@@ -20779,7 +20813,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A146" s="57"/>
       <c r="B146" s="67"/>
       <c r="C146" s="69" t="s">
@@ -20810,8 +20844,12 @@
       <c r="V146" s="66">
         <v>1</v>
       </c>
-      <c r="W146" s="66"/>
-      <c r="X146" s="66"/>
+      <c r="W146" s="66">
+        <v>4</v>
+      </c>
+      <c r="X146" s="66">
+        <v>2</v>
+      </c>
       <c r="Y146" s="66"/>
       <c r="Z146" s="66"/>
       <c r="AA146" s="66"/>
@@ -20851,7 +20889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A147" s="57"/>
       <c r="B147" s="67"/>
       <c r="C147" s="69"/>
@@ -20860,7 +20898,7 @@
       </c>
       <c r="E147" s="66" t="str">
         <f>IF(MAX($H147:$BF147)=0,"",MAX($H147:$BF147)&amp;" %")</f>
-        <v>20 %</v>
+        <v>50 %</v>
       </c>
       <c r="F147" s="62"/>
       <c r="G147" s="73" t="s">
@@ -20884,7 +20922,9 @@
       <c r="W147" s="66">
         <v>20</v>
       </c>
-      <c r="X147" s="66"/>
+      <c r="X147" s="66">
+        <v>50</v>
+      </c>
       <c r="Y147" s="66"/>
       <c r="Z147" s="66"/>
       <c r="AA147" s="66"/>
@@ -20924,7 +20964,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A148" s="57"/>
       <c r="B148" s="67">
         <v>11</v>
@@ -20955,8 +20995,12 @@
       <c r="T148" s="66"/>
       <c r="U148" s="66"/>
       <c r="V148" s="66"/>
-      <c r="W148" s="66"/>
-      <c r="X148" s="66"/>
+      <c r="W148" s="66">
+        <v>1</v>
+      </c>
+      <c r="X148" s="66">
+        <v>2</v>
+      </c>
       <c r="Y148" s="66"/>
       <c r="Z148" s="66"/>
       <c r="AA148" s="66"/>
@@ -20996,7 +21040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A149" s="57"/>
       <c r="B149" s="67"/>
       <c r="C149" s="69" t="s">
@@ -21025,8 +21069,12 @@
       <c r="T149" s="66"/>
       <c r="U149" s="66"/>
       <c r="V149" s="66"/>
-      <c r="W149" s="66"/>
-      <c r="X149" s="66"/>
+      <c r="W149" s="66">
+        <v>1</v>
+      </c>
+      <c r="X149" s="66">
+        <v>2</v>
+      </c>
       <c r="Y149" s="66"/>
       <c r="Z149" s="66"/>
       <c r="AA149" s="66"/>
@@ -21066,7 +21114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A150" s="57"/>
       <c r="B150" s="67"/>
       <c r="C150" s="69"/>
@@ -21075,7 +21123,7 @@
       </c>
       <c r="E150" s="66" t="str">
         <f>IF(MAX($H150:$BF150)=0,"",MAX($H150:$BF150)&amp;" %")</f>
-        <v>10 %</v>
+        <v>50 %</v>
       </c>
       <c r="F150" s="62"/>
       <c r="G150" s="73" t="s">
@@ -21099,7 +21147,9 @@
       <c r="W150" s="66">
         <v>10</v>
       </c>
-      <c r="X150" s="66"/>
+      <c r="X150" s="66">
+        <v>50</v>
+      </c>
       <c r="Y150" s="66"/>
       <c r="Z150" s="66"/>
       <c r="AA150" s="66"/>
@@ -21139,7 +21189,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A151" s="57"/>
       <c r="B151" s="67">
         <v>12</v>
@@ -21211,7 +21261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A152" s="57"/>
       <c r="B152" s="67"/>
       <c r="C152" s="69" t="s">
@@ -21281,7 +21331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A153" s="57"/>
       <c r="B153" s="67"/>
       <c r="C153" s="69"/>
@@ -21352,7 +21402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A154" s="57"/>
       <c r="B154" s="67">
         <v>13</v>
@@ -21424,7 +21474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A155" s="57"/>
       <c r="B155" s="67"/>
       <c r="C155" s="69" t="s">
@@ -21494,7 +21544,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A156" s="57"/>
       <c r="B156" s="67"/>
       <c r="C156" s="69"/>
@@ -21565,7 +21615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A157" s="57"/>
       <c r="B157" s="67">
         <v>14</v>
@@ -21597,7 +21647,9 @@
       <c r="U157" s="66"/>
       <c r="V157" s="66"/>
       <c r="W157" s="66"/>
-      <c r="X157" s="66"/>
+      <c r="X157" s="66">
+        <v>2</v>
+      </c>
       <c r="Y157" s="66"/>
       <c r="Z157" s="66"/>
       <c r="AA157" s="66"/>
@@ -21637,7 +21689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A158" s="57"/>
       <c r="B158" s="67"/>
       <c r="C158" s="69" t="s">
@@ -21667,7 +21719,9 @@
       <c r="U158" s="66"/>
       <c r="V158" s="66"/>
       <c r="W158" s="66"/>
-      <c r="X158" s="66"/>
+      <c r="X158" s="66">
+        <v>2</v>
+      </c>
       <c r="Y158" s="66"/>
       <c r="Z158" s="66"/>
       <c r="AA158" s="66"/>
@@ -21707,7 +21761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A159" s="57"/>
       <c r="B159" s="67"/>
       <c r="C159" s="69"/>
@@ -21716,7 +21770,7 @@
       </c>
       <c r="E159" s="66" t="str">
         <f>IF(MAX($H159:$BF159)=0,"",MAX($H159:$BF159)&amp;" %")</f>
-        <v>10 %</v>
+        <v>50 %</v>
       </c>
       <c r="F159" s="62"/>
       <c r="G159" s="73" t="s">
@@ -21740,7 +21794,9 @@
       <c r="W159" s="66">
         <v>10</v>
       </c>
-      <c r="X159" s="66"/>
+      <c r="X159" s="66">
+        <v>50</v>
+      </c>
       <c r="Y159" s="66"/>
       <c r="Z159" s="66"/>
       <c r="AA159" s="66"/>
@@ -21780,7 +21836,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A160" s="57"/>
       <c r="B160" s="67">
         <v>15</v>
@@ -21814,7 +21870,9 @@
       <c r="W160" s="66">
         <v>3</v>
       </c>
-      <c r="X160" s="66"/>
+      <c r="X160" s="66">
+        <v>6</v>
+      </c>
       <c r="Y160" s="66"/>
       <c r="Z160" s="66"/>
       <c r="AA160" s="66"/>
@@ -21854,7 +21912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A161" s="57"/>
       <c r="B161" s="67"/>
       <c r="C161" s="69"/>
@@ -21884,7 +21942,9 @@
       <c r="W161" s="66">
         <v>3</v>
       </c>
-      <c r="X161" s="66"/>
+      <c r="X161" s="66">
+        <v>6</v>
+      </c>
       <c r="Y161" s="66"/>
       <c r="Z161" s="66"/>
       <c r="AA161" s="66"/>
@@ -21924,7 +21984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A162" s="57"/>
       <c r="B162" s="67"/>
       <c r="C162" s="69"/>
@@ -21933,7 +21993,7 @@
       </c>
       <c r="E162" s="66" t="str">
         <f>IF(MAX($H162:$BF162)=0,"",MAX($H162:$BF162)&amp;" %")</f>
-        <v>50 %</v>
+        <v>95 %</v>
       </c>
       <c r="F162" s="62"/>
       <c r="G162" s="73" t="s">
@@ -21957,7 +22017,9 @@
       <c r="W162" s="66">
         <v>50</v>
       </c>
-      <c r="X162" s="66"/>
+      <c r="X162" s="66">
+        <v>95</v>
+      </c>
       <c r="Y162" s="66"/>
       <c r="Z162" s="66"/>
       <c r="AA162" s="66"/>
@@ -21997,7 +22059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A163" s="57"/>
       <c r="B163" s="67">
         <v>16</v>
@@ -22067,7 +22129,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A164" s="57"/>
       <c r="B164" s="67"/>
       <c r="C164" s="69"/>
@@ -22133,7 +22195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A165" s="57"/>
       <c r="B165" s="67"/>
       <c r="C165" s="69"/>
@@ -22204,7 +22266,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A166" s="57"/>
       <c r="B166" s="67">
         <v>17</v>
@@ -22276,7 +22338,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A167" s="57"/>
       <c r="B167" s="67"/>
       <c r="C167" s="69"/>
@@ -22344,7 +22406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A168" s="57"/>
       <c r="B168" s="67"/>
       <c r="C168" s="69"/>
@@ -22415,7 +22477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A169" s="57"/>
       <c r="B169" s="67">
         <v>18</v>
@@ -22447,7 +22509,7 @@
       <c r="U169" s="66"/>
       <c r="V169" s="66"/>
       <c r="W169" s="66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X169" s="66"/>
       <c r="Y169" s="66"/>
@@ -22489,7 +22551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A170" s="57"/>
       <c r="B170" s="67"/>
       <c r="C170" s="69"/>
@@ -22517,7 +22579,7 @@
       <c r="U170" s="66"/>
       <c r="V170" s="66"/>
       <c r="W170" s="66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X170" s="66"/>
       <c r="Y170" s="66"/>
@@ -22559,7 +22621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A171" s="57"/>
       <c r="B171" s="67"/>
       <c r="C171" s="69"/>
@@ -22632,7 +22694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A172" s="57"/>
       <c r="B172" s="67">
         <v>19</v>
@@ -22706,7 +22768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A173" s="57"/>
       <c r="B173" s="67"/>
       <c r="C173" s="69"/>
@@ -22776,7 +22838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A174" s="57"/>
       <c r="B174" s="67"/>
       <c r="C174" s="69"/>
@@ -22847,7 +22909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A175" s="57"/>
       <c r="B175" s="67">
         <v>20</v>
@@ -22921,7 +22983,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A176" s="57"/>
       <c r="B176" s="67"/>
       <c r="C176" s="69"/>
@@ -22991,7 +23053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:60" ht="17.25" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.15">
       <c r="A177" s="57"/>
       <c r="B177" s="67"/>
       <c r="C177" s="69"/>
@@ -23062,7 +23124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="178" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A178" s="57"/>
       <c r="B178" s="67"/>
       <c r="C178" s="105" t="s">
@@ -23128,7 +23190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="179" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A179" s="57"/>
       <c r="B179" s="67">
         <v>1</v>
@@ -23198,7 +23260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="180" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A180" s="57"/>
       <c r="B180" s="67"/>
       <c r="C180" s="69"/>
@@ -23264,7 +23326,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="181" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A181" s="57"/>
       <c r="B181" s="67"/>
       <c r="C181" s="69"/>
@@ -23335,7 +23397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="182" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A182" s="57"/>
       <c r="B182" s="67">
         <v>2</v>
@@ -23405,7 +23467,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="183" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A183" s="57"/>
       <c r="B183" s="67"/>
       <c r="C183" s="69"/>
@@ -23471,7 +23533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A184" s="57"/>
       <c r="B184" s="67"/>
       <c r="C184" s="69"/>
@@ -23542,7 +23604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="185" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A185" s="57"/>
       <c r="B185" s="67">
         <v>3</v>
@@ -23612,7 +23674,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="186" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A186" s="57"/>
       <c r="B186" s="67"/>
       <c r="C186" s="69"/>
@@ -23678,7 +23740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="187" spans="1:60" ht="17.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:60" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A187" s="57"/>
       <c r="B187" s="67"/>
       <c r="C187" s="69"/>
@@ -23749,7 +23811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:60" ht="17.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="121" t="s">
         <v>83</v>
       </c>
@@ -30658,11 +30720,11 @@
       </c>
       <c r="W286" s="66">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X286" s="66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y286" s="66">
         <f t="shared" si="2"/>
@@ -30877,11 +30939,11 @@
       </c>
       <c r="W287" s="66">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X287" s="66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y287" s="66">
         <f t="shared" si="3"/>
@@ -31096,11 +31158,11 @@
       </c>
       <c r="W288" s="66">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X288" s="66">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y288" s="66">
         <f t="shared" si="5"/>
@@ -31315,11 +31377,11 @@
       </c>
       <c r="W289" s="66">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X289" s="66">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y289" s="66">
         <f t="shared" si="7"/>
@@ -31534,11 +31596,11 @@
       </c>
       <c r="W290" s="66">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X290" s="66">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y290" s="66">
         <f t="shared" si="9"/>
@@ -31757,7 +31819,7 @@
       </c>
       <c r="X291" s="66">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y291" s="66">
         <f t="shared" si="11"/>
@@ -32191,11 +32253,11 @@
       </c>
       <c r="W293" s="66">
         <f t="shared" si="15"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X293" s="66">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y293" s="66">
         <f t="shared" si="15"/>
@@ -32410,11 +32472,11 @@
       </c>
       <c r="W294" s="66">
         <f t="shared" si="16"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X294" s="66">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y294" s="66">
         <f t="shared" si="16"/>
@@ -32629,11 +32691,11 @@
       </c>
       <c r="W295" s="66">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X295" s="66">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y295" s="66">
         <f t="shared" si="18"/>
@@ -32847,11 +32909,11 @@
       </c>
       <c r="W296" s="66">
         <f t="shared" si="20"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X296" s="66">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y296" s="66">
         <f t="shared" si="20"/>
@@ -33066,11 +33128,11 @@
       </c>
       <c r="W297" s="66">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X297" s="66">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y297" s="66">
         <f t="shared" si="22"/>
@@ -33289,7 +33351,7 @@
       </c>
       <c r="X298" s="66">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y298" s="66">
         <f t="shared" si="24"/>
